--- a/PTBR/Lang/PTBR/Game/Element.xlsx
+++ b/PTBR/Lang/PTBR/Game/Element.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CAFB19F-91EC-41CE-96E6-E0EC88C7D77A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A6E9F9D-70AF-4735-9E8A-ACDBC13741B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8466" uniqueCount="5656">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8475" uniqueCount="5656">
   <si>
     <t>id</t>
   </si>
@@ -25834,10 +25834,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF884"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A561" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="V1" sqref="V1"/>
-      <selection pane="bottomLeft" activeCell="R369" sqref="R369:R406"/>
+      <selection pane="bottomLeft" activeCell="C577" sqref="C577:C582"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="16.5"/>
@@ -37448,7 +37448,7 @@
         <v>2170</v>
       </c>
     </row>
-    <row r="368" spans="1:20" ht="198">
+    <row r="368" spans="1:20" ht="49.5">
       <c r="A368" s="1" t="s">
         <v>2171</v>
       </c>
@@ -37492,7 +37492,7 @@
         <v>2177</v>
       </c>
     </row>
-    <row r="369" spans="1:23" ht="115.5">
+    <row r="369" spans="1:23" ht="66">
       <c r="A369" s="1" t="s">
         <v>2178</v>
       </c>
@@ -37545,7 +37545,7 @@
         <v>2188</v>
       </c>
     </row>
-    <row r="370" spans="1:23" ht="99">
+    <row r="370" spans="1:23" ht="78.75">
       <c r="A370" s="1" t="s">
         <v>2189</v>
       </c>
@@ -37598,7 +37598,7 @@
         <v>2188</v>
       </c>
     </row>
-    <row r="371" spans="1:23" ht="66">
+    <row r="371" spans="1:23" ht="53.25">
       <c r="A371" s="1" t="s">
         <v>2194</v>
       </c>
@@ -37704,7 +37704,7 @@
         <v>2203</v>
       </c>
     </row>
-    <row r="373" spans="1:23" ht="115.5">
+    <row r="373" spans="1:23" ht="78.75">
       <c r="A373" s="1" t="s">
         <v>2209</v>
       </c>
@@ -37757,7 +37757,7 @@
         <v>2218</v>
       </c>
     </row>
-    <row r="374" spans="1:23" ht="115.5">
+    <row r="374" spans="1:23" ht="78.75">
       <c r="A374" s="1" t="s">
         <v>2219</v>
       </c>
@@ -37916,7 +37916,7 @@
         <v>2232</v>
       </c>
     </row>
-    <row r="377" spans="1:23" ht="115.5">
+    <row r="377" spans="1:23" ht="78.75">
       <c r="A377" s="1" t="s">
         <v>2238</v>
       </c>
@@ -37969,7 +37969,7 @@
         <v>2246</v>
       </c>
     </row>
-    <row r="378" spans="1:23" ht="99">
+    <row r="378" spans="1:23" ht="78.75">
       <c r="A378" s="1" t="s">
         <v>2247</v>
       </c>
@@ -38022,7 +38022,7 @@
         <v>2246</v>
       </c>
     </row>
-    <row r="379" spans="1:23" ht="99">
+    <row r="379" spans="1:23" ht="78.75">
       <c r="A379" s="1" t="s">
         <v>2252</v>
       </c>
@@ -38075,7 +38075,7 @@
         <v>2260</v>
       </c>
     </row>
-    <row r="380" spans="1:23" ht="99">
+    <row r="380" spans="1:23" ht="78.75">
       <c r="A380" s="1" t="s">
         <v>2261</v>
       </c>
@@ -38128,7 +38128,7 @@
         <v>2260</v>
       </c>
     </row>
-    <row r="381" spans="1:23" ht="66">
+    <row r="381" spans="1:23" ht="53.25">
       <c r="A381" s="1" t="s">
         <v>2266</v>
       </c>
@@ -38234,7 +38234,7 @@
         <v>2274</v>
       </c>
     </row>
-    <row r="383" spans="1:23" ht="66">
+    <row r="383" spans="1:23" ht="53.25">
       <c r="A383" s="1" t="s">
         <v>2280</v>
       </c>
@@ -38287,7 +38287,7 @@
         <v>2288</v>
       </c>
     </row>
-    <row r="384" spans="1:23" ht="49.5">
+    <row r="384" spans="1:23" ht="40.5">
       <c r="A384" s="1" t="s">
         <v>2289</v>
       </c>
@@ -38658,7 +38658,7 @@
         <v>2331</v>
       </c>
     </row>
-    <row r="391" spans="1:23" ht="132">
+    <row r="391" spans="1:23" ht="78.75">
       <c r="A391" s="1" t="s">
         <v>2337</v>
       </c>
@@ -38711,7 +38711,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="392" spans="1:23" ht="99">
+    <row r="392" spans="1:23" ht="78.75">
       <c r="A392" s="1" t="s">
         <v>2348</v>
       </c>
@@ -38826,7 +38826,7 @@
         <v>2367</v>
       </c>
     </row>
-    <row r="394" spans="1:23" ht="66">
+    <row r="394" spans="1:23" ht="33">
       <c r="A394" s="1" t="s">
         <v>2368</v>
       </c>
@@ -38879,7 +38879,7 @@
         <v>2376</v>
       </c>
     </row>
-    <row r="395" spans="1:23" ht="66">
+    <row r="395" spans="1:23" ht="53.25">
       <c r="A395" s="1" t="s">
         <v>2377</v>
       </c>
@@ -39613,7 +39613,7 @@
         <v>2506</v>
       </c>
     </row>
-    <row r="408" spans="1:23" ht="181.5">
+    <row r="408" spans="1:23" ht="129.75">
       <c r="A408" s="1" t="s">
         <v>2507</v>
       </c>
@@ -39648,7 +39648,7 @@
         <v>2513</v>
       </c>
     </row>
-    <row r="409" spans="1:23" ht="99">
+    <row r="409" spans="1:23" ht="91.5">
       <c r="A409" s="1" t="s">
         <v>2514</v>
       </c>
@@ -39683,7 +39683,7 @@
         <v>2520</v>
       </c>
     </row>
-    <row r="410" spans="1:23" ht="99">
+    <row r="410" spans="1:23" ht="78.75">
       <c r="A410" s="1" t="s">
         <v>2521</v>
       </c>
@@ -39718,7 +39718,7 @@
         <v>2527</v>
       </c>
     </row>
-    <row r="411" spans="1:23" ht="99">
+    <row r="411" spans="1:23" ht="78.75">
       <c r="A411" s="1" t="s">
         <v>2528</v>
       </c>
@@ -39753,7 +39753,7 @@
         <v>2534</v>
       </c>
     </row>
-    <row r="412" spans="1:23" ht="99">
+    <row r="412" spans="1:23" ht="66">
       <c r="A412" s="1" t="s">
         <v>2535</v>
       </c>
@@ -39788,7 +39788,7 @@
         <v>2541</v>
       </c>
     </row>
-    <row r="413" spans="1:23" ht="99">
+    <row r="413" spans="1:23" ht="78.75">
       <c r="A413" s="1" t="s">
         <v>2542</v>
       </c>
@@ -39823,7 +39823,7 @@
         <v>2548</v>
       </c>
     </row>
-    <row r="414" spans="1:23" ht="82.5">
+    <row r="414" spans="1:23" ht="66">
       <c r="A414" s="1" t="s">
         <v>2549</v>
       </c>
@@ -39858,7 +39858,7 @@
         <v>2555</v>
       </c>
     </row>
-    <row r="415" spans="1:23" ht="132">
+    <row r="415" spans="1:23" ht="91.5">
       <c r="A415" s="1" t="s">
         <v>2556</v>
       </c>
@@ -39893,7 +39893,7 @@
         <v>2562</v>
       </c>
     </row>
-    <row r="416" spans="1:23" ht="99">
+    <row r="416" spans="1:23" ht="78.75">
       <c r="A416" s="1" t="s">
         <v>2563</v>
       </c>
@@ -39928,7 +39928,7 @@
         <v>2569</v>
       </c>
     </row>
-    <row r="417" spans="1:17" ht="99">
+    <row r="417" spans="1:17" ht="66">
       <c r="A417" s="1" t="s">
         <v>2570</v>
       </c>
@@ -39963,7 +39963,7 @@
         <v>2576</v>
       </c>
     </row>
-    <row r="418" spans="1:17" ht="115.5">
+    <row r="418" spans="1:17" ht="91.5">
       <c r="A418" s="1" t="s">
         <v>2577</v>
       </c>
@@ -39998,7 +39998,7 @@
         <v>2583</v>
       </c>
     </row>
-    <row r="419" spans="1:17" ht="66">
+    <row r="419" spans="1:17" ht="40.5">
       <c r="A419" s="1" t="s">
         <v>2584</v>
       </c>
@@ -40033,7 +40033,7 @@
         <v>2590</v>
       </c>
     </row>
-    <row r="420" spans="1:17" ht="99">
+    <row r="420" spans="1:17" ht="78.75">
       <c r="A420" s="1" t="s">
         <v>2591</v>
       </c>
@@ -40138,7 +40138,7 @@
         <v>2611</v>
       </c>
     </row>
-    <row r="423" spans="1:17" ht="132">
+    <row r="423" spans="1:17" ht="104.25">
       <c r="A423" s="1" t="s">
         <v>2612</v>
       </c>
@@ -40173,7 +40173,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="424" spans="1:17" ht="66">
+    <row r="424" spans="1:17" ht="53.25">
       <c r="A424" s="1" t="s">
         <v>2619</v>
       </c>
@@ -40243,7 +40243,7 @@
         <v>2632</v>
       </c>
     </row>
-    <row r="426" spans="1:17" ht="66">
+    <row r="426" spans="1:17" ht="40.5">
       <c r="A426" s="1" t="s">
         <v>2633</v>
       </c>
@@ -40366,7 +40366,7 @@
         <v>2657</v>
       </c>
     </row>
-    <row r="429" spans="1:17" ht="115.5">
+    <row r="429" spans="1:17" ht="78.75">
       <c r="A429" s="1" t="s">
         <v>2658</v>
       </c>
@@ -40410,7 +40410,7 @@
         <v>2666</v>
       </c>
     </row>
-    <row r="430" spans="1:17" ht="132">
+    <row r="430" spans="1:17" ht="117">
       <c r="A430" s="1" t="s">
         <v>2667</v>
       </c>
@@ -40665,7 +40665,7 @@
         <v>2718</v>
       </c>
     </row>
-    <row r="436" spans="1:31" ht="53.25">
+    <row r="436" spans="1:31" ht="33">
       <c r="A436" s="1" t="s">
         <v>2719</v>
       </c>
@@ -40709,7 +40709,7 @@
         <v>2727</v>
       </c>
     </row>
-    <row r="437" spans="1:31" ht="231">
+    <row r="437" spans="1:31" ht="53.25">
       <c r="A437" s="1" t="s">
         <v>2728</v>
       </c>
@@ -40753,7 +40753,7 @@
         <v>2737</v>
       </c>
     </row>
-    <row r="438" spans="1:31" ht="82.5">
+    <row r="438" spans="1:31" ht="33">
       <c r="A438" s="1" t="s">
         <v>2738</v>
       </c>
@@ -40832,7 +40832,7 @@
         <v>2754</v>
       </c>
     </row>
-    <row r="440" spans="1:31" ht="231.75">
+    <row r="440" spans="1:31" ht="53.25">
       <c r="A440" s="1" t="s">
         <v>2755</v>
       </c>
@@ -40876,7 +40876,7 @@
         <v>2764</v>
       </c>
     </row>
-    <row r="441" spans="1:31" ht="231.75">
+    <row r="441" spans="1:31" ht="91.5">
       <c r="A441" s="1" t="s">
         <v>2765</v>
       </c>
@@ -40920,7 +40920,7 @@
         <v>2773</v>
       </c>
     </row>
-    <row r="442" spans="1:31" ht="129.75">
+    <row r="442" spans="1:31" ht="33">
       <c r="A442" s="1" t="s">
         <v>2774</v>
       </c>
@@ -40964,7 +40964,7 @@
         <v>2782</v>
       </c>
     </row>
-    <row r="443" spans="1:31" ht="308.25">
+    <row r="443" spans="1:31" ht="66">
       <c r="A443" s="1" t="s">
         <v>2783</v>
       </c>
@@ -41008,7 +41008,7 @@
         <v>2792</v>
       </c>
     </row>
-    <row r="444" spans="1:31" ht="66">
+    <row r="444" spans="1:31" ht="33">
       <c r="A444" s="1" t="s">
         <v>2793</v>
       </c>
@@ -41052,7 +41052,7 @@
         <v>2801</v>
       </c>
     </row>
-    <row r="445" spans="1:31" ht="119.25">
+    <row r="445" spans="1:31" ht="33">
       <c r="A445" s="1" t="s">
         <v>2802</v>
       </c>
@@ -44039,8 +44039,8 @@
       <c r="B567" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C567" s="1">
-        <v>5</v>
+      <c r="C567" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="D567" s="1" t="s">
         <v>53</v>
@@ -44056,8 +44056,8 @@
       <c r="B568" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C568" s="1">
-        <v>6</v>
+      <c r="C568" s="1" t="s">
+        <v>3340</v>
       </c>
       <c r="D568" s="1" t="s">
         <v>3340</v>
@@ -44158,8 +44158,8 @@
       <c r="B574" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C574" s="1">
-        <v>7</v>
+      <c r="C574" s="1" t="s">
+        <v>3353</v>
       </c>
       <c r="D574" s="1" t="s">
         <v>3353</v>
@@ -44209,8 +44209,8 @@
       <c r="B577" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C577" s="1">
-        <v>8</v>
+      <c r="C577" s="1" t="s">
+        <v>3359</v>
       </c>
       <c r="D577" s="1" t="s">
         <v>3359</v>
@@ -44226,8 +44226,8 @@
       <c r="B578" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C578" s="1">
-        <v>9</v>
+      <c r="C578" s="1" t="s">
+        <v>3361</v>
       </c>
       <c r="D578" s="1" t="s">
         <v>3361</v>
@@ -44243,8 +44243,8 @@
       <c r="B579" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C579" s="1">
-        <v>10</v>
+      <c r="C579" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="D579" s="1" t="s">
         <v>57</v>
@@ -44260,8 +44260,8 @@
       <c r="B580" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C580" s="1">
-        <v>11</v>
+      <c r="C580" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="D580" s="1" t="s">
         <v>60</v>
@@ -44277,8 +44277,8 @@
       <c r="B581" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C581" s="1">
-        <v>12</v>
+      <c r="C581" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="D581" s="1" t="s">
         <v>63</v>
@@ -44294,8 +44294,8 @@
       <c r="B582" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C582" s="1">
-        <v>13</v>
+      <c r="C582" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="D582" s="1" t="s">
         <v>66</v>

--- a/PTBR/Lang/PTBR/Game/Element.xlsx
+++ b/PTBR/Lang/PTBR/Game/Element.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6048A3E6-432B-417F-A2B2-0436B8CBC9CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C462CC5-34E9-4026-8A54-CAB6F080F516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="540" windowWidth="20400" windowHeight="13740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3615" yWindow="2265" windowWidth="21600" windowHeight="11835" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Element" sheetId="1" r:id="rId1"/>
@@ -23937,13 +23937,6 @@
     <t>Praticar ascetismo fortalece sua força vital.</t>
   </si>
   <si>
-    <t>Gene Mágico_x000D_
-Célula Mágica_x000D_
-Sangue Mágico_x000D_
-Corpo Mágico_x000D_
-Ser Mágico</t>
-  </si>
-  <si>
     <t>Você ganha mana manipulando genes.</t>
   </si>
   <si>
@@ -24042,17 +24035,7 @@
     <t>Você estabelece seu próprio estilo defensivo.</t>
   </si>
   <si>
-    <t>Esquiva_x000D_
-Esquiva Aprimorada_x000D_
-Esquiva Avançada</t>
-  </si>
-  <si>
     <t>Você aprende a desviar de ataques.</t>
-  </si>
-  <si>
-    <t>Evasão_x000D_
-Evasão Aprimorada_x000D_
-Evasão Avançada</t>
   </si>
   <si>
     <t>Você melhora sua habilidade de evasão.</t>
@@ -26112,6 +26095,23 @@
   </si>
   <si>
     <t>Zona Proibida para Animais</t>
+  </si>
+  <si>
+    <t>Esquiva
+Esquiva Aprimorada
+Esquiva Avançada</t>
+  </si>
+  <si>
+    <t>Evasão
+Evasão Aprimorada
+Evasão Avançada</t>
+  </si>
+  <si>
+    <t>Gene Mágico
+Célula Mágica
+Sangue Mágico
+Corpo Mágico
+Ser Mágico</t>
   </si>
 </sst>
 </file>
@@ -26334,10 +26334,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF945"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A432" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="V1" sqref="V1"/>
-      <selection pane="bottomLeft" activeCell="C944" sqref="C944"/>
+      <selection pane="bottomLeft" activeCell="F436" sqref="F436"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="16.5"/>
@@ -26479,7 +26479,7 @@
         <v>1311</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>5536</v>
+        <v>5533</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>1324</v>
@@ -26488,7 +26488,7 @@
         <v>1325</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>5537</v>
+        <v>5534</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>1326</v>
@@ -26497,7 +26497,7 @@
         <v>4331</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>5784</v>
+        <v>5781</v>
       </c>
       <c r="Y3" s="2" t="s">
         <v>1327</v>
@@ -26514,7 +26514,7 @@
         <v>1253</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>5510</v>
+        <v>5507</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>1264</v>
@@ -26523,7 +26523,7 @@
         <v>1265</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>5511</v>
+        <v>5508</v>
       </c>
       <c r="P4" s="2" t="s">
         <v>1266</v>
@@ -26532,7 +26532,7 @@
         <v>1267</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>5785</v>
+        <v>5782</v>
       </c>
       <c r="Y4" s="2" t="s">
         <v>1268</v>
@@ -26549,7 +26549,7 @@
         <v>1253</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>5508</v>
+        <v>5505</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>1258</v>
@@ -26558,7 +26558,7 @@
         <v>1259</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>5509</v>
+        <v>5506</v>
       </c>
       <c r="P5" s="2" t="s">
         <v>1260</v>
@@ -26567,7 +26567,7 @@
         <v>1261</v>
       </c>
       <c r="X5" s="2" t="s">
-        <v>5783</v>
+        <v>5780</v>
       </c>
       <c r="Y5" s="2" t="s">
         <v>1262</v>
@@ -26584,7 +26584,7 @@
         <v>1253</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>5507</v>
+        <v>5504</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>1255</v>
@@ -26593,7 +26593,7 @@
         <v>1254</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>5506</v>
+        <v>5503</v>
       </c>
       <c r="P6" s="2" t="s">
         <v>1249</v>
@@ -26602,7 +26602,7 @@
         <v>1250</v>
       </c>
       <c r="X6" s="2" t="s">
-        <v>5782</v>
+        <v>5779</v>
       </c>
       <c r="Y6" s="2" t="s">
         <v>1256</v>
@@ -26619,7 +26619,7 @@
         <v>1311</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>5533</v>
+        <v>5530</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>1318</v>
@@ -26628,7 +26628,7 @@
         <v>1317</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>5534</v>
+        <v>5531</v>
       </c>
       <c r="P7" s="2" t="s">
         <v>1319</v>
@@ -26637,7 +26637,7 @@
         <v>4329</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>5535</v>
+        <v>5532</v>
       </c>
       <c r="S7" s="2" t="s">
         <v>1320</v>
@@ -26646,7 +26646,7 @@
         <v>1321</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>5731</v>
+        <v>5728</v>
       </c>
       <c r="V7" s="2" t="s">
         <v>1320</v>
@@ -26655,7 +26655,7 @@
         <v>1321</v>
       </c>
       <c r="X7" s="2" t="s">
-        <v>5788</v>
+        <v>5785</v>
       </c>
       <c r="Y7" s="2" t="s">
         <v>1322</v>
@@ -26672,7 +26672,7 @@
         <v>824</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>5504</v>
+        <v>5501</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>1237</v>
@@ -26681,7 +26681,7 @@
         <v>1236</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>5504</v>
+        <v>5501</v>
       </c>
       <c r="P8" s="2" t="s">
         <v>1237</v>
@@ -26690,7 +26690,7 @@
         <v>1236</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>5792</v>
+        <v>5789</v>
       </c>
       <c r="V8" s="2" t="s">
         <v>1238</v>
@@ -26699,7 +26699,7 @@
         <v>1239</v>
       </c>
       <c r="X8" s="2" t="s">
-        <v>5787</v>
+        <v>5784</v>
       </c>
       <c r="Y8" s="2" t="s">
         <v>1240</v>
@@ -26716,7 +26716,7 @@
         <v>824</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>5505</v>
+        <v>5502</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>1247</v>
@@ -26725,7 +26725,7 @@
         <v>1248</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>5506</v>
+        <v>5503</v>
       </c>
       <c r="P9" s="2" t="s">
         <v>1249</v>
@@ -26734,7 +26734,7 @@
         <v>1250</v>
       </c>
       <c r="X9" s="2" t="s">
-        <v>5786</v>
+        <v>5783</v>
       </c>
       <c r="Y9" s="2" t="s">
         <v>1251</v>
@@ -26769,7 +26769,7 @@
         <v>1244</v>
       </c>
       <c r="X10" s="2" t="s">
-        <v>5789</v>
+        <v>5786</v>
       </c>
       <c r="Y10" s="2" t="s">
         <v>1245</v>
@@ -26839,7 +26839,7 @@
         <v>1285</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>5523</v>
+        <v>5520</v>
       </c>
       <c r="P12" s="2" t="s">
         <v>1286</v>
@@ -26848,7 +26848,7 @@
         <v>1287</v>
       </c>
       <c r="X12" s="2" t="s">
-        <v>5735</v>
+        <v>5732</v>
       </c>
       <c r="Y12" s="2" t="s">
         <v>1288</v>
@@ -26865,7 +26865,7 @@
         <v>1279</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>5521</v>
+        <v>5518</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>1280</v>
@@ -26874,7 +26874,7 @@
         <v>1281</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>5522</v>
+        <v>5519</v>
       </c>
       <c r="P13" s="2" t="s">
         <v>1282</v>
@@ -26883,7 +26883,7 @@
         <v>1283</v>
       </c>
       <c r="X13" s="2" t="s">
-        <v>5736</v>
+        <v>5733</v>
       </c>
       <c r="Y13" s="2" t="s">
         <v>298</v>
@@ -26927,7 +26927,7 @@
         <v>291</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>5545</v>
+        <v>5542</v>
       </c>
       <c r="S14" s="2" t="s">
         <v>296</v>
@@ -26936,7 +26936,7 @@
         <v>4134</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>5695</v>
+        <v>5692</v>
       </c>
       <c r="V14" s="2" t="s">
         <v>297</v>
@@ -26945,7 +26945,7 @@
         <v>4135</v>
       </c>
       <c r="X14" s="2" t="s">
-        <v>5736</v>
+        <v>5733</v>
       </c>
       <c r="Y14" s="2" t="s">
         <v>298</v>
@@ -26989,7 +26989,7 @@
         <v>254</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>5514</v>
+        <v>5511</v>
       </c>
       <c r="S15" s="2" t="s">
         <v>258</v>
@@ -26998,7 +26998,7 @@
         <v>4111</v>
       </c>
       <c r="U15" s="2" t="s">
-        <v>5701</v>
+        <v>5698</v>
       </c>
       <c r="V15" s="2" t="s">
         <v>259</v>
@@ -27007,7 +27007,7 @@
         <v>4112</v>
       </c>
       <c r="X15" s="2" t="s">
-        <v>5758</v>
+        <v>5755</v>
       </c>
       <c r="Y15" s="2" t="s">
         <v>260</v>
@@ -27024,7 +27024,7 @@
         <v>38</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>5379</v>
+        <v>5376</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>1000</v>
@@ -27033,7 +27033,7 @@
         <v>1001</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>5380</v>
+        <v>5377</v>
       </c>
       <c r="M16" s="2" t="s">
         <v>1002</v>
@@ -27042,7 +27042,7 @@
         <v>1003</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>5381</v>
+        <v>5378</v>
       </c>
       <c r="P16" s="2" t="s">
         <v>1004</v>
@@ -27051,7 +27051,7 @@
         <v>1005</v>
       </c>
       <c r="X16" s="2" t="s">
-        <v>5749</v>
+        <v>5746</v>
       </c>
       <c r="Y16" s="2" t="s">
         <v>1006</v>
@@ -27068,7 +27068,7 @@
         <v>38</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>5494</v>
+        <v>5491</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>1230</v>
@@ -27086,7 +27086,7 @@
         <v>291</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>5495</v>
+        <v>5492</v>
       </c>
       <c r="S17" s="2" t="s">
         <v>1232</v>
@@ -27095,7 +27095,7 @@
         <v>1233</v>
       </c>
       <c r="X17" s="2" t="s">
-        <v>5738</v>
+        <v>5735</v>
       </c>
       <c r="Y17" s="2" t="s">
         <v>1234</v>
@@ -27112,7 +27112,7 @@
         <v>547</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>5517</v>
+        <v>5514</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>1270</v>
@@ -27121,7 +27121,7 @@
         <v>1271</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>5518</v>
+        <v>5515</v>
       </c>
       <c r="P18" s="2" t="s">
         <v>1272</v>
@@ -27130,7 +27130,7 @@
         <v>4319</v>
       </c>
       <c r="X18" s="2" t="s">
-        <v>5740</v>
+        <v>5737</v>
       </c>
       <c r="Y18" s="2" t="s">
         <v>1273</v>
@@ -27147,7 +27147,7 @@
         <v>38</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>5367</v>
+        <v>5364</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>968</v>
@@ -27156,7 +27156,7 @@
         <v>969</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>5368</v>
+        <v>5365</v>
       </c>
       <c r="M19" s="2" t="s">
         <v>970</v>
@@ -27165,7 +27165,7 @@
         <v>971</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>5369</v>
+        <v>5366</v>
       </c>
       <c r="P19" s="2" t="s">
         <v>972</v>
@@ -27174,7 +27174,7 @@
         <v>973</v>
       </c>
       <c r="X19" s="2" t="s">
-        <v>5739</v>
+        <v>5736</v>
       </c>
       <c r="Y19" s="2" t="s">
         <v>974</v>
@@ -27191,7 +27191,7 @@
         <v>1329</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>5543</v>
+        <v>5540</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>1342</v>
@@ -27200,7 +27200,7 @@
         <v>1343</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>5544</v>
+        <v>5541</v>
       </c>
       <c r="P20" s="5" t="s">
         <v>1344</v>
@@ -27209,7 +27209,7 @@
         <v>1345</v>
       </c>
       <c r="X20" s="5" t="s">
-        <v>5744</v>
+        <v>5741</v>
       </c>
       <c r="Y20" s="5" t="s">
         <v>1346</v>
@@ -27235,7 +27235,7 @@
         <v>819</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>5321</v>
+        <v>5318</v>
       </c>
       <c r="M21" s="2" t="s">
         <v>820</v>
@@ -27244,7 +27244,7 @@
         <v>821</v>
       </c>
       <c r="X21" s="2" t="s">
-        <v>5741</v>
+        <v>5738</v>
       </c>
       <c r="Y21" s="2" t="s">
         <v>822</v>
@@ -27261,7 +27261,7 @@
         <v>38</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>5364</v>
+        <v>5361</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>960</v>
@@ -27270,7 +27270,7 @@
         <v>961</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>5365</v>
+        <v>5362</v>
       </c>
       <c r="M22" s="2" t="s">
         <v>962</v>
@@ -27279,7 +27279,7 @@
         <v>963</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>5366</v>
+        <v>5363</v>
       </c>
       <c r="P22" s="2" t="s">
         <v>964</v>
@@ -27288,7 +27288,7 @@
         <v>965</v>
       </c>
       <c r="X22" s="2" t="s">
-        <v>5742</v>
+        <v>5739</v>
       </c>
       <c r="Y22" s="2" t="s">
         <v>966</v>
@@ -27305,7 +27305,7 @@
         <v>38</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>5361</v>
+        <v>5358</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>952</v>
@@ -27314,7 +27314,7 @@
         <v>953</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>5362</v>
+        <v>5359</v>
       </c>
       <c r="M23" s="2" t="s">
         <v>954</v>
@@ -27323,7 +27323,7 @@
         <v>955</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>5363</v>
+        <v>5360</v>
       </c>
       <c r="P23" s="2" t="s">
         <v>956</v>
@@ -27332,7 +27332,7 @@
         <v>957</v>
       </c>
       <c r="X23" s="2" t="s">
-        <v>5743</v>
+        <v>5740</v>
       </c>
       <c r="Y23" s="2" t="s">
         <v>958</v>
@@ -27349,7 +27349,7 @@
         <v>1329</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>5539</v>
+        <v>5536</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>1331</v>
@@ -27358,7 +27358,7 @@
         <v>1330</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>5540</v>
+        <v>5537</v>
       </c>
       <c r="P24" s="2" t="s">
         <v>1332</v>
@@ -27367,7 +27367,7 @@
         <v>1333</v>
       </c>
       <c r="X24" s="2" t="s">
-        <v>5737</v>
+        <v>5734</v>
       </c>
       <c r="Y24" s="2" t="s">
         <v>1334</v>
@@ -27411,7 +27411,7 @@
         <v>282</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>5538</v>
+        <v>5535</v>
       </c>
       <c r="S25" s="2" t="s">
         <v>287</v>
@@ -27420,7 +27420,7 @@
         <v>4128</v>
       </c>
       <c r="U25" s="2" t="s">
-        <v>5719</v>
+        <v>5716</v>
       </c>
       <c r="V25" s="2" t="s">
         <v>288</v>
@@ -27429,7 +27429,7 @@
         <v>4129</v>
       </c>
       <c r="X25" s="2" t="s">
-        <v>5762</v>
+        <v>5759</v>
       </c>
       <c r="Y25" s="2" t="s">
         <v>289</v>
@@ -27464,7 +27464,7 @@
         <v>1170</v>
       </c>
       <c r="X26" s="2" t="s">
-        <v>5745</v>
+        <v>5742</v>
       </c>
       <c r="Y26" s="2" t="s">
         <v>1171</v>
@@ -27481,7 +27481,7 @@
         <v>1302</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>5528</v>
+        <v>5525</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>1303</v>
@@ -27490,7 +27490,7 @@
         <v>1304</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>5529</v>
+        <v>5526</v>
       </c>
       <c r="P27" s="2" t="s">
         <v>1305</v>
@@ -27499,7 +27499,7 @@
         <v>1306</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>5530</v>
+        <v>5527</v>
       </c>
       <c r="S27" s="2" t="s">
         <v>1307</v>
@@ -27508,7 +27508,7 @@
         <v>1308</v>
       </c>
       <c r="X27" s="2" t="s">
-        <v>5751</v>
+        <v>5748</v>
       </c>
       <c r="Y27" s="2" t="s">
         <v>1309</v>
@@ -27552,7 +27552,7 @@
         <v>245</v>
       </c>
       <c r="R28" s="2" t="s">
-        <v>5513</v>
+        <v>5510</v>
       </c>
       <c r="S28" s="2" t="s">
         <v>249</v>
@@ -27561,7 +27561,7 @@
         <v>4106</v>
       </c>
       <c r="U28" s="2" t="s">
-        <v>5702</v>
+        <v>5699</v>
       </c>
       <c r="V28" s="2" t="s">
         <v>250</v>
@@ -27570,7 +27570,7 @@
         <v>4107</v>
       </c>
       <c r="X28" s="2" t="s">
-        <v>5747</v>
+        <v>5744</v>
       </c>
       <c r="Y28" s="2" t="s">
         <v>251</v>
@@ -27587,7 +27587,7 @@
         <v>1311</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>5531</v>
+        <v>5528</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>1312</v>
@@ -27596,7 +27596,7 @@
         <v>1313</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>5532</v>
+        <v>5529</v>
       </c>
       <c r="P29" s="2" t="s">
         <v>1314</v>
@@ -27605,7 +27605,7 @@
         <v>4327</v>
       </c>
       <c r="X29" s="2" t="s">
-        <v>5748</v>
+        <v>5745</v>
       </c>
       <c r="Y29" s="2" t="s">
         <v>1315</v>
@@ -27649,7 +27649,7 @@
         <v>227</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>5493</v>
+        <v>5490</v>
       </c>
       <c r="S30" s="2" t="s">
         <v>231</v>
@@ -27658,7 +27658,7 @@
         <v>4095</v>
       </c>
       <c r="U30" s="2" t="s">
-        <v>5709</v>
+        <v>5706</v>
       </c>
       <c r="V30" s="2" t="s">
         <v>232</v>
@@ -27667,7 +27667,7 @@
         <v>4096</v>
       </c>
       <c r="X30" s="2" t="s">
-        <v>5746</v>
+        <v>5743</v>
       </c>
       <c r="Y30" s="2" t="s">
         <v>233</v>
@@ -27684,7 +27684,7 @@
         <v>1242</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>5526</v>
+        <v>5523</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>1297</v>
@@ -27693,7 +27693,7 @@
         <v>1296</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>5527</v>
+        <v>5524</v>
       </c>
       <c r="P31" s="2" t="s">
         <v>1298</v>
@@ -27702,7 +27702,7 @@
         <v>1299</v>
       </c>
       <c r="X31" s="2" t="s">
-        <v>5750</v>
+        <v>5747</v>
       </c>
       <c r="Y31" s="2" t="s">
         <v>1300</v>
@@ -27719,7 +27719,7 @@
         <v>38</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>5376</v>
+        <v>5373</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>992</v>
@@ -27728,7 +27728,7 @@
         <v>993</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>5377</v>
+        <v>5374</v>
       </c>
       <c r="M32" s="2" t="s">
         <v>994</v>
@@ -27737,7 +27737,7 @@
         <v>995</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>5378</v>
+        <v>5375</v>
       </c>
       <c r="P32" s="2" t="s">
         <v>996</v>
@@ -27746,7 +27746,7 @@
         <v>997</v>
       </c>
       <c r="X32" s="2" t="s">
-        <v>5760</v>
+        <v>5757</v>
       </c>
       <c r="Y32" s="2" t="s">
         <v>998</v>
@@ -27781,7 +27781,7 @@
         <v>46</v>
       </c>
       <c r="X33" s="2" t="s">
-        <v>5754</v>
+        <v>5751</v>
       </c>
       <c r="Y33" s="2" t="s">
         <v>47</v>
@@ -27825,7 +27825,7 @@
         <v>264</v>
       </c>
       <c r="R34" s="2" t="s">
-        <v>5515</v>
+        <v>5512</v>
       </c>
       <c r="S34" s="2" t="s">
         <v>268</v>
@@ -27834,7 +27834,7 @@
         <v>4117</v>
       </c>
       <c r="U34" s="2" t="s">
-        <v>5700</v>
+        <v>5697</v>
       </c>
       <c r="V34" s="2" t="s">
         <v>269</v>
@@ -27843,7 +27843,7 @@
         <v>4118</v>
       </c>
       <c r="X34" s="2" t="s">
-        <v>5755</v>
+        <v>5752</v>
       </c>
       <c r="Y34" s="2" t="s">
         <v>270</v>
@@ -27860,7 +27860,7 @@
         <v>547</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>5519</v>
+        <v>5516</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>1275</v>
@@ -27869,7 +27869,7 @@
         <v>1276</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>5520</v>
+        <v>5517</v>
       </c>
       <c r="P35" s="2" t="s">
         <v>1277</v>
@@ -27878,7 +27878,7 @@
         <v>4321</v>
       </c>
       <c r="X35" s="2" t="s">
-        <v>5755</v>
+        <v>5752</v>
       </c>
       <c r="Y35" s="2" t="s">
         <v>270</v>
@@ -27895,7 +27895,7 @@
         <v>1329</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>5541</v>
+        <v>5538</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>1336</v>
@@ -27904,7 +27904,7 @@
         <v>1337</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>5542</v>
+        <v>5539</v>
       </c>
       <c r="P36" s="2" t="s">
         <v>1338</v>
@@ -27913,7 +27913,7 @@
         <v>1339</v>
       </c>
       <c r="X36" s="2" t="s">
-        <v>5756</v>
+        <v>5753</v>
       </c>
       <c r="Y36" s="2" t="s">
         <v>1340</v>
@@ -27930,7 +27930,7 @@
         <v>38</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>5358</v>
+        <v>5355</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>944</v>
@@ -27939,7 +27939,7 @@
         <v>945</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>5359</v>
+        <v>5356</v>
       </c>
       <c r="M37" s="2" t="s">
         <v>946</v>
@@ -27948,7 +27948,7 @@
         <v>947</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>5360</v>
+        <v>5357</v>
       </c>
       <c r="P37" s="2" t="s">
         <v>948</v>
@@ -27957,7 +27957,7 @@
         <v>949</v>
       </c>
       <c r="X37" s="2" t="s">
-        <v>5757</v>
+        <v>5754</v>
       </c>
       <c r="Y37" s="2" t="s">
         <v>950</v>
@@ -27974,7 +27974,7 @@
         <v>1242</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>5524</v>
+        <v>5521</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>1290</v>
@@ -27983,7 +27983,7 @@
         <v>1291</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>5525</v>
+        <v>5522</v>
       </c>
       <c r="P38" s="2" t="s">
         <v>1292</v>
@@ -27992,7 +27992,7 @@
         <v>1293</v>
       </c>
       <c r="X38" s="2" t="s">
-        <v>5753</v>
+        <v>5750</v>
       </c>
       <c r="Y38" s="2" t="s">
         <v>1294</v>
@@ -28027,7 +28027,7 @@
         <v>238</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>5688</v>
+        <v>5685</v>
       </c>
       <c r="P39" s="2" t="s">
         <v>239</v>
@@ -28036,7 +28036,7 @@
         <v>236</v>
       </c>
       <c r="R39" s="2" t="s">
-        <v>5512</v>
+        <v>5509</v>
       </c>
       <c r="S39" s="2" t="s">
         <v>240</v>
@@ -28045,7 +28045,7 @@
         <v>4101</v>
       </c>
       <c r="U39" s="2" t="s">
-        <v>5690</v>
+        <v>5687</v>
       </c>
       <c r="V39" s="2" t="s">
         <v>241</v>
@@ -28054,7 +28054,7 @@
         <v>4102</v>
       </c>
       <c r="X39" s="2" t="s">
-        <v>5759</v>
+        <v>5756</v>
       </c>
       <c r="Y39" s="2" t="s">
         <v>242</v>
@@ -28071,7 +28071,7 @@
         <v>38</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>5373</v>
+        <v>5370</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>984</v>
@@ -28080,7 +28080,7 @@
         <v>985</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>5374</v>
+        <v>5371</v>
       </c>
       <c r="M40" s="2" t="s">
         <v>986</v>
@@ -28089,7 +28089,7 @@
         <v>987</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>5375</v>
+        <v>5372</v>
       </c>
       <c r="P40" s="2" t="s">
         <v>988</v>
@@ -28098,7 +28098,7 @@
         <v>989</v>
       </c>
       <c r="X40" s="2" t="s">
-        <v>5752</v>
+        <v>5749</v>
       </c>
       <c r="Y40" s="2" t="s">
         <v>990</v>
@@ -28142,7 +28142,7 @@
         <v>273</v>
       </c>
       <c r="R41" s="2" t="s">
-        <v>5516</v>
+        <v>5513</v>
       </c>
       <c r="S41" s="2" t="s">
         <v>278</v>
@@ -28151,7 +28151,7 @@
         <v>4123</v>
       </c>
       <c r="U41" s="2" t="s">
-        <v>5723</v>
+        <v>5720</v>
       </c>
       <c r="V41" s="2" t="s">
         <v>279</v>
@@ -28160,7 +28160,7 @@
         <v>4124</v>
       </c>
       <c r="X41" s="2" t="s">
-        <v>5761</v>
+        <v>5758</v>
       </c>
       <c r="Y41" s="2" t="s">
         <v>280</v>
@@ -28177,7 +28177,7 @@
         <v>38</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>5370</v>
+        <v>5367</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>976</v>
@@ -28186,7 +28186,7 @@
         <v>977</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>5371</v>
+        <v>5368</v>
       </c>
       <c r="M42" s="2" t="s">
         <v>978</v>
@@ -28195,7 +28195,7 @@
         <v>979</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>5372</v>
+        <v>5369</v>
       </c>
       <c r="P42" s="2" t="s">
         <v>980</v>
@@ -28204,7 +28204,7 @@
         <v>981</v>
       </c>
       <c r="X42" s="2" t="s">
-        <v>5763</v>
+        <v>5760</v>
       </c>
       <c r="Y42" s="2" t="s">
         <v>982</v>
@@ -28230,7 +28230,7 @@
         <v>4841</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>5567</v>
+        <v>5564</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>3469</v>
@@ -28256,7 +28256,7 @@
         <v>4844</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>5568</v>
+        <v>5565</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>3476</v>
@@ -28282,7 +28282,7 @@
         <v>4847</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>5569</v>
+        <v>5566</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>3484</v>
@@ -28308,7 +28308,7 @@
         <v>4838</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>5565</v>
+        <v>5562</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>3460</v>
@@ -28317,7 +28317,7 @@
         <v>3461</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>5566</v>
+        <v>5563</v>
       </c>
       <c r="P46" s="2" t="s">
         <v>3462</v>
@@ -28343,7 +28343,7 @@
         <v>4853</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>5573</v>
+        <v>5570</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>3502</v>
@@ -28591,7 +28591,7 @@
         <v>2668</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>5204</v>
+        <v>5201</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>2669</v>
@@ -28617,7 +28617,7 @@
         <v>2838</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>5256</v>
+        <v>5253</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>2839</v>
@@ -28634,7 +28634,7 @@
         <v>38</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>5635</v>
+        <v>5632</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>1438</v>
@@ -28643,7 +28643,7 @@
         <v>1439</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>5767</v>
+        <v>5764</v>
       </c>
       <c r="J62" s="2" t="s">
         <v>1440</v>
@@ -28669,7 +28669,7 @@
         <v>3569</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>5586</v>
+        <v>5583</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>3570</v>
@@ -28704,7 +28704,7 @@
         <v>3362</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>5485</v>
+        <v>5482</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>3363</v>
@@ -28713,7 +28713,7 @@
         <v>3364</v>
       </c>
       <c r="O64" s="2" t="s">
-        <v>5486</v>
+        <v>5483</v>
       </c>
       <c r="P64" s="2" t="s">
         <v>3365</v>
@@ -28739,7 +28739,7 @@
         <v>1200</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>5472</v>
+        <v>5469</v>
       </c>
       <c r="M65" s="2" t="s">
         <v>1201</v>
@@ -28756,7 +28756,7 @@
         <v>1049</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>5469</v>
+        <v>5466</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>1194</v>
@@ -28765,7 +28765,7 @@
         <v>1195</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>5470</v>
+        <v>5467</v>
       </c>
       <c r="M66" s="2" t="s">
         <v>1196</v>
@@ -28782,7 +28782,7 @@
         <v>1049</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>5473</v>
+        <v>5470</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>1204</v>
@@ -28791,7 +28791,7 @@
         <v>1205</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>5474</v>
+        <v>5471</v>
       </c>
       <c r="M67" s="2" t="s">
         <v>1206</v>
@@ -28817,7 +28817,7 @@
         <v>842</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>5325</v>
+        <v>5322</v>
       </c>
       <c r="M68" s="2" t="s">
         <v>843</v>
@@ -28834,7 +28834,7 @@
         <v>38</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>5644</v>
+        <v>5641</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>1466</v>
@@ -28843,7 +28843,7 @@
         <v>1465</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>5764</v>
+        <v>5761</v>
       </c>
       <c r="J69" s="2" t="s">
         <v>1467</v>
@@ -28904,7 +28904,7 @@
         <v>2619</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>5193</v>
+        <v>5190</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>2620</v>
@@ -28947,7 +28947,7 @@
         <v>314</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>5134</v>
+        <v>5133</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>2405</v>
@@ -28956,7 +28956,7 @@
         <v>2406</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>5135</v>
+        <v>5134</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>2407</v>
@@ -29000,7 +29000,7 @@
         <v>665</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>5277</v>
+        <v>5274</v>
       </c>
       <c r="M74" s="2" t="s">
         <v>666</v>
@@ -29070,7 +29070,7 @@
         <v>4451</v>
       </c>
       <c r="U76" s="2" t="s">
-        <v>5721</v>
+        <v>5718</v>
       </c>
       <c r="V76" s="2" t="s">
         <v>2063</v>
@@ -29096,7 +29096,7 @@
         <v>800</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>5318</v>
+        <v>5315</v>
       </c>
       <c r="M77" s="2" t="s">
         <v>801</v>
@@ -29131,7 +29131,7 @@
         <v>658</v>
       </c>
       <c r="L78" s="2" t="s">
-        <v>5276</v>
+        <v>5273</v>
       </c>
       <c r="M78" s="2" t="s">
         <v>659</v>
@@ -29201,7 +29201,7 @@
         <v>2508</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>5164</v>
+        <v>5161</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>2509</v>
@@ -29219,7 +29219,7 @@
         <v>2512</v>
       </c>
       <c r="O80" s="2" t="s">
-        <v>5165</v>
+        <v>5162</v>
       </c>
       <c r="P80" s="2" t="s">
         <v>2513</v>
@@ -29254,7 +29254,7 @@
         <v>608</v>
       </c>
       <c r="L81" s="2" t="s">
-        <v>5234</v>
+        <v>5231</v>
       </c>
       <c r="M81" s="2" t="s">
         <v>609</v>
@@ -29280,7 +29280,7 @@
         <v>2459</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>5150</v>
+        <v>5147</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>2460</v>
@@ -29298,7 +29298,7 @@
         <v>2463</v>
       </c>
       <c r="O82" s="2" t="s">
-        <v>5151</v>
+        <v>5148</v>
       </c>
       <c r="P82" s="2" t="s">
         <v>2464</v>
@@ -29332,7 +29332,7 @@
         <v>880</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>5334</v>
+        <v>5331</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>881</v>
@@ -29341,7 +29341,7 @@
         <v>882</v>
       </c>
       <c r="L84" s="2" t="s">
-        <v>5335</v>
+        <v>5332</v>
       </c>
       <c r="M84" s="2" t="s">
         <v>883</v>
@@ -29376,7 +29376,7 @@
         <v>694</v>
       </c>
       <c r="L85" s="2" t="s">
-        <v>5281</v>
+        <v>5278</v>
       </c>
       <c r="M85" s="2" t="s">
         <v>695</v>
@@ -29429,7 +29429,7 @@
         <v>4468</v>
       </c>
       <c r="U86" s="2" t="s">
-        <v>5732</v>
+        <v>5729</v>
       </c>
       <c r="V86" s="2" t="s">
         <v>2101</v>
@@ -29455,7 +29455,7 @@
         <v>341</v>
       </c>
       <c r="L87" s="2" t="s">
-        <v>5647</v>
+        <v>5644</v>
       </c>
       <c r="M87" s="2" t="s">
         <v>343</v>
@@ -29515,7 +29515,7 @@
         <v>790</v>
       </c>
       <c r="L90" s="2" t="s">
-        <v>5311</v>
+        <v>5308</v>
       </c>
       <c r="M90" s="2" t="s">
         <v>791</v>
@@ -29594,7 +29594,7 @@
         <v>808</v>
       </c>
       <c r="L92" s="2" t="s">
-        <v>5319</v>
+        <v>5316</v>
       </c>
       <c r="M92" s="2" t="s">
         <v>809</v>
@@ -29611,7 +29611,7 @@
         <v>1049</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>5465</v>
+        <v>5462</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>1184</v>
@@ -29620,7 +29620,7 @@
         <v>1185</v>
       </c>
       <c r="L93" s="2" t="s">
-        <v>5466</v>
+        <v>5463</v>
       </c>
       <c r="M93" s="2" t="s">
         <v>1186</v>
@@ -29646,7 +29646,7 @@
         <v>854</v>
       </c>
       <c r="L94" s="2" t="s">
-        <v>5327</v>
+        <v>5324</v>
       </c>
       <c r="M94" s="2" t="s">
         <v>855</v>
@@ -29672,7 +29672,7 @@
         <v>3005</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>5306</v>
+        <v>5303</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>3006</v>
@@ -29706,7 +29706,7 @@
         <v>804</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>5552</v>
+        <v>5549</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>1359</v>
@@ -29758,7 +29758,7 @@
         <v>3014</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>5308</v>
+        <v>5305</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>3016</v>
@@ -29801,7 +29801,7 @@
         <v>1065</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>5404</v>
+        <v>5401</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>1066</v>
@@ -29810,7 +29810,7 @@
         <v>1067</v>
       </c>
       <c r="L101" s="2" t="s">
-        <v>5405</v>
+        <v>5402</v>
       </c>
       <c r="M101" s="2" t="s">
         <v>1068</v>
@@ -29983,7 +29983,7 @@
         <v>643</v>
       </c>
       <c r="L108" s="2" t="s">
-        <v>5253</v>
+        <v>5250</v>
       </c>
       <c r="M108" s="2" t="s">
         <v>644</v>
@@ -30061,7 +30061,7 @@
         <v>636</v>
       </c>
       <c r="L111" s="2" t="s">
-        <v>5238</v>
+        <v>5235</v>
       </c>
       <c r="M111" s="2" t="s">
         <v>637</v>
@@ -30114,7 +30114,7 @@
         <v>4462</v>
       </c>
       <c r="U112" s="2" t="s">
-        <v>5725</v>
+        <v>5722</v>
       </c>
       <c r="V112" s="2" t="s">
         <v>2089</v>
@@ -30167,7 +30167,7 @@
         <v>4462</v>
       </c>
       <c r="U113" s="2" t="s">
-        <v>5725</v>
+        <v>5722</v>
       </c>
       <c r="V113" s="2" t="s">
         <v>2089</v>
@@ -30184,7 +30184,7 @@
         <v>49</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>5146</v>
+        <v>5143</v>
       </c>
       <c r="D114" s="4" t="s">
         <v>2444</v>
@@ -30193,7 +30193,7 @@
         <v>2445</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>5147</v>
+        <v>5144</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>2446</v>
@@ -30264,7 +30264,7 @@
         <v>4528</v>
       </c>
       <c r="U115" s="2" t="s">
-        <v>5727</v>
+        <v>5724</v>
       </c>
       <c r="V115" s="2" t="s">
         <v>2231</v>
@@ -30402,7 +30402,7 @@
         <v>52</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>5434</v>
+        <v>5431</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>1107</v>
@@ -30411,7 +30411,7 @@
         <v>1108</v>
       </c>
       <c r="L121" s="2" t="s">
-        <v>5435</v>
+        <v>5432</v>
       </c>
       <c r="M121" s="2" t="s">
         <v>1109</v>
@@ -30505,7 +30505,7 @@
         <v>291</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>5206</v>
+        <v>5203</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>2679</v>
@@ -30574,7 +30574,7 @@
         <v>932</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>5477</v>
+        <v>5474</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>1214</v>
@@ -30583,7 +30583,7 @@
         <v>1215</v>
       </c>
       <c r="L129" s="2" t="s">
-        <v>5478</v>
+        <v>5475</v>
       </c>
       <c r="M129" s="2" t="s">
         <v>1216</v>
@@ -30600,7 +30600,7 @@
         <v>49</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>5810</v>
+        <v>5807</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>3237</v>
@@ -30609,7 +30609,7 @@
         <v>3238</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>5424</v>
+        <v>5421</v>
       </c>
       <c r="G130" s="2" t="s">
         <v>3239</v>
@@ -30644,7 +30644,7 @@
         <v>686</v>
       </c>
       <c r="L131" s="2" t="s">
-        <v>5280</v>
+        <v>5277</v>
       </c>
       <c r="M131" s="2" t="s">
         <v>687</v>
@@ -30653,7 +30653,7 @@
         <v>688</v>
       </c>
       <c r="AD131" s="2" t="s">
-        <v>5791</v>
+        <v>5788</v>
       </c>
       <c r="AE131" s="2" t="s">
         <v>689</v>
@@ -30679,7 +30679,7 @@
         <v>3009</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>5307</v>
+        <v>5304</v>
       </c>
       <c r="G132" s="2" t="s">
         <v>3011</v>
@@ -30714,7 +30714,7 @@
         <v>650</v>
       </c>
       <c r="L133" s="2" t="s">
-        <v>5255</v>
+        <v>5252</v>
       </c>
       <c r="M133" s="2" t="s">
         <v>651</v>
@@ -30782,7 +30782,7 @@
         <v>4570</v>
       </c>
       <c r="U134" s="2" t="s">
-        <v>5696</v>
+        <v>5693</v>
       </c>
       <c r="V134" s="2" t="s">
         <v>2309</v>
@@ -30991,7 +30991,7 @@
         <v>2863</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>5262</v>
+        <v>5259</v>
       </c>
       <c r="G141" s="2" t="s">
         <v>2864</v>
@@ -31008,7 +31008,7 @@
         <v>3940</v>
       </c>
       <c r="C142" t="s">
-        <v>5811</v>
+        <v>5808</v>
       </c>
       <c r="D142" t="s">
         <v>3944</v>
@@ -31017,7 +31017,7 @@
         <v>3945</v>
       </c>
       <c r="F142" t="s">
-        <v>5812</v>
+        <v>5809</v>
       </c>
       <c r="G142" t="s">
         <v>3941</v>
@@ -31060,7 +31060,7 @@
         <v>49</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>5116</v>
+        <v>5115</v>
       </c>
       <c r="D144" s="4" t="s">
         <v>2342</v>
@@ -31069,7 +31069,7 @@
         <v>2343</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>5117</v>
+        <v>5116</v>
       </c>
       <c r="G144" s="2" t="s">
         <v>2344</v>
@@ -31148,7 +31148,7 @@
         <v>4479</v>
       </c>
       <c r="U146" s="2" t="s">
-        <v>5708</v>
+        <v>5705</v>
       </c>
       <c r="V146" s="2" t="s">
         <v>2125</v>
@@ -31201,7 +31201,7 @@
         <v>4479</v>
       </c>
       <c r="U147" s="2" t="s">
-        <v>5708</v>
+        <v>5705</v>
       </c>
       <c r="V147" s="2" t="s">
         <v>2125</v>
@@ -31227,7 +31227,7 @@
         <v>848</v>
       </c>
       <c r="L148" s="2" t="s">
-        <v>5326</v>
+        <v>5323</v>
       </c>
       <c r="M148" s="2" t="s">
         <v>849</v>
@@ -31297,7 +31297,7 @@
         <v>4540</v>
       </c>
       <c r="U150" s="2" t="s">
-        <v>5714</v>
+        <v>5711</v>
       </c>
       <c r="V150" s="2" t="s">
         <v>2254</v>
@@ -31410,7 +31410,7 @@
         <v>2777</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>5242</v>
+        <v>5239</v>
       </c>
       <c r="G154" s="2" t="s">
         <v>2778</v>
@@ -31436,7 +31436,7 @@
         <v>2767</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>5240</v>
+        <v>5237</v>
       </c>
       <c r="G155" s="2" t="s">
         <v>2768</v>
@@ -31462,7 +31462,7 @@
         <v>2990</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>5303</v>
+        <v>5300</v>
       </c>
       <c r="G156" s="2" t="s">
         <v>2991</v>
@@ -31488,7 +31488,7 @@
         <v>2947</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>5295</v>
+        <v>5292</v>
       </c>
       <c r="G157" s="2" t="s">
         <v>2948</v>
@@ -31550,7 +31550,7 @@
         <v>4355</v>
       </c>
       <c r="U158" s="2" t="s">
-        <v>5691</v>
+        <v>5688</v>
       </c>
       <c r="V158" s="2" t="s">
         <v>1629</v>
@@ -31567,7 +31567,7 @@
         <v>38</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>5640</v>
+        <v>5637</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>1455</v>
@@ -31576,7 +31576,7 @@
         <v>1454</v>
       </c>
       <c r="I159" s="2" t="s">
-        <v>5766</v>
+        <v>5763</v>
       </c>
       <c r="J159" s="2" t="s">
         <v>1456</v>
@@ -31611,7 +31611,7 @@
         <v>745</v>
       </c>
       <c r="L160" s="2" t="s">
-        <v>5288</v>
+        <v>5285</v>
       </c>
       <c r="M160" s="2" t="s">
         <v>746</v>
@@ -31708,7 +31708,7 @@
         <v>4561</v>
       </c>
       <c r="U162" s="2" t="s">
-        <v>5715</v>
+        <v>5712</v>
       </c>
       <c r="V162" s="2" t="s">
         <v>2292</v>
@@ -31734,7 +31734,7 @@
         <v>3384</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>5491</v>
+        <v>5488</v>
       </c>
       <c r="G163" s="2" t="s">
         <v>3385</v>
@@ -31743,7 +31743,7 @@
         <v>3386</v>
       </c>
       <c r="O163" s="2" t="s">
-        <v>5492</v>
+        <v>5489</v>
       </c>
       <c r="P163" s="2" t="s">
         <v>3387</v>
@@ -31778,7 +31778,7 @@
         <v>594</v>
       </c>
       <c r="L164" s="2" t="s">
-        <v>5232</v>
+        <v>5229</v>
       </c>
       <c r="M164" s="2" t="s">
         <v>595</v>
@@ -31804,7 +31804,7 @@
         <v>3037</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>5310</v>
+        <v>5307</v>
       </c>
       <c r="G165" s="2" t="s">
         <v>3038</v>
@@ -31830,7 +31830,7 @@
         <v>2590</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>5183</v>
+        <v>5180</v>
       </c>
       <c r="G166" s="2" t="s">
         <v>2591</v>
@@ -31848,7 +31848,7 @@
         <v>2594</v>
       </c>
       <c r="O166" s="4" t="s">
-        <v>5184</v>
+        <v>5181</v>
       </c>
       <c r="P166" s="4" t="s">
         <v>2595</v>
@@ -31935,7 +31935,7 @@
         <v>2933</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>5293</v>
+        <v>5290</v>
       </c>
       <c r="G169" s="2" t="s">
         <v>2935</v>
@@ -31952,7 +31952,7 @@
         <v>932</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>5354</v>
+        <v>5351</v>
       </c>
       <c r="D170" s="2" t="s">
         <v>933</v>
@@ -31961,7 +31961,7 @@
         <v>934</v>
       </c>
       <c r="L170" s="2" t="s">
-        <v>5355</v>
+        <v>5352</v>
       </c>
       <c r="M170" s="2" t="s">
         <v>935</v>
@@ -32014,7 +32014,7 @@
         <v>4491</v>
       </c>
       <c r="U171" s="2" t="s">
-        <v>5704</v>
+        <v>5701</v>
       </c>
       <c r="V171" s="2" t="s">
         <v>2149</v>
@@ -32031,7 +32031,7 @@
         <v>3961</v>
       </c>
       <c r="C172" t="s">
-        <v>5813</v>
+        <v>5810</v>
       </c>
       <c r="D172" t="s">
         <v>3962</v>
@@ -32043,7 +32043,7 @@
         <v>3964</v>
       </c>
       <c r="L172" t="s">
-        <v>5814</v>
+        <v>5811</v>
       </c>
       <c r="M172" t="s">
         <v>3965</v>
@@ -32069,7 +32069,7 @@
         <v>2608</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>5187</v>
+        <v>5184</v>
       </c>
       <c r="G173" s="2" t="s">
         <v>2609</v>
@@ -32087,7 +32087,7 @@
         <v>2612</v>
       </c>
       <c r="O173" s="4" t="s">
-        <v>5188</v>
+        <v>5185</v>
       </c>
       <c r="P173" s="4" t="s">
         <v>4648</v>
@@ -32113,7 +32113,7 @@
         <v>3048</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>5310</v>
+        <v>5307</v>
       </c>
       <c r="G174" s="2" t="s">
         <v>3038</v>
@@ -32156,7 +32156,7 @@
         <v>3653</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>5614</v>
+        <v>5611</v>
       </c>
       <c r="G176" s="2" t="s">
         <v>3654</v>
@@ -32269,7 +32269,7 @@
         <v>3042</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>5310</v>
+        <v>5307</v>
       </c>
       <c r="G180" s="2" t="s">
         <v>3038</v>
@@ -32304,7 +32304,7 @@
         <v>586</v>
       </c>
       <c r="L181" s="2" t="s">
-        <v>5218</v>
+        <v>5215</v>
       </c>
       <c r="M181" s="2" t="s">
         <v>587</v>
@@ -32330,7 +32330,7 @@
         <v>3080</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>5316</v>
+        <v>5313</v>
       </c>
       <c r="G182" s="2" t="s">
         <v>3081</v>
@@ -32364,7 +32364,7 @@
         <v>804</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>5556</v>
+        <v>5553</v>
       </c>
       <c r="D184" s="2" t="s">
         <v>1371</v>
@@ -32390,7 +32390,7 @@
         <v>2952</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>5296</v>
+        <v>5293</v>
       </c>
       <c r="G185" s="2" t="s">
         <v>2953</v>
@@ -32590,7 +32590,7 @@
         <v>804</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>5553</v>
+        <v>5550</v>
       </c>
       <c r="D192" s="2" t="s">
         <v>1362</v>
@@ -32643,7 +32643,7 @@
         <v>4503</v>
       </c>
       <c r="U193" s="2" t="s">
-        <v>5694</v>
+        <v>5691</v>
       </c>
       <c r="V193" s="2" t="s">
         <v>2174</v>
@@ -32678,7 +32678,7 @@
         <v>752</v>
       </c>
       <c r="L194" s="2" t="s">
-        <v>5289</v>
+        <v>5286</v>
       </c>
       <c r="M194" s="2" t="s">
         <v>753</v>
@@ -32704,7 +32704,7 @@
         <v>2762</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>5239</v>
+        <v>5236</v>
       </c>
       <c r="G195" s="2" t="s">
         <v>2763</v>
@@ -32730,7 +32730,7 @@
         <v>677</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>5190</v>
+        <v>5187</v>
       </c>
       <c r="G196" s="2" t="s">
         <v>2614</v>
@@ -32771,7 +32771,7 @@
         <v>679</v>
       </c>
       <c r="L197" s="2" t="s">
-        <v>5279</v>
+        <v>5276</v>
       </c>
       <c r="M197" s="2" t="s">
         <v>680</v>
@@ -32797,7 +32797,7 @@
         <v>3075</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>5315</v>
+        <v>5312</v>
       </c>
       <c r="G198" s="2" t="s">
         <v>3076</v>
@@ -32849,7 +32849,7 @@
         <v>737</v>
       </c>
       <c r="L200" s="2" t="s">
-        <v>5287</v>
+        <v>5284</v>
       </c>
       <c r="M200" s="2" t="s">
         <v>738</v>
@@ -32866,7 +32866,7 @@
         <v>1112</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>5592</v>
+        <v>5589</v>
       </c>
       <c r="D201" s="2" t="s">
         <v>1391</v>
@@ -32875,7 +32875,7 @@
         <v>1392</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>5593</v>
+        <v>5590</v>
       </c>
       <c r="G201" s="2" t="s">
         <v>1393</v>
@@ -32884,7 +32884,7 @@
         <v>1394</v>
       </c>
       <c r="L201" s="2" t="s">
-        <v>5594</v>
+        <v>5591</v>
       </c>
       <c r="M201" s="2" t="s">
         <v>1395</v>
@@ -32901,7 +32901,7 @@
         <v>1112</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>5601</v>
+        <v>5598</v>
       </c>
       <c r="D202" s="2" t="s">
         <v>1398</v>
@@ -32910,7 +32910,7 @@
         <v>1399</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>5602</v>
+        <v>5599</v>
       </c>
       <c r="G202" s="2" t="s">
         <v>1400</v>
@@ -32919,7 +32919,7 @@
         <v>1401</v>
       </c>
       <c r="L202" s="2" t="s">
-        <v>5603</v>
+        <v>5600</v>
       </c>
       <c r="M202" s="2" t="s">
         <v>1402</v>
@@ -32936,7 +32936,7 @@
         <v>932</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>5608</v>
+        <v>5605</v>
       </c>
       <c r="D203" s="2" t="s">
         <v>1412</v>
@@ -32945,7 +32945,7 @@
         <v>1413</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>5609</v>
+        <v>5606</v>
       </c>
       <c r="G203" s="2" t="s">
         <v>1414</v>
@@ -32954,7 +32954,7 @@
         <v>1415</v>
       </c>
       <c r="L203" s="2" t="s">
-        <v>5610</v>
+        <v>5607</v>
       </c>
       <c r="M203" s="2" t="s">
         <v>1416</v>
@@ -32971,7 +32971,7 @@
         <v>1112</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>5605</v>
+        <v>5602</v>
       </c>
       <c r="D204" s="2" t="s">
         <v>1405</v>
@@ -32980,7 +32980,7 @@
         <v>1406</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>5606</v>
+        <v>5603</v>
       </c>
       <c r="G204" s="2" t="s">
         <v>1407</v>
@@ -32989,7 +32989,7 @@
         <v>1408</v>
       </c>
       <c r="L204" s="2" t="s">
-        <v>5607</v>
+        <v>5604</v>
       </c>
       <c r="M204" s="2" t="s">
         <v>1409</v>
@@ -33147,7 +33147,7 @@
         <v>4509</v>
       </c>
       <c r="U208" s="2" t="s">
-        <v>5705</v>
+        <v>5702</v>
       </c>
       <c r="V208" s="2" t="s">
         <v>2186</v>
@@ -33288,7 +33288,7 @@
         <v>4509</v>
       </c>
       <c r="U211" s="2" t="s">
-        <v>5705</v>
+        <v>5702</v>
       </c>
       <c r="V211" s="2" t="s">
         <v>2186</v>
@@ -33305,7 +33305,7 @@
         <v>49</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>5114</v>
+        <v>5113</v>
       </c>
       <c r="D212" s="4" t="s">
         <v>2335</v>
@@ -33314,7 +33314,7 @@
         <v>2336</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>5115</v>
+        <v>5114</v>
       </c>
       <c r="G212" s="2" t="s">
         <v>2337</v>
@@ -33340,7 +33340,7 @@
         <v>38</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>5645</v>
+        <v>5642</v>
       </c>
       <c r="D213" s="2" t="s">
         <v>1470</v>
@@ -33349,7 +33349,7 @@
         <v>1469</v>
       </c>
       <c r="I213" s="2" t="s">
-        <v>5765</v>
+        <v>5762</v>
       </c>
       <c r="J213" s="2" t="s">
         <v>1471</v>
@@ -33384,7 +33384,7 @@
         <v>512</v>
       </c>
       <c r="L214" s="2" t="s">
-        <v>5208</v>
+        <v>5205</v>
       </c>
       <c r="M214" s="2" t="s">
         <v>513</v>
@@ -33401,7 +33401,7 @@
         <v>1124</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>5448</v>
+        <v>5445</v>
       </c>
       <c r="D215" s="2" t="s">
         <v>1140</v>
@@ -33410,7 +33410,7 @@
         <v>1141</v>
       </c>
       <c r="L215" s="2" t="s">
-        <v>5449</v>
+        <v>5446</v>
       </c>
       <c r="M215" s="2" t="s">
         <v>1142</v>
@@ -33453,7 +33453,7 @@
         <v>3000</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>5305</v>
+        <v>5302</v>
       </c>
       <c r="G217" s="2" t="s">
         <v>3001</v>
@@ -33470,7 +33470,7 @@
         <v>49</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>5148</v>
+        <v>5145</v>
       </c>
       <c r="D218" s="4" t="s">
         <v>2451</v>
@@ -33479,7 +33479,7 @@
         <v>2452</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>5149</v>
+        <v>5146</v>
       </c>
       <c r="G218" s="2" t="s">
         <v>2453</v>
@@ -33575,7 +33575,7 @@
         <v>3230</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>5423</v>
+        <v>5420</v>
       </c>
       <c r="G221" s="2" t="s">
         <v>3231</v>
@@ -33601,7 +33601,7 @@
         <v>327</v>
       </c>
       <c r="L222" s="2" t="s">
-        <v>5626</v>
+        <v>5623</v>
       </c>
       <c r="M222" s="2" t="s">
         <v>328</v>
@@ -33627,7 +33627,7 @@
         <v>3051</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>5310</v>
+        <v>5307</v>
       </c>
       <c r="G223" s="2" t="s">
         <v>3038</v>
@@ -33662,7 +33662,7 @@
         <v>672</v>
       </c>
       <c r="L224" s="2" t="s">
-        <v>5278</v>
+        <v>5275</v>
       </c>
       <c r="M224" s="2" t="s">
         <v>673</v>
@@ -33688,7 +33688,7 @@
         <v>3547</v>
       </c>
       <c r="F225" s="2" t="s">
-        <v>5581</v>
+        <v>5578</v>
       </c>
       <c r="G225" s="2" t="s">
         <v>3548</v>
@@ -33697,7 +33697,7 @@
         <v>3549</v>
       </c>
       <c r="O225" s="2" t="s">
-        <v>5488</v>
+        <v>5485</v>
       </c>
       <c r="P225" s="2" t="s">
         <v>3370</v>
@@ -33757,7 +33757,7 @@
         <v>3551</v>
       </c>
       <c r="F228" s="2" t="s">
-        <v>5582</v>
+        <v>5579</v>
       </c>
       <c r="G228" s="2" t="s">
         <v>3552</v>
@@ -33766,7 +33766,7 @@
         <v>3553</v>
       </c>
       <c r="O228" s="2" t="s">
-        <v>5488</v>
+        <v>5485</v>
       </c>
       <c r="P228" s="2" t="s">
         <v>3370</v>
@@ -33792,7 +33792,7 @@
         <v>3559</v>
       </c>
       <c r="F229" s="2" t="s">
-        <v>5584</v>
+        <v>5581</v>
       </c>
       <c r="G229" s="2" t="s">
         <v>3560</v>
@@ -33801,7 +33801,7 @@
         <v>3561</v>
       </c>
       <c r="O229" s="2" t="s">
-        <v>5488</v>
+        <v>5485</v>
       </c>
       <c r="P229" s="2" t="s">
         <v>3370</v>
@@ -33827,7 +33827,7 @@
         <v>3555</v>
       </c>
       <c r="F230" s="2" t="s">
-        <v>5583</v>
+        <v>5580</v>
       </c>
       <c r="G230" s="2" t="s">
         <v>3556</v>
@@ -33836,7 +33836,7 @@
         <v>3557</v>
       </c>
       <c r="O230" s="2" t="s">
-        <v>5488</v>
+        <v>5485</v>
       </c>
       <c r="P230" s="2" t="s">
         <v>3370</v>
@@ -33879,7 +33879,7 @@
         <v>3543</v>
       </c>
       <c r="F232" s="2" t="s">
-        <v>5580</v>
+        <v>5577</v>
       </c>
       <c r="G232" s="2" t="s">
         <v>3544</v>
@@ -33888,7 +33888,7 @@
         <v>3545</v>
       </c>
       <c r="O232" s="2" t="s">
-        <v>5488</v>
+        <v>5485</v>
       </c>
       <c r="P232" s="2" t="s">
         <v>3370</v>
@@ -33914,7 +33914,7 @@
         <v>3538</v>
       </c>
       <c r="F233" s="2" t="s">
-        <v>5579</v>
+        <v>5576</v>
       </c>
       <c r="G233" s="2" t="s">
         <v>3539</v>
@@ -33923,7 +33923,7 @@
         <v>3540</v>
       </c>
       <c r="O233" s="2" t="s">
-        <v>5488</v>
+        <v>5485</v>
       </c>
       <c r="P233" s="2" t="s">
         <v>3370</v>
@@ -33949,7 +33949,7 @@
         <v>3532</v>
       </c>
       <c r="F234" s="2" t="s">
-        <v>5578</v>
+        <v>5575</v>
       </c>
       <c r="G234" s="2" t="s">
         <v>3533</v>
@@ -33958,7 +33958,7 @@
         <v>3534</v>
       </c>
       <c r="O234" s="2" t="s">
-        <v>5488</v>
+        <v>5485</v>
       </c>
       <c r="P234" s="2" t="s">
         <v>3370</v>
@@ -33984,7 +33984,7 @@
         <v>3585</v>
       </c>
       <c r="F235" s="2" t="s">
-        <v>5589</v>
+        <v>5586</v>
       </c>
       <c r="G235" s="2" t="s">
         <v>3586</v>
@@ -34001,7 +34001,7 @@
         <v>49</v>
       </c>
       <c r="C236" s="4" t="s">
-        <v>5124</v>
+        <v>5123</v>
       </c>
       <c r="D236" s="4" t="s">
         <v>2370</v>
@@ -34010,7 +34010,7 @@
         <v>2371</v>
       </c>
       <c r="F236" s="2" t="s">
-        <v>5125</v>
+        <v>5124</v>
       </c>
       <c r="G236" s="2" t="s">
         <v>2372</v>
@@ -34089,7 +34089,7 @@
         <v>4456</v>
       </c>
       <c r="U238" s="2" t="s">
-        <v>5710</v>
+        <v>5707</v>
       </c>
       <c r="V238" s="2" t="s">
         <v>2076</v>
@@ -34132,7 +34132,7 @@
         <v>2824</v>
       </c>
       <c r="F240" s="2" t="s">
-        <v>5251</v>
+        <v>5248</v>
       </c>
       <c r="G240" s="2" t="s">
         <v>2825</v>
@@ -34166,7 +34166,7 @@
         <v>49</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>5118</v>
+        <v>5117</v>
       </c>
       <c r="D242" s="4" t="s">
         <v>2349</v>
@@ -34175,7 +34175,7 @@
         <v>2350</v>
       </c>
       <c r="F242" s="2" t="s">
-        <v>5119</v>
+        <v>5118</v>
       </c>
       <c r="G242" s="2" t="s">
         <v>2351</v>
@@ -34210,7 +34210,7 @@
         <v>2531</v>
       </c>
       <c r="F243" s="2" t="s">
-        <v>5169</v>
+        <v>5166</v>
       </c>
       <c r="G243" s="2" t="s">
         <v>2532</v>
@@ -34228,7 +34228,7 @@
         <v>2535</v>
       </c>
       <c r="O243" s="4" t="s">
-        <v>5170</v>
+        <v>5167</v>
       </c>
       <c r="P243" s="4" t="s">
         <v>2536</v>
@@ -34245,7 +34245,7 @@
         <v>49</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>5136</v>
+        <v>5135</v>
       </c>
       <c r="D244" s="4" t="s">
         <v>2412</v>
@@ -34254,7 +34254,7 @@
         <v>2413</v>
       </c>
       <c r="F244" s="2" t="s">
-        <v>5137</v>
+        <v>5136</v>
       </c>
       <c r="G244" s="2" t="s">
         <v>2414</v>
@@ -34316,7 +34316,7 @@
         <v>4557</v>
       </c>
       <c r="U245" s="2" t="s">
-        <v>5699</v>
+        <v>5696</v>
       </c>
       <c r="V245" s="2" t="s">
         <v>2285</v>
@@ -34377,7 +34377,7 @@
         <v>3468</v>
       </c>
       <c r="F247" s="2" t="s">
-        <v>5567</v>
+        <v>5564</v>
       </c>
       <c r="G247" s="2" t="s">
         <v>3469</v>
@@ -34412,7 +34412,7 @@
         <v>715</v>
       </c>
       <c r="L248" s="2" t="s">
-        <v>5284</v>
+        <v>5281</v>
       </c>
       <c r="M248" s="2" t="s">
         <v>716</v>
@@ -34438,7 +34438,7 @@
         <v>3220</v>
       </c>
       <c r="F249" s="2" t="s">
-        <v>5419</v>
+        <v>5416</v>
       </c>
       <c r="G249" s="2" t="s">
         <v>3221</v>
@@ -34464,7 +34464,7 @@
         <v>2833</v>
       </c>
       <c r="F250" s="2" t="s">
-        <v>5254</v>
+        <v>5251</v>
       </c>
       <c r="G250" s="2" t="s">
         <v>2834</v>
@@ -34490,7 +34490,7 @@
         <v>3528</v>
       </c>
       <c r="F251" s="2" t="s">
-        <v>5577</v>
+        <v>5574</v>
       </c>
       <c r="G251" s="2" t="s">
         <v>3529</v>
@@ -34533,7 +34533,7 @@
         <v>2565</v>
       </c>
       <c r="F253" s="2" t="s">
-        <v>5176</v>
+        <v>5173</v>
       </c>
       <c r="G253" s="2" t="s">
         <v>2566</v>
@@ -34551,7 +34551,7 @@
         <v>2569</v>
       </c>
       <c r="O253" s="4" t="s">
-        <v>5177</v>
+        <v>5174</v>
       </c>
       <c r="P253" s="4" t="s">
         <v>2570</v>
@@ -34612,7 +34612,7 @@
         <v>52</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>5402</v>
+        <v>5399</v>
       </c>
       <c r="D255" s="2" t="s">
         <v>1061</v>
@@ -34621,7 +34621,7 @@
         <v>1060</v>
       </c>
       <c r="L255" s="2" t="s">
-        <v>5403</v>
+        <v>5400</v>
       </c>
       <c r="M255" s="2" t="s">
         <v>1062</v>
@@ -34691,7 +34691,7 @@
         <v>2713</v>
       </c>
       <c r="F257" s="2" t="s">
-        <v>5223</v>
+        <v>5220</v>
       </c>
       <c r="G257" s="2" t="s">
         <v>2714</v>
@@ -34708,7 +34708,7 @@
         <v>52</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>5427</v>
+        <v>5424</v>
       </c>
       <c r="D258" s="2" t="s">
         <v>1093</v>
@@ -34717,7 +34717,7 @@
         <v>1092</v>
       </c>
       <c r="L258" s="2" t="s">
-        <v>5428</v>
+        <v>5425</v>
       </c>
       <c r="M258" s="2" t="s">
         <v>1094</v>
@@ -34734,7 +34734,7 @@
         <v>1118</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>5439</v>
+        <v>5436</v>
       </c>
       <c r="D259" s="2" t="s">
         <v>1119</v>
@@ -34743,7 +34743,7 @@
         <v>1120</v>
       </c>
       <c r="L259" s="2" t="s">
-        <v>5440</v>
+        <v>5437</v>
       </c>
       <c r="M259" s="2" t="s">
         <v>1121</v>
@@ -34778,7 +34778,7 @@
         <v>759</v>
       </c>
       <c r="L260" s="2" t="s">
-        <v>5290</v>
+        <v>5287</v>
       </c>
       <c r="M260" s="2" t="s">
         <v>760</v>
@@ -34804,7 +34804,7 @@
         <v>3596</v>
       </c>
       <c r="F261" s="2" t="s">
-        <v>5591</v>
+        <v>5588</v>
       </c>
       <c r="G261" s="2" t="s">
         <v>3597</v>
@@ -34821,7 +34821,7 @@
         <v>1224</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>5481</v>
+        <v>5478</v>
       </c>
       <c r="D262" s="2" t="s">
         <v>1225</v>
@@ -34830,7 +34830,7 @@
         <v>1226</v>
       </c>
       <c r="L262" s="2" t="s">
-        <v>5482</v>
+        <v>5479</v>
       </c>
       <c r="M262" s="2" t="s">
         <v>1227</v>
@@ -34970,7 +34970,7 @@
         <v>551</v>
       </c>
       <c r="L266" s="2" t="s">
-        <v>5213</v>
+        <v>5210</v>
       </c>
       <c r="M266" s="2" t="s">
         <v>552</v>
@@ -34987,7 +34987,7 @@
         <v>804</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>5549</v>
+        <v>5546</v>
       </c>
       <c r="D267" s="2" t="s">
         <v>1349</v>
@@ -35004,7 +35004,7 @@
         <v>1253</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>5154</v>
+        <v>5151</v>
       </c>
       <c r="D268" s="4" t="s">
         <v>2476</v>
@@ -35013,7 +35013,7 @@
         <v>2477</v>
       </c>
       <c r="F268" s="2" t="s">
-        <v>5155</v>
+        <v>5152</v>
       </c>
       <c r="G268" s="2" t="s">
         <v>2478</v>
@@ -35031,7 +35031,7 @@
         <v>2481</v>
       </c>
       <c r="O268" s="2" t="s">
-        <v>5156</v>
+        <v>5153</v>
       </c>
       <c r="P268" s="2" t="s">
         <v>2482</v>
@@ -35142,7 +35142,7 @@
         <v>2708</v>
       </c>
       <c r="F274" s="2" t="s">
-        <v>5222</v>
+        <v>5219</v>
       </c>
       <c r="G274" s="2" t="s">
         <v>2709</v>
@@ -35254,7 +35254,7 @@
         <v>2598</v>
       </c>
       <c r="F279" s="2" t="s">
-        <v>5185</v>
+        <v>5182</v>
       </c>
       <c r="G279" s="2" t="s">
         <v>2599</v>
@@ -35272,7 +35272,7 @@
         <v>2602</v>
       </c>
       <c r="O279" s="4" t="s">
-        <v>5186</v>
+        <v>5183</v>
       </c>
       <c r="P279" s="4" t="s">
         <v>2603</v>
@@ -35289,7 +35289,7 @@
         <v>804</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>5554</v>
+        <v>5551</v>
       </c>
       <c r="D280" s="2" t="s">
         <v>1366</v>
@@ -35306,7 +35306,7 @@
         <v>1329</v>
       </c>
       <c r="C281" s="4" t="s">
-        <v>5178</v>
+        <v>5175</v>
       </c>
       <c r="D281" s="4" t="s">
         <v>2572</v>
@@ -35315,7 +35315,7 @@
         <v>2573</v>
       </c>
       <c r="F281" s="2" t="s">
-        <v>5179</v>
+        <v>5176</v>
       </c>
       <c r="G281" s="2" t="s">
         <v>2574</v>
@@ -35333,7 +35333,7 @@
         <v>2577</v>
       </c>
       <c r="O281" s="4" t="s">
-        <v>5180</v>
+        <v>5177</v>
       </c>
       <c r="P281" s="4" t="s">
         <v>2578</v>
@@ -35419,7 +35419,7 @@
         <v>3475</v>
       </c>
       <c r="F285" s="2" t="s">
-        <v>5568</v>
+        <v>5565</v>
       </c>
       <c r="G285" s="2" t="s">
         <v>3476</v>
@@ -35445,7 +35445,7 @@
         <v>3483</v>
       </c>
       <c r="F286" s="2" t="s">
-        <v>5569</v>
+        <v>5566</v>
       </c>
       <c r="G286" s="2" t="s">
         <v>3484</v>
@@ -35524,7 +35524,7 @@
         <v>4553</v>
       </c>
       <c r="U288" s="2" t="s">
-        <v>5693</v>
+        <v>5690</v>
       </c>
       <c r="V288" s="2" t="s">
         <v>2279</v>
@@ -35559,7 +35559,7 @@
         <v>3430</v>
       </c>
       <c r="O289" s="2" t="s">
-        <v>5415</v>
+        <v>5412</v>
       </c>
       <c r="P289" s="2" t="s">
         <v>4830</v>
@@ -35594,7 +35594,7 @@
         <v>3430</v>
       </c>
       <c r="O290" s="2" t="s">
-        <v>5415</v>
+        <v>5412</v>
       </c>
       <c r="P290" s="2" t="s">
         <v>4830</v>
@@ -35629,7 +35629,7 @@
         <v>3430</v>
       </c>
       <c r="O291" s="2" t="s">
-        <v>5415</v>
+        <v>5412</v>
       </c>
       <c r="P291" s="2" t="s">
         <v>4830</v>
@@ -35664,7 +35664,7 @@
         <v>3430</v>
       </c>
       <c r="O292" s="2" t="s">
-        <v>5415</v>
+        <v>5412</v>
       </c>
       <c r="P292" s="2" t="s">
         <v>4830</v>
@@ -35699,7 +35699,7 @@
         <v>3430</v>
       </c>
       <c r="O293" s="2" t="s">
-        <v>5415</v>
+        <v>5412</v>
       </c>
       <c r="P293" s="2" t="s">
         <v>4830</v>
@@ -35734,7 +35734,7 @@
         <v>3430</v>
       </c>
       <c r="O294" s="2" t="s">
-        <v>5415</v>
+        <v>5412</v>
       </c>
       <c r="P294" s="2" t="s">
         <v>4830</v>
@@ -35769,7 +35769,7 @@
         <v>3430</v>
       </c>
       <c r="O295" s="2" t="s">
-        <v>5415</v>
+        <v>5412</v>
       </c>
       <c r="P295" s="2" t="s">
         <v>4830</v>
@@ -35804,7 +35804,7 @@
         <v>3430</v>
       </c>
       <c r="O296" s="2" t="s">
-        <v>5415</v>
+        <v>5412</v>
       </c>
       <c r="P296" s="2" t="s">
         <v>4830</v>
@@ -35839,7 +35839,7 @@
         <v>3430</v>
       </c>
       <c r="O297" s="2" t="s">
-        <v>5415</v>
+        <v>5412</v>
       </c>
       <c r="P297" s="2" t="s">
         <v>4830</v>
@@ -35874,7 +35874,7 @@
         <v>3430</v>
       </c>
       <c r="O298" s="2" t="s">
-        <v>5415</v>
+        <v>5412</v>
       </c>
       <c r="P298" s="2" t="s">
         <v>4830</v>
@@ -35909,7 +35909,7 @@
         <v>3430</v>
       </c>
       <c r="O299" s="2" t="s">
-        <v>5415</v>
+        <v>5412</v>
       </c>
       <c r="P299" s="2" t="s">
         <v>4830</v>
@@ -35944,7 +35944,7 @@
         <v>3430</v>
       </c>
       <c r="O300" s="2" t="s">
-        <v>5415</v>
+        <v>5412</v>
       </c>
       <c r="P300" s="2" t="s">
         <v>4830</v>
@@ -35979,7 +35979,7 @@
         <v>3430</v>
       </c>
       <c r="O301" s="2" t="s">
-        <v>5415</v>
+        <v>5412</v>
       </c>
       <c r="P301" s="2" t="s">
         <v>4830</v>
@@ -36014,7 +36014,7 @@
         <v>3430</v>
       </c>
       <c r="O302" s="2" t="s">
-        <v>5415</v>
+        <v>5412</v>
       </c>
       <c r="P302" s="2" t="s">
         <v>4830</v>
@@ -36049,7 +36049,7 @@
         <v>3430</v>
       </c>
       <c r="O303" s="2" t="s">
-        <v>5415</v>
+        <v>5412</v>
       </c>
       <c r="P303" s="2" t="s">
         <v>4830</v>
@@ -36084,7 +36084,7 @@
         <v>3430</v>
       </c>
       <c r="O304" s="2" t="s">
-        <v>5415</v>
+        <v>5412</v>
       </c>
       <c r="P304" s="2" t="s">
         <v>4830</v>
@@ -36119,7 +36119,7 @@
         <v>3430</v>
       </c>
       <c r="O305" s="2" t="s">
-        <v>5415</v>
+        <v>5412</v>
       </c>
       <c r="P305" s="2" t="s">
         <v>4830</v>
@@ -36145,7 +36145,7 @@
         <v>3428</v>
       </c>
       <c r="F306" s="2" t="s">
-        <v>5503</v>
+        <v>5500</v>
       </c>
       <c r="G306" s="2" t="s">
         <v>3429</v>
@@ -36154,7 +36154,7 @@
         <v>3430</v>
       </c>
       <c r="O306" s="2" t="s">
-        <v>5415</v>
+        <v>5412</v>
       </c>
       <c r="P306" s="2" t="s">
         <v>4830</v>
@@ -36189,7 +36189,7 @@
         <v>519</v>
       </c>
       <c r="L307" s="2" t="s">
-        <v>5209</v>
+        <v>5206</v>
       </c>
       <c r="M307" s="2" t="s">
         <v>520</v>
@@ -36230,7 +36230,7 @@
         <v>572</v>
       </c>
       <c r="L308" s="2" t="s">
-        <v>5216</v>
+        <v>5213</v>
       </c>
       <c r="M308" s="2" t="s">
         <v>573</v>
@@ -36282,7 +36282,7 @@
         <v>536</v>
       </c>
       <c r="L310" s="2" t="s">
-        <v>5211</v>
+        <v>5208</v>
       </c>
       <c r="M310" s="2" t="s">
         <v>537</v>
@@ -36334,7 +36334,7 @@
         <v>419</v>
       </c>
       <c r="AD312" s="4" t="s">
-        <v>5790</v>
+        <v>5787</v>
       </c>
       <c r="AE312" s="4" t="s">
         <v>420</v>
@@ -36360,7 +36360,7 @@
         <v>3631</v>
       </c>
       <c r="F313" s="2" t="s">
-        <v>5600</v>
+        <v>5597</v>
       </c>
       <c r="G313" s="2" t="s">
         <v>3632</v>
@@ -36395,7 +36395,7 @@
         <v>3613</v>
       </c>
       <c r="F314" s="2" t="s">
-        <v>5597</v>
+        <v>5594</v>
       </c>
       <c r="G314" s="2" t="s">
         <v>3614</v>
@@ -36439,7 +36439,7 @@
         <v>615</v>
       </c>
       <c r="L315" s="2" t="s">
-        <v>5235</v>
+        <v>5232</v>
       </c>
       <c r="M315" s="2" t="s">
         <v>616</v>
@@ -36456,7 +36456,7 @@
         <v>38</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>5629</v>
+        <v>5626</v>
       </c>
       <c r="D316" s="2" t="s">
         <v>1428</v>
@@ -36465,7 +36465,7 @@
         <v>1429</v>
       </c>
       <c r="I316" s="2" t="s">
-        <v>5778</v>
+        <v>5775</v>
       </c>
       <c r="J316" s="2" t="s">
         <v>1430</v>
@@ -36500,7 +36500,7 @@
         <v>3398</v>
       </c>
       <c r="O317" s="2" t="s">
-        <v>5410</v>
+        <v>5407</v>
       </c>
       <c r="P317" s="2" t="s">
         <v>3399</v>
@@ -36535,7 +36535,7 @@
         <v>3398</v>
       </c>
       <c r="O318" s="2" t="s">
-        <v>5410</v>
+        <v>5407</v>
       </c>
       <c r="P318" s="2" t="s">
         <v>3399</v>
@@ -36570,7 +36570,7 @@
         <v>3398</v>
       </c>
       <c r="O319" s="2" t="s">
-        <v>5410</v>
+        <v>5407</v>
       </c>
       <c r="P319" s="2" t="s">
         <v>3399</v>
@@ -36605,7 +36605,7 @@
         <v>3398</v>
       </c>
       <c r="O320" s="2" t="s">
-        <v>5410</v>
+        <v>5407</v>
       </c>
       <c r="P320" s="2" t="s">
         <v>3399</v>
@@ -36640,7 +36640,7 @@
         <v>3398</v>
       </c>
       <c r="O321" s="2" t="s">
-        <v>5410</v>
+        <v>5407</v>
       </c>
       <c r="P321" s="2" t="s">
         <v>3399</v>
@@ -36675,7 +36675,7 @@
         <v>3398</v>
       </c>
       <c r="O322" s="2" t="s">
-        <v>5410</v>
+        <v>5407</v>
       </c>
       <c r="P322" s="2" t="s">
         <v>3399</v>
@@ -36710,7 +36710,7 @@
         <v>3398</v>
       </c>
       <c r="O323" s="2" t="s">
-        <v>5410</v>
+        <v>5407</v>
       </c>
       <c r="P323" s="2" t="s">
         <v>3399</v>
@@ -36745,7 +36745,7 @@
         <v>3398</v>
       </c>
       <c r="O324" s="2" t="s">
-        <v>5410</v>
+        <v>5407</v>
       </c>
       <c r="P324" s="2" t="s">
         <v>3399</v>
@@ -36780,7 +36780,7 @@
         <v>3398</v>
       </c>
       <c r="O325" s="2" t="s">
-        <v>5410</v>
+        <v>5407</v>
       </c>
       <c r="P325" s="2" t="s">
         <v>3399</v>
@@ -36815,7 +36815,7 @@
         <v>3398</v>
       </c>
       <c r="O326" s="2" t="s">
-        <v>5410</v>
+        <v>5407</v>
       </c>
       <c r="P326" s="2" t="s">
         <v>3399</v>
@@ -36850,7 +36850,7 @@
         <v>3398</v>
       </c>
       <c r="O327" s="2" t="s">
-        <v>5410</v>
+        <v>5407</v>
       </c>
       <c r="P327" s="2" t="s">
         <v>3399</v>
@@ -36885,7 +36885,7 @@
         <v>3398</v>
       </c>
       <c r="O328" s="2" t="s">
-        <v>5410</v>
+        <v>5407</v>
       </c>
       <c r="P328" s="2" t="s">
         <v>3399</v>
@@ -36920,7 +36920,7 @@
         <v>3398</v>
       </c>
       <c r="O329" s="2" t="s">
-        <v>5410</v>
+        <v>5407</v>
       </c>
       <c r="P329" s="2" t="s">
         <v>3399</v>
@@ -36955,7 +36955,7 @@
         <v>3398</v>
       </c>
       <c r="O330" s="2" t="s">
-        <v>5410</v>
+        <v>5407</v>
       </c>
       <c r="P330" s="2" t="s">
         <v>3399</v>
@@ -36990,7 +36990,7 @@
         <v>3398</v>
       </c>
       <c r="O331" s="2" t="s">
-        <v>5410</v>
+        <v>5407</v>
       </c>
       <c r="P331" s="2" t="s">
         <v>3399</v>
@@ -37025,7 +37025,7 @@
         <v>3398</v>
       </c>
       <c r="O332" s="2" t="s">
-        <v>5410</v>
+        <v>5407</v>
       </c>
       <c r="P332" s="2" t="s">
         <v>3399</v>
@@ -37060,7 +37060,7 @@
         <v>3398</v>
       </c>
       <c r="O333" s="2" t="s">
-        <v>5410</v>
+        <v>5407</v>
       </c>
       <c r="P333" s="2" t="s">
         <v>3399</v>
@@ -37086,7 +37086,7 @@
         <v>3396</v>
       </c>
       <c r="F334" s="2" t="s">
-        <v>5497</v>
+        <v>5494</v>
       </c>
       <c r="G334" s="2" t="s">
         <v>3397</v>
@@ -37095,7 +37095,7 @@
         <v>3398</v>
       </c>
       <c r="O334" s="2" t="s">
-        <v>5410</v>
+        <v>5407</v>
       </c>
       <c r="P334" s="2" t="s">
         <v>3399</v>
@@ -37242,7 +37242,7 @@
         <v>49</v>
       </c>
       <c r="C340" s="4" t="s">
-        <v>5126</v>
+        <v>5125</v>
       </c>
       <c r="D340" s="4" t="s">
         <v>2377</v>
@@ -37251,7 +37251,7 @@
         <v>2378</v>
       </c>
       <c r="F340" s="2" t="s">
-        <v>5127</v>
+        <v>5126</v>
       </c>
       <c r="G340" s="2" t="s">
         <v>2379</v>
@@ -37277,7 +37277,7 @@
         <v>49</v>
       </c>
       <c r="C341" s="4" t="s">
-        <v>5138</v>
+        <v>5816</v>
       </c>
       <c r="D341" s="4" t="s">
         <v>2418</v>
@@ -37286,7 +37286,7 @@
         <v>2419</v>
       </c>
       <c r="F341" s="2" t="s">
-        <v>5139</v>
+        <v>5137</v>
       </c>
       <c r="G341" s="2" t="s">
         <v>2420</v>
@@ -37321,7 +37321,7 @@
         <v>2849</v>
       </c>
       <c r="F342" s="2" t="s">
-        <v>5258</v>
+        <v>5255</v>
       </c>
       <c r="G342" s="2" t="s">
         <v>2850</v>
@@ -37347,7 +37347,7 @@
         <v>3019</v>
       </c>
       <c r="F343" s="2" t="s">
-        <v>5309</v>
+        <v>5306</v>
       </c>
       <c r="G343" s="2" t="s">
         <v>3021</v>
@@ -37408,7 +37408,7 @@
         <v>52</v>
       </c>
       <c r="C345" s="2" t="s">
-        <v>5400</v>
+        <v>5397</v>
       </c>
       <c r="D345" s="2" t="s">
         <v>1055</v>
@@ -37417,7 +37417,7 @@
         <v>1056</v>
       </c>
       <c r="L345" s="2" t="s">
-        <v>5401</v>
+        <v>5398</v>
       </c>
       <c r="M345" s="2" t="s">
         <v>1057</v>
@@ -37478,7 +37478,7 @@
         <v>2623</v>
       </c>
       <c r="F347" s="2" t="s">
-        <v>5194</v>
+        <v>5191</v>
       </c>
       <c r="G347" s="2" t="s">
         <v>2625</v>
@@ -37531,7 +37531,7 @@
         <v>4491</v>
       </c>
       <c r="U348" s="2" t="s">
-        <v>5704</v>
+        <v>5701</v>
       </c>
       <c r="V348" s="2" t="s">
         <v>2149</v>
@@ -37548,7 +37548,7 @@
         <v>38</v>
       </c>
       <c r="C349" s="2" t="s">
-        <v>5643</v>
+        <v>5640</v>
       </c>
       <c r="D349" s="2" t="s">
         <v>1461</v>
@@ -37557,7 +37557,7 @@
         <v>1462</v>
       </c>
       <c r="I349" s="2" t="s">
-        <v>5768</v>
+        <v>5765</v>
       </c>
       <c r="J349" s="2" t="s">
         <v>1463</v>
@@ -37574,7 +37574,7 @@
         <v>858</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>5328</v>
+        <v>5325</v>
       </c>
       <c r="D350" s="2" t="s">
         <v>859</v>
@@ -37583,7 +37583,7 @@
         <v>860</v>
       </c>
       <c r="L350" s="2" t="s">
-        <v>5329</v>
+        <v>5326</v>
       </c>
       <c r="M350" s="2" t="s">
         <v>861</v>
@@ -37609,7 +37609,7 @@
         <v>2549</v>
       </c>
       <c r="F351" s="2" t="s">
-        <v>5173</v>
+        <v>5170</v>
       </c>
       <c r="G351" s="2" t="s">
         <v>2550</v>
@@ -37627,7 +37627,7 @@
         <v>2553</v>
       </c>
       <c r="O351" s="4" t="s">
-        <v>5174</v>
+        <v>5171</v>
       </c>
       <c r="P351" s="4" t="s">
         <v>2554</v>
@@ -37653,7 +37653,7 @@
         <v>3455</v>
       </c>
       <c r="F352" s="2" t="s">
-        <v>5564</v>
+        <v>5561</v>
       </c>
       <c r="G352" s="2" t="s">
         <v>3456</v>
@@ -37714,7 +37714,7 @@
         <v>2638</v>
       </c>
       <c r="F354" s="2" t="s">
-        <v>5197</v>
+        <v>5194</v>
       </c>
       <c r="G354" s="2" t="s">
         <v>2639</v>
@@ -37757,7 +37757,7 @@
         <v>49</v>
       </c>
       <c r="C356" s="4" t="s">
-        <v>5140</v>
+        <v>5817</v>
       </c>
       <c r="D356" s="4" t="s">
         <v>2424</v>
@@ -37766,7 +37766,7 @@
         <v>2425</v>
       </c>
       <c r="F356" s="2" t="s">
-        <v>5141</v>
+        <v>5138</v>
       </c>
       <c r="G356" s="2" t="s">
         <v>2426</v>
@@ -37801,10 +37801,10 @@
         <v>2859</v>
       </c>
       <c r="F357" s="2" t="s">
-        <v>5260</v>
+        <v>5257</v>
       </c>
       <c r="G357" s="2" t="s">
-        <v>5261</v>
+        <v>5258</v>
       </c>
       <c r="H357" t="s">
         <v>2860</v>
@@ -37827,7 +37827,7 @@
         <v>2902</v>
       </c>
       <c r="F358" s="2" t="s">
-        <v>5270</v>
+        <v>5267</v>
       </c>
       <c r="G358" s="2" t="s">
         <v>2903</v>
@@ -37853,7 +37853,7 @@
         <v>2468</v>
       </c>
       <c r="F359" s="2" t="s">
-        <v>5152</v>
+        <v>5149</v>
       </c>
       <c r="G359" s="2" t="s">
         <v>2469</v>
@@ -37871,7 +37871,7 @@
         <v>2472</v>
       </c>
       <c r="O359" s="2" t="s">
-        <v>5153</v>
+        <v>5150</v>
       </c>
       <c r="P359" s="2" t="s">
         <v>2473</v>
@@ -37914,7 +37914,7 @@
         <v>2913</v>
       </c>
       <c r="F361" s="2" t="s">
-        <v>5272</v>
+        <v>5269</v>
       </c>
       <c r="G361" s="2" t="s">
         <v>2914</v>
@@ -37940,7 +37940,7 @@
         <v>2918</v>
       </c>
       <c r="F362" s="2" t="s">
-        <v>5273</v>
+        <v>5270</v>
       </c>
       <c r="G362" s="2" t="s">
         <v>2919</v>
@@ -38449,7 +38449,7 @@
         <v>1883</v>
       </c>
       <c r="F375" t="s">
-        <v>5815</v>
+        <v>5812</v>
       </c>
       <c r="G375" t="s">
         <v>1855</v>
@@ -38461,7 +38461,7 @@
         <v>3968</v>
       </c>
       <c r="L375" t="s">
-        <v>5816</v>
+        <v>5813</v>
       </c>
       <c r="M375" t="s">
         <v>1867</v>
@@ -38470,7 +38470,7 @@
         <v>1868</v>
       </c>
       <c r="O375" t="s">
-        <v>5817</v>
+        <v>5814</v>
       </c>
       <c r="P375" t="s">
         <v>3969</v>
@@ -38513,7 +38513,7 @@
         <v>2800</v>
       </c>
       <c r="F377" s="2" t="s">
-        <v>5246</v>
+        <v>5243</v>
       </c>
       <c r="G377" s="2" t="s">
         <v>2801</v>
@@ -38548,7 +38548,7 @@
         <v>766</v>
       </c>
       <c r="L378" s="2" t="s">
-        <v>5291</v>
+        <v>5288</v>
       </c>
       <c r="M378" s="2" t="s">
         <v>767</v>
@@ -38591,7 +38591,7 @@
         <v>763</v>
       </c>
       <c r="F380" s="2" t="s">
-        <v>5572</v>
+        <v>5569</v>
       </c>
       <c r="G380" s="2" t="s">
         <v>3497</v>
@@ -38643,7 +38643,7 @@
         <v>601</v>
       </c>
       <c r="L382" s="2" t="s">
-        <v>5233</v>
+        <v>5230</v>
       </c>
       <c r="M382" s="2" t="s">
         <v>602</v>
@@ -38669,7 +38669,7 @@
         <v>2964</v>
       </c>
       <c r="F383" s="2" t="s">
-        <v>5298</v>
+        <v>5295</v>
       </c>
       <c r="G383" s="2" t="s">
         <v>2966</v>
@@ -38695,7 +38695,7 @@
         <v>2500</v>
       </c>
       <c r="F384" s="2" t="s">
-        <v>5162</v>
+        <v>5159</v>
       </c>
       <c r="G384" s="2" t="s">
         <v>2501</v>
@@ -38713,7 +38713,7 @@
         <v>2504</v>
       </c>
       <c r="O384" s="2" t="s">
-        <v>5163</v>
+        <v>5160</v>
       </c>
       <c r="P384" s="2" t="s">
         <v>2505</v>
@@ -38730,7 +38730,7 @@
         <v>1124</v>
       </c>
       <c r="C385" s="2" t="s">
-        <v>5450</v>
+        <v>5447</v>
       </c>
       <c r="D385" s="2" t="s">
         <v>1145</v>
@@ -38739,7 +38739,7 @@
         <v>1146</v>
       </c>
       <c r="L385" s="2" t="s">
-        <v>5451</v>
+        <v>5448</v>
       </c>
       <c r="M385" s="2" t="s">
         <v>1147</v>
@@ -38774,7 +38774,7 @@
         <v>3413</v>
       </c>
       <c r="O386" s="2" t="s">
-        <v>5414</v>
+        <v>5411</v>
       </c>
       <c r="P386" s="2" t="s">
         <v>3414</v>
@@ -38809,7 +38809,7 @@
         <v>3413</v>
       </c>
       <c r="O387" s="2" t="s">
-        <v>5414</v>
+        <v>5411</v>
       </c>
       <c r="P387" s="2" t="s">
         <v>3414</v>
@@ -38844,7 +38844,7 @@
         <v>3413</v>
       </c>
       <c r="O388" s="2" t="s">
-        <v>5414</v>
+        <v>5411</v>
       </c>
       <c r="P388" s="2" t="s">
         <v>3414</v>
@@ -38879,7 +38879,7 @@
         <v>3413</v>
       </c>
       <c r="O389" s="2" t="s">
-        <v>5414</v>
+        <v>5411</v>
       </c>
       <c r="P389" s="2" t="s">
         <v>3414</v>
@@ -38914,7 +38914,7 @@
         <v>3413</v>
       </c>
       <c r="O390" s="2" t="s">
-        <v>5414</v>
+        <v>5411</v>
       </c>
       <c r="P390" s="2" t="s">
         <v>3414</v>
@@ -38949,7 +38949,7 @@
         <v>3413</v>
       </c>
       <c r="O391" s="2" t="s">
-        <v>5414</v>
+        <v>5411</v>
       </c>
       <c r="P391" s="2" t="s">
         <v>3414</v>
@@ -38984,7 +38984,7 @@
         <v>3413</v>
       </c>
       <c r="O392" s="2" t="s">
-        <v>5414</v>
+        <v>5411</v>
       </c>
       <c r="P392" s="2" t="s">
         <v>3414</v>
@@ -39019,7 +39019,7 @@
         <v>3413</v>
       </c>
       <c r="O393" s="2" t="s">
-        <v>5414</v>
+        <v>5411</v>
       </c>
       <c r="P393" s="2" t="s">
         <v>3414</v>
@@ -39054,7 +39054,7 @@
         <v>3413</v>
       </c>
       <c r="O394" s="2" t="s">
-        <v>5414</v>
+        <v>5411</v>
       </c>
       <c r="P394" s="2" t="s">
         <v>3414</v>
@@ -39089,7 +39089,7 @@
         <v>3413</v>
       </c>
       <c r="O395" s="2" t="s">
-        <v>5414</v>
+        <v>5411</v>
       </c>
       <c r="P395" s="2" t="s">
         <v>3414</v>
@@ -39124,7 +39124,7 @@
         <v>3413</v>
       </c>
       <c r="O396" s="2" t="s">
-        <v>5414</v>
+        <v>5411</v>
       </c>
       <c r="P396" s="2" t="s">
         <v>3414</v>
@@ -39159,7 +39159,7 @@
         <v>3413</v>
       </c>
       <c r="O397" s="2" t="s">
-        <v>5414</v>
+        <v>5411</v>
       </c>
       <c r="P397" s="2" t="s">
         <v>3414</v>
@@ -39194,7 +39194,7 @@
         <v>3413</v>
       </c>
       <c r="O398" s="2" t="s">
-        <v>5414</v>
+        <v>5411</v>
       </c>
       <c r="P398" s="2" t="s">
         <v>3414</v>
@@ -39229,7 +39229,7 @@
         <v>3413</v>
       </c>
       <c r="O399" s="2" t="s">
-        <v>5414</v>
+        <v>5411</v>
       </c>
       <c r="P399" s="2" t="s">
         <v>3414</v>
@@ -39264,7 +39264,7 @@
         <v>3413</v>
       </c>
       <c r="O400" s="2" t="s">
-        <v>5414</v>
+        <v>5411</v>
       </c>
       <c r="P400" s="2" t="s">
         <v>3414</v>
@@ -39299,7 +39299,7 @@
         <v>3413</v>
       </c>
       <c r="O401" s="2" t="s">
-        <v>5414</v>
+        <v>5411</v>
       </c>
       <c r="P401" s="2" t="s">
         <v>3414</v>
@@ -39334,7 +39334,7 @@
         <v>3413</v>
       </c>
       <c r="O402" s="2" t="s">
-        <v>5414</v>
+        <v>5411</v>
       </c>
       <c r="P402" s="2" t="s">
         <v>3414</v>
@@ -39360,7 +39360,7 @@
         <v>3411</v>
       </c>
       <c r="F403" s="2" t="s">
-        <v>5500</v>
+        <v>5497</v>
       </c>
       <c r="G403" s="2" t="s">
         <v>3412</v>
@@ -39369,7 +39369,7 @@
         <v>3413</v>
       </c>
       <c r="O403" s="2" t="s">
-        <v>5414</v>
+        <v>5411</v>
       </c>
       <c r="P403" s="2" t="s">
         <v>3414</v>
@@ -39404,7 +39404,7 @@
         <v>2560</v>
       </c>
       <c r="O404" s="2" t="s">
-        <v>5175</v>
+        <v>5172</v>
       </c>
       <c r="P404" s="2" t="s">
         <v>2561</v>
@@ -39430,7 +39430,7 @@
         <v>2942</v>
       </c>
       <c r="F405" s="2" t="s">
-        <v>5294</v>
+        <v>5291</v>
       </c>
       <c r="G405" s="2" t="s">
         <v>2943</v>
@@ -39456,7 +39456,7 @@
         <v>86</v>
       </c>
       <c r="I406" s="2" t="s">
-        <v>5769</v>
+        <v>5766</v>
       </c>
       <c r="J406" s="2" t="s">
         <v>1419</v>
@@ -39560,7 +39560,7 @@
         <v>2245</v>
       </c>
       <c r="R410" s="2" t="s">
-        <v>5689</v>
+        <v>5686</v>
       </c>
       <c r="S410" s="2" t="s">
         <v>2246</v>
@@ -39569,7 +39569,7 @@
         <v>4536</v>
       </c>
       <c r="U410" s="2" t="s">
-        <v>5734</v>
+        <v>5731</v>
       </c>
       <c r="V410" s="2" t="s">
         <v>2247</v>
@@ -39656,7 +39656,7 @@
         <v>3025</v>
       </c>
       <c r="F413" s="2" t="s">
-        <v>5309</v>
+        <v>5306</v>
       </c>
       <c r="G413" s="2" t="s">
         <v>3021</v>
@@ -40124,7 +40124,7 @@
         <v>3416</v>
       </c>
       <c r="F431" s="2" t="s">
-        <v>5501</v>
+        <v>5498</v>
       </c>
       <c r="G431" s="2" t="s">
         <v>3418</v>
@@ -40150,7 +40150,7 @@
         <v>3646</v>
       </c>
       <c r="F432" s="2" t="s">
-        <v>5612</v>
+        <v>5609</v>
       </c>
       <c r="G432" s="2" t="s">
         <v>3648</v>
@@ -40159,7 +40159,7 @@
         <v>3649</v>
       </c>
       <c r="O432" s="2" t="s">
-        <v>5613</v>
+        <v>5610</v>
       </c>
       <c r="P432" s="2" t="s">
         <v>3650</v>
@@ -40185,7 +40185,7 @@
         <v>1421</v>
       </c>
       <c r="I433" s="2" t="s">
-        <v>5770</v>
+        <v>5767</v>
       </c>
       <c r="J433" s="2" t="s">
         <v>1422</v>
@@ -40219,7 +40219,7 @@
         <v>1150</v>
       </c>
       <c r="C435" s="2" t="s">
-        <v>5452</v>
+        <v>5449</v>
       </c>
       <c r="D435" s="2" t="s">
         <v>1151</v>
@@ -40228,7 +40228,7 @@
         <v>1152</v>
       </c>
       <c r="L435" s="2" t="s">
-        <v>5453</v>
+        <v>5450</v>
       </c>
       <c r="M435" s="2" t="s">
         <v>1153</v>
@@ -40333,7 +40333,7 @@
         <v>2970</v>
       </c>
       <c r="F438" s="2" t="s">
-        <v>5299</v>
+        <v>5296</v>
       </c>
       <c r="G438" s="2" t="s">
         <v>2971</v>
@@ -40350,7 +40350,7 @@
         <v>314</v>
       </c>
       <c r="C439" s="4" t="s">
-        <v>5112</v>
+        <v>5818</v>
       </c>
       <c r="D439" s="4" t="s">
         <v>2328</v>
@@ -40359,7 +40359,7 @@
         <v>2329</v>
       </c>
       <c r="F439" s="2" t="s">
-        <v>5113</v>
+        <v>5112</v>
       </c>
       <c r="G439" s="2" t="s">
         <v>2330</v>
@@ -40394,7 +40394,7 @@
         <v>2653</v>
       </c>
       <c r="F440" s="2" t="s">
-        <v>5201</v>
+        <v>5198</v>
       </c>
       <c r="G440" s="2" t="s">
         <v>2654</v>
@@ -40411,7 +40411,7 @@
         <v>49</v>
       </c>
       <c r="C441" s="2" t="s">
-        <v>5794</v>
+        <v>5791</v>
       </c>
       <c r="D441" s="2" t="s">
         <v>3107</v>
@@ -40454,7 +40454,7 @@
         <v>2539</v>
       </c>
       <c r="F443" s="2" t="s">
-        <v>5171</v>
+        <v>5168</v>
       </c>
       <c r="G443" s="2" t="s">
         <v>2541</v>
@@ -40472,7 +40472,7 @@
         <v>2544</v>
       </c>
       <c r="O443" s="4" t="s">
-        <v>5172</v>
+        <v>5169</v>
       </c>
       <c r="P443" s="4" t="s">
         <v>2545</v>
@@ -40498,7 +40498,7 @@
         <v>3057</v>
       </c>
       <c r="F444" s="2" t="s">
-        <v>5307</v>
+        <v>5304</v>
       </c>
       <c r="G444" s="2" t="s">
         <v>3011</v>
@@ -40559,7 +40559,7 @@
         <v>3665</v>
       </c>
       <c r="F446" s="2" t="s">
-        <v>5617</v>
+        <v>5614</v>
       </c>
       <c r="G446" s="2" t="s">
         <v>3666</v>
@@ -40681,7 +40681,7 @@
         <v>122</v>
       </c>
       <c r="F450" t="s">
-        <v>5793</v>
+        <v>5790</v>
       </c>
       <c r="G450" t="s">
         <v>3407</v>
@@ -40690,7 +40690,7 @@
         <v>3408</v>
       </c>
       <c r="O450" t="s">
-        <v>5795</v>
+        <v>5792</v>
       </c>
       <c r="P450" t="s">
         <v>3974</v>
@@ -40716,7 +40716,7 @@
         <v>122</v>
       </c>
       <c r="F451" t="s">
-        <v>5793</v>
+        <v>5790</v>
       </c>
       <c r="G451" t="s">
         <v>3407</v>
@@ -40725,7 +40725,7 @@
         <v>3408</v>
       </c>
       <c r="O451" t="s">
-        <v>5795</v>
+        <v>5792</v>
       </c>
       <c r="P451" t="s">
         <v>3974</v>
@@ -40751,7 +40751,7 @@
         <v>122</v>
       </c>
       <c r="F452" t="s">
-        <v>5793</v>
+        <v>5790</v>
       </c>
       <c r="G452" t="s">
         <v>3407</v>
@@ -40760,7 +40760,7 @@
         <v>3408</v>
       </c>
       <c r="O452" t="s">
-        <v>5795</v>
+        <v>5792</v>
       </c>
       <c r="P452" t="s">
         <v>3974</v>
@@ -40786,7 +40786,7 @@
         <v>122</v>
       </c>
       <c r="F453" t="s">
-        <v>5793</v>
+        <v>5790</v>
       </c>
       <c r="G453" t="s">
         <v>3407</v>
@@ -40795,7 +40795,7 @@
         <v>3408</v>
       </c>
       <c r="O453" t="s">
-        <v>5795</v>
+        <v>5792</v>
       </c>
       <c r="P453" t="s">
         <v>3974</v>
@@ -40821,7 +40821,7 @@
         <v>122</v>
       </c>
       <c r="F454" t="s">
-        <v>5793</v>
+        <v>5790</v>
       </c>
       <c r="G454" t="s">
         <v>3407</v>
@@ -40830,7 +40830,7 @@
         <v>3408</v>
       </c>
       <c r="O454" t="s">
-        <v>5795</v>
+        <v>5792</v>
       </c>
       <c r="P454" t="s">
         <v>3974</v>
@@ -40856,7 +40856,7 @@
         <v>122</v>
       </c>
       <c r="F455" t="s">
-        <v>5793</v>
+        <v>5790</v>
       </c>
       <c r="G455" t="s">
         <v>3407</v>
@@ -40865,7 +40865,7 @@
         <v>3408</v>
       </c>
       <c r="O455" t="s">
-        <v>5795</v>
+        <v>5792</v>
       </c>
       <c r="P455" t="s">
         <v>3974</v>
@@ -40891,7 +40891,7 @@
         <v>122</v>
       </c>
       <c r="F456" t="s">
-        <v>5793</v>
+        <v>5790</v>
       </c>
       <c r="G456" t="s">
         <v>3407</v>
@@ -40900,7 +40900,7 @@
         <v>3408</v>
       </c>
       <c r="O456" t="s">
-        <v>5795</v>
+        <v>5792</v>
       </c>
       <c r="P456" t="s">
         <v>3974</v>
@@ -40926,7 +40926,7 @@
         <v>122</v>
       </c>
       <c r="F457" t="s">
-        <v>5793</v>
+        <v>5790</v>
       </c>
       <c r="G457" t="s">
         <v>3407</v>
@@ -40935,7 +40935,7 @@
         <v>3408</v>
       </c>
       <c r="O457" t="s">
-        <v>5795</v>
+        <v>5792</v>
       </c>
       <c r="P457" t="s">
         <v>3974</v>
@@ -40961,7 +40961,7 @@
         <v>122</v>
       </c>
       <c r="F458" t="s">
-        <v>5793</v>
+        <v>5790</v>
       </c>
       <c r="G458" t="s">
         <v>3407</v>
@@ -40970,7 +40970,7 @@
         <v>3408</v>
       </c>
       <c r="O458" t="s">
-        <v>5795</v>
+        <v>5792</v>
       </c>
       <c r="P458" t="s">
         <v>3974</v>
@@ -40996,7 +40996,7 @@
         <v>122</v>
       </c>
       <c r="F459" t="s">
-        <v>5793</v>
+        <v>5790</v>
       </c>
       <c r="G459" t="s">
         <v>3407</v>
@@ -41005,7 +41005,7 @@
         <v>3408</v>
       </c>
       <c r="O459" t="s">
-        <v>5795</v>
+        <v>5792</v>
       </c>
       <c r="P459" t="s">
         <v>3974</v>
@@ -41031,7 +41031,7 @@
         <v>122</v>
       </c>
       <c r="F460" t="s">
-        <v>5793</v>
+        <v>5790</v>
       </c>
       <c r="G460" t="s">
         <v>3407</v>
@@ -41040,7 +41040,7 @@
         <v>3408</v>
       </c>
       <c r="O460" t="s">
-        <v>5795</v>
+        <v>5792</v>
       </c>
       <c r="P460" t="s">
         <v>3974</v>
@@ -41066,7 +41066,7 @@
         <v>122</v>
       </c>
       <c r="F461" t="s">
-        <v>5793</v>
+        <v>5790</v>
       </c>
       <c r="G461" t="s">
         <v>3407</v>
@@ -41075,7 +41075,7 @@
         <v>3408</v>
       </c>
       <c r="O461" t="s">
-        <v>5795</v>
+        <v>5792</v>
       </c>
       <c r="P461" t="s">
         <v>3974</v>
@@ -41101,7 +41101,7 @@
         <v>122</v>
       </c>
       <c r="F462" t="s">
-        <v>5793</v>
+        <v>5790</v>
       </c>
       <c r="G462" t="s">
         <v>3407</v>
@@ -41110,7 +41110,7 @@
         <v>3408</v>
       </c>
       <c r="O462" t="s">
-        <v>5795</v>
+        <v>5792</v>
       </c>
       <c r="P462" t="s">
         <v>3974</v>
@@ -41136,7 +41136,7 @@
         <v>122</v>
       </c>
       <c r="F463" t="s">
-        <v>5793</v>
+        <v>5790</v>
       </c>
       <c r="G463" t="s">
         <v>3407</v>
@@ -41145,7 +41145,7 @@
         <v>3408</v>
       </c>
       <c r="O463" t="s">
-        <v>5795</v>
+        <v>5792</v>
       </c>
       <c r="P463" t="s">
         <v>3974</v>
@@ -41171,7 +41171,7 @@
         <v>122</v>
       </c>
       <c r="F464" t="s">
-        <v>5793</v>
+        <v>5790</v>
       </c>
       <c r="G464" t="s">
         <v>3407</v>
@@ -41180,7 +41180,7 @@
         <v>3408</v>
       </c>
       <c r="O464" t="s">
-        <v>5795</v>
+        <v>5792</v>
       </c>
       <c r="P464" t="s">
         <v>3974</v>
@@ -41206,7 +41206,7 @@
         <v>122</v>
       </c>
       <c r="F465" t="s">
-        <v>5793</v>
+        <v>5790</v>
       </c>
       <c r="G465" t="s">
         <v>3407</v>
@@ -41215,7 +41215,7 @@
         <v>3408</v>
       </c>
       <c r="O465" t="s">
-        <v>5795</v>
+        <v>5792</v>
       </c>
       <c r="P465" t="s">
         <v>3974</v>
@@ -41241,7 +41241,7 @@
         <v>122</v>
       </c>
       <c r="F466" t="s">
-        <v>5793</v>
+        <v>5790</v>
       </c>
       <c r="G466" t="s">
         <v>3407</v>
@@ -41250,7 +41250,7 @@
         <v>3408</v>
       </c>
       <c r="O466" t="s">
-        <v>5795</v>
+        <v>5792</v>
       </c>
       <c r="P466" t="s">
         <v>3974</v>
@@ -41276,7 +41276,7 @@
         <v>122</v>
       </c>
       <c r="F467" t="s">
-        <v>5793</v>
+        <v>5790</v>
       </c>
       <c r="G467" t="s">
         <v>3407</v>
@@ -41285,7 +41285,7 @@
         <v>3408</v>
       </c>
       <c r="O467" t="s">
-        <v>5795</v>
+        <v>5792</v>
       </c>
       <c r="P467" t="s">
         <v>3974</v>
@@ -41302,7 +41302,7 @@
         <v>804</v>
       </c>
       <c r="C468" s="2" t="s">
-        <v>5559</v>
+        <v>5556</v>
       </c>
       <c r="D468" s="2" t="s">
         <v>1388</v>
@@ -41328,7 +41328,7 @@
         <v>3625</v>
       </c>
       <c r="F469" s="2" t="s">
-        <v>5599</v>
+        <v>5596</v>
       </c>
       <c r="G469" s="2" t="s">
         <v>3626</v>
@@ -41415,7 +41415,7 @@
         <v>3247</v>
       </c>
       <c r="F472" s="2" t="s">
-        <v>5426</v>
+        <v>5423</v>
       </c>
       <c r="G472" s="2" t="s">
         <v>3249</v>
@@ -41441,7 +41441,7 @@
         <v>684</v>
       </c>
       <c r="F473" s="2" t="s">
-        <v>5565</v>
+        <v>5562</v>
       </c>
       <c r="G473" s="2" t="s">
         <v>3460</v>
@@ -41450,7 +41450,7 @@
         <v>3461</v>
       </c>
       <c r="O473" s="2" t="s">
-        <v>5566</v>
+        <v>5563</v>
       </c>
       <c r="P473" s="2" t="s">
         <v>3462</v>
@@ -41476,7 +41476,7 @@
         <v>1170</v>
       </c>
       <c r="F474" s="2" t="s">
-        <v>5571</v>
+        <v>5568</v>
       </c>
       <c r="G474" s="2" t="s">
         <v>3494</v>
@@ -41493,7 +41493,7 @@
         <v>1473</v>
       </c>
       <c r="C475" s="2" t="s">
-        <v>5646</v>
+        <v>5643</v>
       </c>
       <c r="D475" s="2" t="s">
         <v>1474</v>
@@ -41502,7 +41502,7 @@
         <v>1475</v>
       </c>
       <c r="I475" s="2" t="s">
-        <v>5771</v>
+        <v>5768</v>
       </c>
       <c r="J475" s="2" t="s">
         <v>1476</v>
@@ -41528,7 +41528,7 @@
         <v>2692</v>
       </c>
       <c r="F476" s="2" t="s">
-        <v>5220</v>
+        <v>5217</v>
       </c>
       <c r="G476" s="2" t="s">
         <v>2694</v>
@@ -41554,7 +41554,7 @@
         <v>2738</v>
       </c>
       <c r="F477" s="2" t="s">
-        <v>5227</v>
+        <v>5224</v>
       </c>
       <c r="G477" s="2" t="s">
         <v>2739</v>
@@ -41580,7 +41580,7 @@
         <v>2688</v>
       </c>
       <c r="F478" s="2" t="s">
-        <v>5219</v>
+        <v>5216</v>
       </c>
       <c r="G478" s="2" t="s">
         <v>2690</v>
@@ -41650,7 +41650,7 @@
         <v>2757</v>
       </c>
       <c r="F480" s="2" t="s">
-        <v>5231</v>
+        <v>5228</v>
       </c>
       <c r="G480" s="2" t="s">
         <v>2758</v>
@@ -41667,7 +41667,7 @@
         <v>38</v>
       </c>
       <c r="C481" s="2" t="s">
-        <v>5340</v>
+        <v>5337</v>
       </c>
       <c r="D481" s="2" t="s">
         <v>897</v>
@@ -41676,7 +41676,7 @@
         <v>898</v>
       </c>
       <c r="L481" s="2" t="s">
-        <v>5341</v>
+        <v>5338</v>
       </c>
       <c r="M481" s="2" t="s">
         <v>899</v>
@@ -41693,7 +41693,7 @@
         <v>38</v>
       </c>
       <c r="C482" s="2" t="s">
-        <v>5348</v>
+        <v>5345</v>
       </c>
       <c r="D482" s="2" t="s">
         <v>917</v>
@@ -41702,7 +41702,7 @@
         <v>918</v>
       </c>
       <c r="L482" s="2" t="s">
-        <v>5349</v>
+        <v>5346</v>
       </c>
       <c r="M482" s="2" t="s">
         <v>919</v>
@@ -41719,7 +41719,7 @@
         <v>38</v>
       </c>
       <c r="C483" s="2" t="s">
-        <v>5350</v>
+        <v>5347</v>
       </c>
       <c r="D483" s="2" t="s">
         <v>922</v>
@@ -41728,7 +41728,7 @@
         <v>923</v>
       </c>
       <c r="L483" s="2" t="s">
-        <v>5351</v>
+        <v>5348</v>
       </c>
       <c r="M483" s="2" t="s">
         <v>924</v>
@@ -41745,7 +41745,7 @@
         <v>165</v>
       </c>
       <c r="C484" s="2" t="s">
-        <v>5352</v>
+        <v>5349</v>
       </c>
       <c r="D484" s="2" t="s">
         <v>927</v>
@@ -41754,7 +41754,7 @@
         <v>928</v>
       </c>
       <c r="L484" s="2" t="s">
-        <v>5353</v>
+        <v>5350</v>
       </c>
       <c r="M484" s="2" t="s">
         <v>929</v>
@@ -41771,7 +41771,7 @@
         <v>38</v>
       </c>
       <c r="C485" s="2" t="s">
-        <v>5344</v>
+        <v>5341</v>
       </c>
       <c r="D485" s="2" t="s">
         <v>907</v>
@@ -41780,7 +41780,7 @@
         <v>908</v>
       </c>
       <c r="L485" s="2" t="s">
-        <v>5345</v>
+        <v>5342</v>
       </c>
       <c r="M485" s="2" t="s">
         <v>909</v>
@@ -41797,7 +41797,7 @@
         <v>38</v>
       </c>
       <c r="C486" s="2" t="s">
-        <v>5342</v>
+        <v>5339</v>
       </c>
       <c r="D486" s="2" t="s">
         <v>902</v>
@@ -41806,7 +41806,7 @@
         <v>903</v>
       </c>
       <c r="L486" s="2" t="s">
-        <v>5343</v>
+        <v>5340</v>
       </c>
       <c r="M486" s="2" t="s">
         <v>904</v>
@@ -41823,7 +41823,7 @@
         <v>38</v>
       </c>
       <c r="C487" s="2" t="s">
-        <v>5346</v>
+        <v>5343</v>
       </c>
       <c r="D487" s="2" t="s">
         <v>912</v>
@@ -41832,7 +41832,7 @@
         <v>913</v>
       </c>
       <c r="L487" s="2" t="s">
-        <v>5347</v>
+        <v>5344</v>
       </c>
       <c r="M487" s="2" t="s">
         <v>914</v>
@@ -41849,7 +41849,7 @@
         <v>38</v>
       </c>
       <c r="C488" s="2" t="s">
-        <v>5338</v>
+        <v>5335</v>
       </c>
       <c r="D488" s="2" t="s">
         <v>892</v>
@@ -41858,7 +41858,7 @@
         <v>893</v>
       </c>
       <c r="L488" s="2" t="s">
-        <v>5339</v>
+        <v>5336</v>
       </c>
       <c r="M488" s="2" t="s">
         <v>894</v>
@@ -41884,7 +41884,7 @@
         <v>3690</v>
       </c>
       <c r="F489" s="2" t="s">
-        <v>5622</v>
+        <v>5619</v>
       </c>
       <c r="G489" s="2" t="s">
         <v>3691</v>
@@ -41955,7 +41955,7 @@
         <v>4566</v>
       </c>
       <c r="U490" s="2" t="s">
-        <v>5713</v>
+        <v>5710</v>
       </c>
       <c r="V490" s="2" t="s">
         <v>2300</v>
@@ -41972,7 +41972,7 @@
         <v>886</v>
       </c>
       <c r="C491" s="2" t="s">
-        <v>5336</v>
+        <v>5333</v>
       </c>
       <c r="D491" s="2" t="s">
         <v>887</v>
@@ -41981,7 +41981,7 @@
         <v>888</v>
       </c>
       <c r="L491" s="2" t="s">
-        <v>5337</v>
+        <v>5334</v>
       </c>
       <c r="M491" s="2" t="s">
         <v>889</v>
@@ -42146,7 +42146,7 @@
         <v>316</v>
       </c>
       <c r="R497" s="2" t="s">
-        <v>5548</v>
+        <v>5545</v>
       </c>
       <c r="S497" s="2" t="s">
         <v>317</v>
@@ -42155,7 +42155,7 @@
         <v>4145</v>
       </c>
       <c r="U497" s="2" t="s">
-        <v>5718</v>
+        <v>5715</v>
       </c>
       <c r="V497" s="2" t="s">
         <v>318</v>
@@ -42172,7 +42172,7 @@
         <v>3973</v>
       </c>
       <c r="C498" t="s">
-        <v>5797</v>
+        <v>5794</v>
       </c>
       <c r="D498" t="s">
         <v>3427</v>
@@ -42181,7 +42181,7 @@
         <v>3428</v>
       </c>
       <c r="F498" t="s">
-        <v>5796</v>
+        <v>5793</v>
       </c>
       <c r="G498" t="s">
         <v>3429</v>
@@ -42190,7 +42190,7 @@
         <v>3430</v>
       </c>
       <c r="O498" t="s">
-        <v>5687</v>
+        <v>5684</v>
       </c>
       <c r="P498" t="s">
         <v>3976</v>
@@ -42207,7 +42207,7 @@
         <v>3973</v>
       </c>
       <c r="C499" t="s">
-        <v>5797</v>
+        <v>5794</v>
       </c>
       <c r="D499" t="s">
         <v>3427</v>
@@ -42216,7 +42216,7 @@
         <v>3428</v>
       </c>
       <c r="F499" t="s">
-        <v>5796</v>
+        <v>5793</v>
       </c>
       <c r="G499" t="s">
         <v>3429</v>
@@ -42225,7 +42225,7 @@
         <v>3430</v>
       </c>
       <c r="O499" t="s">
-        <v>5687</v>
+        <v>5684</v>
       </c>
       <c r="P499" t="s">
         <v>3976</v>
@@ -42242,7 +42242,7 @@
         <v>3973</v>
       </c>
       <c r="C500" t="s">
-        <v>5797</v>
+        <v>5794</v>
       </c>
       <c r="D500" t="s">
         <v>3427</v>
@@ -42251,7 +42251,7 @@
         <v>3428</v>
       </c>
       <c r="F500" t="s">
-        <v>5796</v>
+        <v>5793</v>
       </c>
       <c r="G500" t="s">
         <v>3429</v>
@@ -42260,7 +42260,7 @@
         <v>3430</v>
       </c>
       <c r="O500" t="s">
-        <v>5687</v>
+        <v>5684</v>
       </c>
       <c r="P500" t="s">
         <v>3976</v>
@@ -42277,7 +42277,7 @@
         <v>3973</v>
       </c>
       <c r="C501" t="s">
-        <v>5797</v>
+        <v>5794</v>
       </c>
       <c r="D501" t="s">
         <v>3427</v>
@@ -42286,7 +42286,7 @@
         <v>3428</v>
       </c>
       <c r="F501" t="s">
-        <v>5796</v>
+        <v>5793</v>
       </c>
       <c r="G501" t="s">
         <v>3429</v>
@@ -42295,7 +42295,7 @@
         <v>3430</v>
       </c>
       <c r="O501" t="s">
-        <v>5687</v>
+        <v>5684</v>
       </c>
       <c r="P501" t="s">
         <v>3976</v>
@@ -42312,7 +42312,7 @@
         <v>3973</v>
       </c>
       <c r="C502" t="s">
-        <v>5797</v>
+        <v>5794</v>
       </c>
       <c r="D502" t="s">
         <v>3427</v>
@@ -42321,7 +42321,7 @@
         <v>3428</v>
       </c>
       <c r="F502" t="s">
-        <v>5796</v>
+        <v>5793</v>
       </c>
       <c r="G502" t="s">
         <v>3429</v>
@@ -42330,7 +42330,7 @@
         <v>3430</v>
       </c>
       <c r="O502" t="s">
-        <v>5687</v>
+        <v>5684</v>
       </c>
       <c r="P502" t="s">
         <v>3976</v>
@@ -42347,7 +42347,7 @@
         <v>3973</v>
       </c>
       <c r="C503" t="s">
-        <v>5797</v>
+        <v>5794</v>
       </c>
       <c r="D503" t="s">
         <v>3427</v>
@@ -42356,7 +42356,7 @@
         <v>3428</v>
       </c>
       <c r="F503" t="s">
-        <v>5796</v>
+        <v>5793</v>
       </c>
       <c r="G503" t="s">
         <v>3429</v>
@@ -42365,7 +42365,7 @@
         <v>3430</v>
       </c>
       <c r="O503" t="s">
-        <v>5687</v>
+        <v>5684</v>
       </c>
       <c r="P503" t="s">
         <v>3976</v>
@@ -42382,7 +42382,7 @@
         <v>3973</v>
       </c>
       <c r="C504" t="s">
-        <v>5797</v>
+        <v>5794</v>
       </c>
       <c r="D504" t="s">
         <v>3427</v>
@@ -42391,7 +42391,7 @@
         <v>3428</v>
       </c>
       <c r="F504" t="s">
-        <v>5796</v>
+        <v>5793</v>
       </c>
       <c r="G504" t="s">
         <v>3429</v>
@@ -42400,7 +42400,7 @@
         <v>3430</v>
       </c>
       <c r="O504" t="s">
-        <v>5687</v>
+        <v>5684</v>
       </c>
       <c r="P504" t="s">
         <v>3976</v>
@@ -42417,7 +42417,7 @@
         <v>3973</v>
       </c>
       <c r="C505" t="s">
-        <v>5797</v>
+        <v>5794</v>
       </c>
       <c r="D505" t="s">
         <v>3427</v>
@@ -42426,7 +42426,7 @@
         <v>3428</v>
       </c>
       <c r="F505" t="s">
-        <v>5796</v>
+        <v>5793</v>
       </c>
       <c r="G505" t="s">
         <v>3429</v>
@@ -42435,7 +42435,7 @@
         <v>3430</v>
       </c>
       <c r="O505" t="s">
-        <v>5687</v>
+        <v>5684</v>
       </c>
       <c r="P505" t="s">
         <v>3976</v>
@@ -42452,7 +42452,7 @@
         <v>3973</v>
       </c>
       <c r="C506" t="s">
-        <v>5797</v>
+        <v>5794</v>
       </c>
       <c r="D506" t="s">
         <v>3427</v>
@@ -42461,7 +42461,7 @@
         <v>3428</v>
       </c>
       <c r="F506" t="s">
-        <v>5796</v>
+        <v>5793</v>
       </c>
       <c r="G506" t="s">
         <v>3429</v>
@@ -42470,7 +42470,7 @@
         <v>3430</v>
       </c>
       <c r="O506" t="s">
-        <v>5687</v>
+        <v>5684</v>
       </c>
       <c r="P506" t="s">
         <v>3976</v>
@@ -42487,7 +42487,7 @@
         <v>3973</v>
       </c>
       <c r="C507" t="s">
-        <v>5797</v>
+        <v>5794</v>
       </c>
       <c r="D507" t="s">
         <v>3427</v>
@@ -42496,7 +42496,7 @@
         <v>3428</v>
       </c>
       <c r="F507" t="s">
-        <v>5796</v>
+        <v>5793</v>
       </c>
       <c r="G507" t="s">
         <v>3429</v>
@@ -42505,7 +42505,7 @@
         <v>3430</v>
       </c>
       <c r="O507" t="s">
-        <v>5687</v>
+        <v>5684</v>
       </c>
       <c r="P507" t="s">
         <v>3976</v>
@@ -42522,7 +42522,7 @@
         <v>3973</v>
       </c>
       <c r="C508" t="s">
-        <v>5797</v>
+        <v>5794</v>
       </c>
       <c r="D508" t="s">
         <v>3427</v>
@@ -42531,7 +42531,7 @@
         <v>3428</v>
       </c>
       <c r="F508" t="s">
-        <v>5796</v>
+        <v>5793</v>
       </c>
       <c r="G508" t="s">
         <v>3429</v>
@@ -42540,7 +42540,7 @@
         <v>3430</v>
       </c>
       <c r="O508" t="s">
-        <v>5687</v>
+        <v>5684</v>
       </c>
       <c r="P508" t="s">
         <v>3976</v>
@@ -42557,7 +42557,7 @@
         <v>3973</v>
       </c>
       <c r="C509" t="s">
-        <v>5797</v>
+        <v>5794</v>
       </c>
       <c r="D509" t="s">
         <v>3427</v>
@@ -42566,7 +42566,7 @@
         <v>3428</v>
       </c>
       <c r="F509" t="s">
-        <v>5796</v>
+        <v>5793</v>
       </c>
       <c r="G509" t="s">
         <v>3429</v>
@@ -42575,7 +42575,7 @@
         <v>3430</v>
       </c>
       <c r="O509" t="s">
-        <v>5687</v>
+        <v>5684</v>
       </c>
       <c r="P509" t="s">
         <v>3976</v>
@@ -42592,7 +42592,7 @@
         <v>3973</v>
       </c>
       <c r="C510" t="s">
-        <v>5797</v>
+        <v>5794</v>
       </c>
       <c r="D510" t="s">
         <v>3427</v>
@@ -42601,7 +42601,7 @@
         <v>3428</v>
       </c>
       <c r="F510" t="s">
-        <v>5796</v>
+        <v>5793</v>
       </c>
       <c r="G510" t="s">
         <v>3429</v>
@@ -42610,7 +42610,7 @@
         <v>3430</v>
       </c>
       <c r="O510" t="s">
-        <v>5687</v>
+        <v>5684</v>
       </c>
       <c r="P510" t="s">
         <v>3976</v>
@@ -42627,7 +42627,7 @@
         <v>3973</v>
       </c>
       <c r="C511" t="s">
-        <v>5797</v>
+        <v>5794</v>
       </c>
       <c r="D511" t="s">
         <v>3427</v>
@@ -42636,7 +42636,7 @@
         <v>3428</v>
       </c>
       <c r="F511" t="s">
-        <v>5796</v>
+        <v>5793</v>
       </c>
       <c r="G511" t="s">
         <v>3429</v>
@@ -42645,7 +42645,7 @@
         <v>3430</v>
       </c>
       <c r="O511" t="s">
-        <v>5687</v>
+        <v>5684</v>
       </c>
       <c r="P511" t="s">
         <v>3976</v>
@@ -42662,7 +42662,7 @@
         <v>3973</v>
       </c>
       <c r="C512" t="s">
-        <v>5797</v>
+        <v>5794</v>
       </c>
       <c r="D512" t="s">
         <v>3427</v>
@@ -42671,7 +42671,7 @@
         <v>3428</v>
       </c>
       <c r="F512" t="s">
-        <v>5796</v>
+        <v>5793</v>
       </c>
       <c r="G512" t="s">
         <v>3429</v>
@@ -42680,7 +42680,7 @@
         <v>3430</v>
       </c>
       <c r="O512" t="s">
-        <v>5687</v>
+        <v>5684</v>
       </c>
       <c r="P512" t="s">
         <v>3976</v>
@@ -42697,7 +42697,7 @@
         <v>3973</v>
       </c>
       <c r="C513" t="s">
-        <v>5797</v>
+        <v>5794</v>
       </c>
       <c r="D513" t="s">
         <v>3427</v>
@@ -42706,7 +42706,7 @@
         <v>3428</v>
       </c>
       <c r="F513" t="s">
-        <v>5796</v>
+        <v>5793</v>
       </c>
       <c r="G513" t="s">
         <v>3429</v>
@@ -42715,7 +42715,7 @@
         <v>3430</v>
       </c>
       <c r="O513" t="s">
-        <v>5687</v>
+        <v>5684</v>
       </c>
       <c r="P513" t="s">
         <v>3976</v>
@@ -42732,7 +42732,7 @@
         <v>3973</v>
       </c>
       <c r="C514" t="s">
-        <v>5797</v>
+        <v>5794</v>
       </c>
       <c r="D514" t="s">
         <v>3427</v>
@@ -42741,7 +42741,7 @@
         <v>3428</v>
       </c>
       <c r="F514" t="s">
-        <v>5796</v>
+        <v>5793</v>
       </c>
       <c r="G514" t="s">
         <v>3429</v>
@@ -42750,7 +42750,7 @@
         <v>3430</v>
       </c>
       <c r="O514" t="s">
-        <v>5687</v>
+        <v>5684</v>
       </c>
       <c r="P514" t="s">
         <v>3976</v>
@@ -42767,7 +42767,7 @@
         <v>3973</v>
       </c>
       <c r="C515" t="s">
-        <v>5797</v>
+        <v>5794</v>
       </c>
       <c r="D515" t="s">
         <v>3427</v>
@@ -42776,7 +42776,7 @@
         <v>3428</v>
       </c>
       <c r="F515" t="s">
-        <v>5796</v>
+        <v>5793</v>
       </c>
       <c r="G515" t="s">
         <v>3429</v>
@@ -42785,7 +42785,7 @@
         <v>3430</v>
       </c>
       <c r="O515" t="s">
-        <v>5687</v>
+        <v>5684</v>
       </c>
       <c r="P515" t="s">
         <v>3976</v>
@@ -42811,7 +42811,7 @@
         <v>3273</v>
       </c>
       <c r="F516" s="2" t="s">
-        <v>5456</v>
+        <v>5453</v>
       </c>
       <c r="G516" s="2" t="s">
         <v>3274</v>
@@ -42820,7 +42820,7 @@
         <v>3275</v>
       </c>
       <c r="O516" s="2" t="s">
-        <v>5457</v>
+        <v>5454</v>
       </c>
       <c r="P516" s="2" t="s">
         <v>3276</v>
@@ -42855,7 +42855,7 @@
         <v>708</v>
       </c>
       <c r="L517" s="2" t="s">
-        <v>5283</v>
+        <v>5280</v>
       </c>
       <c r="M517" s="2" t="s">
         <v>709</v>
@@ -42881,7 +42881,7 @@
         <v>870</v>
       </c>
       <c r="F518" s="2" t="s">
-        <v>5620</v>
+        <v>5617</v>
       </c>
       <c r="G518" s="2" t="s">
         <v>3681</v>
@@ -42916,7 +42916,7 @@
         <v>870</v>
       </c>
       <c r="L519" s="2" t="s">
-        <v>5332</v>
+        <v>5329</v>
       </c>
       <c r="M519" s="2" t="s">
         <v>872</v>
@@ -42942,7 +42942,7 @@
         <v>2794</v>
       </c>
       <c r="F520" s="2" t="s">
-        <v>5245</v>
+        <v>5242</v>
       </c>
       <c r="G520" s="2" t="s">
         <v>2795</v>
@@ -42968,7 +42968,7 @@
         <v>3716</v>
       </c>
       <c r="F521" s="2" t="s">
-        <v>5627</v>
+        <v>5624</v>
       </c>
       <c r="G521" s="2" t="s">
         <v>3717</v>
@@ -42985,7 +42985,7 @@
         <v>2547</v>
       </c>
       <c r="C522" s="2" t="s">
-        <v>5798</v>
+        <v>5795</v>
       </c>
       <c r="D522" s="2" t="s">
         <v>3723</v>
@@ -42994,7 +42994,7 @@
         <v>3724</v>
       </c>
       <c r="F522" s="2" t="s">
-        <v>5627</v>
+        <v>5624</v>
       </c>
       <c r="G522" s="2" t="s">
         <v>3717</v>
@@ -43020,7 +43020,7 @@
         <v>3730</v>
       </c>
       <c r="F523" s="2" t="s">
-        <v>5627</v>
+        <v>5624</v>
       </c>
       <c r="G523" s="2" t="s">
         <v>3717</v>
@@ -43046,7 +43046,7 @@
         <v>3721</v>
       </c>
       <c r="F524" s="2" t="s">
-        <v>5627</v>
+        <v>5624</v>
       </c>
       <c r="G524" s="2" t="s">
         <v>3717</v>
@@ -43072,7 +43072,7 @@
         <v>3740</v>
       </c>
       <c r="F525" s="2" t="s">
-        <v>5627</v>
+        <v>5624</v>
       </c>
       <c r="G525" s="2" t="s">
         <v>3717</v>
@@ -43098,7 +43098,7 @@
         <v>3733</v>
       </c>
       <c r="F526" s="2" t="s">
-        <v>5627</v>
+        <v>5624</v>
       </c>
       <c r="G526" s="2" t="s">
         <v>3717</v>
@@ -43124,7 +43124,7 @@
         <v>3743</v>
       </c>
       <c r="F527" s="2" t="s">
-        <v>5627</v>
+        <v>5624</v>
       </c>
       <c r="G527" s="2" t="s">
         <v>3717</v>
@@ -43150,7 +43150,7 @@
         <v>3727</v>
       </c>
       <c r="F528" s="2" t="s">
-        <v>5627</v>
+        <v>5624</v>
       </c>
       <c r="G528" s="2" t="s">
         <v>3717</v>
@@ -43176,7 +43176,7 @@
         <v>3737</v>
       </c>
       <c r="F529" s="2" t="s">
-        <v>5627</v>
+        <v>5624</v>
       </c>
       <c r="G529" s="2" t="s">
         <v>3717</v>
@@ -43245,7 +43245,7 @@
         <v>622</v>
       </c>
       <c r="L532" s="2" t="s">
-        <v>5236</v>
+        <v>5233</v>
       </c>
       <c r="M532" s="2" t="s">
         <v>623</v>
@@ -43271,7 +43271,7 @@
         <v>832</v>
       </c>
       <c r="L533" s="2" t="s">
-        <v>5323</v>
+        <v>5320</v>
       </c>
       <c r="M533" s="2" t="s">
         <v>833</v>
@@ -43306,7 +43306,7 @@
         <v>2527</v>
       </c>
       <c r="O534" s="2" t="s">
-        <v>5168</v>
+        <v>5165</v>
       </c>
       <c r="P534" s="2" t="s">
         <v>2528</v>
@@ -43349,7 +43349,7 @@
         <v>3253</v>
       </c>
       <c r="F536" s="2" t="s">
-        <v>5429</v>
+        <v>5426</v>
       </c>
       <c r="G536" s="2" t="s">
         <v>3254</v>
@@ -43419,7 +43419,7 @@
         <v>2643</v>
       </c>
       <c r="F538" s="2" t="s">
-        <v>5198</v>
+        <v>5195</v>
       </c>
       <c r="G538" s="2" t="s">
         <v>2644</v>
@@ -43445,7 +43445,7 @@
         <v>2772</v>
       </c>
       <c r="F539" s="2" t="s">
-        <v>5241</v>
+        <v>5238</v>
       </c>
       <c r="G539" s="2" t="s">
         <v>2773</v>
@@ -43462,7 +43462,7 @@
         <v>49</v>
       </c>
       <c r="C540" s="2" t="s">
-        <v>5686</v>
+        <v>5683</v>
       </c>
       <c r="D540" s="2" t="s">
         <v>2700</v>
@@ -43471,7 +43471,7 @@
         <v>2699</v>
       </c>
       <c r="F540" s="2" t="s">
-        <v>5221</v>
+        <v>5218</v>
       </c>
       <c r="G540" s="2" t="s">
         <v>2701</v>
@@ -43497,7 +43497,7 @@
         <v>3671</v>
       </c>
       <c r="F541" s="2" t="s">
-        <v>5618</v>
+        <v>5615</v>
       </c>
       <c r="G541" s="2" t="s">
         <v>3672</v>
@@ -43558,7 +43558,7 @@
         <v>491</v>
       </c>
       <c r="L543" s="2" t="s">
-        <v>5191</v>
+        <v>5188</v>
       </c>
       <c r="M543" s="2" t="s">
         <v>492</v>
@@ -43584,7 +43584,7 @@
         <v>795</v>
       </c>
       <c r="L544" s="2" t="s">
-        <v>5317</v>
+        <v>5314</v>
       </c>
       <c r="M544" s="2" t="s">
         <v>796</v>
@@ -43610,7 +43610,7 @@
         <v>795</v>
       </c>
       <c r="F545" s="2" t="s">
-        <v>5575</v>
+        <v>5572</v>
       </c>
       <c r="G545" s="2" t="s">
         <v>3517</v>
@@ -43645,7 +43645,7 @@
         <v>2907</v>
       </c>
       <c r="F546" s="2" t="s">
-        <v>5271</v>
+        <v>5268</v>
       </c>
       <c r="G546" s="2" t="s">
         <v>2908</v>
@@ -43671,7 +43671,7 @@
         <v>2929</v>
       </c>
       <c r="F547" s="2" t="s">
-        <v>5275</v>
+        <v>5272</v>
       </c>
       <c r="G547" s="2" t="s">
         <v>2930</v>
@@ -43697,7 +43697,7 @@
         <v>2883</v>
       </c>
       <c r="F548" s="2" t="s">
-        <v>5266</v>
+        <v>5263</v>
       </c>
       <c r="G548" s="2" t="s">
         <v>2884</v>
@@ -43723,7 +43723,7 @@
         <v>2888</v>
       </c>
       <c r="F549" s="2" t="s">
-        <v>5267</v>
+        <v>5264</v>
       </c>
       <c r="G549" s="2" t="s">
         <v>2889</v>
@@ -43749,7 +43749,7 @@
         <v>2878</v>
       </c>
       <c r="F550" s="2" t="s">
-        <v>5265</v>
+        <v>5262</v>
       </c>
       <c r="G550" s="2" t="s">
         <v>2879</v>
@@ -43880,7 +43880,7 @@
         <v>2868</v>
       </c>
       <c r="F554" s="2" t="s">
-        <v>5263</v>
+        <v>5260</v>
       </c>
       <c r="G554" s="2" t="s">
         <v>2869</v>
@@ -43906,7 +43906,7 @@
         <v>2873</v>
       </c>
       <c r="F555" s="2" t="s">
-        <v>5264</v>
+        <v>5261</v>
       </c>
       <c r="G555" s="2" t="s">
         <v>2874</v>
@@ -43932,7 +43932,7 @@
         <v>3591</v>
       </c>
       <c r="F556" s="2" t="s">
-        <v>5590</v>
+        <v>5587</v>
       </c>
       <c r="G556" s="2" t="s">
         <v>3592</v>
@@ -44010,7 +44010,7 @@
         <v>3358</v>
       </c>
       <c r="F559" s="2" t="s">
-        <v>5484</v>
+        <v>5481</v>
       </c>
       <c r="G559" s="2" t="s">
         <v>3359</v>
@@ -44212,7 +44212,7 @@
         <v>1458</v>
       </c>
       <c r="I564" s="2" t="s">
-        <v>5774</v>
+        <v>5771</v>
       </c>
       <c r="J564" s="2" t="s">
         <v>1459</v>
@@ -44238,7 +44238,7 @@
         <v>3284</v>
       </c>
       <c r="F565" s="2" t="s">
-        <v>5471</v>
+        <v>5468</v>
       </c>
       <c r="G565" s="2" t="s">
         <v>3285</v>
@@ -44291,7 +44291,7 @@
         <v>4358</v>
       </c>
       <c r="U566" s="2" t="s">
-        <v>5729</v>
+        <v>5726</v>
       </c>
       <c r="V566" s="2" t="s">
         <v>1636</v>
@@ -44308,7 +44308,7 @@
         <v>1049</v>
       </c>
       <c r="C567" s="2" t="s">
-        <v>5467</v>
+        <v>5464</v>
       </c>
       <c r="D567" s="2" t="s">
         <v>1189</v>
@@ -44317,7 +44317,7 @@
         <v>1190</v>
       </c>
       <c r="L567" s="2" t="s">
-        <v>5468</v>
+        <v>5465</v>
       </c>
       <c r="M567" s="2" t="s">
         <v>1191</v>
@@ -44352,7 +44352,7 @@
         <v>191</v>
       </c>
       <c r="R568" s="2" t="s">
-        <v>5443</v>
+        <v>5440</v>
       </c>
       <c r="S568" s="2" t="s">
         <v>192</v>
@@ -44361,7 +44361,7 @@
         <v>4078</v>
       </c>
       <c r="U568" s="2" t="s">
-        <v>5720</v>
+        <v>5717</v>
       </c>
       <c r="V568" s="2" t="s">
         <v>193</v>
@@ -44396,7 +44396,7 @@
         <v>3408</v>
       </c>
       <c r="O569" s="2" t="s">
-        <v>5413</v>
+        <v>5410</v>
       </c>
       <c r="P569" s="2" t="s">
         <v>4825</v>
@@ -44431,7 +44431,7 @@
         <v>3408</v>
       </c>
       <c r="O570" s="2" t="s">
-        <v>5413</v>
+        <v>5410</v>
       </c>
       <c r="P570" s="2" t="s">
         <v>4825</v>
@@ -44466,7 +44466,7 @@
         <v>3408</v>
       </c>
       <c r="O571" s="2" t="s">
-        <v>5413</v>
+        <v>5410</v>
       </c>
       <c r="P571" s="2" t="s">
         <v>4825</v>
@@ -44501,7 +44501,7 @@
         <v>3408</v>
       </c>
       <c r="O572" s="2" t="s">
-        <v>5413</v>
+        <v>5410</v>
       </c>
       <c r="P572" s="2" t="s">
         <v>4825</v>
@@ -44536,7 +44536,7 @@
         <v>3408</v>
       </c>
       <c r="O573" s="2" t="s">
-        <v>5413</v>
+        <v>5410</v>
       </c>
       <c r="P573" s="2" t="s">
         <v>4825</v>
@@ -44571,7 +44571,7 @@
         <v>3408</v>
       </c>
       <c r="O574" s="2" t="s">
-        <v>5413</v>
+        <v>5410</v>
       </c>
       <c r="P574" s="2" t="s">
         <v>4825</v>
@@ -44606,7 +44606,7 @@
         <v>3408</v>
       </c>
       <c r="O575" s="2" t="s">
-        <v>5413</v>
+        <v>5410</v>
       </c>
       <c r="P575" s="2" t="s">
         <v>4825</v>
@@ -44641,7 +44641,7 @@
         <v>3408</v>
       </c>
       <c r="O576" s="2" t="s">
-        <v>5413</v>
+        <v>5410</v>
       </c>
       <c r="P576" s="2" t="s">
         <v>4825</v>
@@ -44676,7 +44676,7 @@
         <v>3408</v>
       </c>
       <c r="O577" s="2" t="s">
-        <v>5413</v>
+        <v>5410</v>
       </c>
       <c r="P577" s="2" t="s">
         <v>4825</v>
@@ -44711,7 +44711,7 @@
         <v>3408</v>
       </c>
       <c r="O578" s="2" t="s">
-        <v>5413</v>
+        <v>5410</v>
       </c>
       <c r="P578" s="2" t="s">
         <v>4825</v>
@@ -44746,7 +44746,7 @@
         <v>3408</v>
       </c>
       <c r="O579" s="2" t="s">
-        <v>5413</v>
+        <v>5410</v>
       </c>
       <c r="P579" s="2" t="s">
         <v>4825</v>
@@ -44781,7 +44781,7 @@
         <v>3408</v>
       </c>
       <c r="O580" s="2" t="s">
-        <v>5413</v>
+        <v>5410</v>
       </c>
       <c r="P580" s="2" t="s">
         <v>4825</v>
@@ -44816,7 +44816,7 @@
         <v>3408</v>
       </c>
       <c r="O581" s="2" t="s">
-        <v>5413</v>
+        <v>5410</v>
       </c>
       <c r="P581" s="2" t="s">
         <v>4825</v>
@@ -44851,7 +44851,7 @@
         <v>3408</v>
       </c>
       <c r="O582" s="2" t="s">
-        <v>5413</v>
+        <v>5410</v>
       </c>
       <c r="P582" s="2" t="s">
         <v>4825</v>
@@ -44886,7 +44886,7 @@
         <v>3408</v>
       </c>
       <c r="O583" s="2" t="s">
-        <v>5413</v>
+        <v>5410</v>
       </c>
       <c r="P583" s="2" t="s">
         <v>4825</v>
@@ -44921,7 +44921,7 @@
         <v>3408</v>
       </c>
       <c r="O584" s="2" t="s">
-        <v>5413</v>
+        <v>5410</v>
       </c>
       <c r="P584" s="2" t="s">
         <v>4825</v>
@@ -44956,7 +44956,7 @@
         <v>3408</v>
       </c>
       <c r="O585" s="2" t="s">
-        <v>5413</v>
+        <v>5410</v>
       </c>
       <c r="P585" s="2" t="s">
         <v>4825</v>
@@ -44982,7 +44982,7 @@
         <v>122</v>
       </c>
       <c r="F586" s="2" t="s">
-        <v>5499</v>
+        <v>5496</v>
       </c>
       <c r="G586" s="2" t="s">
         <v>3407</v>
@@ -44991,7 +44991,7 @@
         <v>3408</v>
       </c>
       <c r="O586" s="2" t="s">
-        <v>5413</v>
+        <v>5410</v>
       </c>
       <c r="P586" s="2" t="s">
         <v>4825</v>
@@ -45070,7 +45070,7 @@
         <v>4575</v>
       </c>
       <c r="U588" s="2" t="s">
-        <v>5726</v>
+        <v>5723</v>
       </c>
       <c r="V588" s="2" t="s">
         <v>2318</v>
@@ -45096,7 +45096,7 @@
         <v>3225</v>
       </c>
       <c r="F589" s="2" t="s">
-        <v>5422</v>
+        <v>5419</v>
       </c>
       <c r="G589" s="2" t="s">
         <v>3226</v>
@@ -45122,7 +45122,7 @@
         <v>3490</v>
       </c>
       <c r="F590" s="2" t="s">
-        <v>5570</v>
+        <v>5567</v>
       </c>
       <c r="G590" s="2" t="s">
         <v>3491</v>
@@ -45139,7 +45139,7 @@
         <v>804</v>
       </c>
       <c r="C591" s="2" t="s">
-        <v>5557</v>
+        <v>5554</v>
       </c>
       <c r="D591" s="2" t="s">
         <v>1374</v>
@@ -45165,7 +45165,7 @@
         <v>2961</v>
       </c>
       <c r="F592" s="2" t="s">
-        <v>5297</v>
+        <v>5294</v>
       </c>
       <c r="G592" s="2" t="s">
         <v>2958</v>
@@ -45497,7 +45497,7 @@
         <v>3501</v>
       </c>
       <c r="F611" s="2" t="s">
-        <v>5573</v>
+        <v>5570</v>
       </c>
       <c r="G611" s="2" t="s">
         <v>3502</v>
@@ -45532,7 +45532,7 @@
         <v>730</v>
       </c>
       <c r="L612" s="2" t="s">
-        <v>5286</v>
+        <v>5283</v>
       </c>
       <c r="M612" s="2" t="s">
         <v>731</v>
@@ -45567,7 +45567,7 @@
         <v>773</v>
       </c>
       <c r="L613" s="2" t="s">
-        <v>5292</v>
+        <v>5289</v>
       </c>
       <c r="M613" s="2" t="s">
         <v>774</v>
@@ -45584,7 +45584,7 @@
         <v>1242</v>
       </c>
       <c r="C614" s="2" t="s">
-        <v>5630</v>
+        <v>5627</v>
       </c>
       <c r="D614" s="2" t="s">
         <v>1433</v>
@@ -45593,7 +45593,7 @@
         <v>1432</v>
       </c>
       <c r="I614" s="2" t="s">
-        <v>5775</v>
+        <v>5772</v>
       </c>
       <c r="J614" s="2" t="s">
         <v>1434</v>
@@ -45663,7 +45663,7 @@
         <v>3746</v>
       </c>
       <c r="F616" s="2" t="s">
-        <v>5631</v>
+        <v>5628</v>
       </c>
       <c r="G616" s="2" t="s">
         <v>3747</v>
@@ -45672,7 +45672,7 @@
         <v>3748</v>
       </c>
       <c r="O616" s="2" t="s">
-        <v>5632</v>
+        <v>5629</v>
       </c>
       <c r="P616" s="2" t="s">
         <v>3749</v>
@@ -46293,7 +46293,7 @@
         <v>3422</v>
       </c>
       <c r="F634" s="2" t="s">
-        <v>5502</v>
+        <v>5499</v>
       </c>
       <c r="G634" s="2" t="s">
         <v>3423</v>
@@ -46363,7 +46363,7 @@
         <v>804</v>
       </c>
       <c r="C636" s="2" t="s">
-        <v>5551</v>
+        <v>5548</v>
       </c>
       <c r="D636" s="2" t="s">
         <v>1356</v>
@@ -46398,7 +46398,7 @@
         <v>505</v>
       </c>
       <c r="L637" s="2" t="s">
-        <v>5199</v>
+        <v>5196</v>
       </c>
       <c r="M637" s="2" t="s">
         <v>506</v>
@@ -46493,7 +46493,7 @@
         <v>3060</v>
       </c>
       <c r="F641" s="2" t="s">
-        <v>5312</v>
+        <v>5309</v>
       </c>
       <c r="G641" s="2" t="s">
         <v>3061</v>
@@ -46519,7 +46519,7 @@
         <v>3065</v>
       </c>
       <c r="F642" s="2" t="s">
-        <v>5313</v>
+        <v>5310</v>
       </c>
       <c r="G642" s="2" t="s">
         <v>3066</v>
@@ -46579,7 +46579,7 @@
         <v>3069</v>
       </c>
       <c r="F645" s="2" t="s">
-        <v>5314</v>
+        <v>5311</v>
       </c>
       <c r="G645" s="2" t="s">
         <v>3071</v>
@@ -46605,7 +46605,7 @@
         <v>3031</v>
       </c>
       <c r="F646" s="2" t="s">
-        <v>5309</v>
+        <v>5306</v>
       </c>
       <c r="G646" s="2" t="s">
         <v>3021</v>
@@ -46631,7 +46631,7 @@
         <v>3243</v>
       </c>
       <c r="F647" s="2" t="s">
-        <v>5425</v>
+        <v>5422</v>
       </c>
       <c r="G647" s="2" t="s">
         <v>3244</v>
@@ -46657,7 +46657,7 @@
         <v>2662</v>
       </c>
       <c r="F648" s="2" t="s">
-        <v>5203</v>
+        <v>5200</v>
       </c>
       <c r="G648" s="2" t="s">
         <v>2664</v>
@@ -46735,7 +46735,7 @@
         <v>3506</v>
       </c>
       <c r="F651" s="2" t="s">
-        <v>5573</v>
+        <v>5570</v>
       </c>
       <c r="G651" s="2" t="s">
         <v>3502</v>
@@ -46752,7 +46752,7 @@
         <v>1162</v>
       </c>
       <c r="C652" s="2" t="s">
-        <v>5458</v>
+        <v>5455</v>
       </c>
       <c r="D652" s="2" t="s">
         <v>1163</v>
@@ -46769,7 +46769,7 @@
         <v>932</v>
       </c>
       <c r="C653" s="2" t="s">
-        <v>5455</v>
+        <v>5452</v>
       </c>
       <c r="D653" s="2" t="s">
         <v>1159</v>
@@ -46786,7 +46786,7 @@
         <v>1162</v>
       </c>
       <c r="C654" s="2" t="s">
-        <v>5460</v>
+        <v>5457</v>
       </c>
       <c r="D654" s="2" t="s">
         <v>1165</v>
@@ -46803,7 +46803,7 @@
         <v>932</v>
       </c>
       <c r="C655" s="2" t="s">
-        <v>5454</v>
+        <v>5451</v>
       </c>
       <c r="D655" s="2" t="s">
         <v>1157</v>
@@ -46855,7 +46855,7 @@
         <v>565</v>
       </c>
       <c r="L657" s="2" t="s">
-        <v>5215</v>
+        <v>5212</v>
       </c>
       <c r="M657" s="2" t="s">
         <v>566</v>
@@ -46925,7 +46925,7 @@
         <v>3522</v>
       </c>
       <c r="F659" s="2" t="s">
-        <v>5576</v>
+        <v>5573</v>
       </c>
       <c r="G659" s="2" t="s">
         <v>3523</v>
@@ -46951,7 +46951,7 @@
         <v>2492</v>
       </c>
       <c r="F660" s="2" t="s">
-        <v>5160</v>
+        <v>5157</v>
       </c>
       <c r="G660" s="2" t="s">
         <v>2493</v>
@@ -46969,7 +46969,7 @@
         <v>2496</v>
       </c>
       <c r="O660" s="2" t="s">
-        <v>5161</v>
+        <v>5158</v>
       </c>
       <c r="P660" s="2" t="s">
         <v>2497</v>
@@ -47022,7 +47022,7 @@
         <v>4503</v>
       </c>
       <c r="U661" s="2" t="s">
-        <v>5694</v>
+        <v>5691</v>
       </c>
       <c r="V661" s="2" t="s">
         <v>2174</v>
@@ -47057,7 +47057,7 @@
         <v>484</v>
       </c>
       <c r="L662" s="2" t="s">
-        <v>5189</v>
+        <v>5186</v>
       </c>
       <c r="M662" s="2" t="s">
         <v>485</v>
@@ -47092,7 +47092,7 @@
         <v>701</v>
       </c>
       <c r="L663" s="2" t="s">
-        <v>5282</v>
+        <v>5279</v>
       </c>
       <c r="M663" s="2" t="s">
         <v>702</v>
@@ -47109,7 +47109,7 @@
         <v>49</v>
       </c>
       <c r="C664" s="4" t="s">
-        <v>5144</v>
+        <v>5141</v>
       </c>
       <c r="D664" s="4" t="s">
         <v>2438</v>
@@ -47118,7 +47118,7 @@
         <v>2439</v>
       </c>
       <c r="F664" s="2" t="s">
-        <v>5145</v>
+        <v>5142</v>
       </c>
       <c r="G664" s="2" t="s">
         <v>2440</v>
@@ -47182,7 +47182,7 @@
         <v>38</v>
       </c>
       <c r="C666" s="2" t="s">
-        <v>5637</v>
+        <v>5634</v>
       </c>
       <c r="D666" s="2" t="s">
         <v>1446</v>
@@ -47191,7 +47191,7 @@
         <v>1447</v>
       </c>
       <c r="I666" s="2" t="s">
-        <v>5776</v>
+        <v>5773</v>
       </c>
       <c r="J666" s="2" t="s">
         <v>1448</v>
@@ -47217,7 +47217,7 @@
         <v>3706</v>
       </c>
       <c r="F667" s="2" t="s">
-        <v>5624</v>
+        <v>5621</v>
       </c>
       <c r="G667" s="2" t="s">
         <v>3707</v>
@@ -47234,7 +47234,7 @@
         <v>3940</v>
       </c>
       <c r="C668" t="s">
-        <v>5799</v>
+        <v>5796</v>
       </c>
       <c r="D668" t="s">
         <v>3955</v>
@@ -47243,7 +47243,7 @@
         <v>3956</v>
       </c>
       <c r="F668" s="9" t="s">
-        <v>5800</v>
+        <v>5797</v>
       </c>
       <c r="G668" t="s">
         <v>3957</v>
@@ -47314,7 +47314,7 @@
         <v>4389</v>
       </c>
       <c r="U669" s="2" t="s">
-        <v>5692</v>
+        <v>5689</v>
       </c>
       <c r="V669" s="2" t="s">
         <v>1798</v>
@@ -47426,7 +47426,7 @@
         <v>49</v>
       </c>
       <c r="C674" s="4" t="s">
-        <v>5142</v>
+        <v>5139</v>
       </c>
       <c r="D674" s="4" t="s">
         <v>2431</v>
@@ -47435,7 +47435,7 @@
         <v>2432</v>
       </c>
       <c r="F674" s="2" t="s">
-        <v>5143</v>
+        <v>5140</v>
       </c>
       <c r="G674" s="2" t="s">
         <v>2433</v>
@@ -47514,7 +47514,7 @@
         <v>4456</v>
       </c>
       <c r="U676" s="2" t="s">
-        <v>5710</v>
+        <v>5707</v>
       </c>
       <c r="V676" s="2" t="s">
         <v>2076</v>
@@ -47643,7 +47643,7 @@
         <v>3607</v>
       </c>
       <c r="F682" s="2" t="s">
-        <v>5596</v>
+        <v>5593</v>
       </c>
       <c r="G682" s="2" t="s">
         <v>3608</v>
@@ -47669,7 +47669,7 @@
         <v>49</v>
       </c>
       <c r="C683" s="4" t="s">
-        <v>5122</v>
+        <v>5121</v>
       </c>
       <c r="D683" s="4" t="s">
         <v>2363</v>
@@ -47678,7 +47678,7 @@
         <v>2364</v>
       </c>
       <c r="F683" s="2" t="s">
-        <v>5123</v>
+        <v>5122</v>
       </c>
       <c r="G683" s="2" t="s">
         <v>2365</v>
@@ -47704,7 +47704,7 @@
         <v>1124</v>
       </c>
       <c r="C684" s="2" t="s">
-        <v>5441</v>
+        <v>5438</v>
       </c>
       <c r="D684" s="2" t="s">
         <v>1125</v>
@@ -47713,7 +47713,7 @@
         <v>1126</v>
       </c>
       <c r="L684" s="2" t="s">
-        <v>5442</v>
+        <v>5439</v>
       </c>
       <c r="M684" s="2" t="s">
         <v>1127</v>
@@ -47739,7 +47739,7 @@
         <v>3367</v>
       </c>
       <c r="F685" s="2" t="s">
-        <v>5487</v>
+        <v>5484</v>
       </c>
       <c r="G685" s="2" t="s">
         <v>3368</v>
@@ -47748,7 +47748,7 @@
         <v>3369</v>
       </c>
       <c r="O685" s="2" t="s">
-        <v>5488</v>
+        <v>5485</v>
       </c>
       <c r="P685" s="2" t="s">
         <v>3370</v>
@@ -47774,7 +47774,7 @@
         <v>3258</v>
       </c>
       <c r="F686" s="2" t="s">
-        <v>5436</v>
+        <v>5433</v>
       </c>
       <c r="G686" s="2" t="s">
         <v>3259</v>
@@ -47809,7 +47809,7 @@
         <v>543</v>
       </c>
       <c r="L687" s="2" t="s">
-        <v>5212</v>
+        <v>5209</v>
       </c>
       <c r="M687" s="2" t="s">
         <v>544</v>
@@ -47826,7 +47826,7 @@
         <v>49</v>
       </c>
       <c r="C688" s="4" t="s">
-        <v>5157</v>
+        <v>5154</v>
       </c>
       <c r="D688" s="4" t="s">
         <v>2484</v>
@@ -47835,7 +47835,7 @@
         <v>4606</v>
       </c>
       <c r="F688" s="2" t="s">
-        <v>5158</v>
+        <v>5155</v>
       </c>
       <c r="G688" s="2" t="s">
         <v>2485</v>
@@ -47853,7 +47853,7 @@
         <v>2488</v>
       </c>
       <c r="O688" s="2" t="s">
-        <v>5159</v>
+        <v>5156</v>
       </c>
       <c r="P688" s="2" t="s">
         <v>2489</v>
@@ -47870,7 +47870,7 @@
         <v>932</v>
       </c>
       <c r="C689" s="2" t="s">
-        <v>5406</v>
+        <v>5403</v>
       </c>
       <c r="D689" s="2" t="s">
         <v>1071</v>
@@ -47879,7 +47879,7 @@
         <v>1072</v>
       </c>
       <c r="L689" s="2" t="s">
-        <v>5407</v>
+        <v>5404</v>
       </c>
       <c r="M689" s="2" t="s">
         <v>1073</v>
@@ -47905,7 +47905,7 @@
         <v>2805</v>
       </c>
       <c r="F690" s="2" t="s">
-        <v>5247</v>
+        <v>5244</v>
       </c>
       <c r="G690" s="2" t="s">
         <v>2806</v>
@@ -47931,7 +47931,7 @@
         <v>2789</v>
       </c>
       <c r="F691" s="2" t="s">
-        <v>5244</v>
+        <v>5241</v>
       </c>
       <c r="G691" s="2" t="s">
         <v>2790</v>
@@ -47957,7 +47957,7 @@
         <v>2897</v>
       </c>
       <c r="F692" s="2" t="s">
-        <v>5269</v>
+        <v>5266</v>
       </c>
       <c r="G692" s="2" t="s">
         <v>2898</v>
@@ -48044,7 +48044,7 @@
         <v>3034</v>
       </c>
       <c r="F695" s="2" t="s">
-        <v>5309</v>
+        <v>5306</v>
       </c>
       <c r="G695" s="2" t="s">
         <v>3021</v>
@@ -48070,7 +48070,7 @@
         <v>2517</v>
       </c>
       <c r="F696" s="2" t="s">
-        <v>5166</v>
+        <v>5163</v>
       </c>
       <c r="G696" s="2" t="s">
         <v>2518</v>
@@ -48088,7 +48088,7 @@
         <v>2521</v>
       </c>
       <c r="O696" s="2" t="s">
-        <v>5167</v>
+        <v>5164</v>
       </c>
       <c r="P696" s="2" t="s">
         <v>2522</v>
@@ -48114,7 +48114,7 @@
         <v>2629</v>
       </c>
       <c r="F697" s="2" t="s">
-        <v>5195</v>
+        <v>5192</v>
       </c>
       <c r="G697" s="2" t="s">
         <v>2630</v>
@@ -48184,7 +48184,7 @@
         <v>4451</v>
       </c>
       <c r="U699" s="2" t="s">
-        <v>5721</v>
+        <v>5718</v>
       </c>
       <c r="V699" s="2" t="s">
         <v>2063</v>
@@ -48210,7 +48210,7 @@
         <v>337</v>
       </c>
       <c r="L700" s="2" t="s">
-        <v>5639</v>
+        <v>5636</v>
       </c>
       <c r="M700" s="2" t="s">
         <v>338</v>
@@ -48289,7 +48289,7 @@
         <v>498</v>
       </c>
       <c r="L702" s="2" t="s">
-        <v>5192</v>
+        <v>5189</v>
       </c>
       <c r="M702" s="2" t="s">
         <v>499</v>
@@ -48306,7 +48306,7 @@
         <v>1112</v>
       </c>
       <c r="C703" s="2" t="s">
-        <v>5437</v>
+        <v>5434</v>
       </c>
       <c r="D703" s="2" t="s">
         <v>1113</v>
@@ -48315,7 +48315,7 @@
         <v>1114</v>
       </c>
       <c r="L703" s="2" t="s">
-        <v>5438</v>
+        <v>5435</v>
       </c>
       <c r="M703" s="2" t="s">
         <v>1115</v>
@@ -48385,7 +48385,7 @@
         <v>4473</v>
       </c>
       <c r="U705" s="2" t="s">
-        <v>5728</v>
+        <v>5725</v>
       </c>
       <c r="V705" s="2" t="s">
         <v>2113</v>
@@ -48482,7 +48482,7 @@
         <v>4473</v>
       </c>
       <c r="U707" s="2" t="s">
-        <v>5728</v>
+        <v>5725</v>
       </c>
       <c r="V707" s="2" t="s">
         <v>2113</v>
@@ -48508,7 +48508,7 @@
         <v>3045</v>
       </c>
       <c r="F708" s="2" t="s">
-        <v>5310</v>
+        <v>5307</v>
       </c>
       <c r="G708" s="2" t="s">
         <v>3038</v>
@@ -48525,7 +48525,7 @@
         <v>1118</v>
       </c>
       <c r="C709" s="2" t="s">
-        <v>5444</v>
+        <v>5441</v>
       </c>
       <c r="D709" s="2" t="s">
         <v>1130</v>
@@ -48534,7 +48534,7 @@
         <v>1131</v>
       </c>
       <c r="L709" s="2" t="s">
-        <v>5445</v>
+        <v>5442</v>
       </c>
       <c r="M709" s="2" t="s">
         <v>1132</v>
@@ -48586,7 +48586,7 @@
         <v>579</v>
       </c>
       <c r="L711" s="2" t="s">
-        <v>5217</v>
+        <v>5214</v>
       </c>
       <c r="M711" s="2" t="s">
         <v>580</v>
@@ -48682,7 +48682,7 @@
         <v>4532</v>
       </c>
       <c r="U714" s="2" t="s">
-        <v>5706</v>
+        <v>5703</v>
       </c>
       <c r="V714" s="2" t="s">
         <v>2240</v>
@@ -48786,7 +48786,7 @@
         <v>2939</v>
       </c>
       <c r="F718" s="2" t="s">
-        <v>5293</v>
+        <v>5290</v>
       </c>
       <c r="G718" s="2" t="s">
         <v>2935</v>
@@ -48803,7 +48803,7 @@
         <v>932</v>
       </c>
       <c r="C719" s="2" t="s">
-        <v>5479</v>
+        <v>5476</v>
       </c>
       <c r="D719" s="2" t="s">
         <v>1219</v>
@@ -48812,7 +48812,7 @@
         <v>1220</v>
       </c>
       <c r="L719" s="2" t="s">
-        <v>5480</v>
+        <v>5477</v>
       </c>
       <c r="M719" s="2" t="s">
         <v>1221</v>
@@ -48900,7 +48900,7 @@
         <v>4514</v>
       </c>
       <c r="U721" s="2" t="s">
-        <v>5698</v>
+        <v>5695</v>
       </c>
       <c r="V721" s="2" t="s">
         <v>2200</v>
@@ -48926,7 +48926,7 @@
         <v>2995</v>
       </c>
       <c r="F722" s="2" t="s">
-        <v>5304</v>
+        <v>5301</v>
       </c>
       <c r="G722" s="2" t="s">
         <v>2996</v>
@@ -48943,7 +48943,7 @@
         <v>824</v>
       </c>
       <c r="C723" t="s">
-        <v>5802</v>
+        <v>5799</v>
       </c>
       <c r="D723" t="s">
         <v>4815</v>
@@ -48952,7 +48952,7 @@
         <v>3372</v>
       </c>
       <c r="F723" s="2" t="s">
-        <v>5801</v>
+        <v>5798</v>
       </c>
       <c r="G723" s="2" t="s">
         <v>3373</v>
@@ -48987,7 +48987,7 @@
         <v>2957</v>
       </c>
       <c r="F724" s="2" t="s">
-        <v>5297</v>
+        <v>5294</v>
       </c>
       <c r="G724" s="2" t="s">
         <v>2958</v>
@@ -49057,7 +49057,7 @@
         <v>2828</v>
       </c>
       <c r="F726" s="2" t="s">
-        <v>5252</v>
+        <v>5249</v>
       </c>
       <c r="G726" s="2" t="s">
         <v>2829</v>
@@ -49083,7 +49083,7 @@
         <v>2730</v>
       </c>
       <c r="F727" s="2" t="s">
-        <v>5226</v>
+        <v>5223</v>
       </c>
       <c r="G727" s="2" t="s">
         <v>2731</v>
@@ -49100,7 +49100,7 @@
         <v>1049</v>
       </c>
       <c r="C728" s="2" t="s">
-        <v>5463</v>
+        <v>5460</v>
       </c>
       <c r="D728" s="2" t="s">
         <v>1179</v>
@@ -49109,7 +49109,7 @@
         <v>1180</v>
       </c>
       <c r="L728" s="2" t="s">
-        <v>5464</v>
+        <v>5461</v>
       </c>
       <c r="M728" s="2" t="s">
         <v>1181</v>
@@ -49135,7 +49135,7 @@
         <v>2844</v>
       </c>
       <c r="F729" s="2" t="s">
-        <v>5257</v>
+        <v>5254</v>
       </c>
       <c r="G729" s="2" t="s">
         <v>2845</v>
@@ -49161,7 +49161,7 @@
         <v>837</v>
       </c>
       <c r="L730" s="2" t="s">
-        <v>5324</v>
+        <v>5321</v>
       </c>
       <c r="M730" s="2" t="s">
         <v>838</v>
@@ -49231,7 +49231,7 @@
         <v>3353</v>
       </c>
       <c r="F732" s="2" t="s">
-        <v>5483</v>
+        <v>5480</v>
       </c>
       <c r="G732" s="2" t="s">
         <v>3354</v>
@@ -49257,7 +49257,7 @@
         <v>2658</v>
       </c>
       <c r="F733" s="2" t="s">
-        <v>5202</v>
+        <v>5199</v>
       </c>
       <c r="G733" s="2" t="s">
         <v>2659</v>
@@ -49283,7 +49283,7 @@
         <v>3702</v>
       </c>
       <c r="F734" s="2" t="s">
-        <v>5623</v>
+        <v>5620</v>
       </c>
       <c r="G734" s="2" t="s">
         <v>3697</v>
@@ -49292,7 +49292,7 @@
         <v>3698</v>
       </c>
       <c r="O734" s="2" t="s">
-        <v>5808</v>
+        <v>5805</v>
       </c>
       <c r="P734" s="2" t="s">
         <v>3703</v>
@@ -49370,7 +49370,7 @@
         <v>3761</v>
       </c>
       <c r="F737" s="2" t="s">
-        <v>5641</v>
+        <v>5638</v>
       </c>
       <c r="G737" s="2" t="s">
         <v>3762</v>
@@ -49379,7 +49379,7 @@
         <v>3763</v>
       </c>
       <c r="O737" s="2" t="s">
-        <v>5642</v>
+        <v>5639</v>
       </c>
       <c r="P737" s="2" t="s">
         <v>3764</v>
@@ -49405,7 +49405,7 @@
         <v>3054</v>
       </c>
       <c r="F738" s="2" t="s">
-        <v>5310</v>
+        <v>5307</v>
       </c>
       <c r="G738" s="2" t="s">
         <v>3038</v>
@@ -49519,7 +49519,7 @@
         <v>2684</v>
       </c>
       <c r="F741" s="2" t="s">
-        <v>5207</v>
+        <v>5204</v>
       </c>
       <c r="G741" s="2" t="s">
         <v>2685</v>
@@ -49554,7 +49554,7 @@
         <v>3404</v>
       </c>
       <c r="O742" s="2" t="s">
-        <v>5412</v>
+        <v>5409</v>
       </c>
       <c r="P742" s="2" t="s">
         <v>3405</v>
@@ -49589,7 +49589,7 @@
         <v>3404</v>
       </c>
       <c r="O743" s="2" t="s">
-        <v>5412</v>
+        <v>5409</v>
       </c>
       <c r="P743" s="2" t="s">
         <v>3405</v>
@@ -49624,7 +49624,7 @@
         <v>3404</v>
       </c>
       <c r="O744" s="2" t="s">
-        <v>5412</v>
+        <v>5409</v>
       </c>
       <c r="P744" s="2" t="s">
         <v>3405</v>
@@ -49659,7 +49659,7 @@
         <v>3404</v>
       </c>
       <c r="O745" s="2" t="s">
-        <v>5412</v>
+        <v>5409</v>
       </c>
       <c r="P745" s="2" t="s">
         <v>3405</v>
@@ -49694,7 +49694,7 @@
         <v>3404</v>
       </c>
       <c r="O746" s="2" t="s">
-        <v>5412</v>
+        <v>5409</v>
       </c>
       <c r="P746" s="2" t="s">
         <v>3405</v>
@@ -49729,7 +49729,7 @@
         <v>3404</v>
       </c>
       <c r="O747" s="2" t="s">
-        <v>5412</v>
+        <v>5409</v>
       </c>
       <c r="P747" s="2" t="s">
         <v>3405</v>
@@ -49764,7 +49764,7 @@
         <v>3404</v>
       </c>
       <c r="O748" s="2" t="s">
-        <v>5412</v>
+        <v>5409</v>
       </c>
       <c r="P748" s="2" t="s">
         <v>3405</v>
@@ -49799,7 +49799,7 @@
         <v>3404</v>
       </c>
       <c r="O749" s="2" t="s">
-        <v>5412</v>
+        <v>5409</v>
       </c>
       <c r="P749" s="2" t="s">
         <v>3405</v>
@@ -49834,7 +49834,7 @@
         <v>3404</v>
       </c>
       <c r="O750" s="2" t="s">
-        <v>5412</v>
+        <v>5409</v>
       </c>
       <c r="P750" s="2" t="s">
         <v>3405</v>
@@ -49869,7 +49869,7 @@
         <v>3404</v>
       </c>
       <c r="O751" s="2" t="s">
-        <v>5412</v>
+        <v>5409</v>
       </c>
       <c r="P751" s="2" t="s">
         <v>3405</v>
@@ -49904,7 +49904,7 @@
         <v>3404</v>
       </c>
       <c r="O752" s="2" t="s">
-        <v>5412</v>
+        <v>5409</v>
       </c>
       <c r="P752" s="2" t="s">
         <v>3405</v>
@@ -49939,7 +49939,7 @@
         <v>3404</v>
       </c>
       <c r="O753" s="2" t="s">
-        <v>5412</v>
+        <v>5409</v>
       </c>
       <c r="P753" s="2" t="s">
         <v>3405</v>
@@ -49974,7 +49974,7 @@
         <v>3404</v>
       </c>
       <c r="O754" s="2" t="s">
-        <v>5412</v>
+        <v>5409</v>
       </c>
       <c r="P754" s="2" t="s">
         <v>3405</v>
@@ -50009,7 +50009,7 @@
         <v>3404</v>
       </c>
       <c r="O755" s="2" t="s">
-        <v>5412</v>
+        <v>5409</v>
       </c>
       <c r="P755" s="2" t="s">
         <v>3405</v>
@@ -50044,7 +50044,7 @@
         <v>3404</v>
       </c>
       <c r="O756" s="2" t="s">
-        <v>5412</v>
+        <v>5409</v>
       </c>
       <c r="P756" s="2" t="s">
         <v>3405</v>
@@ -50079,7 +50079,7 @@
         <v>3404</v>
       </c>
       <c r="O757" s="2" t="s">
-        <v>5412</v>
+        <v>5409</v>
       </c>
       <c r="P757" s="2" t="s">
         <v>3405</v>
@@ -50114,7 +50114,7 @@
         <v>3404</v>
       </c>
       <c r="O758" s="2" t="s">
-        <v>5412</v>
+        <v>5409</v>
       </c>
       <c r="P758" s="2" t="s">
         <v>3405</v>
@@ -50140,7 +50140,7 @@
         <v>3402</v>
       </c>
       <c r="F759" s="2" t="s">
-        <v>5498</v>
+        <v>5495</v>
       </c>
       <c r="G759" s="2" t="s">
         <v>3403</v>
@@ -50149,7 +50149,7 @@
         <v>3404</v>
       </c>
       <c r="O759" s="2" t="s">
-        <v>5412</v>
+        <v>5409</v>
       </c>
       <c r="P759" s="2" t="s">
         <v>3405</v>
@@ -50175,7 +50175,7 @@
         <v>1425</v>
       </c>
       <c r="I760" s="2" t="s">
-        <v>5773</v>
+        <v>5770</v>
       </c>
       <c r="J760" s="2" t="s">
         <v>1426</v>
@@ -50192,7 +50192,7 @@
         <v>1124</v>
       </c>
       <c r="C761" s="2" t="s">
-        <v>5446</v>
+        <v>5443</v>
       </c>
       <c r="D761" s="2" t="s">
         <v>1135</v>
@@ -50201,7 +50201,7 @@
         <v>1136</v>
       </c>
       <c r="L761" s="2" t="s">
-        <v>5447</v>
+        <v>5444</v>
       </c>
       <c r="M761" s="2" t="s">
         <v>1137</v>
@@ -50271,7 +50271,7 @@
         <v>52</v>
       </c>
       <c r="C763" s="2" t="s">
-        <v>5420</v>
+        <v>5417</v>
       </c>
       <c r="D763" s="2" t="s">
         <v>1087</v>
@@ -50280,7 +50280,7 @@
         <v>1088</v>
       </c>
       <c r="L763" s="2" t="s">
-        <v>5421</v>
+        <v>5418</v>
       </c>
       <c r="M763" s="2" t="s">
         <v>1089</v>
@@ -50306,7 +50306,7 @@
         <v>3512</v>
       </c>
       <c r="F764" s="2" t="s">
-        <v>5574</v>
+        <v>5571</v>
       </c>
       <c r="G764" s="2" t="s">
         <v>3513</v>
@@ -50340,7 +50340,7 @@
         <v>52</v>
       </c>
       <c r="C766" s="2" t="s">
-        <v>5432</v>
+        <v>5429</v>
       </c>
       <c r="D766" s="2" t="s">
         <v>1102</v>
@@ -50349,7 +50349,7 @@
         <v>1103</v>
       </c>
       <c r="L766" s="2" t="s">
-        <v>5433</v>
+        <v>5430</v>
       </c>
       <c r="M766" s="2" t="s">
         <v>1104</v>
@@ -50427,7 +50427,7 @@
         <v>814</v>
       </c>
       <c r="L769" s="2" t="s">
-        <v>5320</v>
+        <v>5317</v>
       </c>
       <c r="M769" s="2" t="s">
         <v>815</v>
@@ -50462,7 +50462,7 @@
         <v>723</v>
       </c>
       <c r="L770" s="2" t="s">
-        <v>5285</v>
+        <v>5282</v>
       </c>
       <c r="M770" s="2" t="s">
         <v>724</v>
@@ -50532,7 +50532,7 @@
         <v>2893</v>
       </c>
       <c r="F772" s="2" t="s">
-        <v>5268</v>
+        <v>5265</v>
       </c>
       <c r="G772" s="2" t="s">
         <v>2894</v>
@@ -50549,7 +50549,7 @@
         <v>52</v>
       </c>
       <c r="C773" s="2" t="s">
-        <v>5430</v>
+        <v>5427</v>
       </c>
       <c r="D773" s="2" t="s">
         <v>1097</v>
@@ -50558,7 +50558,7 @@
         <v>1098</v>
       </c>
       <c r="L773" s="2" t="s">
-        <v>5431</v>
+        <v>5428</v>
       </c>
       <c r="M773" s="2" t="s">
         <v>1099</v>
@@ -50584,7 +50584,7 @@
         <v>2742</v>
       </c>
       <c r="F774" s="2" t="s">
-        <v>5228</v>
+        <v>5225</v>
       </c>
       <c r="G774" s="2" t="s">
         <v>2743</v>
@@ -50601,7 +50601,7 @@
         <v>49</v>
       </c>
       <c r="C775" s="2" t="s">
-        <v>5682</v>
+        <v>5679</v>
       </c>
       <c r="D775" s="2" t="s">
         <v>1565</v>
@@ -50610,7 +50610,7 @@
         <v>1566</v>
       </c>
       <c r="F775" s="2" t="s">
-        <v>5683</v>
+        <v>5680</v>
       </c>
       <c r="G775" s="2" t="s">
         <v>1567</v>
@@ -50627,7 +50627,7 @@
         <v>49</v>
       </c>
       <c r="C776" s="2" t="s">
-        <v>5654</v>
+        <v>5651</v>
       </c>
       <c r="D776" s="2" t="s">
         <v>1495</v>
@@ -50636,7 +50636,7 @@
         <v>1496</v>
       </c>
       <c r="F776" s="2" t="s">
-        <v>5655</v>
+        <v>5652</v>
       </c>
       <c r="G776" s="2" t="s">
         <v>1497</v>
@@ -50653,7 +50653,7 @@
         <v>804</v>
       </c>
       <c r="C777" s="2" t="s">
-        <v>5670</v>
+        <v>5667</v>
       </c>
       <c r="D777" s="2" t="s">
         <v>1535</v>
@@ -50662,7 +50662,7 @@
         <v>1536</v>
       </c>
       <c r="F777" s="2" t="s">
-        <v>5671</v>
+        <v>5668</v>
       </c>
       <c r="G777" s="2" t="s">
         <v>1537</v>
@@ -50679,7 +50679,7 @@
         <v>49</v>
       </c>
       <c r="C778" s="2" t="s">
-        <v>5684</v>
+        <v>5681</v>
       </c>
       <c r="D778" s="2" t="s">
         <v>1570</v>
@@ -50688,7 +50688,7 @@
         <v>1571</v>
       </c>
       <c r="F778" s="2" t="s">
-        <v>5685</v>
+        <v>5682</v>
       </c>
       <c r="G778" s="2" t="s">
         <v>1572</v>
@@ -50705,7 +50705,7 @@
         <v>49</v>
       </c>
       <c r="C779" s="2" t="s">
-        <v>5656</v>
+        <v>5653</v>
       </c>
       <c r="D779" s="2" t="s">
         <v>1500</v>
@@ -50714,7 +50714,7 @@
         <v>1501</v>
       </c>
       <c r="F779" s="2" t="s">
-        <v>5657</v>
+        <v>5654</v>
       </c>
       <c r="G779" s="2" t="s">
         <v>1502</v>
@@ -50740,7 +50740,7 @@
         <v>826</v>
       </c>
       <c r="L780" s="2" t="s">
-        <v>5322</v>
+        <v>5319</v>
       </c>
       <c r="M780" s="2" t="s">
         <v>827</v>
@@ -50757,7 +50757,7 @@
         <v>49</v>
       </c>
       <c r="C781" s="2" t="s">
-        <v>5680</v>
+        <v>5677</v>
       </c>
       <c r="D781" s="2" t="s">
         <v>1560</v>
@@ -50766,7 +50766,7 @@
         <v>1561</v>
       </c>
       <c r="F781" s="2" t="s">
-        <v>5681</v>
+        <v>5678</v>
       </c>
       <c r="G781" s="2" t="s">
         <v>1562</v>
@@ -50783,7 +50783,7 @@
         <v>49</v>
       </c>
       <c r="C782" s="2" t="s">
-        <v>5660</v>
+        <v>5657</v>
       </c>
       <c r="D782" s="2" t="s">
         <v>1510</v>
@@ -50792,7 +50792,7 @@
         <v>1511</v>
       </c>
       <c r="F782" s="2" t="s">
-        <v>5661</v>
+        <v>5658</v>
       </c>
       <c r="G782" s="2" t="s">
         <v>1512</v>
@@ -50809,7 +50809,7 @@
         <v>49</v>
       </c>
       <c r="C783" s="2" t="s">
-        <v>5674</v>
+        <v>5671</v>
       </c>
       <c r="D783" s="2" t="s">
         <v>1545</v>
@@ -50818,7 +50818,7 @@
         <v>1546</v>
       </c>
       <c r="F783" s="2" t="s">
-        <v>5675</v>
+        <v>5672</v>
       </c>
       <c r="G783" s="2" t="s">
         <v>1547</v>
@@ -50835,7 +50835,7 @@
         <v>49</v>
       </c>
       <c r="C784" s="2" t="s">
-        <v>5666</v>
+        <v>5663</v>
       </c>
       <c r="D784" s="2" t="s">
         <v>1525</v>
@@ -50844,7 +50844,7 @@
         <v>1526</v>
       </c>
       <c r="F784" s="2" t="s">
-        <v>5667</v>
+        <v>5664</v>
       </c>
       <c r="G784" s="2" t="s">
         <v>1527</v>
@@ -50861,7 +50861,7 @@
         <v>314</v>
       </c>
       <c r="C785" s="2" t="s">
-        <v>5676</v>
+        <v>5673</v>
       </c>
       <c r="D785" s="2" t="s">
         <v>1550</v>
@@ -50870,7 +50870,7 @@
         <v>1551</v>
       </c>
       <c r="F785" s="2" t="s">
-        <v>5677</v>
+        <v>5674</v>
       </c>
       <c r="G785" s="2" t="s">
         <v>1552</v>
@@ -50887,7 +50887,7 @@
         <v>49</v>
       </c>
       <c r="C786" s="2" t="s">
-        <v>5672</v>
+        <v>5669</v>
       </c>
       <c r="D786" s="2" t="s">
         <v>1540</v>
@@ -50896,7 +50896,7 @@
         <v>1541</v>
       </c>
       <c r="F786" s="2" t="s">
-        <v>5673</v>
+        <v>5670</v>
       </c>
       <c r="G786" s="2" t="s">
         <v>1542</v>
@@ -50913,7 +50913,7 @@
         <v>49</v>
       </c>
       <c r="C787" s="2" t="s">
-        <v>5648</v>
+        <v>5645</v>
       </c>
       <c r="D787" s="2" t="s">
         <v>1480</v>
@@ -50922,7 +50922,7 @@
         <v>1481</v>
       </c>
       <c r="F787" s="2" t="s">
-        <v>5649</v>
+        <v>5646</v>
       </c>
       <c r="G787" s="2" t="s">
         <v>1482</v>
@@ -50939,7 +50939,7 @@
         <v>49</v>
       </c>
       <c r="C788" s="2" t="s">
-        <v>5650</v>
+        <v>5647</v>
       </c>
       <c r="D788" s="2" t="s">
         <v>1485</v>
@@ -50948,7 +50948,7 @@
         <v>1486</v>
       </c>
       <c r="F788" s="2" t="s">
-        <v>5651</v>
+        <v>5648</v>
       </c>
       <c r="G788" s="2" t="s">
         <v>1487</v>
@@ -50965,7 +50965,7 @@
         <v>1473</v>
       </c>
       <c r="C789" s="2" t="s">
-        <v>5678</v>
+        <v>5675</v>
       </c>
       <c r="D789" s="2" t="s">
         <v>1555</v>
@@ -50974,7 +50974,7 @@
         <v>1556</v>
       </c>
       <c r="F789" s="2" t="s">
-        <v>5679</v>
+        <v>5676</v>
       </c>
       <c r="G789" s="2" t="s">
         <v>1557</v>
@@ -50991,7 +50991,7 @@
         <v>49</v>
       </c>
       <c r="C790" s="2" t="s">
-        <v>5664</v>
+        <v>5661</v>
       </c>
       <c r="D790" s="2" t="s">
         <v>1520</v>
@@ -51000,7 +51000,7 @@
         <v>1521</v>
       </c>
       <c r="F790" s="2" t="s">
-        <v>5665</v>
+        <v>5662</v>
       </c>
       <c r="G790" s="2" t="s">
         <v>1522</v>
@@ -51017,7 +51017,7 @@
         <v>49</v>
       </c>
       <c r="C791" s="2" t="s">
-        <v>5652</v>
+        <v>5649</v>
       </c>
       <c r="D791" s="2" t="s">
         <v>1490</v>
@@ -51026,7 +51026,7 @@
         <v>1491</v>
       </c>
       <c r="F791" s="2" t="s">
-        <v>5653</v>
+        <v>5650</v>
       </c>
       <c r="G791" s="2" t="s">
         <v>1492</v>
@@ -51043,7 +51043,7 @@
         <v>38</v>
       </c>
       <c r="C792" s="2" t="s">
-        <v>5668</v>
+        <v>5665</v>
       </c>
       <c r="D792" s="2" t="s">
         <v>1530</v>
@@ -51052,7 +51052,7 @@
         <v>1531</v>
       </c>
       <c r="F792" s="2" t="s">
-        <v>5669</v>
+        <v>5666</v>
       </c>
       <c r="G792" s="2" t="s">
         <v>1532</v>
@@ -51069,7 +51069,7 @@
         <v>49</v>
       </c>
       <c r="C793" s="2" t="s">
-        <v>5662</v>
+        <v>5659</v>
       </c>
       <c r="D793" s="2" t="s">
         <v>1515</v>
@@ -51078,7 +51078,7 @@
         <v>1516</v>
       </c>
       <c r="F793" s="2" t="s">
-        <v>5663</v>
+        <v>5660</v>
       </c>
       <c r="G793" s="2" t="s">
         <v>1517</v>
@@ -51095,7 +51095,7 @@
         <v>49</v>
       </c>
       <c r="C794" s="2" t="s">
-        <v>5658</v>
+        <v>5655</v>
       </c>
       <c r="D794" s="2" t="s">
         <v>1505</v>
@@ -51104,7 +51104,7 @@
         <v>1506</v>
       </c>
       <c r="F794" s="2" t="s">
-        <v>5659</v>
+        <v>5656</v>
       </c>
       <c r="G794" s="2" t="s">
         <v>1507</v>
@@ -51121,7 +51121,7 @@
         <v>49</v>
       </c>
       <c r="C795" s="4" t="s">
-        <v>5120</v>
+        <v>5119</v>
       </c>
       <c r="D795" s="4" t="s">
         <v>2356</v>
@@ -51130,7 +51130,7 @@
         <v>2357</v>
       </c>
       <c r="F795" s="2" t="s">
-        <v>5121</v>
+        <v>5120</v>
       </c>
       <c r="G795" s="2" t="s">
         <v>2358</v>
@@ -51156,7 +51156,7 @@
         <v>938</v>
       </c>
       <c r="C796" s="2" t="s">
-        <v>5356</v>
+        <v>5353</v>
       </c>
       <c r="D796" s="2" t="s">
         <v>940</v>
@@ -51165,7 +51165,7 @@
         <v>939</v>
       </c>
       <c r="L796" s="2" t="s">
-        <v>5357</v>
+        <v>5354</v>
       </c>
       <c r="M796" s="2" t="s">
         <v>941</v>
@@ -51191,7 +51191,7 @@
         <v>3564</v>
       </c>
       <c r="F797" s="2" t="s">
-        <v>5585</v>
+        <v>5582</v>
       </c>
       <c r="G797" s="2" t="s">
         <v>3565</v>
@@ -51217,7 +51217,7 @@
         <v>3575</v>
       </c>
       <c r="F798" s="2" t="s">
-        <v>5587</v>
+        <v>5584</v>
       </c>
       <c r="G798" s="2" t="s">
         <v>3576</v>
@@ -51243,7 +51243,7 @@
         <v>3580</v>
       </c>
       <c r="F799" s="2" t="s">
-        <v>5588</v>
+        <v>5585</v>
       </c>
       <c r="G799" s="2" t="s">
         <v>3581</v>
@@ -51269,7 +51269,7 @@
         <v>3450</v>
       </c>
       <c r="F800" s="2" t="s">
-        <v>5563</v>
+        <v>5560</v>
       </c>
       <c r="G800" s="2" t="s">
         <v>3451</v>
@@ -51286,7 +51286,7 @@
         <v>52</v>
       </c>
       <c r="C801" s="2" t="s">
-        <v>5417</v>
+        <v>5414</v>
       </c>
       <c r="D801" s="2" t="s">
         <v>1082</v>
@@ -51295,7 +51295,7 @@
         <v>1083</v>
       </c>
       <c r="L801" s="2" t="s">
-        <v>5418</v>
+        <v>5415</v>
       </c>
       <c r="M801" s="2" t="s">
         <v>1084</v>
@@ -51348,7 +51348,7 @@
         <v>4517</v>
       </c>
       <c r="U802" s="2" t="s">
-        <v>5733</v>
+        <v>5730</v>
       </c>
       <c r="V802" s="2" t="s">
         <v>2207</v>
@@ -51425,7 +51425,7 @@
         <v>3659</v>
       </c>
       <c r="F806" s="2" t="s">
-        <v>5615</v>
+        <v>5612</v>
       </c>
       <c r="G806" s="2" t="s">
         <v>3660</v>
@@ -51434,7 +51434,7 @@
         <v>3661</v>
       </c>
       <c r="O806" s="2" t="s">
-        <v>5616</v>
+        <v>5613</v>
       </c>
       <c r="P806" s="2" t="s">
         <v>3662</v>
@@ -51460,7 +51460,7 @@
         <v>2975</v>
       </c>
       <c r="F807" s="2" t="s">
-        <v>5300</v>
+        <v>5297</v>
       </c>
       <c r="G807" s="2" t="s">
         <v>2976</v>
@@ -51477,7 +51477,7 @@
         <v>824</v>
       </c>
       <c r="C808" s="2" t="s">
-        <v>5386</v>
+        <v>5383</v>
       </c>
       <c r="D808" s="2" t="s">
         <v>1019</v>
@@ -51486,7 +51486,7 @@
         <v>1018</v>
       </c>
       <c r="L808" s="2" t="s">
-        <v>5387</v>
+        <v>5384</v>
       </c>
       <c r="M808" s="2" t="s">
         <v>1020</v>
@@ -51503,7 +51503,7 @@
         <v>824</v>
       </c>
       <c r="C809" s="2" t="s">
-        <v>5392</v>
+        <v>5389</v>
       </c>
       <c r="D809" s="2" t="s">
         <v>1033</v>
@@ -51512,7 +51512,7 @@
         <v>1034</v>
       </c>
       <c r="L809" s="2" t="s">
-        <v>5393</v>
+        <v>5390</v>
       </c>
       <c r="M809" s="2" t="s">
         <v>1035</v>
@@ -51529,7 +51529,7 @@
         <v>1049</v>
       </c>
       <c r="C810" s="2" t="s">
-        <v>5398</v>
+        <v>5395</v>
       </c>
       <c r="D810" s="2" t="s">
         <v>1051</v>
@@ -51538,7 +51538,7 @@
         <v>1050</v>
       </c>
       <c r="L810" s="2" t="s">
-        <v>5399</v>
+        <v>5396</v>
       </c>
       <c r="M810" s="2" t="s">
         <v>1052</v>
@@ -51555,7 +51555,7 @@
         <v>824</v>
       </c>
       <c r="C811" s="2" t="s">
-        <v>5388</v>
+        <v>5385</v>
       </c>
       <c r="D811" s="2" t="s">
         <v>1023</v>
@@ -51564,7 +51564,7 @@
         <v>1024</v>
       </c>
       <c r="L811" s="2" t="s">
-        <v>5389</v>
+        <v>5386</v>
       </c>
       <c r="M811" s="2" t="s">
         <v>1025</v>
@@ -51581,7 +51581,7 @@
         <v>824</v>
       </c>
       <c r="C812" s="2" t="s">
-        <v>5394</v>
+        <v>5391</v>
       </c>
       <c r="D812" s="2" t="s">
         <v>1039</v>
@@ -51590,7 +51590,7 @@
         <v>1038</v>
       </c>
       <c r="L812" s="2" t="s">
-        <v>5395</v>
+        <v>5392</v>
       </c>
       <c r="M812" s="2" t="s">
         <v>1040</v>
@@ -51607,7 +51607,7 @@
         <v>824</v>
       </c>
       <c r="C813" s="2" t="s">
-        <v>5382</v>
+        <v>5379</v>
       </c>
       <c r="D813" s="2" t="s">
         <v>1008</v>
@@ -51616,7 +51616,7 @@
         <v>1009</v>
       </c>
       <c r="L813" s="2" t="s">
-        <v>5383</v>
+        <v>5380</v>
       </c>
       <c r="M813" s="2" t="s">
         <v>1010</v>
@@ -51633,7 +51633,7 @@
         <v>824</v>
       </c>
       <c r="C814" s="2" t="s">
-        <v>5390</v>
+        <v>5387</v>
       </c>
       <c r="D814" s="2" t="s">
         <v>1028</v>
@@ -51642,7 +51642,7 @@
         <v>1029</v>
       </c>
       <c r="L814" s="2" t="s">
-        <v>5391</v>
+        <v>5388</v>
       </c>
       <c r="M814" s="2" t="s">
         <v>1030</v>
@@ -51659,7 +51659,7 @@
         <v>824</v>
       </c>
       <c r="C815" s="2" t="s">
-        <v>5384</v>
+        <v>5381</v>
       </c>
       <c r="D815" s="2" t="s">
         <v>1013</v>
@@ -51668,7 +51668,7 @@
         <v>1014</v>
       </c>
       <c r="L815" s="2" t="s">
-        <v>5385</v>
+        <v>5382</v>
       </c>
       <c r="M815" s="2" t="s">
         <v>1015</v>
@@ -51685,7 +51685,7 @@
         <v>1043</v>
       </c>
       <c r="C816" s="2" t="s">
-        <v>5396</v>
+        <v>5393</v>
       </c>
       <c r="D816" s="2" t="s">
         <v>1044</v>
@@ -51694,7 +51694,7 @@
         <v>1045</v>
       </c>
       <c r="L816" s="2" t="s">
-        <v>5397</v>
+        <v>5394</v>
       </c>
       <c r="M816" s="2" t="s">
         <v>1046</v>
@@ -51720,7 +51720,7 @@
         <v>3619</v>
       </c>
       <c r="F817" s="2" t="s">
-        <v>5598</v>
+        <v>5595</v>
       </c>
       <c r="G817" s="2" t="s">
         <v>3620</v>
@@ -51763,7 +51763,7 @@
         <v>38</v>
       </c>
       <c r="C819" s="2" t="s">
-        <v>5638</v>
+        <v>5635</v>
       </c>
       <c r="D819" s="2" t="s">
         <v>1450</v>
@@ -51772,7 +51772,7 @@
         <v>1451</v>
       </c>
       <c r="I819" s="2" t="s">
-        <v>5772</v>
+        <v>5769</v>
       </c>
       <c r="J819" s="2" t="s">
         <v>1452</v>
@@ -51869,7 +51869,7 @@
         <v>4468</v>
       </c>
       <c r="U821" s="2" t="s">
-        <v>5732</v>
+        <v>5729</v>
       </c>
       <c r="V821" s="2" t="s">
         <v>2101</v>
@@ -51895,7 +51895,7 @@
         <v>2581</v>
       </c>
       <c r="F822" s="2" t="s">
-        <v>5181</v>
+        <v>5178</v>
       </c>
       <c r="G822" s="2" t="s">
         <v>2582</v>
@@ -51913,7 +51913,7 @@
         <v>2585</v>
       </c>
       <c r="O822" s="4" t="s">
-        <v>5182</v>
+        <v>5179</v>
       </c>
       <c r="P822" s="4" t="s">
         <v>2586</v>
@@ -51939,7 +51939,7 @@
         <v>2673</v>
       </c>
       <c r="F823" s="2" t="s">
-        <v>5205</v>
+        <v>5202</v>
       </c>
       <c r="G823" s="2" t="s">
         <v>2675</v>
@@ -52009,7 +52009,7 @@
         <v>4497</v>
       </c>
       <c r="U825" s="2" t="s">
-        <v>5707</v>
+        <v>5704</v>
       </c>
       <c r="V825" s="2" t="s">
         <v>2162</v>
@@ -52062,7 +52062,7 @@
         <v>4497</v>
       </c>
       <c r="U826" s="2" t="s">
-        <v>5707</v>
+        <v>5704</v>
       </c>
       <c r="V826" s="2" t="s">
         <v>2162</v>
@@ -52114,7 +52114,7 @@
         <v>49</v>
       </c>
       <c r="C828" s="4" t="s">
-        <v>5130</v>
+        <v>5129</v>
       </c>
       <c r="D828" s="4" t="s">
         <v>2391</v>
@@ -52123,7 +52123,7 @@
         <v>2392</v>
       </c>
       <c r="F828" s="2" t="s">
-        <v>5131</v>
+        <v>5130</v>
       </c>
       <c r="G828" s="2" t="s">
         <v>2393</v>
@@ -52158,7 +52158,7 @@
         <v>3641</v>
       </c>
       <c r="F829" s="2" t="s">
-        <v>5611</v>
+        <v>5608</v>
       </c>
       <c r="G829" s="2" t="s">
         <v>3642</v>
@@ -52202,7 +52202,7 @@
         <v>528</v>
       </c>
       <c r="L830" s="2" t="s">
-        <v>5210</v>
+        <v>5207</v>
       </c>
       <c r="M830" s="2" t="s">
         <v>529</v>
@@ -52242,7 +52242,7 @@
         <v>804</v>
       </c>
       <c r="C832" s="2" t="s">
-        <v>5550</v>
+        <v>5547</v>
       </c>
       <c r="D832" s="2" t="s">
         <v>1353</v>
@@ -52268,7 +52268,7 @@
         <v>2648</v>
       </c>
       <c r="F833" s="2" t="s">
-        <v>5200</v>
+        <v>5197</v>
       </c>
       <c r="G833" s="2" t="s">
         <v>2649</v>
@@ -52285,7 +52285,7 @@
         <v>1043</v>
       </c>
       <c r="C834" s="2" t="s">
-        <v>5636</v>
+        <v>5633</v>
       </c>
       <c r="D834" s="2" t="s">
         <v>1442</v>
@@ -52294,7 +52294,7 @@
         <v>1443</v>
       </c>
       <c r="I834" s="2" t="s">
-        <v>5779</v>
+        <v>5776</v>
       </c>
       <c r="J834" s="2" t="s">
         <v>1444</v>
@@ -52329,7 +52329,7 @@
         <v>3392</v>
       </c>
       <c r="O835" s="2" t="s">
-        <v>5411</v>
+        <v>5408</v>
       </c>
       <c r="P835" s="2" t="s">
         <v>3393</v>
@@ -52364,7 +52364,7 @@
         <v>3392</v>
       </c>
       <c r="O836" s="2" t="s">
-        <v>5411</v>
+        <v>5408</v>
       </c>
       <c r="P836" s="2" t="s">
         <v>3393</v>
@@ -52399,7 +52399,7 @@
         <v>3392</v>
       </c>
       <c r="O837" s="2" t="s">
-        <v>5411</v>
+        <v>5408</v>
       </c>
       <c r="P837" s="2" t="s">
         <v>3393</v>
@@ -52434,7 +52434,7 @@
         <v>3392</v>
       </c>
       <c r="O838" s="2" t="s">
-        <v>5411</v>
+        <v>5408</v>
       </c>
       <c r="P838" s="2" t="s">
         <v>3393</v>
@@ -52469,7 +52469,7 @@
         <v>3392</v>
       </c>
       <c r="O839" s="2" t="s">
-        <v>5411</v>
+        <v>5408</v>
       </c>
       <c r="P839" s="2" t="s">
         <v>3393</v>
@@ -52504,7 +52504,7 @@
         <v>3392</v>
       </c>
       <c r="O840" s="2" t="s">
-        <v>5411</v>
+        <v>5408</v>
       </c>
       <c r="P840" s="2" t="s">
         <v>3393</v>
@@ -52539,7 +52539,7 @@
         <v>3392</v>
       </c>
       <c r="O841" s="2" t="s">
-        <v>5411</v>
+        <v>5408</v>
       </c>
       <c r="P841" s="2" t="s">
         <v>3393</v>
@@ -52574,7 +52574,7 @@
         <v>3392</v>
       </c>
       <c r="O842" s="2" t="s">
-        <v>5411</v>
+        <v>5408</v>
       </c>
       <c r="P842" s="2" t="s">
         <v>3393</v>
@@ -52609,7 +52609,7 @@
         <v>3392</v>
       </c>
       <c r="O843" s="2" t="s">
-        <v>5411</v>
+        <v>5408</v>
       </c>
       <c r="P843" s="2" t="s">
         <v>3393</v>
@@ -52644,7 +52644,7 @@
         <v>3392</v>
       </c>
       <c r="O844" s="2" t="s">
-        <v>5411</v>
+        <v>5408</v>
       </c>
       <c r="P844" s="2" t="s">
         <v>3393</v>
@@ -52679,7 +52679,7 @@
         <v>3392</v>
       </c>
       <c r="O845" s="2" t="s">
-        <v>5411</v>
+        <v>5408</v>
       </c>
       <c r="P845" s="2" t="s">
         <v>3393</v>
@@ -52714,7 +52714,7 @@
         <v>3392</v>
       </c>
       <c r="O846" s="2" t="s">
-        <v>5411</v>
+        <v>5408</v>
       </c>
       <c r="P846" s="2" t="s">
         <v>3393</v>
@@ -52749,7 +52749,7 @@
         <v>3392</v>
       </c>
       <c r="O847" s="2" t="s">
-        <v>5411</v>
+        <v>5408</v>
       </c>
       <c r="P847" s="2" t="s">
         <v>3393</v>
@@ -52784,7 +52784,7 @@
         <v>3392</v>
       </c>
       <c r="O848" s="2" t="s">
-        <v>5411</v>
+        <v>5408</v>
       </c>
       <c r="P848" s="2" t="s">
         <v>3393</v>
@@ -52819,7 +52819,7 @@
         <v>3392</v>
       </c>
       <c r="O849" s="2" t="s">
-        <v>5411</v>
+        <v>5408</v>
       </c>
       <c r="P849" s="2" t="s">
         <v>3393</v>
@@ -52854,7 +52854,7 @@
         <v>3392</v>
       </c>
       <c r="O850" s="2" t="s">
-        <v>5411</v>
+        <v>5408</v>
       </c>
       <c r="P850" s="2" t="s">
         <v>3393</v>
@@ -52889,7 +52889,7 @@
         <v>3392</v>
       </c>
       <c r="O851" s="2" t="s">
-        <v>5411</v>
+        <v>5408</v>
       </c>
       <c r="P851" s="2" t="s">
         <v>3393</v>
@@ -52915,7 +52915,7 @@
         <v>3389</v>
       </c>
       <c r="F852" s="2" t="s">
-        <v>5496</v>
+        <v>5493</v>
       </c>
       <c r="G852" s="2" t="s">
         <v>3391</v>
@@ -52924,7 +52924,7 @@
         <v>3392</v>
       </c>
       <c r="O852" s="2" t="s">
-        <v>5411</v>
+        <v>5408</v>
       </c>
       <c r="P852" s="2" t="s">
         <v>3393</v>
@@ -52950,7 +52950,7 @@
         <v>3279</v>
       </c>
       <c r="F853" s="2" t="s">
-        <v>5459</v>
+        <v>5456</v>
       </c>
       <c r="G853" s="2" t="s">
         <v>3280</v>
@@ -53002,7 +53002,7 @@
         <v>303</v>
       </c>
       <c r="R855" s="2" t="s">
-        <v>5546</v>
+        <v>5543</v>
       </c>
       <c r="S855" s="2" t="s">
         <v>304</v>
@@ -53011,7 +53011,7 @@
         <v>4138</v>
       </c>
       <c r="U855" s="2" t="s">
-        <v>5703</v>
+        <v>5700</v>
       </c>
       <c r="V855" s="2" t="s">
         <v>305</v>
@@ -53037,7 +53037,7 @@
         <v>1377</v>
       </c>
       <c r="F856" s="2" t="s">
-        <v>5196</v>
+        <v>5193</v>
       </c>
       <c r="G856" s="2" t="s">
         <v>2633</v>
@@ -53106,7 +53106,7 @@
         <v>49</v>
       </c>
       <c r="C859" s="4" t="s">
-        <v>5132</v>
+        <v>5131</v>
       </c>
       <c r="D859" s="4" t="s">
         <v>2398</v>
@@ -53115,7 +53115,7 @@
         <v>2399</v>
       </c>
       <c r="F859" s="2" t="s">
-        <v>5133</v>
+        <v>5132</v>
       </c>
       <c r="G859" s="2" t="s">
         <v>2400</v>
@@ -53150,7 +53150,7 @@
         <v>2854</v>
       </c>
       <c r="F860" s="2" t="s">
-        <v>5259</v>
+        <v>5256</v>
       </c>
       <c r="G860" s="2" t="s">
         <v>2855</v>
@@ -53176,7 +53176,7 @@
         <v>2752</v>
       </c>
       <c r="F861" s="2" t="s">
-        <v>5230</v>
+        <v>5227</v>
       </c>
       <c r="G861" s="2" t="s">
         <v>2753</v>
@@ -53193,7 +53193,7 @@
         <v>3935</v>
       </c>
       <c r="C862" t="s">
-        <v>5803</v>
+        <v>5800</v>
       </c>
       <c r="D862" t="s">
         <v>3936</v>
@@ -53202,7 +53202,7 @@
         <v>3937</v>
       </c>
       <c r="F862" t="s">
-        <v>5804</v>
+        <v>5801</v>
       </c>
       <c r="G862" t="s">
         <v>3938</v>
@@ -53219,7 +53219,7 @@
         <v>3979</v>
       </c>
       <c r="C863" t="s">
-        <v>5805</v>
+        <v>5802</v>
       </c>
       <c r="D863" t="s">
         <v>3980</v>
@@ -53228,7 +53228,7 @@
         <v>3981</v>
       </c>
       <c r="F863" t="s">
-        <v>5806</v>
+        <v>5803</v>
       </c>
       <c r="G863" t="s">
         <v>3982</v>
@@ -53237,7 +53237,7 @@
         <v>3983</v>
       </c>
       <c r="O863" s="1" t="s">
-        <v>5807</v>
+        <v>5804</v>
       </c>
       <c r="P863" t="s">
         <v>3984</v>
@@ -53254,7 +53254,7 @@
         <v>3979</v>
       </c>
       <c r="C864" t="s">
-        <v>5805</v>
+        <v>5802</v>
       </c>
       <c r="D864" t="s">
         <v>3980</v>
@@ -53263,7 +53263,7 @@
         <v>3981</v>
       </c>
       <c r="F864" t="s">
-        <v>5806</v>
+        <v>5803</v>
       </c>
       <c r="G864" t="s">
         <v>3982</v>
@@ -53272,7 +53272,7 @@
         <v>3983</v>
       </c>
       <c r="O864" s="1" t="s">
-        <v>5807</v>
+        <v>5804</v>
       </c>
       <c r="P864" t="s">
         <v>3984</v>
@@ -53289,7 +53289,7 @@
         <v>3979</v>
       </c>
       <c r="C865" t="s">
-        <v>5805</v>
+        <v>5802</v>
       </c>
       <c r="D865" t="s">
         <v>3980</v>
@@ -53298,7 +53298,7 @@
         <v>3981</v>
       </c>
       <c r="F865" t="s">
-        <v>5806</v>
+        <v>5803</v>
       </c>
       <c r="G865" t="s">
         <v>3982</v>
@@ -53307,7 +53307,7 @@
         <v>3983</v>
       </c>
       <c r="O865" s="1" t="s">
-        <v>5807</v>
+        <v>5804</v>
       </c>
       <c r="P865" t="s">
         <v>3984</v>
@@ -53324,7 +53324,7 @@
         <v>3979</v>
       </c>
       <c r="C866" t="s">
-        <v>5805</v>
+        <v>5802</v>
       </c>
       <c r="D866" t="s">
         <v>3980</v>
@@ -53333,7 +53333,7 @@
         <v>3981</v>
       </c>
       <c r="F866" t="s">
-        <v>5806</v>
+        <v>5803</v>
       </c>
       <c r="G866" t="s">
         <v>3982</v>
@@ -53342,7 +53342,7 @@
         <v>3983</v>
       </c>
       <c r="O866" s="1" t="s">
-        <v>5807</v>
+        <v>5804</v>
       </c>
       <c r="P866" t="s">
         <v>3984</v>
@@ -53359,7 +53359,7 @@
         <v>3979</v>
       </c>
       <c r="C867" t="s">
-        <v>5805</v>
+        <v>5802</v>
       </c>
       <c r="D867" t="s">
         <v>3980</v>
@@ -53368,7 +53368,7 @@
         <v>3981</v>
       </c>
       <c r="F867" t="s">
-        <v>5806</v>
+        <v>5803</v>
       </c>
       <c r="G867" t="s">
         <v>3982</v>
@@ -53377,7 +53377,7 @@
         <v>3983</v>
       </c>
       <c r="O867" s="1" t="s">
-        <v>5807</v>
+        <v>5804</v>
       </c>
       <c r="P867" t="s">
         <v>3984</v>
@@ -53394,7 +53394,7 @@
         <v>3979</v>
       </c>
       <c r="C868" t="s">
-        <v>5805</v>
+        <v>5802</v>
       </c>
       <c r="D868" t="s">
         <v>3980</v>
@@ -53403,7 +53403,7 @@
         <v>3981</v>
       </c>
       <c r="F868" t="s">
-        <v>5806</v>
+        <v>5803</v>
       </c>
       <c r="G868" t="s">
         <v>3982</v>
@@ -53412,7 +53412,7 @@
         <v>3983</v>
       </c>
       <c r="O868" s="1" t="s">
-        <v>5807</v>
+        <v>5804</v>
       </c>
       <c r="P868" t="s">
         <v>3984</v>
@@ -53429,7 +53429,7 @@
         <v>3979</v>
       </c>
       <c r="C869" t="s">
-        <v>5805</v>
+        <v>5802</v>
       </c>
       <c r="D869" t="s">
         <v>3980</v>
@@ -53438,7 +53438,7 @@
         <v>3981</v>
       </c>
       <c r="F869" t="s">
-        <v>5806</v>
+        <v>5803</v>
       </c>
       <c r="G869" t="s">
         <v>3982</v>
@@ -53447,7 +53447,7 @@
         <v>3983</v>
       </c>
       <c r="O869" s="1" t="s">
-        <v>5807</v>
+        <v>5804</v>
       </c>
       <c r="P869" t="s">
         <v>3984</v>
@@ -53464,7 +53464,7 @@
         <v>3979</v>
       </c>
       <c r="C870" t="s">
-        <v>5805</v>
+        <v>5802</v>
       </c>
       <c r="D870" t="s">
         <v>3980</v>
@@ -53473,7 +53473,7 @@
         <v>3981</v>
       </c>
       <c r="F870" t="s">
-        <v>5806</v>
+        <v>5803</v>
       </c>
       <c r="G870" t="s">
         <v>3982</v>
@@ -53482,7 +53482,7 @@
         <v>3983</v>
       </c>
       <c r="O870" s="1" t="s">
-        <v>5807</v>
+        <v>5804</v>
       </c>
       <c r="P870" t="s">
         <v>3984</v>
@@ -53499,7 +53499,7 @@
         <v>3979</v>
       </c>
       <c r="C871" t="s">
-        <v>5805</v>
+        <v>5802</v>
       </c>
       <c r="D871" t="s">
         <v>3980</v>
@@ -53508,7 +53508,7 @@
         <v>3981</v>
       </c>
       <c r="F871" t="s">
-        <v>5806</v>
+        <v>5803</v>
       </c>
       <c r="G871" t="s">
         <v>3982</v>
@@ -53517,7 +53517,7 @@
         <v>3983</v>
       </c>
       <c r="O871" s="1" t="s">
-        <v>5807</v>
+        <v>5804</v>
       </c>
       <c r="P871" t="s">
         <v>3984</v>
@@ -53534,7 +53534,7 @@
         <v>3979</v>
       </c>
       <c r="C872" t="s">
-        <v>5805</v>
+        <v>5802</v>
       </c>
       <c r="D872" t="s">
         <v>3980</v>
@@ -53543,7 +53543,7 @@
         <v>3981</v>
       </c>
       <c r="F872" t="s">
-        <v>5806</v>
+        <v>5803</v>
       </c>
       <c r="G872" t="s">
         <v>3982</v>
@@ -53552,7 +53552,7 @@
         <v>3983</v>
       </c>
       <c r="O872" s="1" t="s">
-        <v>5807</v>
+        <v>5804</v>
       </c>
       <c r="P872" t="s">
         <v>3984</v>
@@ -53569,7 +53569,7 @@
         <v>3979</v>
       </c>
       <c r="C873" t="s">
-        <v>5805</v>
+        <v>5802</v>
       </c>
       <c r="D873" t="s">
         <v>3980</v>
@@ -53578,7 +53578,7 @@
         <v>3981</v>
       </c>
       <c r="F873" t="s">
-        <v>5806</v>
+        <v>5803</v>
       </c>
       <c r="G873" t="s">
         <v>3982</v>
@@ -53587,7 +53587,7 @@
         <v>3983</v>
       </c>
       <c r="O873" s="1" t="s">
-        <v>5807</v>
+        <v>5804</v>
       </c>
       <c r="P873" t="s">
         <v>3984</v>
@@ -53604,7 +53604,7 @@
         <v>3979</v>
       </c>
       <c r="C874" t="s">
-        <v>5805</v>
+        <v>5802</v>
       </c>
       <c r="D874" t="s">
         <v>3980</v>
@@ -53613,7 +53613,7 @@
         <v>3981</v>
       </c>
       <c r="F874" t="s">
-        <v>5806</v>
+        <v>5803</v>
       </c>
       <c r="G874" t="s">
         <v>3982</v>
@@ -53622,7 +53622,7 @@
         <v>3983</v>
       </c>
       <c r="O874" s="1" t="s">
-        <v>5807</v>
+        <v>5804</v>
       </c>
       <c r="P874" t="s">
         <v>3984</v>
@@ -53639,7 +53639,7 @@
         <v>3979</v>
       </c>
       <c r="C875" t="s">
-        <v>5805</v>
+        <v>5802</v>
       </c>
       <c r="D875" t="s">
         <v>3980</v>
@@ -53648,7 +53648,7 @@
         <v>3981</v>
       </c>
       <c r="F875" t="s">
-        <v>5806</v>
+        <v>5803</v>
       </c>
       <c r="G875" t="s">
         <v>3982</v>
@@ -53657,7 +53657,7 @@
         <v>3983</v>
       </c>
       <c r="O875" s="1" t="s">
-        <v>5807</v>
+        <v>5804</v>
       </c>
       <c r="P875" t="s">
         <v>3984</v>
@@ -53674,7 +53674,7 @@
         <v>3979</v>
       </c>
       <c r="C876" t="s">
-        <v>5805</v>
+        <v>5802</v>
       </c>
       <c r="D876" t="s">
         <v>3980</v>
@@ -53683,7 +53683,7 @@
         <v>3981</v>
       </c>
       <c r="F876" t="s">
-        <v>5806</v>
+        <v>5803</v>
       </c>
       <c r="G876" t="s">
         <v>3982</v>
@@ -53692,7 +53692,7 @@
         <v>3983</v>
       </c>
       <c r="O876" s="1" t="s">
-        <v>5807</v>
+        <v>5804</v>
       </c>
       <c r="P876" t="s">
         <v>3984</v>
@@ -53709,7 +53709,7 @@
         <v>3979</v>
       </c>
       <c r="C877" t="s">
-        <v>5805</v>
+        <v>5802</v>
       </c>
       <c r="D877" t="s">
         <v>3980</v>
@@ -53718,7 +53718,7 @@
         <v>3981</v>
       </c>
       <c r="F877" t="s">
-        <v>5806</v>
+        <v>5803</v>
       </c>
       <c r="G877" t="s">
         <v>3982</v>
@@ -53727,7 +53727,7 @@
         <v>3983</v>
       </c>
       <c r="O877" s="1" t="s">
-        <v>5807</v>
+        <v>5804</v>
       </c>
       <c r="P877" t="s">
         <v>3984</v>
@@ -53744,7 +53744,7 @@
         <v>3979</v>
       </c>
       <c r="C878" t="s">
-        <v>5805</v>
+        <v>5802</v>
       </c>
       <c r="D878" t="s">
         <v>3980</v>
@@ -53753,7 +53753,7 @@
         <v>3981</v>
       </c>
       <c r="F878" t="s">
-        <v>5806</v>
+        <v>5803</v>
       </c>
       <c r="G878" t="s">
         <v>3982</v>
@@ -53762,7 +53762,7 @@
         <v>3983</v>
       </c>
       <c r="O878" s="1" t="s">
-        <v>5807</v>
+        <v>5804</v>
       </c>
       <c r="P878" t="s">
         <v>3984</v>
@@ -53779,7 +53779,7 @@
         <v>3979</v>
       </c>
       <c r="C879" t="s">
-        <v>5805</v>
+        <v>5802</v>
       </c>
       <c r="D879" t="s">
         <v>3980</v>
@@ -53788,7 +53788,7 @@
         <v>3981</v>
       </c>
       <c r="F879" t="s">
-        <v>5806</v>
+        <v>5803</v>
       </c>
       <c r="G879" t="s">
         <v>3982</v>
@@ -53797,7 +53797,7 @@
         <v>3983</v>
       </c>
       <c r="O879" s="1" t="s">
-        <v>5807</v>
+        <v>5804</v>
       </c>
       <c r="P879" t="s">
         <v>3984</v>
@@ -53814,7 +53814,7 @@
         <v>3979</v>
       </c>
       <c r="C880" t="s">
-        <v>5805</v>
+        <v>5802</v>
       </c>
       <c r="D880" t="s">
         <v>3980</v>
@@ -53823,7 +53823,7 @@
         <v>3981</v>
       </c>
       <c r="F880" t="s">
-        <v>5806</v>
+        <v>5803</v>
       </c>
       <c r="G880" t="s">
         <v>3982</v>
@@ -53832,7 +53832,7 @@
         <v>3983</v>
       </c>
       <c r="O880" s="1" t="s">
-        <v>5807</v>
+        <v>5804</v>
       </c>
       <c r="P880" t="s">
         <v>3984</v>
@@ -53858,7 +53858,7 @@
         <v>3028</v>
       </c>
       <c r="F881" s="2" t="s">
-        <v>5309</v>
+        <v>5306</v>
       </c>
       <c r="G881" s="2" t="s">
         <v>3021</v>
@@ -53951,7 +53951,7 @@
         <v>629</v>
       </c>
       <c r="L884" s="2" t="s">
-        <v>5237</v>
+        <v>5234</v>
       </c>
       <c r="M884" s="2" t="s">
         <v>630</v>
@@ -53977,7 +53977,7 @@
         <v>3711</v>
       </c>
       <c r="F885" s="2" t="s">
-        <v>5625</v>
+        <v>5622</v>
       </c>
       <c r="G885" s="2" t="s">
         <v>3712</v>
@@ -54003,7 +54003,7 @@
         <v>3676</v>
       </c>
       <c r="F886" s="2" t="s">
-        <v>5619</v>
+        <v>5616</v>
       </c>
       <c r="G886" s="2" t="s">
         <v>3677</v>
@@ -54038,7 +54038,7 @@
         <v>3434</v>
       </c>
       <c r="F887" s="2" t="s">
-        <v>5560</v>
+        <v>5557</v>
       </c>
       <c r="G887" s="2" t="s">
         <v>3435</v>
@@ -54064,7 +54064,7 @@
         <v>3439</v>
       </c>
       <c r="F888" s="2" t="s">
-        <v>5561</v>
+        <v>5558</v>
       </c>
       <c r="G888" s="2" t="s">
         <v>3440</v>
@@ -54090,7 +54090,7 @@
         <v>3445</v>
       </c>
       <c r="F889" s="2" t="s">
-        <v>5562</v>
+        <v>5559</v>
       </c>
       <c r="G889" s="2" t="s">
         <v>3446</v>
@@ -54116,7 +54116,7 @@
         <v>2923</v>
       </c>
       <c r="F890" s="2" t="s">
-        <v>5274</v>
+        <v>5271</v>
       </c>
       <c r="G890" s="2" t="s">
         <v>2925</v>
@@ -54169,7 +54169,7 @@
         <v>4525</v>
       </c>
       <c r="U891" s="2" t="s">
-        <v>5711</v>
+        <v>5708</v>
       </c>
       <c r="V891" s="2" t="s">
         <v>2222</v>
@@ -54186,7 +54186,7 @@
         <v>804</v>
       </c>
       <c r="C892" s="2" t="s">
-        <v>5558</v>
+        <v>5555</v>
       </c>
       <c r="D892" s="2" t="s">
         <v>1382</v>
@@ -54212,7 +54212,7 @@
         <v>2747</v>
       </c>
       <c r="F893" s="2" t="s">
-        <v>5229</v>
+        <v>5226</v>
       </c>
       <c r="G893" s="2" t="s">
         <v>2748</v>
@@ -54238,7 +54238,7 @@
         <v>3751</v>
       </c>
       <c r="F894" s="2" t="s">
-        <v>5633</v>
+        <v>5630</v>
       </c>
       <c r="G894" s="2" t="s">
         <v>3753</v>
@@ -54247,7 +54247,7 @@
         <v>3754</v>
       </c>
       <c r="O894" s="2" t="s">
-        <v>5634</v>
+        <v>5631</v>
       </c>
       <c r="P894" s="2" t="s">
         <v>3755</v>
@@ -54281,7 +54281,7 @@
         <v>932</v>
       </c>
       <c r="C896" s="2" t="s">
-        <v>5475</v>
+        <v>5472</v>
       </c>
       <c r="D896" s="2" t="s">
         <v>1209</v>
@@ -54290,7 +54290,7 @@
         <v>1210</v>
       </c>
       <c r="L896" s="2" t="s">
-        <v>5476</v>
+        <v>5473</v>
       </c>
       <c r="M896" s="2" t="s">
         <v>1211</v>
@@ -54427,7 +54427,7 @@
         <v>2980</v>
       </c>
       <c r="F903" s="2" t="s">
-        <v>5301</v>
+        <v>5298</v>
       </c>
       <c r="G903" s="2" t="s">
         <v>2981</v>
@@ -54453,7 +54453,7 @@
         <v>2820</v>
       </c>
       <c r="F904" s="2" t="s">
-        <v>5250</v>
+        <v>5247</v>
       </c>
       <c r="G904" s="2" t="s">
         <v>2821</v>
@@ -54515,7 +54515,7 @@
         <v>4521</v>
       </c>
       <c r="U905" s="2" t="s">
-        <v>5712</v>
+        <v>5709</v>
       </c>
       <c r="V905" s="2" t="s">
         <v>2216</v>
@@ -54626,7 +54626,7 @@
         <v>3378</v>
       </c>
       <c r="F911" s="2" t="s">
-        <v>5489</v>
+        <v>5486</v>
       </c>
       <c r="G911" s="2" t="s">
         <v>3379</v>
@@ -54635,7 +54635,7 @@
         <v>3380</v>
       </c>
       <c r="O911" s="2" t="s">
-        <v>5490</v>
+        <v>5487</v>
       </c>
       <c r="P911" s="2" t="s">
         <v>3381</v>
@@ -54697,7 +54697,7 @@
         <v>4544</v>
       </c>
       <c r="U912" s="2" t="s">
-        <v>5730</v>
+        <v>5727</v>
       </c>
       <c r="V912" s="2" t="s">
         <v>2263</v>
@@ -54774,7 +54774,7 @@
         <v>2725</v>
       </c>
       <c r="F916" s="2" t="s">
-        <v>5225</v>
+        <v>5222</v>
       </c>
       <c r="G916" s="2" t="s">
         <v>2726</v>
@@ -54791,7 +54791,7 @@
         <v>1076</v>
       </c>
       <c r="C917" s="2" t="s">
-        <v>5408</v>
+        <v>5405</v>
       </c>
       <c r="D917" s="2" t="s">
         <v>1077</v>
@@ -54800,7 +54800,7 @@
         <v>1078</v>
       </c>
       <c r="L917" s="2" t="s">
-        <v>5409</v>
+        <v>5406</v>
       </c>
       <c r="M917" s="2" t="s">
         <v>1079</v>
@@ -54826,7 +54826,7 @@
         <v>3696</v>
       </c>
       <c r="F918" s="2" t="s">
-        <v>5623</v>
+        <v>5620</v>
       </c>
       <c r="G918" s="2" t="s">
         <v>3697</v>
@@ -54835,7 +54835,7 @@
         <v>3698</v>
       </c>
       <c r="O918" s="2" t="s">
-        <v>5809</v>
+        <v>5806</v>
       </c>
       <c r="P918" s="2" t="s">
         <v>3699</v>
@@ -54861,7 +54861,7 @@
         <v>35</v>
       </c>
       <c r="I919" s="2" t="s">
-        <v>5780</v>
+        <v>5777</v>
       </c>
       <c r="J919" s="2" t="s">
         <v>1478</v>
@@ -54887,7 +54887,7 @@
         <v>35</v>
       </c>
       <c r="I920" s="2" t="s">
-        <v>5781</v>
+        <v>5778</v>
       </c>
       <c r="J920" s="2" t="s">
         <v>36</v>
@@ -54939,7 +54939,7 @@
         <v>310</v>
       </c>
       <c r="R922" s="2" t="s">
-        <v>5547</v>
+        <v>5544</v>
       </c>
       <c r="S922" s="2" t="s">
         <v>311</v>
@@ -54948,7 +54948,7 @@
         <v>4142</v>
       </c>
       <c r="U922" s="2" t="s">
-        <v>5722</v>
+        <v>5719</v>
       </c>
       <c r="V922" s="2" t="s">
         <v>312</v>
@@ -54974,7 +54974,7 @@
         <v>3636</v>
       </c>
       <c r="F923" s="2" t="s">
-        <v>5604</v>
+        <v>5601</v>
       </c>
       <c r="G923" s="2" t="s">
         <v>3637</v>
@@ -55009,7 +55009,7 @@
         <v>83</v>
       </c>
       <c r="I924" s="2" t="s">
-        <v>5777</v>
+        <v>5774</v>
       </c>
       <c r="J924" s="2" t="s">
         <v>1436</v>
@@ -55043,7 +55043,7 @@
         <v>804</v>
       </c>
       <c r="C926" s="2" t="s">
-        <v>5555</v>
+        <v>5552</v>
       </c>
       <c r="D926" s="2" t="s">
         <v>1368</v>
@@ -55069,7 +55069,7 @@
         <v>876</v>
       </c>
       <c r="F927" s="2" t="s">
-        <v>5621</v>
+        <v>5618</v>
       </c>
       <c r="G927" s="2" t="s">
         <v>3685</v>
@@ -55104,7 +55104,7 @@
         <v>876</v>
       </c>
       <c r="L928" s="2" t="s">
-        <v>5333</v>
+        <v>5330</v>
       </c>
       <c r="M928" s="2" t="s">
         <v>877</v>
@@ -55130,7 +55130,7 @@
         <v>3601</v>
       </c>
       <c r="F929" s="2" t="s">
-        <v>5595</v>
+        <v>5592</v>
       </c>
       <c r="G929" s="2" t="s">
         <v>3602</v>
@@ -55174,7 +55174,7 @@
         <v>558</v>
       </c>
       <c r="L930" s="2" t="s">
-        <v>5214</v>
+        <v>5211</v>
       </c>
       <c r="M930" s="2" t="s">
         <v>559</v>
@@ -55236,7 +55236,7 @@
         <v>4549</v>
       </c>
       <c r="U931" s="2" t="s">
-        <v>5697</v>
+        <v>5694</v>
       </c>
       <c r="V931" s="2" t="s">
         <v>2272</v>
@@ -55271,7 +55271,7 @@
         <v>184</v>
       </c>
       <c r="R932" s="2" t="s">
-        <v>5416</v>
+        <v>5413</v>
       </c>
       <c r="S932" s="2" t="s">
         <v>185</v>
@@ -55280,7 +55280,7 @@
         <v>4075</v>
       </c>
       <c r="U932" s="2" t="s">
-        <v>5717</v>
+        <v>5714</v>
       </c>
       <c r="V932" s="2" t="s">
         <v>186</v>
@@ -55323,7 +55323,7 @@
         <v>2720</v>
       </c>
       <c r="F934" s="2" t="s">
-        <v>5224</v>
+        <v>5221</v>
       </c>
       <c r="G934" s="2" t="s">
         <v>2721</v>
@@ -55349,7 +55349,7 @@
         <v>2783</v>
       </c>
       <c r="F935" s="2" t="s">
-        <v>5243</v>
+        <v>5240</v>
       </c>
       <c r="G935" s="2" t="s">
         <v>2784</v>
@@ -55393,7 +55393,7 @@
         <v>4082</v>
       </c>
       <c r="U936" s="2" t="s">
-        <v>5716</v>
+        <v>5713</v>
       </c>
       <c r="V936" s="2" t="s">
         <v>200</v>
@@ -55410,7 +55410,7 @@
         <v>864</v>
       </c>
       <c r="C937" s="2" t="s">
-        <v>5330</v>
+        <v>5327</v>
       </c>
       <c r="D937" s="2" t="s">
         <v>866</v>
@@ -55419,7 +55419,7 @@
         <v>865</v>
       </c>
       <c r="L937" s="2" t="s">
-        <v>5331</v>
+        <v>5328</v>
       </c>
       <c r="M937" s="2" t="s">
         <v>867</v>
@@ -55436,7 +55436,7 @@
         <v>1173</v>
       </c>
       <c r="C938" s="2" t="s">
-        <v>5461</v>
+        <v>5458</v>
       </c>
       <c r="D938" s="2" t="s">
         <v>1174</v>
@@ -55445,7 +55445,7 @@
         <v>1175</v>
       </c>
       <c r="L938" s="2" t="s">
-        <v>5462</v>
+        <v>5459</v>
       </c>
       <c r="M938" s="2" t="s">
         <v>1176</v>
@@ -55462,7 +55462,7 @@
         <v>49</v>
       </c>
       <c r="C939" s="4" t="s">
-        <v>5128</v>
+        <v>5127</v>
       </c>
       <c r="D939" s="4" t="s">
         <v>2384</v>
@@ -55471,7 +55471,7 @@
         <v>2385</v>
       </c>
       <c r="F939" s="2" t="s">
-        <v>5129</v>
+        <v>5128</v>
       </c>
       <c r="G939" s="2" t="s">
         <v>2386</v>
@@ -55506,7 +55506,7 @@
         <v>332</v>
       </c>
       <c r="L940" s="2" t="s">
-        <v>5628</v>
+        <v>5625</v>
       </c>
       <c r="M940" s="2" t="s">
         <v>333</v>
@@ -55559,7 +55559,7 @@
         <v>4485</v>
       </c>
       <c r="U941" s="2" t="s">
-        <v>5724</v>
+        <v>5721</v>
       </c>
       <c r="V941" s="2" t="s">
         <v>2137</v>
@@ -55612,7 +55612,7 @@
         <v>4485</v>
       </c>
       <c r="U942" s="2" t="s">
-        <v>5724</v>
+        <v>5721</v>
       </c>
       <c r="V942" s="2" t="s">
         <v>2137</v>
@@ -55638,7 +55638,7 @@
         <v>2984</v>
       </c>
       <c r="F943" s="2" t="s">
-        <v>5302</v>
+        <v>5299</v>
       </c>
       <c r="G943" s="2" t="s">
         <v>2986</v>
@@ -55655,7 +55655,7 @@
         <v>2808</v>
       </c>
       <c r="C944" s="2" t="s">
-        <v>5818</v>
+        <v>5815</v>
       </c>
       <c r="D944" s="2" t="s">
         <v>2809</v>
@@ -55664,7 +55664,7 @@
         <v>2810</v>
       </c>
       <c r="F944" s="2" t="s">
-        <v>5248</v>
+        <v>5245</v>
       </c>
       <c r="G944" s="2" t="s">
         <v>2811</v>
@@ -55690,7 +55690,7 @@
         <v>2816</v>
       </c>
       <c r="F945" s="2" t="s">
-        <v>5249</v>
+        <v>5246</v>
       </c>
       <c r="G945" s="2" t="s">
         <v>2817</v>

--- a/PTBR/Lang/PTBR/Game/Element.xlsx
+++ b/PTBR/Lang/PTBR/Game/Element.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ysi\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA499E0B-2DB8-4A13-8B42-14AEA8E8BE05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3BB3E1D-98CD-489A-B9B7-E4B605A97B2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="16200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Element" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10595" uniqueCount="6739">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10721" uniqueCount="6795">
   <si>
     <t>id</t>
   </si>
@@ -28879,6 +28879,174 @@
   </si>
   <si>
     <t>Todos os casulos na zona eclodem quando "Útero da Escuridão" é ativado,Aranhas não deixam cadáveres,Aranhas usam "Toque Ácido" ao invés de "Teia"</t>
+  </si>
+  <si>
+    <t>EA 23.254</t>
+  </si>
+  <si>
+    <t>你用木人训练了战斗技巧。</t>
+  </si>
+  <si>
+    <t>「斬撃無双」と「スウォーム」を強化,#1%のパリィ（盾持ちスタイル時効果2倍）</t>
+  </si>
+  <si>
+    <t>EA 23.256</t>
+  </si>
+  <si>
+    <t>It upgrades machines.</t>
+  </si>
+  <si>
+    <t>それは機械系の種族をアップグレードする。</t>
+  </si>
+  <si>
+    <t>1252</t>
+  </si>
+  <si>
+    <t>Aquatic</t>
+  </si>
+  <si>
+    <t>水棲</t>
+  </si>
+  <si>
+    <t>You can move swiftly through water.</t>
+  </si>
+  <si>
+    <t>あなたは水の中で素早く動ける。</t>
+  </si>
+  <si>
+    <t>Boosted speed in water,Negate suffocation</t>
+  </si>
+  <si>
+    <t>水中で速度上昇,窒息無効</t>
+  </si>
+  <si>
+    <t>EA 23.257</t>
+  </si>
+  <si>
+    <t>@ConTransmuteBroom</t>
+  </si>
+  <si>
+    <t>@ConTransmutePutit</t>
+  </si>
+  <si>
+    <t>@ConTransmuteCat</t>
+  </si>
+  <si>
+    <t>@ConTransmuteBat</t>
+  </si>
+  <si>
+    <t>9056</t>
+  </si>
+  <si>
+    <t>Summon Younger Sisteroid</t>
+  </si>
+  <si>
+    <t>妹ロイド召喚</t>
+  </si>
+  <si>
+    <t>1423</t>
+  </si>
+  <si>
+    <t>EA 23.258</t>
+  </si>
+  <si>
+    <t>Peaky</t>
+  </si>
+  <si>
+    <t>ピーキー</t>
+  </si>
+  <si>
+    <t>You are too peaky.</t>
+  </si>
+  <si>
+    <t>あなたはピーキー過ぎる。</t>
+  </si>
+  <si>
+    <t>Increased speed limit,Reduced speed bonus when hit,Increased riding dificulty</t>
+  </si>
+  <si>
+    <t>最大速度上昇,攻撃を受けると速度ボーナス低下,騎乗難易度上昇</t>
+  </si>
+  <si>
+    <t>1424</t>
+  </si>
+  <si>
+    <t>Elite</t>
+  </si>
+  <si>
+    <t>エリート</t>
+  </si>
+  <si>
+    <t>You are elite.</t>
+  </si>
+  <si>
+    <t>あなたはエリートだ。</t>
+  </si>
+  <si>
+    <t>Brand value +1</t>
+  </si>
+  <si>
+    <t>ブランド力 +1</t>
+  </si>
+  <si>
+    <t>8794</t>
+  </si>
+  <si>
+    <t>Mimic</t>
+  </si>
+  <si>
+    <t>ミミック</t>
+  </si>
+  <si>
+    <t>@ConTransmuteMimic,Taking damage breaks mimicry,Taking action breaks mimicry</t>
+  </si>
+  <si>
+    <t>@ConTransmuteMimic,攻撃を受けると擬態解除,行動時に擬態解除</t>
+  </si>
+  <si>
+    <t>Upgrade de Hardware</t>
+  </si>
+  <si>
+    <t>Aquático</t>
+  </si>
+  <si>
+    <t>Gatificação</t>
+  </si>
+  <si>
+    <t>Invocar Irmãzóide</t>
+  </si>
+  <si>
+    <t>Pontiagudo</t>
+  </si>
+  <si>
+    <t>Mímico</t>
+  </si>
+  <si>
+    <t>Você é um mestre em artes de combate.</t>
+  </si>
+  <si>
+    <t>Aprimora máquinas.</t>
+  </si>
+  <si>
+    <t>Você pode se mover rapidamente pela água.</t>
+  </si>
+  <si>
+    <t>Você é muito pontiagudo.</t>
+  </si>
+  <si>
+    <t>Você é elite.</t>
+  </si>
+  <si>
+    <t>Fortalece「Corte Incomparável」e「Ataque em Grupo」, #1% de chance de contra-ataque (efeito dobrado ao usar estilo com escudo)</t>
+  </si>
+  <si>
+    <t>Velocidade aumentada na água, imune a asfixia</t>
+  </si>
+  <si>
+    <t>Aumenta limite de velocidade, velocidade reduzida ao receber ataques, dificuldade de montaria aumentada</t>
+  </si>
+  <si>
+    <t>@ConTransmuteMimic, cancela o disfarce ao receber ataques</t>
   </si>
 </sst>
 </file>
@@ -29099,12 +29267,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF1101"/>
+  <dimension ref="A1:AF1112"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A1071" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A1093" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="V1" sqref="V1"/>
-      <selection pane="bottomLeft" activeCell="D1084" sqref="D1084"/>
+      <selection pane="bottomLeft" activeCell="O1102" sqref="O1102:O1112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="16.5"/>
@@ -51288,7 +51456,7 @@
         <v>4635</v>
       </c>
     </row>
-    <row r="721" spans="1:26" ht="49.5">
+    <row r="721" spans="1:26" ht="33">
       <c r="A721" s="2" t="s">
         <v>2049</v>
       </c>
@@ -51358,7 +51526,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="723" spans="1:26" ht="66">
+    <row r="723" spans="1:26" ht="53.25">
       <c r="A723" s="2" t="s">
         <v>2587</v>
       </c>
@@ -63124,6 +63292,406 @@
       </c>
       <c r="N1101" t="s">
         <v>1851</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:26">
+      <c r="A1102" t="s">
+        <v>6675</v>
+      </c>
+      <c r="B1102" t="s">
+        <v>6739</v>
+      </c>
+      <c r="C1102" t="s">
+        <v>6722</v>
+      </c>
+      <c r="D1102" t="s">
+        <v>6677</v>
+      </c>
+      <c r="E1102" t="s">
+        <v>6678</v>
+      </c>
+      <c r="F1102" t="s">
+        <v>6740</v>
+      </c>
+      <c r="G1102" t="s">
+        <v>6679</v>
+      </c>
+      <c r="H1102" t="s">
+        <v>6680</v>
+      </c>
+      <c r="L1102" t="s">
+        <v>6786</v>
+      </c>
+      <c r="M1102" t="s">
+        <v>6681</v>
+      </c>
+      <c r="N1102" t="s">
+        <v>6682</v>
+      </c>
+      <c r="O1102" t="s">
+        <v>6791</v>
+      </c>
+      <c r="P1102" t="s">
+        <v>6683</v>
+      </c>
+      <c r="Q1102" t="s">
+        <v>6741</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:26">
+      <c r="A1103" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B1103" t="s">
+        <v>6742</v>
+      </c>
+      <c r="C1103" t="s">
+        <v>6780</v>
+      </c>
+      <c r="D1103" t="s">
+        <v>1214</v>
+      </c>
+      <c r="E1103" t="s">
+        <v>1215</v>
+      </c>
+      <c r="L1103" t="s">
+        <v>6787</v>
+      </c>
+      <c r="M1103" t="s">
+        <v>6743</v>
+      </c>
+      <c r="N1103" t="s">
+        <v>6744</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:26">
+      <c r="A1104" t="s">
+        <v>6745</v>
+      </c>
+      <c r="B1104" t="s">
+        <v>6742</v>
+      </c>
+      <c r="C1104" t="s">
+        <v>6781</v>
+      </c>
+      <c r="D1104" t="s">
+        <v>6746</v>
+      </c>
+      <c r="E1104" t="s">
+        <v>6747</v>
+      </c>
+      <c r="F1104" t="s">
+        <v>6046</v>
+      </c>
+      <c r="G1104" t="s">
+        <v>1641</v>
+      </c>
+      <c r="H1104" t="s">
+        <v>1642</v>
+      </c>
+      <c r="L1104" t="s">
+        <v>6788</v>
+      </c>
+      <c r="M1104" t="s">
+        <v>6748</v>
+      </c>
+      <c r="N1104" t="s">
+        <v>6749</v>
+      </c>
+      <c r="O1104" t="s">
+        <v>6792</v>
+      </c>
+      <c r="P1104" t="s">
+        <v>6750</v>
+      </c>
+      <c r="Q1104" t="s">
+        <v>6751</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:17">
+      <c r="A1105" t="s">
+        <v>3693</v>
+      </c>
+      <c r="B1105" t="s">
+        <v>6752</v>
+      </c>
+      <c r="C1105" t="s">
+        <v>4885</v>
+      </c>
+      <c r="D1105" t="s">
+        <v>3694</v>
+      </c>
+      <c r="E1105" t="s">
+        <v>3695</v>
+      </c>
+      <c r="F1105" t="s">
+        <v>6042</v>
+      </c>
+      <c r="G1105" t="s">
+        <v>3696</v>
+      </c>
+      <c r="H1105" t="s">
+        <v>3697</v>
+      </c>
+      <c r="O1105" t="s">
+        <v>6753</v>
+      </c>
+      <c r="P1105" t="s">
+        <v>6753</v>
+      </c>
+      <c r="Q1105" t="s">
+        <v>6753</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:17">
+      <c r="A1106" t="s">
+        <v>3699</v>
+      </c>
+      <c r="B1106" t="s">
+        <v>6752</v>
+      </c>
+      <c r="C1106" t="s">
+        <v>4887</v>
+      </c>
+      <c r="D1106" t="s">
+        <v>3700</v>
+      </c>
+      <c r="E1106" t="s">
+        <v>3701</v>
+      </c>
+      <c r="F1106" t="s">
+        <v>6042</v>
+      </c>
+      <c r="G1106" t="s">
+        <v>3696</v>
+      </c>
+      <c r="H1106" t="s">
+        <v>3697</v>
+      </c>
+      <c r="O1106" t="s">
+        <v>6754</v>
+      </c>
+      <c r="P1106" t="s">
+        <v>6754</v>
+      </c>
+      <c r="Q1106" t="s">
+        <v>6754</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:17">
+      <c r="A1107" t="s">
+        <v>5894</v>
+      </c>
+      <c r="B1107" t="s">
+        <v>6752</v>
+      </c>
+      <c r="C1107" t="s">
+        <v>6782</v>
+      </c>
+      <c r="D1107" t="s">
+        <v>5896</v>
+      </c>
+      <c r="E1107" t="s">
+        <v>5897</v>
+      </c>
+      <c r="F1107" t="s">
+        <v>6042</v>
+      </c>
+      <c r="G1107" t="s">
+        <v>3696</v>
+      </c>
+      <c r="H1107" t="s">
+        <v>3697</v>
+      </c>
+      <c r="O1107" t="s">
+        <v>6755</v>
+      </c>
+      <c r="P1107" t="s">
+        <v>6755</v>
+      </c>
+      <c r="Q1107" t="s">
+        <v>6755</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:17">
+      <c r="A1108" t="s">
+        <v>6578</v>
+      </c>
+      <c r="B1108" t="s">
+        <v>6752</v>
+      </c>
+      <c r="C1108" t="s">
+        <v>6635</v>
+      </c>
+      <c r="D1108" t="s">
+        <v>6580</v>
+      </c>
+      <c r="E1108" t="s">
+        <v>6581</v>
+      </c>
+      <c r="F1108" t="s">
+        <v>6042</v>
+      </c>
+      <c r="G1108" t="s">
+        <v>3696</v>
+      </c>
+      <c r="H1108" t="s">
+        <v>3697</v>
+      </c>
+      <c r="O1108" t="s">
+        <v>6756</v>
+      </c>
+      <c r="P1108" t="s">
+        <v>6756</v>
+      </c>
+      <c r="Q1108" t="s">
+        <v>6756</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:17">
+      <c r="A1109" t="s">
+        <v>6757</v>
+      </c>
+      <c r="B1109" t="s">
+        <v>6752</v>
+      </c>
+      <c r="C1109" t="s">
+        <v>6783</v>
+      </c>
+      <c r="D1109" t="s">
+        <v>6758</v>
+      </c>
+      <c r="E1109" t="s">
+        <v>6759</v>
+      </c>
+      <c r="F1109" t="s">
+        <v>6646</v>
+      </c>
+      <c r="G1109" t="s">
+        <v>3716</v>
+      </c>
+      <c r="H1109" t="s">
+        <v>3717</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:17">
+      <c r="A1110" t="s">
+        <v>6760</v>
+      </c>
+      <c r="B1110" t="s">
+        <v>6761</v>
+      </c>
+      <c r="C1110" t="s">
+        <v>6784</v>
+      </c>
+      <c r="D1110" t="s">
+        <v>6762</v>
+      </c>
+      <c r="E1110" t="s">
+        <v>6763</v>
+      </c>
+      <c r="F1110" t="s">
+        <v>6046</v>
+      </c>
+      <c r="G1110" t="s">
+        <v>1641</v>
+      </c>
+      <c r="H1110" t="s">
+        <v>1642</v>
+      </c>
+      <c r="L1110" t="s">
+        <v>6789</v>
+      </c>
+      <c r="M1110" t="s">
+        <v>6764</v>
+      </c>
+      <c r="N1110" t="s">
+        <v>6765</v>
+      </c>
+      <c r="O1110" t="s">
+        <v>6793</v>
+      </c>
+      <c r="P1110" t="s">
+        <v>6766</v>
+      </c>
+      <c r="Q1110" t="s">
+        <v>6767</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:17">
+      <c r="A1111" t="s">
+        <v>6768</v>
+      </c>
+      <c r="B1111" t="s">
+        <v>6761</v>
+      </c>
+      <c r="C1111" t="s">
+        <v>6769</v>
+      </c>
+      <c r="D1111" t="s">
+        <v>6769</v>
+      </c>
+      <c r="E1111" t="s">
+        <v>6770</v>
+      </c>
+      <c r="F1111" t="s">
+        <v>6040</v>
+      </c>
+      <c r="G1111" t="s">
+        <v>1908</v>
+      </c>
+      <c r="H1111" t="s">
+        <v>1909</v>
+      </c>
+      <c r="L1111" t="s">
+        <v>6790</v>
+      </c>
+      <c r="M1111" t="s">
+        <v>6771</v>
+      </c>
+      <c r="N1111" t="s">
+        <v>6772</v>
+      </c>
+      <c r="P1111" t="s">
+        <v>6773</v>
+      </c>
+      <c r="Q1111" t="s">
+        <v>6774</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:17">
+      <c r="A1112" t="s">
+        <v>6775</v>
+      </c>
+      <c r="B1112" t="s">
+        <v>6761</v>
+      </c>
+      <c r="C1112" t="s">
+        <v>6785</v>
+      </c>
+      <c r="D1112" t="s">
+        <v>6776</v>
+      </c>
+      <c r="E1112" t="s">
+        <v>6777</v>
+      </c>
+      <c r="F1112" t="s">
+        <v>6042</v>
+      </c>
+      <c r="G1112" t="s">
+        <v>3696</v>
+      </c>
+      <c r="H1112" t="s">
+        <v>3697</v>
+      </c>
+      <c r="O1112" t="s">
+        <v>6794</v>
+      </c>
+      <c r="P1112" t="s">
+        <v>6778</v>
+      </c>
+      <c r="Q1112" t="s">
+        <v>6779</v>
       </c>
     </row>
   </sheetData>

--- a/PTBR/Lang/PTBR/Game/Element.xlsx
+++ b/PTBR/Lang/PTBR/Game/Element.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ysi\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{349DB4A2-A914-475A-8B7B-69B0AB5616CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77916FBE-C463-4E0B-9ABF-6388AFAC72D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20880" windowHeight="13740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2070" yWindow="990" windowWidth="15450" windowHeight="9810" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Element" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10809" uniqueCount="6848">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10809" uniqueCount="6835">
   <si>
     <t>id</t>
   </si>
@@ -25957,12 +25957,6 @@
     <t>Reduz o consumo de talismãs e entonações.</t>
   </si>
   <si>
-    <t xml:space="preserve">Uma dádiva divina.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Você foi abençoado pela Deusa.  </t>
-  </si>
-  <si>
     <t>Custo de mana e energia aleatórios,Bônus no valor de venda de peixes</t>
   </si>
   <si>
@@ -26447,112 +26441,11 @@
     <t>泥酔時に様々なボーナスを受ける,酔ってもふらつかない,一時的能力上昇効果の増加</t>
   </si>
   <si>
-    <t xml:space="preserve">Caminho da Bruxa  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ponto no Ponto  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instinto de Cura  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peso da Compaixão  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fatiado  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carne Humana  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maculado  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Primeira Caçada  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Medida de Segurança  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gato  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Invocar Peixe  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Invocar Polvo  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bebê  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Invocar Filhote  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brilho da Vida  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ar  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Respiração Aquática  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amor  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inseto  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deus  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Líder da Alcateia  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gatificação  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Imunidade a Onda de Choque  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Repulsão  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Invocar Onda Gigante  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Debaixo do Mar  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Choro da Alma  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fúria  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cabelos Espessos  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sem Cabelos  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agricultura Delegada  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sangue de Hidromel  </t>
-  </si>
-  <si>
     <t>Aprende a postura "Maconomia"
 Maconomia aprimorada</t>
   </si>
   <si>
     <t>Você aprende a contar carneirinhos.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Você consegue dormir com facilidade.  
-Você consegue dormir profundamente.  
-Você dorme como uma pedra.  </t>
   </si>
   <si>
     <t>Aumento na recuperação de stamina ao dormir,Aumento na chance de aprender uma receita ao dormir</t>
@@ -26643,55 +26536,10 @@
     <t>Pode preparar mais poções,Habilidoso(a) em voar de vassoura</t>
   </si>
   <si>
-    <t xml:space="preserve">Como ousa comer um deus!  </t>
-  </si>
-  <si>
     <t>,Carne Divina</t>
   </si>
   <si>
-    <t xml:space="preserve">Ponto de cozimento,Queimado,Bem Assado  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ar,Sufocante,Respirando  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">,Contaminado  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">,Carne Humana  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">,Poção Afrodisíaca  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">,Gato  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">,,Mistura de Insetos  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">,,Fatiado  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">#seu cabelo cai.  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Como você pode comer um gato!! </t>
-  </si>
-  <si>
-    <t xml:space="preserve">#a sua pele está formigando.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A quantidade de armas afeta o uso de stamina  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">@ConBerserk,Aumenta o dano do alvo  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">É à prova de ácido.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">É à prova de fogo.  </t>
   </si>
   <si>
     <t>Você é um negociador.
@@ -29205,6 +29053,119 @@
     <t>Sorte
 Incrivelmente Sortudo
 Deusa da Sorte</t>
+  </si>
+  <si>
+    <t>É à prova de ácido.</t>
+  </si>
+  <si>
+    <t>É à prova de fogo.</t>
+  </si>
+  <si>
+    <t>Você consegue dormir com facilidade.
+Você consegue dormir profundamente.
+Você dorme como uma pedra.</t>
+  </si>
+  <si>
+    <t>A quantidade de armas afeta o uso de stamina</t>
+  </si>
+  <si>
+    <t>Uma dádiva divina.</t>
+  </si>
+  <si>
+    <t>Você foi abençoado pela Deusa.</t>
+  </si>
+  <si>
+    <t>Caminho da Bruxa</t>
+  </si>
+  <si>
+    <t>Ponto no Ponto</t>
+  </si>
+  <si>
+    <t>Ponto de cozimento,Queimado,Bem Assado</t>
+  </si>
+  <si>
+    <t>Instinto de Cura</t>
+  </si>
+  <si>
+    <t>Fatiado</t>
+  </si>
+  <si>
+    <t>,,Fatiado</t>
+  </si>
+  <si>
+    <t>Carne Humana</t>
+  </si>
+  <si>
+    <t>,Carne Humana</t>
+  </si>
+  <si>
+    <t>Maculado</t>
+  </si>
+  <si>
+    <t>,Contaminado</t>
+  </si>
+  <si>
+    <t>Peso da Compaixão</t>
+  </si>
+  <si>
+    <t>Primeira Caçada</t>
+  </si>
+  <si>
+    <t>Medida de Segurança</t>
+  </si>
+  <si>
+    <t>Invocar Peixe</t>
+  </si>
+  <si>
+    <t>Invocar Polvo</t>
+  </si>
+  <si>
+    <t>Invocar Filhote</t>
+  </si>
+  <si>
+    <t>Brilho da Vida</t>
+  </si>
+  <si>
+    <t>Ar,Sufocante,Respirando</t>
+  </si>
+  <si>
+    <t>,Poção Afrodisíaca</t>
+  </si>
+  <si>
+    <t>Líder da Alcateia</t>
+  </si>
+  <si>
+    <t>Imunidade a Onda de Choque</t>
+  </si>
+  <si>
+    <t>Invocar Onda Gigante</t>
+  </si>
+  <si>
+    <t>Fúria</t>
+  </si>
+  <si>
+    <t>@ConBerserk,Aumenta o dano do alvo</t>
+  </si>
+  <si>
+    <t>Debaixo do Mar</t>
+  </si>
+  <si>
+    <t>Choro da Alma</t>
+  </si>
+  <si>
+    <t>Cabelos Espessos</t>
+  </si>
+  <si>
+    <t>#a sua pele está formigando.</t>
+  </si>
+  <si>
+    <t>#seu cabelo cai.</t>
+  </si>
+  <si>
+    <t>Sem Cabelos</t>
+  </si>
+  <si>
+    <t>Agricultura Delegada</t>
   </si>
 </sst>
 </file>
@@ -29427,10 +29388,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF1120"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A151" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="V1" sqref="V1"/>
-      <selection pane="bottomLeft" activeCell="C157" sqref="C157"/>
+      <selection pane="bottomLeft" activeCell="L105" sqref="L105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="16.5"/>
@@ -33428,7 +33389,7 @@
         <v>160</v>
       </c>
       <c r="L105" s="2" t="s">
-        <v>6016</v>
+        <v>6798</v>
       </c>
       <c r="M105" s="2" t="s">
         <v>162</v>
@@ -33454,7 +33415,7 @@
         <v>156</v>
       </c>
       <c r="L106" s="2" t="s">
-        <v>6017</v>
+        <v>6799</v>
       </c>
       <c r="M106" s="2" t="s">
         <v>157</v>
@@ -34809,7 +34770,7 @@
         <v>49</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>6844</v>
+        <v>6794</v>
       </c>
       <c r="D146" s="4" t="s">
         <v>2349</v>
@@ -34844,7 +34805,7 @@
         <v>49</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>6839</v>
+        <v>6789</v>
       </c>
       <c r="D147" s="4" t="s">
         <v>2412</v>
@@ -34879,7 +34840,7 @@
         <v>49</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>6840</v>
+        <v>6790</v>
       </c>
       <c r="D148" s="4" t="s">
         <v>2384</v>
@@ -34914,7 +34875,7 @@
         <v>49</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>6841</v>
+        <v>6791</v>
       </c>
       <c r="D149" s="4" t="s">
         <v>2444</v>
@@ -34949,7 +34910,7 @@
         <v>49</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>5785</v>
+        <v>5783</v>
       </c>
       <c r="D150" s="4" t="s">
         <v>2418</v>
@@ -34984,7 +34945,7 @@
         <v>49</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>5786</v>
+        <v>5784</v>
       </c>
       <c r="D151" s="4" t="s">
         <v>2424</v>
@@ -35019,7 +34980,7 @@
         <v>49</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>6842</v>
+        <v>6792</v>
       </c>
       <c r="D152" s="4" t="s">
         <v>2431</v>
@@ -35054,7 +35015,7 @@
         <v>49</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>6843</v>
+        <v>6793</v>
       </c>
       <c r="D153" s="4" t="s">
         <v>2370</v>
@@ -35089,7 +35050,7 @@
         <v>49</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>6845</v>
+        <v>6795</v>
       </c>
       <c r="D154" s="4" t="s">
         <v>2356</v>
@@ -35124,7 +35085,7 @@
         <v>49</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>6846</v>
+        <v>6796</v>
       </c>
       <c r="D155" s="4" t="s">
         <v>2391</v>
@@ -35159,7 +35120,7 @@
         <v>49</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>6847</v>
+        <v>6797</v>
       </c>
       <c r="D156" s="4" t="s">
         <v>2398</v>
@@ -35194,7 +35155,7 @@
         <v>49</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>6041</v>
+        <v>5991</v>
       </c>
       <c r="D157" s="4" t="s">
         <v>2438</v>
@@ -38901,7 +38862,7 @@
         <v>314</v>
       </c>
       <c r="C329" s="4" t="s">
-        <v>5787</v>
+        <v>5785</v>
       </c>
       <c r="D329" s="4" t="s">
         <v>2328</v>
@@ -47204,7 +47165,7 @@
         <v>2547</v>
       </c>
       <c r="C585" s="2" t="s">
-        <v>5980</v>
+        <v>5945</v>
       </c>
       <c r="D585" s="2" t="s">
         <v>2548</v>
@@ -47213,7 +47174,7 @@
         <v>2549</v>
       </c>
       <c r="F585" s="2" t="s">
-        <v>5981</v>
+        <v>5946</v>
       </c>
       <c r="G585" s="2" t="s">
         <v>2550</v>
@@ -47222,7 +47183,7 @@
         <v>2551</v>
       </c>
       <c r="L585" s="2" t="s">
-        <v>5982</v>
+        <v>5947</v>
       </c>
       <c r="M585" s="2" t="s">
         <v>2552</v>
@@ -47231,7 +47192,7 @@
         <v>2553</v>
       </c>
       <c r="O585" s="4" t="s">
-        <v>5983</v>
+        <v>5948</v>
       </c>
       <c r="P585" s="4" t="s">
         <v>2554</v>
@@ -48865,7 +48826,7 @@
         <v>1253</v>
       </c>
       <c r="C634" s="4" t="s">
-        <v>6838</v>
+        <v>6788</v>
       </c>
       <c r="D634" s="4" t="s">
         <v>2476</v>
@@ -48874,7 +48835,7 @@
         <v>2477</v>
       </c>
       <c r="F634" s="2" t="s">
-        <v>5974</v>
+        <v>5940</v>
       </c>
       <c r="G634" s="2" t="s">
         <v>2478</v>
@@ -48883,7 +48844,7 @@
         <v>2479</v>
       </c>
       <c r="L634" s="4" t="s">
-        <v>5975</v>
+        <v>6800</v>
       </c>
       <c r="M634" s="4" t="s">
         <v>2480</v>
@@ -48892,7 +48853,7 @@
         <v>2481</v>
       </c>
       <c r="O634" s="2" t="s">
-        <v>5976</v>
+        <v>5941</v>
       </c>
       <c r="P634" s="2" t="s">
         <v>2482</v>
@@ -51543,7 +51504,7 @@
         <v>2581</v>
       </c>
       <c r="F719" s="2" t="s">
-        <v>5977</v>
+        <v>5942</v>
       </c>
       <c r="G719" s="2" t="s">
         <v>2582</v>
@@ -51552,7 +51513,7 @@
         <v>2583</v>
       </c>
       <c r="L719" s="2" t="s">
-        <v>5978</v>
+        <v>5943</v>
       </c>
       <c r="M719" s="2" t="s">
         <v>2584</v>
@@ -51561,7 +51522,7 @@
         <v>2585</v>
       </c>
       <c r="O719" s="4" t="s">
-        <v>5979</v>
+        <v>5944</v>
       </c>
       <c r="P719" s="4" t="s">
         <v>2586</v>
@@ -51649,7 +51610,7 @@
         <v>2053</v>
       </c>
       <c r="O721" s="4" t="s">
-        <v>5985</v>
+        <v>5950</v>
       </c>
       <c r="P721" s="4" t="s">
         <v>2054</v>
@@ -51719,7 +51680,7 @@
         <v>2594</v>
       </c>
       <c r="O723" s="4" t="s">
-        <v>5988</v>
+        <v>5953</v>
       </c>
       <c r="P723" s="4" t="s">
         <v>2595</v>
@@ -51946,7 +51907,7 @@
         <v>2807</v>
       </c>
       <c r="C730" s="2" t="s">
-        <v>5784</v>
+        <v>5782</v>
       </c>
       <c r="D730" s="2" t="s">
         <v>2808</v>
@@ -52793,7 +52754,7 @@
         <v>2601</v>
       </c>
       <c r="O756" s="4" t="s">
-        <v>5973</v>
+        <v>5939</v>
       </c>
       <c r="P756" s="4" t="s">
         <v>2602</v>
@@ -53482,7 +53443,7 @@
         <v>2569</v>
       </c>
       <c r="O778" s="4" t="s">
-        <v>5989</v>
+        <v>5954</v>
       </c>
       <c r="P778" s="4" t="s">
         <v>2570</v>
@@ -53986,7 +53947,7 @@
         <v>2577</v>
       </c>
       <c r="O796" s="4" t="s">
-        <v>5986</v>
+        <v>5951</v>
       </c>
       <c r="P796" s="4" t="s">
         <v>2578</v>
@@ -54064,7 +54025,7 @@
         <v>3939</v>
       </c>
       <c r="C799" t="s">
-        <v>6043</v>
+        <v>5993</v>
       </c>
       <c r="D799" t="s">
         <v>3948</v>
@@ -54073,7 +54034,7 @@
         <v>3949</v>
       </c>
       <c r="F799" t="s">
-        <v>6042</v>
+        <v>5992</v>
       </c>
       <c r="G799" t="s">
         <v>3950</v>
@@ -54117,7 +54078,7 @@
         <v>3941</v>
       </c>
       <c r="O800" t="s">
-        <v>6014</v>
+        <v>6801</v>
       </c>
       <c r="P800" t="s">
         <v>3945</v>
@@ -54172,7 +54133,7 @@
         <v>1883</v>
       </c>
       <c r="F802" t="s">
-        <v>5781</v>
+        <v>6802</v>
       </c>
       <c r="G802" t="s">
         <v>1855</v>
@@ -54184,7 +54145,7 @@
         <v>3967</v>
       </c>
       <c r="L802" t="s">
-        <v>5782</v>
+        <v>6803</v>
       </c>
       <c r="M802" t="s">
         <v>1867</v>
@@ -54193,7 +54154,7 @@
         <v>1868</v>
       </c>
       <c r="O802" t="s">
-        <v>5783</v>
+        <v>5781</v>
       </c>
       <c r="P802" t="s">
         <v>3968</v>
@@ -54210,7 +54171,7 @@
         <v>3966</v>
       </c>
       <c r="C803" s="1" t="s">
-        <v>6041</v>
+        <v>5991</v>
       </c>
       <c r="D803" s="1" t="s">
         <v>2438</v>
@@ -54219,7 +54180,7 @@
         <v>2439</v>
       </c>
       <c r="F803" t="s">
-        <v>6029</v>
+        <v>5979</v>
       </c>
       <c r="G803" t="s">
         <v>2440</v>
@@ -54231,7 +54192,7 @@
         <v>3970</v>
       </c>
       <c r="L803" s="1" t="s">
-        <v>6018</v>
+        <v>5968</v>
       </c>
       <c r="M803" t="s">
         <v>2442</v>
@@ -56223,19 +56184,19 @@
         <v>2022</v>
       </c>
       <c r="B860" t="s">
+        <v>5786</v>
+      </c>
+      <c r="C860" t="s">
+        <v>6804</v>
+      </c>
+      <c r="D860" t="s">
+        <v>5787</v>
+      </c>
+      <c r="E860" t="s">
         <v>5788</v>
       </c>
-      <c r="C860" t="s">
-        <v>5941</v>
-      </c>
-      <c r="D860" t="s">
-        <v>5789</v>
-      </c>
-      <c r="E860" t="s">
-        <v>5790</v>
-      </c>
       <c r="F860" t="s">
-        <v>6030</v>
+        <v>5980</v>
       </c>
       <c r="G860" t="s">
         <v>1908</v>
@@ -56253,13 +56214,13 @@
         <v>2025</v>
       </c>
       <c r="O860" t="s">
-        <v>6000</v>
+        <v>5965</v>
       </c>
       <c r="P860" t="s">
         <v>2026</v>
       </c>
       <c r="Q860" t="s">
-        <v>5791</v>
+        <v>5789</v>
       </c>
     </row>
     <row r="861" spans="1:26">
@@ -56267,10 +56228,10 @@
         <v>1341</v>
       </c>
       <c r="B861" t="s">
-        <v>5792</v>
+        <v>5790</v>
       </c>
       <c r="C861" t="s">
-        <v>5942</v>
+        <v>6805</v>
       </c>
       <c r="D861" t="s">
         <v>1342</v>
@@ -56285,10 +56246,10 @@
         <v>56</v>
       </c>
       <c r="Q861" t="s">
-        <v>5793</v>
+        <v>5791</v>
       </c>
       <c r="X861" t="s">
-        <v>6003</v>
+        <v>6806</v>
       </c>
       <c r="Y861" t="s">
         <v>1346</v>
@@ -56299,22 +56260,22 @@
     </row>
     <row r="862" spans="1:26">
       <c r="A862" t="s">
+        <v>5792</v>
+      </c>
+      <c r="B862" t="s">
+        <v>5793</v>
+      </c>
+      <c r="C862" t="s">
+        <v>6807</v>
+      </c>
+      <c r="D862" t="s">
         <v>5794</v>
       </c>
-      <c r="B862" t="s">
+      <c r="E862" t="s">
         <v>5795</v>
       </c>
-      <c r="C862" t="s">
-        <v>5943</v>
-      </c>
-      <c r="D862" t="s">
-        <v>5796</v>
-      </c>
-      <c r="E862" t="s">
-        <v>5797</v>
-      </c>
       <c r="F862" t="s">
-        <v>6030</v>
+        <v>5980</v>
       </c>
       <c r="G862" t="s">
         <v>1908</v>
@@ -56323,126 +56284,126 @@
         <v>1909</v>
       </c>
       <c r="L862" t="s">
-        <v>6019</v>
+        <v>5969</v>
       </c>
       <c r="M862" t="s">
+        <v>5796</v>
+      </c>
+      <c r="N862" t="s">
+        <v>5797</v>
+      </c>
+      <c r="O862" t="s">
+        <v>5957</v>
+      </c>
+      <c r="P862" t="s">
         <v>5798</v>
       </c>
-      <c r="N862" t="s">
+      <c r="Q862" t="s">
         <v>5799</v>
-      </c>
-      <c r="O862" t="s">
-        <v>5992</v>
-      </c>
-      <c r="P862" t="s">
-        <v>5800</v>
-      </c>
-      <c r="Q862" t="s">
-        <v>5801</v>
       </c>
     </row>
     <row r="863" spans="1:26">
       <c r="A863" t="s">
+        <v>5806</v>
+      </c>
+      <c r="B863" t="s">
+        <v>5801</v>
+      </c>
+      <c r="C863" t="s">
+        <v>6808</v>
+      </c>
+      <c r="D863" t="s">
+        <v>5807</v>
+      </c>
+      <c r="E863" t="s">
         <v>5808</v>
       </c>
-      <c r="B863" t="s">
-        <v>5803</v>
-      </c>
-      <c r="C863" t="s">
-        <v>5945</v>
-      </c>
-      <c r="D863" t="s">
+      <c r="X863" t="s">
+        <v>6809</v>
+      </c>
+      <c r="Y863" t="s">
         <v>5809</v>
       </c>
-      <c r="E863" t="s">
+      <c r="Z863" t="s">
         <v>5810</v>
-      </c>
-      <c r="X863" t="s">
-        <v>6010</v>
-      </c>
-      <c r="Y863" t="s">
-        <v>5811</v>
-      </c>
-      <c r="Z863" t="s">
-        <v>5812</v>
       </c>
     </row>
     <row r="864" spans="1:26">
       <c r="A864" t="s">
+        <v>5811</v>
+      </c>
+      <c r="B864" t="s">
+        <v>5801</v>
+      </c>
+      <c r="C864" t="s">
+        <v>6810</v>
+      </c>
+      <c r="D864" t="s">
         <v>5813</v>
       </c>
-      <c r="B864" t="s">
-        <v>5803</v>
-      </c>
-      <c r="C864" t="s">
-        <v>5946</v>
-      </c>
-      <c r="D864" t="s">
+      <c r="E864" t="s">
+        <v>5812</v>
+      </c>
+      <c r="X864" t="s">
+        <v>6811</v>
+      </c>
+      <c r="Y864" t="s">
         <v>5815</v>
       </c>
-      <c r="E864" t="s">
+      <c r="Z864" t="s">
         <v>5814</v>
-      </c>
-      <c r="X864" t="s">
-        <v>6006</v>
-      </c>
-      <c r="Y864" t="s">
-        <v>5817</v>
-      </c>
-      <c r="Z864" t="s">
-        <v>5816</v>
       </c>
     </row>
     <row r="865" spans="1:26">
       <c r="A865" t="s">
+        <v>5816</v>
+      </c>
+      <c r="B865" t="s">
+        <v>5801</v>
+      </c>
+      <c r="C865" t="s">
+        <v>6812</v>
+      </c>
+      <c r="D865" t="s">
+        <v>5817</v>
+      </c>
+      <c r="E865" t="s">
         <v>5818</v>
       </c>
-      <c r="B865" t="s">
-        <v>5803</v>
-      </c>
-      <c r="C865" t="s">
-        <v>5947</v>
-      </c>
-      <c r="D865" t="s">
+      <c r="X865" t="s">
+        <v>6813</v>
+      </c>
+      <c r="Y865" t="s">
         <v>5819</v>
       </c>
-      <c r="E865" t="s">
+      <c r="Z865" t="s">
         <v>5820</v>
-      </c>
-      <c r="X865" t="s">
-        <v>6005</v>
-      </c>
-      <c r="Y865" t="s">
-        <v>5821</v>
-      </c>
-      <c r="Z865" t="s">
-        <v>5822</v>
       </c>
     </row>
     <row r="866" spans="1:26">
       <c r="A866" t="s">
+        <v>5800</v>
+      </c>
+      <c r="B866" t="s">
+        <v>5801</v>
+      </c>
+      <c r="C866" t="s">
+        <v>6814</v>
+      </c>
+      <c r="D866" t="s">
         <v>5802</v>
       </c>
-      <c r="B866" t="s">
+      <c r="E866" t="s">
         <v>5803</v>
       </c>
-      <c r="C866" t="s">
-        <v>5944</v>
-      </c>
-      <c r="D866" t="s">
+      <c r="L866" t="s">
+        <v>5975</v>
+      </c>
+      <c r="M866" t="s">
         <v>5804</v>
       </c>
-      <c r="E866" t="s">
+      <c r="N866" t="s">
         <v>5805</v>
-      </c>
-      <c r="L866" t="s">
-        <v>6025</v>
-      </c>
-      <c r="M866" t="s">
-        <v>5806</v>
-      </c>
-      <c r="N866" t="s">
-        <v>5807</v>
       </c>
     </row>
     <row r="867" spans="1:26">
@@ -56450,10 +56411,10 @@
         <v>1235</v>
       </c>
       <c r="B867" t="s">
-        <v>5824</v>
+        <v>5822</v>
       </c>
       <c r="C867" t="s">
-        <v>5950</v>
+        <v>5470</v>
       </c>
       <c r="D867" t="s">
         <v>1237</v>
@@ -56462,7 +56423,7 @@
         <v>1236</v>
       </c>
       <c r="U867" t="s">
-        <v>6012</v>
+        <v>5967</v>
       </c>
       <c r="V867" t="s">
         <v>1238</v>
@@ -56471,103 +56432,103 @@
         <v>1239</v>
       </c>
       <c r="X867" t="s">
-        <v>6008</v>
+        <v>5753</v>
       </c>
       <c r="Y867" t="s">
         <v>1240</v>
       </c>
       <c r="Z867" t="s">
-        <v>5838</v>
+        <v>5836</v>
       </c>
     </row>
     <row r="868" spans="1:26" ht="33">
       <c r="A868" t="s">
+        <v>5821</v>
+      </c>
+      <c r="B868" t="s">
+        <v>5822</v>
+      </c>
+      <c r="C868" t="s">
+        <v>6815</v>
+      </c>
+      <c r="D868" t="s">
         <v>5823</v>
       </c>
-      <c r="B868" t="s">
+      <c r="E868" t="s">
         <v>5824</v>
       </c>
-      <c r="C868" t="s">
-        <v>5948</v>
-      </c>
-      <c r="D868" t="s">
+      <c r="F868" t="s">
+        <v>5981</v>
+      </c>
+      <c r="G868" t="s">
         <v>5825</v>
       </c>
-      <c r="E868" t="s">
+      <c r="H868" t="s">
         <v>5826</v>
       </c>
-      <c r="F868" t="s">
-        <v>6031</v>
-      </c>
-      <c r="G868" t="s">
+      <c r="L868" t="s">
+        <v>5973</v>
+      </c>
+      <c r="M868" t="s">
         <v>5827</v>
       </c>
-      <c r="H868" t="s">
+      <c r="N868" t="s">
         <v>5828</v>
       </c>
-      <c r="L868" t="s">
-        <v>6023</v>
-      </c>
-      <c r="M868" t="s">
+      <c r="O868" s="1" t="s">
+        <v>5962</v>
+      </c>
+      <c r="P868" t="s">
         <v>5829</v>
       </c>
-      <c r="N868" t="s">
+      <c r="Q868" t="s">
         <v>5830</v>
-      </c>
-      <c r="O868" s="1" t="s">
-        <v>5997</v>
-      </c>
-      <c r="P868" t="s">
-        <v>5831</v>
-      </c>
-      <c r="Q868" t="s">
-        <v>5832</v>
       </c>
     </row>
     <row r="869" spans="1:26">
       <c r="A869" t="s">
+        <v>5831</v>
+      </c>
+      <c r="B869" t="s">
+        <v>5822</v>
+      </c>
+      <c r="C869" t="s">
+        <v>6816</v>
+      </c>
+      <c r="D869" t="s">
+        <v>5832</v>
+      </c>
+      <c r="E869" t="s">
         <v>5833</v>
       </c>
-      <c r="B869" t="s">
-        <v>5824</v>
-      </c>
-      <c r="C869" t="s">
-        <v>5949</v>
-      </c>
-      <c r="D869" t="s">
+      <c r="L869" t="s">
+        <v>5976</v>
+      </c>
+      <c r="M869" t="s">
         <v>5834</v>
       </c>
-      <c r="E869" t="s">
+      <c r="N869" t="s">
         <v>5835</v>
-      </c>
-      <c r="L869" t="s">
-        <v>6026</v>
-      </c>
-      <c r="M869" t="s">
-        <v>5836</v>
-      </c>
-      <c r="N869" t="s">
-        <v>5837</v>
       </c>
     </row>
     <row r="870" spans="1:26">
       <c r="A870" t="s">
+        <v>5837</v>
+      </c>
+      <c r="B870" t="s">
+        <v>5838</v>
+      </c>
+      <c r="C870" t="s">
+        <v>6817</v>
+      </c>
+      <c r="D870" t="s">
         <v>5839</v>
       </c>
-      <c r="B870" t="s">
+      <c r="E870" t="s">
         <v>5840</v>
       </c>
-      <c r="C870" t="s">
-        <v>5951</v>
-      </c>
-      <c r="D870" t="s">
-        <v>5841</v>
-      </c>
-      <c r="E870" t="s">
-        <v>5842</v>
-      </c>
       <c r="F870" t="s">
-        <v>6034</v>
+        <v>5984</v>
       </c>
       <c r="G870" t="s">
         <v>3716</v>
@@ -56578,22 +56539,22 @@
     </row>
     <row r="871" spans="1:26">
       <c r="A871" t="s">
+        <v>5841</v>
+      </c>
+      <c r="B871" t="s">
+        <v>5838</v>
+      </c>
+      <c r="C871" t="s">
+        <v>6818</v>
+      </c>
+      <c r="D871" t="s">
+        <v>5842</v>
+      </c>
+      <c r="E871" t="s">
         <v>5843</v>
       </c>
-      <c r="B871" t="s">
-        <v>5840</v>
-      </c>
-      <c r="C871" t="s">
-        <v>5952</v>
-      </c>
-      <c r="D871" t="s">
-        <v>5844</v>
-      </c>
-      <c r="E871" t="s">
-        <v>5845</v>
-      </c>
       <c r="F871" t="s">
-        <v>6034</v>
+        <v>5984</v>
       </c>
       <c r="G871" t="s">
         <v>3716</v>
@@ -56607,10 +56568,10 @@
         <v>1799</v>
       </c>
       <c r="B872" t="s">
-        <v>5846</v>
+        <v>5844</v>
       </c>
       <c r="C872" t="s">
-        <v>5953</v>
+        <v>4390</v>
       </c>
       <c r="D872" t="s">
         <v>1801</v>
@@ -56619,7 +56580,7 @@
         <v>1802</v>
       </c>
       <c r="F872" t="s">
-        <v>6036</v>
+        <v>5986</v>
       </c>
       <c r="G872" t="s">
         <v>1641</v>
@@ -56637,33 +56598,33 @@
         <v>1804</v>
       </c>
       <c r="O872" t="s">
-        <v>5994</v>
+        <v>5959</v>
       </c>
       <c r="P872" t="s">
-        <v>5847</v>
+        <v>5845</v>
       </c>
       <c r="Q872" t="s">
-        <v>5848</v>
+        <v>5846</v>
       </c>
     </row>
     <row r="873" spans="1:26">
       <c r="A873" t="s">
+        <v>5847</v>
+      </c>
+      <c r="B873" t="s">
+        <v>5844</v>
+      </c>
+      <c r="C873" t="s">
+        <v>6819</v>
+      </c>
+      <c r="D873" t="s">
+        <v>5848</v>
+      </c>
+      <c r="E873" t="s">
         <v>5849</v>
       </c>
-      <c r="B873" t="s">
-        <v>5846</v>
-      </c>
-      <c r="C873" t="s">
-        <v>5954</v>
-      </c>
-      <c r="D873" t="s">
-        <v>5850</v>
-      </c>
-      <c r="E873" t="s">
-        <v>5851</v>
-      </c>
       <c r="F873" t="s">
-        <v>6034</v>
+        <v>5984</v>
       </c>
       <c r="G873" t="s">
         <v>3716</v>
@@ -56674,74 +56635,74 @@
     </row>
     <row r="874" spans="1:26">
       <c r="A874" t="s">
+        <v>5850</v>
+      </c>
+      <c r="B874" t="s">
+        <v>5851</v>
+      </c>
+      <c r="C874" t="s">
+        <v>6820</v>
+      </c>
+      <c r="D874" t="s">
         <v>5852</v>
       </c>
-      <c r="B874" t="s">
+      <c r="E874" t="s">
         <v>5853</v>
       </c>
-      <c r="C874" t="s">
-        <v>5955</v>
-      </c>
-      <c r="D874" t="s">
+      <c r="O874" t="s">
         <v>5854</v>
       </c>
-      <c r="E874" t="s">
-        <v>5855</v>
-      </c>
-      <c r="O874" t="s">
-        <v>5856</v>
-      </c>
       <c r="P874" t="s">
-        <v>5856</v>
+        <v>5854</v>
       </c>
       <c r="Q874" t="s">
-        <v>5856</v>
+        <v>5854</v>
       </c>
     </row>
     <row r="875" spans="1:26">
       <c r="A875" t="s">
+        <v>5855</v>
+      </c>
+      <c r="B875" t="s">
+        <v>5856</v>
+      </c>
+      <c r="C875" t="s">
+        <v>5964</v>
+      </c>
+      <c r="D875" t="s">
         <v>5857</v>
       </c>
-      <c r="B875" t="s">
+      <c r="E875" t="s">
         <v>5858</v>
       </c>
-      <c r="C875" t="s">
-        <v>5956</v>
-      </c>
-      <c r="D875" t="s">
+      <c r="O875" t="s">
+        <v>5964</v>
+      </c>
+      <c r="P875" t="s">
+        <v>5857</v>
+      </c>
+      <c r="Q875" t="s">
+        <v>5858</v>
+      </c>
+      <c r="X875" t="s">
+        <v>6821</v>
+      </c>
+      <c r="Y875" t="s">
         <v>5859</v>
       </c>
-      <c r="E875" t="s">
+      <c r="Z875" t="s">
         <v>5860</v>
-      </c>
-      <c r="O875" t="s">
-        <v>5999</v>
-      </c>
-      <c r="P875" t="s">
-        <v>5859</v>
-      </c>
-      <c r="Q875" t="s">
-        <v>5860</v>
-      </c>
-      <c r="X875" t="s">
-        <v>6004</v>
-      </c>
-      <c r="Y875" t="s">
-        <v>5861</v>
-      </c>
-      <c r="Z875" t="s">
-        <v>5862</v>
       </c>
     </row>
     <row r="876" spans="1:26">
       <c r="A876" t="s">
-        <v>5863</v>
+        <v>5861</v>
       </c>
       <c r="B876" t="s">
-        <v>5858</v>
+        <v>5856</v>
       </c>
       <c r="C876" t="s">
-        <v>5957</v>
+        <v>5322</v>
       </c>
       <c r="D876" t="s">
         <v>940</v>
@@ -56750,22 +56711,22 @@
         <v>939</v>
       </c>
       <c r="F876" t="s">
-        <v>6039</v>
+        <v>5989</v>
       </c>
       <c r="G876" t="s">
+        <v>5862</v>
+      </c>
+      <c r="H876" t="s">
+        <v>5863</v>
+      </c>
+      <c r="O876" t="s">
         <v>5864</v>
       </c>
-      <c r="H876" t="s">
-        <v>5865</v>
-      </c>
-      <c r="O876" t="s">
-        <v>5866</v>
-      </c>
       <c r="P876" t="s">
-        <v>5866</v>
+        <v>5864</v>
       </c>
       <c r="Q876" t="s">
-        <v>5866</v>
+        <v>5864</v>
       </c>
     </row>
     <row r="877" spans="1:26">
@@ -56773,10 +56734,10 @@
         <v>1252</v>
       </c>
       <c r="B877" t="s">
-        <v>5867</v>
+        <v>5865</v>
       </c>
       <c r="C877" t="s">
-        <v>5959</v>
+        <v>5473</v>
       </c>
       <c r="D877" t="s">
         <v>1255</v>
@@ -56785,22 +56746,22 @@
         <v>1254</v>
       </c>
       <c r="O877" t="s">
-        <v>5990</v>
+        <v>5955</v>
       </c>
       <c r="P877" t="s">
-        <v>5868</v>
+        <v>5866</v>
       </c>
       <c r="Q877" t="s">
-        <v>5869</v>
+        <v>5867</v>
       </c>
       <c r="X877" t="s">
-        <v>6009</v>
+        <v>5748</v>
       </c>
       <c r="Y877" t="s">
         <v>1256</v>
       </c>
       <c r="Z877" t="s">
-        <v>5871</v>
+        <v>5869</v>
       </c>
     </row>
     <row r="878" spans="1:26">
@@ -56808,28 +56769,28 @@
         <v>1316</v>
       </c>
       <c r="B878" t="s">
-        <v>5867</v>
+        <v>5865</v>
       </c>
       <c r="C878" t="s">
-        <v>5960</v>
+        <v>5499</v>
       </c>
       <c r="D878" t="s">
         <v>1318</v>
       </c>
       <c r="E878" t="s">
+        <v>5870</v>
+      </c>
+      <c r="O878" t="s">
+        <v>5956</v>
+      </c>
+      <c r="P878" t="s">
+        <v>5871</v>
+      </c>
+      <c r="Q878" t="s">
         <v>5872</v>
       </c>
-      <c r="O878" t="s">
-        <v>5991</v>
-      </c>
-      <c r="P878" t="s">
-        <v>5873</v>
-      </c>
-      <c r="Q878" t="s">
-        <v>5874</v>
-      </c>
       <c r="R878" t="s">
-        <v>6001</v>
+        <v>5697</v>
       </c>
       <c r="S878" t="s">
         <v>1320</v>
@@ -56838,7 +56799,7 @@
         <v>1321</v>
       </c>
       <c r="U878" t="s">
-        <v>6001</v>
+        <v>5697</v>
       </c>
       <c r="V878" t="s">
         <v>1320</v>
@@ -56847,13 +56808,13 @@
         <v>1321</v>
       </c>
       <c r="X878" t="s">
-        <v>6002</v>
+        <v>5966</v>
       </c>
       <c r="Y878" t="s">
-        <v>5876</v>
+        <v>5874</v>
       </c>
       <c r="Z878" t="s">
-        <v>5875</v>
+        <v>5873</v>
       </c>
     </row>
     <row r="879" spans="1:26">
@@ -56861,10 +56822,10 @@
         <v>1246</v>
       </c>
       <c r="B879" t="s">
-        <v>5867</v>
+        <v>5865</v>
       </c>
       <c r="C879" t="s">
-        <v>5958</v>
+        <v>5471</v>
       </c>
       <c r="D879" t="s">
         <v>1247</v>
@@ -56873,42 +56834,42 @@
         <v>1248</v>
       </c>
       <c r="O879" t="s">
-        <v>5990</v>
+        <v>5955</v>
       </c>
       <c r="P879" t="s">
-        <v>5868</v>
+        <v>5866</v>
       </c>
       <c r="Q879" t="s">
-        <v>5869</v>
+        <v>5867</v>
       </c>
       <c r="X879" t="s">
-        <v>6007</v>
+        <v>6822</v>
       </c>
       <c r="Y879" t="s">
         <v>1251</v>
       </c>
       <c r="Z879" t="s">
-        <v>5870</v>
+        <v>5868</v>
       </c>
     </row>
     <row r="880" spans="1:26">
       <c r="A880" t="s">
+        <v>5875</v>
+      </c>
+      <c r="B880" t="s">
+        <v>5876</v>
+      </c>
+      <c r="C880" t="s">
+        <v>6823</v>
+      </c>
+      <c r="D880" t="s">
         <v>5877</v>
       </c>
-      <c r="B880" t="s">
+      <c r="E880" t="s">
         <v>5878</v>
       </c>
-      <c r="C880" t="s">
-        <v>5961</v>
-      </c>
-      <c r="D880" t="s">
-        <v>5879</v>
-      </c>
-      <c r="E880" t="s">
-        <v>5880</v>
-      </c>
       <c r="F880" t="s">
-        <v>6037</v>
+        <v>5987</v>
       </c>
       <c r="G880" t="s">
         <v>1622</v>
@@ -56917,42 +56878,42 @@
         <v>1623</v>
       </c>
       <c r="L880" t="s">
-        <v>6021</v>
+        <v>5971</v>
       </c>
       <c r="M880" t="s">
+        <v>5879</v>
+      </c>
+      <c r="N880" t="s">
+        <v>5880</v>
+      </c>
+      <c r="O880" t="s">
+        <v>5961</v>
+      </c>
+      <c r="P880" t="s">
         <v>5881</v>
       </c>
-      <c r="N880" t="s">
+      <c r="Q880" t="s">
         <v>5882</v>
-      </c>
-      <c r="O880" t="s">
-        <v>5996</v>
-      </c>
-      <c r="P880" t="s">
-        <v>5883</v>
-      </c>
-      <c r="Q880" t="s">
-        <v>5884</v>
       </c>
     </row>
     <row r="881" spans="1:23">
       <c r="A881" t="s">
+        <v>5883</v>
+      </c>
+      <c r="B881" t="s">
+        <v>5884</v>
+      </c>
+      <c r="C881" t="s">
+        <v>6702</v>
+      </c>
+      <c r="D881" t="s">
         <v>5885</v>
       </c>
-      <c r="B881" t="s">
+      <c r="E881" t="s">
         <v>5886</v>
       </c>
-      <c r="C881" t="s">
-        <v>5962</v>
-      </c>
-      <c r="D881" t="s">
-        <v>5887</v>
-      </c>
-      <c r="E881" t="s">
-        <v>5888</v>
-      </c>
       <c r="F881" t="s">
-        <v>6032</v>
+        <v>5982</v>
       </c>
       <c r="G881" t="s">
         <v>3696</v>
@@ -56961,13 +56922,13 @@
         <v>3697</v>
       </c>
       <c r="O881" t="s">
+        <v>5887</v>
+      </c>
+      <c r="P881" t="s">
+        <v>5888</v>
+      </c>
+      <c r="Q881" t="s">
         <v>5889</v>
-      </c>
-      <c r="P881" t="s">
-        <v>5890</v>
-      </c>
-      <c r="Q881" t="s">
-        <v>5891</v>
       </c>
     </row>
     <row r="882" spans="1:23">
@@ -56975,10 +56936,10 @@
         <v>1096</v>
       </c>
       <c r="B882" t="s">
-        <v>5893</v>
+        <v>5891</v>
       </c>
       <c r="C882" t="s">
-        <v>5964</v>
+        <v>5396</v>
       </c>
       <c r="D882" t="s">
         <v>1097</v>
@@ -56987,59 +56948,59 @@
         <v>1098</v>
       </c>
       <c r="L882" t="s">
-        <v>6027</v>
+        <v>5977</v>
       </c>
       <c r="M882" t="s">
         <v>1099</v>
       </c>
       <c r="N882" t="s">
-        <v>5898</v>
+        <v>5896</v>
       </c>
     </row>
     <row r="883" spans="1:23">
       <c r="A883" t="s">
+        <v>5890</v>
+      </c>
+      <c r="B883" t="s">
+        <v>5891</v>
+      </c>
+      <c r="C883" t="s">
+        <v>6824</v>
+      </c>
+      <c r="D883" t="s">
         <v>5892</v>
       </c>
-      <c r="B883" t="s">
+      <c r="E883" t="s">
         <v>5893</v>
       </c>
-      <c r="C883" t="s">
-        <v>5963</v>
-      </c>
-      <c r="D883" t="s">
+      <c r="L883" t="s">
+        <v>5978</v>
+      </c>
+      <c r="M883" t="s">
         <v>5894</v>
       </c>
-      <c r="E883" t="s">
+      <c r="N883" t="s">
         <v>5895</v>
-      </c>
-      <c r="L883" t="s">
-        <v>6028</v>
-      </c>
-      <c r="M883" t="s">
-        <v>5896</v>
-      </c>
-      <c r="N883" t="s">
-        <v>5897</v>
       </c>
     </row>
     <row r="884" spans="1:23">
       <c r="A884" t="s">
+        <v>5897</v>
+      </c>
+      <c r="B884" t="s">
+        <v>5891</v>
+      </c>
+      <c r="C884" t="s">
+        <v>6825</v>
+      </c>
+      <c r="D884" t="s">
+        <v>5898</v>
+      </c>
+      <c r="E884" t="s">
         <v>5899</v>
       </c>
-      <c r="B884" t="s">
-        <v>5893</v>
-      </c>
-      <c r="C884" t="s">
-        <v>5965</v>
-      </c>
-      <c r="D884" t="s">
-        <v>5900</v>
-      </c>
-      <c r="E884" t="s">
-        <v>5901</v>
-      </c>
       <c r="F884" t="s">
-        <v>6034</v>
+        <v>5984</v>
       </c>
       <c r="G884" t="s">
         <v>3716</v>
@@ -57050,57 +57011,57 @@
     </row>
     <row r="885" spans="1:23">
       <c r="A885" t="s">
+        <v>5907</v>
+      </c>
+      <c r="B885" t="s">
+        <v>5901</v>
+      </c>
+      <c r="C885" t="s">
+        <v>6826</v>
+      </c>
+      <c r="D885" t="s">
+        <v>5908</v>
+      </c>
+      <c r="E885" t="s">
         <v>5909</v>
       </c>
-      <c r="B885" t="s">
-        <v>5903</v>
-      </c>
-      <c r="C885" t="s">
-        <v>5968</v>
-      </c>
-      <c r="D885" t="s">
+      <c r="F885" t="s">
+        <v>5988</v>
+      </c>
+      <c r="G885" t="s">
         <v>5910</v>
       </c>
-      <c r="E885" t="s">
+      <c r="H885" t="s">
         <v>5911</v>
       </c>
-      <c r="F885" t="s">
-        <v>6038</v>
-      </c>
-      <c r="G885" t="s">
+      <c r="O885" t="s">
+        <v>6827</v>
+      </c>
+      <c r="P885" t="s">
         <v>5912</v>
       </c>
-      <c r="H885" t="s">
+      <c r="Q885" t="s">
         <v>5913</v>
-      </c>
-      <c r="O885" t="s">
-        <v>6015</v>
-      </c>
-      <c r="P885" t="s">
-        <v>5914</v>
-      </c>
-      <c r="Q885" t="s">
-        <v>5915</v>
       </c>
     </row>
     <row r="886" spans="1:23">
       <c r="A886" t="s">
+        <v>5900</v>
+      </c>
+      <c r="B886" t="s">
+        <v>5901</v>
+      </c>
+      <c r="C886" t="s">
+        <v>6828</v>
+      </c>
+      <c r="D886" t="s">
+        <v>5903</v>
+      </c>
+      <c r="E886" t="s">
         <v>5902</v>
       </c>
-      <c r="B886" t="s">
-        <v>5903</v>
-      </c>
-      <c r="C886" t="s">
-        <v>5966</v>
-      </c>
-      <c r="D886" t="s">
-        <v>5905</v>
-      </c>
-      <c r="E886" t="s">
-        <v>5904</v>
-      </c>
       <c r="F886" t="s">
-        <v>6033</v>
+        <v>5983</v>
       </c>
       <c r="G886" t="s">
         <v>2957</v>
@@ -57111,39 +57072,39 @@
     </row>
     <row r="887" spans="1:23">
       <c r="A887" t="s">
+        <v>5904</v>
+      </c>
+      <c r="B887" t="s">
+        <v>5901</v>
+      </c>
+      <c r="C887" t="s">
+        <v>6829</v>
+      </c>
+      <c r="D887" t="s">
+        <v>5905</v>
+      </c>
+      <c r="E887" t="s">
         <v>5906</v>
-      </c>
-      <c r="B887" t="s">
-        <v>5903</v>
-      </c>
-      <c r="C887" t="s">
-        <v>5967</v>
-      </c>
-      <c r="D887" t="s">
-        <v>5907</v>
-      </c>
-      <c r="E887" t="s">
-        <v>5908</v>
       </c>
     </row>
     <row r="888" spans="1:23">
       <c r="A888" t="s">
+        <v>5914</v>
+      </c>
+      <c r="B888" t="s">
+        <v>5915</v>
+      </c>
+      <c r="C888" t="s">
+        <v>6830</v>
+      </c>
+      <c r="D888" t="s">
         <v>5916</v>
       </c>
-      <c r="B888" t="s">
+      <c r="E888" t="s">
         <v>5917</v>
       </c>
-      <c r="C888" t="s">
-        <v>5969</v>
-      </c>
-      <c r="D888" t="s">
-        <v>5918</v>
-      </c>
-      <c r="E888" t="s">
-        <v>5919</v>
-      </c>
       <c r="F888" t="s">
-        <v>6035</v>
+        <v>5985</v>
       </c>
       <c r="G888" t="s">
         <v>2058</v>
@@ -57152,60 +57113,60 @@
         <v>2059</v>
       </c>
       <c r="L888" t="s">
-        <v>6024</v>
+        <v>5974</v>
       </c>
       <c r="M888" t="s">
+        <v>5918</v>
+      </c>
+      <c r="N888" t="s">
+        <v>5919</v>
+      </c>
+      <c r="O888" t="s">
+        <v>5963</v>
+      </c>
+      <c r="P888" t="s">
         <v>5920</v>
       </c>
-      <c r="N888" t="s">
+      <c r="Q888" t="s">
         <v>5921</v>
       </c>
-      <c r="O888" t="s">
-        <v>5998</v>
-      </c>
-      <c r="P888" t="s">
+      <c r="R888" t="s">
+        <v>6831</v>
+      </c>
+      <c r="S888" t="s">
         <v>5922</v>
       </c>
-      <c r="Q888" t="s">
+      <c r="T888" t="s">
         <v>5923</v>
       </c>
-      <c r="R888" t="s">
-        <v>6013</v>
-      </c>
-      <c r="S888" t="s">
+      <c r="U888" t="s">
+        <v>6832</v>
+      </c>
+      <c r="V888" t="s">
         <v>5924</v>
       </c>
-      <c r="T888" t="s">
+      <c r="W888" t="s">
         <v>5925</v>
-      </c>
-      <c r="U888" t="s">
-        <v>6011</v>
-      </c>
-      <c r="V888" t="s">
-        <v>5926</v>
-      </c>
-      <c r="W888" t="s">
-        <v>5927</v>
       </c>
     </row>
     <row r="889" spans="1:23">
       <c r="A889" t="s">
+        <v>5926</v>
+      </c>
+      <c r="B889" t="s">
+        <v>5915</v>
+      </c>
+      <c r="C889" t="s">
+        <v>6833</v>
+      </c>
+      <c r="D889" t="s">
+        <v>5927</v>
+      </c>
+      <c r="E889" t="s">
         <v>5928</v>
       </c>
-      <c r="B889" t="s">
-        <v>5917</v>
-      </c>
-      <c r="C889" t="s">
-        <v>5970</v>
-      </c>
-      <c r="D889" t="s">
-        <v>5929</v>
-      </c>
-      <c r="E889" t="s">
-        <v>5930</v>
-      </c>
       <c r="F889" t="s">
-        <v>6035</v>
+        <v>5985</v>
       </c>
       <c r="G889" t="s">
         <v>2058</v>
@@ -57214,40 +57175,40 @@
         <v>2059</v>
       </c>
       <c r="L889" t="s">
-        <v>6020</v>
+        <v>5970</v>
       </c>
       <c r="M889" t="s">
+        <v>5929</v>
+      </c>
+      <c r="N889" t="s">
+        <v>5930</v>
+      </c>
+      <c r="O889" t="s">
+        <v>5958</v>
+      </c>
+      <c r="P889" t="s">
         <v>5931</v>
       </c>
-      <c r="N889" t="s">
+      <c r="Q889" t="s">
         <v>5932</v>
       </c>
-      <c r="O889" t="s">
-        <v>5993</v>
-      </c>
-      <c r="P889" t="s">
-        <v>5933</v>
-      </c>
-      <c r="Q889" t="s">
-        <v>5934</v>
-      </c>
       <c r="R889" t="s">
-        <v>6013</v>
+        <v>6831</v>
       </c>
       <c r="S889" t="s">
+        <v>5922</v>
+      </c>
+      <c r="T889" t="s">
+        <v>5923</v>
+      </c>
+      <c r="U889" t="s">
+        <v>6832</v>
+      </c>
+      <c r="V889" t="s">
         <v>5924</v>
       </c>
-      <c r="T889" t="s">
+      <c r="W889" t="s">
         <v>5925</v>
-      </c>
-      <c r="U889" t="s">
-        <v>6011</v>
-      </c>
-      <c r="V889" t="s">
-        <v>5926</v>
-      </c>
-      <c r="W889" t="s">
-        <v>5927</v>
       </c>
     </row>
     <row r="890" spans="1:23">
@@ -57255,10 +57216,10 @@
         <v>2796</v>
       </c>
       <c r="B890" t="s">
-        <v>5935</v>
+        <v>5933</v>
       </c>
       <c r="C890" t="s">
-        <v>5971</v>
+        <v>6834</v>
       </c>
       <c r="D890" t="s">
         <v>2798</v>
@@ -57267,13 +57228,13 @@
         <v>2799</v>
       </c>
       <c r="F890" t="s">
-        <v>6040</v>
+        <v>5990</v>
       </c>
       <c r="G890" t="s">
-        <v>5936</v>
+        <v>5934</v>
       </c>
       <c r="H890" t="s">
-        <v>5937</v>
+        <v>5935</v>
       </c>
     </row>
     <row r="891" spans="1:23">
@@ -57281,10 +57242,10 @@
         <v>1688</v>
       </c>
       <c r="B891" t="s">
-        <v>5938</v>
+        <v>5936</v>
       </c>
       <c r="C891" t="s">
-        <v>5972</v>
+        <v>4368</v>
       </c>
       <c r="D891" t="s">
         <v>1689</v>
@@ -57293,7 +57254,7 @@
         <v>1690</v>
       </c>
       <c r="F891" t="s">
-        <v>6036</v>
+        <v>5986</v>
       </c>
       <c r="G891" t="s">
         <v>1641</v>
@@ -57302,7 +57263,7 @@
         <v>1642</v>
       </c>
       <c r="L891" t="s">
-        <v>6022</v>
+        <v>5972</v>
       </c>
       <c r="M891" t="s">
         <v>1691</v>
@@ -57311,13 +57272,13 @@
         <v>1692</v>
       </c>
       <c r="O891" t="s">
-        <v>5995</v>
+        <v>5960</v>
       </c>
       <c r="P891" t="s">
-        <v>5939</v>
+        <v>5937</v>
       </c>
       <c r="Q891" t="s">
-        <v>5940</v>
+        <v>5938</v>
       </c>
     </row>
     <row r="892" spans="1:23">
@@ -57325,7 +57286,7 @@
         <v>1464</v>
       </c>
       <c r="B892" t="s">
-        <v>6044</v>
+        <v>5994</v>
       </c>
       <c r="C892" t="s">
         <v>5610</v>
@@ -57337,13 +57298,13 @@
         <v>1465</v>
       </c>
       <c r="I892" t="s">
-        <v>6111</v>
+        <v>6061</v>
       </c>
       <c r="J892" t="s">
-        <v>6071</v>
+        <v>6021</v>
       </c>
       <c r="K892" t="s">
-        <v>6072</v>
+        <v>6022</v>
       </c>
     </row>
     <row r="893" spans="1:23">
@@ -57351,7 +57312,7 @@
         <v>1453</v>
       </c>
       <c r="B893" t="s">
-        <v>6044</v>
+        <v>5994</v>
       </c>
       <c r="C893" t="s">
         <v>5606</v>
@@ -57363,13 +57324,13 @@
         <v>1454</v>
       </c>
       <c r="I893" t="s">
-        <v>6108</v>
+        <v>6058</v>
       </c>
       <c r="J893" t="s">
-        <v>6065</v>
+        <v>6015</v>
       </c>
       <c r="K893" t="s">
-        <v>6066</v>
+        <v>6016</v>
       </c>
     </row>
     <row r="894" spans="1:23">
@@ -57377,7 +57338,7 @@
         <v>1460</v>
       </c>
       <c r="B894" t="s">
-        <v>6044</v>
+        <v>5994</v>
       </c>
       <c r="C894" t="s">
         <v>5609</v>
@@ -57389,13 +57350,13 @@
         <v>1462</v>
       </c>
       <c r="I894" t="s">
-        <v>6110</v>
+        <v>6060</v>
       </c>
       <c r="J894" t="s">
-        <v>6069</v>
+        <v>6019</v>
       </c>
       <c r="K894" t="s">
-        <v>6070</v>
+        <v>6020</v>
       </c>
     </row>
     <row r="895" spans="1:23">
@@ -57403,7 +57364,7 @@
         <v>1418</v>
       </c>
       <c r="B895" t="s">
-        <v>6044</v>
+        <v>5994</v>
       </c>
       <c r="C895" t="s">
         <v>4039</v>
@@ -57415,13 +57376,13 @@
         <v>86</v>
       </c>
       <c r="I895" t="s">
-        <v>6098</v>
+        <v>6048</v>
       </c>
       <c r="J895" t="s">
-        <v>6045</v>
+        <v>5995</v>
       </c>
       <c r="K895" t="s">
-        <v>6046</v>
+        <v>5996</v>
       </c>
     </row>
     <row r="896" spans="1:23">
@@ -57429,7 +57390,7 @@
         <v>1420</v>
       </c>
       <c r="B896" t="s">
-        <v>6044</v>
+        <v>5994</v>
       </c>
       <c r="C896" t="s">
         <v>4043</v>
@@ -57441,13 +57402,13 @@
         <v>1421</v>
       </c>
       <c r="I896" t="s">
-        <v>6099</v>
+        <v>6049</v>
       </c>
       <c r="J896" t="s">
-        <v>6047</v>
+        <v>5997</v>
       </c>
       <c r="K896" t="s">
-        <v>6048</v>
+        <v>5998</v>
       </c>
     </row>
     <row r="897" spans="1:14">
@@ -57455,7 +57416,7 @@
         <v>1472</v>
       </c>
       <c r="B897" t="s">
-        <v>6044</v>
+        <v>5994</v>
       </c>
       <c r="C897" t="s">
         <v>5612</v>
@@ -57467,13 +57428,13 @@
         <v>1475</v>
       </c>
       <c r="I897" t="s">
-        <v>6113</v>
+        <v>6063</v>
       </c>
       <c r="J897" t="s">
-        <v>6075</v>
+        <v>6025</v>
       </c>
       <c r="K897" t="s">
-        <v>6076</v>
+        <v>6026</v>
       </c>
     </row>
     <row r="898" spans="1:14">
@@ -57481,7 +57442,7 @@
         <v>1449</v>
       </c>
       <c r="B898" t="s">
-        <v>6044</v>
+        <v>5994</v>
       </c>
       <c r="C898" t="s">
         <v>5604</v>
@@ -57493,13 +57454,13 @@
         <v>1451</v>
       </c>
       <c r="I898" t="s">
-        <v>6107</v>
+        <v>6057</v>
       </c>
       <c r="J898" t="s">
-        <v>6063</v>
+        <v>6013</v>
       </c>
       <c r="K898" t="s">
-        <v>6064</v>
+        <v>6014</v>
       </c>
     </row>
     <row r="899" spans="1:14">
@@ -57507,7 +57468,7 @@
         <v>1457</v>
       </c>
       <c r="B899" t="s">
-        <v>6044</v>
+        <v>5994</v>
       </c>
       <c r="C899" t="s">
         <v>4125</v>
@@ -57519,13 +57480,13 @@
         <v>1458</v>
       </c>
       <c r="I899" t="s">
-        <v>6109</v>
+        <v>6059</v>
       </c>
       <c r="J899" t="s">
-        <v>6067</v>
+        <v>6017</v>
       </c>
       <c r="K899" t="s">
-        <v>6068</v>
+        <v>6018</v>
       </c>
     </row>
     <row r="900" spans="1:14">
@@ -57533,7 +57494,7 @@
         <v>1431</v>
       </c>
       <c r="B900" t="s">
-        <v>6044</v>
+        <v>5994</v>
       </c>
       <c r="C900" t="s">
         <v>5596</v>
@@ -57545,13 +57506,13 @@
         <v>1432</v>
       </c>
       <c r="I900" t="s">
-        <v>6102</v>
+        <v>6052</v>
       </c>
       <c r="J900" t="s">
-        <v>6053</v>
+        <v>6003</v>
       </c>
       <c r="K900" t="s">
-        <v>6054</v>
+        <v>6004</v>
       </c>
     </row>
     <row r="901" spans="1:14">
@@ -57559,10 +57520,10 @@
         <v>1437</v>
       </c>
       <c r="B901" t="s">
-        <v>6044</v>
+        <v>5994</v>
       </c>
       <c r="C901" t="s">
-        <v>6095</v>
+        <v>6045</v>
       </c>
       <c r="D901" t="s">
         <v>1438</v>
@@ -57571,13 +57532,13 @@
         <v>1439</v>
       </c>
       <c r="I901" t="s">
-        <v>6104</v>
+        <v>6054</v>
       </c>
       <c r="J901" t="s">
-        <v>6057</v>
+        <v>6007</v>
       </c>
       <c r="K901" t="s">
-        <v>6058</v>
+        <v>6008</v>
       </c>
     </row>
     <row r="902" spans="1:14">
@@ -57585,7 +57546,7 @@
         <v>1445</v>
       </c>
       <c r="B902" t="s">
-        <v>6044</v>
+        <v>5994</v>
       </c>
       <c r="C902" t="s">
         <v>5603</v>
@@ -57597,13 +57558,13 @@
         <v>1447</v>
       </c>
       <c r="I902" t="s">
-        <v>6106</v>
+        <v>6056</v>
       </c>
       <c r="J902" t="s">
-        <v>6061</v>
+        <v>6011</v>
       </c>
       <c r="K902" t="s">
-        <v>6062</v>
+        <v>6012</v>
       </c>
     </row>
     <row r="903" spans="1:14">
@@ -57611,10 +57572,10 @@
         <v>1423</v>
       </c>
       <c r="B903" t="s">
+        <v>5994</v>
+      </c>
+      <c r="C903" t="s">
         <v>6044</v>
-      </c>
-      <c r="C903" t="s">
-        <v>6094</v>
       </c>
       <c r="D903" t="s">
         <v>1424</v>
@@ -57623,13 +57584,13 @@
         <v>1425</v>
       </c>
       <c r="I903" t="s">
-        <v>6100</v>
+        <v>6050</v>
       </c>
       <c r="J903" t="s">
-        <v>6049</v>
+        <v>5999</v>
       </c>
       <c r="K903" t="s">
-        <v>6050</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="904" spans="1:14">
@@ -57637,7 +57598,7 @@
         <v>1468</v>
       </c>
       <c r="B904" t="s">
-        <v>6044</v>
+        <v>5994</v>
       </c>
       <c r="C904" t="s">
         <v>5611</v>
@@ -57649,13 +57610,13 @@
         <v>1469</v>
       </c>
       <c r="I904" t="s">
-        <v>6112</v>
+        <v>6062</v>
       </c>
       <c r="J904" t="s">
-        <v>6073</v>
+        <v>6023</v>
       </c>
       <c r="K904" t="s">
-        <v>6074</v>
+        <v>6024</v>
       </c>
     </row>
     <row r="905" spans="1:14">
@@ -57663,7 +57624,7 @@
         <v>1441</v>
       </c>
       <c r="B905" t="s">
-        <v>6044</v>
+        <v>5994</v>
       </c>
       <c r="C905" t="s">
         <v>5602</v>
@@ -57675,13 +57636,13 @@
         <v>1443</v>
       </c>
       <c r="I905" t="s">
-        <v>6105</v>
+        <v>6055</v>
       </c>
       <c r="J905" t="s">
-        <v>6059</v>
+        <v>6009</v>
       </c>
       <c r="K905" t="s">
-        <v>6060</v>
+        <v>6010</v>
       </c>
     </row>
     <row r="906" spans="1:14">
@@ -57689,7 +57650,7 @@
         <v>1427</v>
       </c>
       <c r="B906" t="s">
-        <v>6044</v>
+        <v>5994</v>
       </c>
       <c r="C906" t="s">
         <v>5595</v>
@@ -57701,13 +57662,13 @@
         <v>1429</v>
       </c>
       <c r="I906" t="s">
-        <v>6101</v>
+        <v>6051</v>
       </c>
       <c r="J906" t="s">
-        <v>6051</v>
+        <v>6001</v>
       </c>
       <c r="K906" t="s">
-        <v>6052</v>
+        <v>6002</v>
       </c>
     </row>
     <row r="907" spans="1:14">
@@ -57715,7 +57676,7 @@
         <v>1477</v>
       </c>
       <c r="B907" t="s">
-        <v>6044</v>
+        <v>5994</v>
       </c>
       <c r="C907" t="s">
         <v>4026</v>
@@ -57727,13 +57688,13 @@
         <v>35</v>
       </c>
       <c r="I907" t="s">
-        <v>6114</v>
+        <v>6064</v>
       </c>
       <c r="J907" t="s">
-        <v>6077</v>
+        <v>6027</v>
       </c>
       <c r="K907" t="s">
-        <v>6078</v>
+        <v>6028</v>
       </c>
     </row>
     <row r="908" spans="1:14">
@@ -57741,7 +57702,7 @@
         <v>1435</v>
       </c>
       <c r="B908" t="s">
-        <v>6044</v>
+        <v>5994</v>
       </c>
       <c r="C908" t="s">
         <v>4042</v>
@@ -57753,82 +57714,82 @@
         <v>83</v>
       </c>
       <c r="I908" t="s">
-        <v>6103</v>
+        <v>6053</v>
       </c>
       <c r="J908" t="s">
-        <v>6055</v>
+        <v>6005</v>
       </c>
       <c r="K908" t="s">
-        <v>6056</v>
+        <v>6006</v>
       </c>
     </row>
     <row r="909" spans="1:14">
       <c r="A909" t="s">
-        <v>6079</v>
+        <v>6029</v>
       </c>
       <c r="B909" t="s">
-        <v>6080</v>
+        <v>6030</v>
       </c>
       <c r="C909" t="s">
-        <v>6096</v>
+        <v>6046</v>
       </c>
       <c r="D909" t="s">
-        <v>6081</v>
+        <v>6031</v>
       </c>
       <c r="E909" t="s">
-        <v>6082</v>
+        <v>6032</v>
       </c>
       <c r="L909" t="s">
-        <v>6117</v>
+        <v>6067</v>
       </c>
       <c r="M909" t="s">
-        <v>6083</v>
+        <v>6033</v>
       </c>
       <c r="N909" t="s">
-        <v>6084</v>
+        <v>6034</v>
       </c>
     </row>
     <row r="910" spans="1:14">
       <c r="A910" t="s">
-        <v>6085</v>
+        <v>6035</v>
       </c>
       <c r="B910" t="s">
-        <v>6080</v>
+        <v>6030</v>
       </c>
       <c r="C910" t="s">
-        <v>6097</v>
+        <v>6047</v>
       </c>
       <c r="D910" t="s">
-        <v>6086</v>
+        <v>6036</v>
       </c>
       <c r="E910" t="s">
-        <v>6087</v>
+        <v>6037</v>
       </c>
     </row>
     <row r="911" spans="1:14">
       <c r="A911" t="s">
-        <v>6088</v>
+        <v>6038</v>
       </c>
       <c r="B911" t="s">
-        <v>6089</v>
+        <v>6039</v>
       </c>
       <c r="C911" t="s">
-        <v>6115</v>
+        <v>6065</v>
       </c>
       <c r="D911" t="s">
-        <v>6090</v>
+        <v>6040</v>
       </c>
       <c r="E911" t="s">
-        <v>6091</v>
+        <v>6041</v>
       </c>
       <c r="F911" t="s">
-        <v>6116</v>
+        <v>6066</v>
       </c>
       <c r="G911" t="s">
-        <v>6092</v>
+        <v>6042</v>
       </c>
       <c r="H911" t="s">
-        <v>6093</v>
+        <v>6043</v>
       </c>
     </row>
     <row r="912" spans="1:14">
@@ -57868,22 +57829,22 @@
     </row>
     <row r="913" spans="1:26">
       <c r="A913" t="s">
-        <v>6118</v>
+        <v>6068</v>
       </c>
       <c r="B913" t="s">
-        <v>6119</v>
+        <v>6069</v>
       </c>
       <c r="C913" t="s">
-        <v>6439</v>
+        <v>6389</v>
       </c>
       <c r="D913" t="s">
-        <v>6120</v>
+        <v>6070</v>
       </c>
       <c r="E913" t="s">
-        <v>6121</v>
+        <v>6071</v>
       </c>
       <c r="F913" t="s">
-        <v>6485</v>
+        <v>6435</v>
       </c>
       <c r="G913" t="s">
         <v>1641</v>
@@ -57892,42 +57853,42 @@
         <v>1642</v>
       </c>
       <c r="L913" t="s">
-        <v>6500</v>
+        <v>6450</v>
       </c>
       <c r="M913" t="s">
-        <v>6122</v>
+        <v>6072</v>
       </c>
       <c r="N913" t="s">
-        <v>6123</v>
+        <v>6073</v>
       </c>
       <c r="O913" t="s">
-        <v>6774</v>
+        <v>6724</v>
       </c>
       <c r="P913" t="s">
-        <v>6124</v>
+        <v>6074</v>
       </c>
       <c r="Q913" t="s">
-        <v>6125</v>
+        <v>6075</v>
       </c>
     </row>
     <row r="914" spans="1:26">
       <c r="A914" t="s">
-        <v>6126</v>
+        <v>6076</v>
       </c>
       <c r="B914" t="s">
-        <v>6127</v>
+        <v>6077</v>
       </c>
       <c r="C914" t="s">
-        <v>6440</v>
+        <v>6390</v>
       </c>
       <c r="D914" t="s">
-        <v>6128</v>
+        <v>6078</v>
       </c>
       <c r="E914" t="s">
-        <v>6129</v>
+        <v>6079</v>
       </c>
       <c r="F914" t="s">
-        <v>6485</v>
+        <v>6435</v>
       </c>
       <c r="G914" t="s">
         <v>1641</v>
@@ -57936,129 +57897,129 @@
         <v>1642</v>
       </c>
       <c r="L914" t="s">
-        <v>6501</v>
+        <v>6451</v>
       </c>
       <c r="M914" t="s">
-        <v>6130</v>
+        <v>6080</v>
       </c>
       <c r="N914" t="s">
-        <v>6131</v>
+        <v>6081</v>
       </c>
       <c r="O914" t="s">
-        <v>6769</v>
+        <v>6719</v>
       </c>
       <c r="P914" t="s">
-        <v>6132</v>
+        <v>6082</v>
       </c>
       <c r="Q914" t="s">
-        <v>6133</v>
+        <v>6083</v>
       </c>
     </row>
     <row r="915" spans="1:26">
       <c r="A915" t="s">
-        <v>6140</v>
+        <v>6090</v>
       </c>
       <c r="B915" t="s">
-        <v>6135</v>
+        <v>6085</v>
       </c>
       <c r="C915" t="s">
-        <v>6442</v>
+        <v>6392</v>
       </c>
       <c r="D915" t="s">
-        <v>6141</v>
+        <v>6091</v>
       </c>
       <c r="E915" t="s">
-        <v>6142</v>
+        <v>6092</v>
       </c>
       <c r="O915" t="s">
-        <v>6767</v>
+        <v>6717</v>
       </c>
       <c r="P915" t="s">
-        <v>6143</v>
+        <v>6093</v>
       </c>
       <c r="Q915" t="s">
-        <v>6144</v>
+        <v>6094</v>
       </c>
       <c r="X915" t="s">
-        <v>6643</v>
+        <v>6593</v>
       </c>
       <c r="Y915" t="s">
-        <v>6145</v>
+        <v>6095</v>
       </c>
       <c r="Z915" t="s">
-        <v>6146</v>
+        <v>6096</v>
       </c>
     </row>
     <row r="916" spans="1:26">
       <c r="A916" t="s">
-        <v>6134</v>
+        <v>6084</v>
       </c>
       <c r="B916" t="s">
-        <v>6135</v>
+        <v>6085</v>
       </c>
       <c r="C916" t="s">
-        <v>6441</v>
+        <v>6391</v>
       </c>
       <c r="D916" t="s">
-        <v>6136</v>
+        <v>6086</v>
       </c>
       <c r="E916" t="s">
-        <v>6137</v>
+        <v>6087</v>
       </c>
       <c r="L916" t="s">
-        <v>6502</v>
+        <v>6452</v>
       </c>
       <c r="M916" t="s">
-        <v>6138</v>
+        <v>6088</v>
       </c>
       <c r="N916" t="s">
-        <v>6139</v>
+        <v>6089</v>
       </c>
     </row>
     <row r="917" spans="1:26">
       <c r="A917" t="s">
-        <v>6147</v>
+        <v>6097</v>
       </c>
       <c r="B917" t="s">
-        <v>6148</v>
+        <v>6098</v>
       </c>
       <c r="C917" t="s">
-        <v>6443</v>
+        <v>6393</v>
       </c>
       <c r="D917" t="s">
-        <v>6149</v>
+        <v>6099</v>
       </c>
       <c r="E917" t="s">
-        <v>6150</v>
+        <v>6100</v>
       </c>
       <c r="L917" t="s">
-        <v>6503</v>
+        <v>6453</v>
       </c>
       <c r="M917" t="s">
-        <v>6151</v>
+        <v>6101</v>
       </c>
       <c r="N917" t="s">
-        <v>6152</v>
+        <v>6102</v>
       </c>
     </row>
     <row r="918" spans="1:26">
       <c r="A918" t="s">
-        <v>6153</v>
+        <v>6103</v>
       </c>
       <c r="B918" t="s">
-        <v>6154</v>
+        <v>6104</v>
       </c>
       <c r="C918" t="s">
-        <v>6444</v>
+        <v>6394</v>
       </c>
       <c r="D918" t="s">
-        <v>6155</v>
+        <v>6105</v>
       </c>
       <c r="E918" t="s">
-        <v>6156</v>
+        <v>6106</v>
       </c>
       <c r="F918" t="s">
-        <v>6485</v>
+        <v>6435</v>
       </c>
       <c r="G918" t="s">
         <v>1641</v>
@@ -58067,364 +58028,364 @@
         <v>1642</v>
       </c>
       <c r="L918" t="s">
-        <v>6504</v>
+        <v>6454</v>
       </c>
       <c r="M918" t="s">
-        <v>6157</v>
+        <v>6107</v>
       </c>
       <c r="N918" t="s">
-        <v>6158</v>
+        <v>6108</v>
       </c>
       <c r="O918" t="s">
-        <v>6771</v>
+        <v>6721</v>
       </c>
       <c r="P918" t="s">
-        <v>6159</v>
+        <v>6109</v>
       </c>
       <c r="Q918" t="s">
-        <v>6160</v>
+        <v>6110</v>
       </c>
     </row>
     <row r="919" spans="1:26">
       <c r="A919" t="s">
-        <v>6161</v>
+        <v>6111</v>
       </c>
       <c r="B919" t="s">
-        <v>6154</v>
+        <v>6104</v>
       </c>
       <c r="C919" t="s">
-        <v>6445</v>
+        <v>6395</v>
       </c>
       <c r="D919" t="s">
-        <v>6162</v>
+        <v>6112</v>
       </c>
       <c r="E919" t="s">
-        <v>6163</v>
+        <v>6113</v>
       </c>
       <c r="L919" t="s">
-        <v>6505</v>
+        <v>6455</v>
       </c>
       <c r="M919" t="s">
-        <v>6164</v>
+        <v>6114</v>
       </c>
       <c r="N919" t="s">
-        <v>6165</v>
+        <v>6115</v>
       </c>
     </row>
     <row r="920" spans="1:26">
       <c r="A920" t="s">
-        <v>6177</v>
+        <v>6127</v>
       </c>
       <c r="B920" t="s">
-        <v>6167</v>
+        <v>6117</v>
       </c>
       <c r="C920" t="s">
-        <v>6448</v>
+        <v>6398</v>
       </c>
       <c r="D920" t="s">
-        <v>6178</v>
+        <v>6128</v>
       </c>
       <c r="E920" t="s">
-        <v>6179</v>
+        <v>6129</v>
       </c>
       <c r="L920" t="s">
-        <v>6508</v>
+        <v>6458</v>
       </c>
       <c r="M920" t="s">
-        <v>6180</v>
+        <v>6130</v>
       </c>
       <c r="N920" t="s">
-        <v>6181</v>
+        <v>6131</v>
       </c>
     </row>
     <row r="921" spans="1:26">
       <c r="A921" t="s">
-        <v>6182</v>
+        <v>6132</v>
       </c>
       <c r="B921" t="s">
-        <v>6167</v>
+        <v>6117</v>
       </c>
       <c r="C921" t="s">
-        <v>6449</v>
+        <v>6399</v>
       </c>
       <c r="D921" t="s">
-        <v>6183</v>
+        <v>6133</v>
       </c>
       <c r="E921" t="s">
-        <v>6184</v>
+        <v>6134</v>
       </c>
       <c r="L921" t="s">
-        <v>6509</v>
+        <v>6459</v>
       </c>
       <c r="M921" t="s">
-        <v>6185</v>
+        <v>6135</v>
       </c>
       <c r="N921" t="s">
-        <v>6186</v>
+        <v>6136</v>
       </c>
     </row>
     <row r="922" spans="1:26">
       <c r="A922" t="s">
-        <v>6172</v>
+        <v>6122</v>
       </c>
       <c r="B922" t="s">
-        <v>6167</v>
+        <v>6117</v>
       </c>
       <c r="C922" t="s">
-        <v>6447</v>
+        <v>6397</v>
       </c>
       <c r="D922" t="s">
-        <v>6174</v>
+        <v>6124</v>
       </c>
       <c r="E922" t="s">
-        <v>6173</v>
+        <v>6123</v>
       </c>
       <c r="L922" t="s">
-        <v>6507</v>
+        <v>6457</v>
       </c>
       <c r="M922" t="s">
-        <v>6175</v>
+        <v>6125</v>
       </c>
       <c r="N922" t="s">
-        <v>6176</v>
+        <v>6126</v>
       </c>
     </row>
     <row r="923" spans="1:26">
       <c r="A923" t="s">
-        <v>6166</v>
+        <v>6116</v>
       </c>
       <c r="B923" t="s">
-        <v>6167</v>
+        <v>6117</v>
       </c>
       <c r="C923" t="s">
-        <v>6446</v>
+        <v>6396</v>
       </c>
       <c r="D923" t="s">
-        <v>6168</v>
+        <v>6118</v>
       </c>
       <c r="E923" t="s">
-        <v>6169</v>
+        <v>6119</v>
       </c>
       <c r="L923" t="s">
-        <v>6506</v>
+        <v>6456</v>
       </c>
       <c r="M923" t="s">
-        <v>6170</v>
+        <v>6120</v>
       </c>
       <c r="N923" t="s">
-        <v>6171</v>
+        <v>6121</v>
       </c>
     </row>
     <row r="924" spans="1:26">
       <c r="A924" t="s">
-        <v>6203</v>
+        <v>6153</v>
       </c>
       <c r="B924" t="s">
-        <v>6188</v>
+        <v>6138</v>
       </c>
       <c r="C924" t="s">
-        <v>6453</v>
+        <v>6403</v>
       </c>
       <c r="D924" t="s">
-        <v>6204</v>
+        <v>6154</v>
       </c>
       <c r="E924" t="s">
-        <v>6205</v>
+        <v>6155</v>
       </c>
       <c r="F924" t="s">
-        <v>6486</v>
+        <v>6436</v>
       </c>
       <c r="G924" t="s">
-        <v>6206</v>
+        <v>6156</v>
       </c>
       <c r="H924" t="s">
-        <v>6207</v>
+        <v>6157</v>
       </c>
       <c r="O924" t="s">
-        <v>6772</v>
+        <v>6722</v>
       </c>
       <c r="P924" t="s">
-        <v>6208</v>
+        <v>6158</v>
       </c>
       <c r="Q924" t="s">
-        <v>6209</v>
+        <v>6159</v>
       </c>
     </row>
     <row r="925" spans="1:26">
       <c r="A925" t="s">
-        <v>6198</v>
+        <v>6148</v>
       </c>
       <c r="B925" t="s">
-        <v>6188</v>
+        <v>6138</v>
       </c>
       <c r="C925" t="s">
-        <v>6452</v>
+        <v>6402</v>
       </c>
       <c r="D925" t="s">
-        <v>6199</v>
+        <v>6149</v>
       </c>
       <c r="E925" t="s">
-        <v>6200</v>
+        <v>6150</v>
       </c>
       <c r="L925" t="s">
-        <v>6512</v>
+        <v>6462</v>
       </c>
       <c r="M925" t="s">
-        <v>6201</v>
+        <v>6151</v>
       </c>
       <c r="N925" t="s">
-        <v>6202</v>
+        <v>6152</v>
       </c>
     </row>
     <row r="926" spans="1:26">
       <c r="A926" t="s">
-        <v>6193</v>
+        <v>6143</v>
       </c>
       <c r="B926" t="s">
-        <v>6188</v>
+        <v>6138</v>
       </c>
       <c r="C926" t="s">
-        <v>6451</v>
+        <v>6401</v>
       </c>
       <c r="D926" t="s">
-        <v>6194</v>
+        <v>6144</v>
       </c>
       <c r="E926" t="s">
-        <v>6195</v>
+        <v>6145</v>
       </c>
       <c r="L926" t="s">
-        <v>6511</v>
+        <v>6461</v>
       </c>
       <c r="M926" t="s">
-        <v>6196</v>
+        <v>6146</v>
       </c>
       <c r="N926" t="s">
-        <v>6197</v>
+        <v>6147</v>
       </c>
     </row>
     <row r="927" spans="1:26">
       <c r="A927" t="s">
-        <v>6187</v>
+        <v>6137</v>
       </c>
       <c r="B927" t="s">
-        <v>6188</v>
+        <v>6138</v>
       </c>
       <c r="C927" t="s">
-        <v>6450</v>
+        <v>6400</v>
       </c>
       <c r="D927" t="s">
-        <v>6189</v>
+        <v>6139</v>
       </c>
       <c r="E927" t="s">
-        <v>6190</v>
+        <v>6140</v>
       </c>
       <c r="L927" t="s">
-        <v>6510</v>
+        <v>6460</v>
       </c>
       <c r="M927" t="s">
-        <v>6191</v>
+        <v>6141</v>
       </c>
       <c r="N927" t="s">
-        <v>6192</v>
+        <v>6142</v>
       </c>
     </row>
     <row r="928" spans="1:26">
       <c r="A928" t="s">
-        <v>6210</v>
+        <v>6160</v>
       </c>
       <c r="B928" t="s">
-        <v>6211</v>
+        <v>6161</v>
       </c>
       <c r="C928" t="s">
-        <v>6454</v>
+        <v>6404</v>
       </c>
       <c r="D928" t="s">
-        <v>6212</v>
+        <v>6162</v>
       </c>
       <c r="E928" t="s">
-        <v>6213</v>
+        <v>6163</v>
       </c>
       <c r="O928" t="s">
-        <v>6780</v>
+        <v>6730</v>
       </c>
       <c r="P928" t="s">
-        <v>6214</v>
+        <v>6164</v>
       </c>
       <c r="Q928" t="s">
-        <v>6215</v>
+        <v>6165</v>
       </c>
       <c r="X928" t="s">
-        <v>6644</v>
+        <v>6594</v>
       </c>
       <c r="Y928" t="s">
-        <v>6216</v>
+        <v>6166</v>
       </c>
       <c r="Z928" t="s">
-        <v>6217</v>
+        <v>6167</v>
       </c>
     </row>
     <row r="929" spans="1:23">
       <c r="A929" t="s">
-        <v>6233</v>
+        <v>6183</v>
       </c>
       <c r="B929" t="s">
-        <v>6219</v>
+        <v>6169</v>
       </c>
       <c r="C929" t="s">
-        <v>6457</v>
+        <v>6407</v>
       </c>
       <c r="D929" t="s">
-        <v>6234</v>
+        <v>6184</v>
       </c>
       <c r="E929" t="s">
-        <v>6235</v>
+        <v>6185</v>
       </c>
       <c r="F929" t="s">
-        <v>6487</v>
+        <v>6437</v>
       </c>
       <c r="G929" t="s">
-        <v>6236</v>
+        <v>6186</v>
       </c>
       <c r="H929" t="s">
-        <v>6237</v>
+        <v>6187</v>
       </c>
       <c r="L929" t="s">
-        <v>6515</v>
+        <v>6465</v>
       </c>
       <c r="M929" t="s">
-        <v>6238</v>
+        <v>6188</v>
       </c>
       <c r="N929" t="s">
-        <v>6239</v>
+        <v>6189</v>
       </c>
       <c r="O929" t="s">
-        <v>6766</v>
+        <v>6716</v>
       </c>
       <c r="P929" t="s">
-        <v>6240</v>
+        <v>6190</v>
       </c>
       <c r="Q929" t="s">
-        <v>6241</v>
+        <v>6191</v>
       </c>
     </row>
     <row r="930" spans="1:23">
       <c r="A930" t="s">
-        <v>6218</v>
+        <v>6168</v>
       </c>
       <c r="B930" t="s">
-        <v>6219</v>
+        <v>6169</v>
       </c>
       <c r="C930" t="s">
-        <v>6455</v>
+        <v>6405</v>
       </c>
       <c r="D930" t="s">
-        <v>6221</v>
+        <v>6171</v>
       </c>
       <c r="E930" t="s">
-        <v>6220</v>
+        <v>6170</v>
       </c>
       <c r="F930" t="s">
-        <v>6485</v>
+        <v>6435</v>
       </c>
       <c r="G930" t="s">
         <v>1641</v>
@@ -58433,42 +58394,42 @@
         <v>1642</v>
       </c>
       <c r="L930" t="s">
-        <v>6513</v>
+        <v>6463</v>
       </c>
       <c r="M930" t="s">
-        <v>6222</v>
+        <v>6172</v>
       </c>
       <c r="N930" t="s">
-        <v>6223</v>
+        <v>6173</v>
       </c>
       <c r="O930" t="s">
-        <v>6782</v>
+        <v>6732</v>
       </c>
       <c r="P930" t="s">
-        <v>6224</v>
+        <v>6174</v>
       </c>
       <c r="Q930" t="s">
-        <v>6225</v>
+        <v>6175</v>
       </c>
     </row>
     <row r="931" spans="1:23">
       <c r="A931" t="s">
-        <v>6226</v>
+        <v>6176</v>
       </c>
       <c r="B931" t="s">
-        <v>6219</v>
+        <v>6169</v>
       </c>
       <c r="C931" t="s">
-        <v>6456</v>
+        <v>6406</v>
       </c>
       <c r="D931" t="s">
-        <v>6227</v>
+        <v>6177</v>
       </c>
       <c r="E931" t="s">
-        <v>6228</v>
+        <v>6178</v>
       </c>
       <c r="F931" t="s">
-        <v>6485</v>
+        <v>6435</v>
       </c>
       <c r="G931" t="s">
         <v>1641</v>
@@ -58477,94 +58438,94 @@
         <v>1642</v>
       </c>
       <c r="L931" t="s">
-        <v>6514</v>
+        <v>6464</v>
       </c>
       <c r="M931" t="s">
-        <v>6229</v>
+        <v>6179</v>
       </c>
       <c r="N931" t="s">
-        <v>6230</v>
+        <v>6180</v>
       </c>
       <c r="O931" t="s">
-        <v>6783</v>
+        <v>6733</v>
       </c>
       <c r="P931" t="s">
-        <v>6231</v>
+        <v>6181</v>
       </c>
       <c r="Q931" t="s">
-        <v>6232</v>
+        <v>6182</v>
       </c>
     </row>
     <row r="932" spans="1:23">
       <c r="A932" t="s">
-        <v>6242</v>
+        <v>6192</v>
       </c>
       <c r="B932" t="s">
-        <v>6219</v>
+        <v>6169</v>
       </c>
       <c r="C932" t="s">
-        <v>6458</v>
+        <v>6408</v>
       </c>
       <c r="D932" t="s">
-        <v>6243</v>
+        <v>6193</v>
       </c>
       <c r="E932" t="s">
-        <v>6244</v>
+        <v>6194</v>
       </c>
       <c r="L932" t="s">
-        <v>6516</v>
+        <v>6466</v>
       </c>
       <c r="M932" t="s">
-        <v>6245</v>
+        <v>6195</v>
       </c>
       <c r="N932" t="s">
-        <v>6246</v>
+        <v>6196</v>
       </c>
     </row>
     <row r="933" spans="1:23">
       <c r="A933" t="s">
-        <v>6247</v>
+        <v>6197</v>
       </c>
       <c r="B933" t="s">
-        <v>6248</v>
+        <v>6198</v>
       </c>
       <c r="C933" t="s">
-        <v>6459</v>
+        <v>6409</v>
       </c>
       <c r="D933" t="s">
-        <v>6249</v>
+        <v>6199</v>
       </c>
       <c r="E933" t="s">
-        <v>6250</v>
+        <v>6200</v>
       </c>
       <c r="L933" t="s">
-        <v>6517</v>
+        <v>6467</v>
       </c>
       <c r="M933" t="s">
-        <v>6251</v>
+        <v>6201</v>
       </c>
       <c r="N933" t="s">
-        <v>6252</v>
+        <v>6202</v>
       </c>
     </row>
     <row r="934" spans="1:23">
       <c r="A934" t="s">
-        <v>6253</v>
+        <v>6203</v>
       </c>
       <c r="B934" t="s">
-        <v>6254</v>
+        <v>6204</v>
       </c>
       <c r="C934" t="s">
-        <v>6460</v>
+        <v>6410</v>
       </c>
       <c r="D934" t="s">
-        <v>6255</v>
+        <v>6205</v>
       </c>
       <c r="E934" t="s">
-        <v>6256</v>
+        <v>6206</v>
       </c>
       <c r="F934" t="s">
-        <v>6485</v>
+        <v>6435</v>
       </c>
       <c r="G934" t="s">
         <v>1641</v>
@@ -58573,42 +58534,42 @@
         <v>1642</v>
       </c>
       <c r="L934" t="s">
-        <v>6519</v>
+        <v>6469</v>
       </c>
       <c r="M934" t="s">
-        <v>6257</v>
+        <v>6207</v>
       </c>
       <c r="N934" t="s">
-        <v>6258</v>
+        <v>6208</v>
       </c>
       <c r="O934" t="s">
-        <v>6775</v>
+        <v>6725</v>
       </c>
       <c r="P934" t="s">
-        <v>6259</v>
+        <v>6209</v>
       </c>
       <c r="Q934" t="s">
-        <v>6260</v>
+        <v>6210</v>
       </c>
     </row>
     <row r="935" spans="1:23">
       <c r="A935" t="s">
-        <v>6261</v>
+        <v>6211</v>
       </c>
       <c r="B935" t="s">
-        <v>6262</v>
+        <v>6212</v>
       </c>
       <c r="C935" t="s">
-        <v>6264</v>
+        <v>6214</v>
       </c>
       <c r="D935" t="s">
-        <v>6264</v>
+        <v>6214</v>
       </c>
       <c r="E935" t="s">
-        <v>6263</v>
+        <v>6213</v>
       </c>
       <c r="F935" t="s">
-        <v>6485</v>
+        <v>6435</v>
       </c>
       <c r="G935" t="s">
         <v>1641</v>
@@ -58617,100 +58578,100 @@
         <v>1642</v>
       </c>
       <c r="L935" t="s">
-        <v>6518</v>
+        <v>6468</v>
       </c>
       <c r="M935" t="s">
-        <v>6265</v>
+        <v>6215</v>
       </c>
       <c r="N935" t="s">
-        <v>6266</v>
+        <v>6216</v>
       </c>
       <c r="O935" t="s">
-        <v>6781</v>
+        <v>6731</v>
       </c>
       <c r="P935" t="s">
-        <v>6267</v>
+        <v>6217</v>
       </c>
       <c r="Q935" t="s">
-        <v>6268</v>
+        <v>6218</v>
       </c>
     </row>
     <row r="936" spans="1:23">
       <c r="A936" t="s">
-        <v>6269</v>
+        <v>6219</v>
       </c>
       <c r="B936" t="s">
-        <v>6262</v>
+        <v>6212</v>
       </c>
       <c r="C936" t="s">
-        <v>6461</v>
+        <v>6411</v>
       </c>
       <c r="D936" t="s">
-        <v>6270</v>
+        <v>6220</v>
       </c>
       <c r="E936" t="s">
-        <v>6271</v>
+        <v>6221</v>
       </c>
     </row>
     <row r="937" spans="1:23">
       <c r="A937" t="s">
-        <v>6272</v>
+        <v>6222</v>
       </c>
       <c r="B937" t="s">
-        <v>6262</v>
+        <v>6212</v>
       </c>
       <c r="C937" t="s">
-        <v>6462</v>
+        <v>6412</v>
       </c>
       <c r="D937" t="s">
-        <v>6273</v>
+        <v>6223</v>
       </c>
       <c r="E937" t="s">
-        <v>6274</v>
+        <v>6224</v>
       </c>
     </row>
     <row r="938" spans="1:23">
       <c r="A938" t="s">
-        <v>6275</v>
+        <v>6225</v>
       </c>
       <c r="B938" t="s">
-        <v>6276</v>
+        <v>6226</v>
       </c>
       <c r="C938" t="s">
-        <v>6463</v>
+        <v>6413</v>
       </c>
       <c r="D938" t="s">
-        <v>6277</v>
+        <v>6227</v>
       </c>
       <c r="E938" t="s">
-        <v>6278</v>
+        <v>6228</v>
       </c>
       <c r="F938" t="s">
-        <v>6488</v>
+        <v>6438</v>
       </c>
       <c r="G938" t="s">
-        <v>6279</v>
+        <v>6229</v>
       </c>
       <c r="H938" t="s">
-        <v>6280</v>
+        <v>6230</v>
       </c>
       <c r="L938" t="s">
-        <v>6520</v>
+        <v>6470</v>
       </c>
       <c r="M938" t="s">
-        <v>6281</v>
+        <v>6231</v>
       </c>
       <c r="N938" t="s">
-        <v>6282</v>
+        <v>6232</v>
       </c>
       <c r="O938" t="s">
-        <v>6768</v>
+        <v>6718</v>
       </c>
       <c r="P938" t="s">
-        <v>6283</v>
+        <v>6233</v>
       </c>
       <c r="Q938" t="s">
-        <v>6284</v>
+        <v>6234</v>
       </c>
     </row>
     <row r="939" spans="1:23">
@@ -58718,19 +58679,19 @@
         <v>1514</v>
       </c>
       <c r="B939" t="s">
-        <v>6276</v>
+        <v>6226</v>
       </c>
       <c r="C939" t="s">
-        <v>6464</v>
+        <v>6414</v>
       </c>
       <c r="D939" t="s">
         <v>1515</v>
       </c>
       <c r="E939" t="s">
-        <v>6285</v>
+        <v>6235</v>
       </c>
       <c r="F939" t="s">
-        <v>6489</v>
+        <v>6439</v>
       </c>
       <c r="G939" t="s">
         <v>1517</v>
@@ -58741,22 +58702,22 @@
     </row>
     <row r="940" spans="1:23">
       <c r="A940" t="s">
-        <v>6286</v>
+        <v>6236</v>
       </c>
       <c r="B940" t="s">
-        <v>6287</v>
+        <v>6237</v>
       </c>
       <c r="C940" t="s">
-        <v>6465</v>
+        <v>6415</v>
       </c>
       <c r="D940" t="s">
-        <v>6289</v>
+        <v>6239</v>
       </c>
       <c r="E940" t="s">
-        <v>6288</v>
+        <v>6238</v>
       </c>
       <c r="F940" t="s">
-        <v>6490</v>
+        <v>6440</v>
       </c>
       <c r="G940" t="s">
         <v>1622</v>
@@ -58765,60 +58726,60 @@
         <v>1623</v>
       </c>
       <c r="L940" t="s">
-        <v>6521</v>
+        <v>6471</v>
       </c>
       <c r="M940" t="s">
-        <v>6290</v>
+        <v>6240</v>
       </c>
       <c r="N940" t="s">
-        <v>6291</v>
+        <v>6241</v>
       </c>
       <c r="O940" t="s">
-        <v>6777</v>
+        <v>6727</v>
       </c>
       <c r="P940" t="s">
-        <v>6292</v>
+        <v>6242</v>
       </c>
       <c r="Q940" t="s">
-        <v>6293</v>
+        <v>6243</v>
       </c>
       <c r="R940" t="s">
-        <v>6639</v>
+        <v>6589</v>
       </c>
       <c r="S940" t="s">
-        <v>6294</v>
+        <v>6244</v>
       </c>
       <c r="T940" t="s">
-        <v>6295</v>
+        <v>6245</v>
       </c>
       <c r="U940" t="s">
-        <v>6641</v>
+        <v>6591</v>
       </c>
       <c r="V940" t="s">
-        <v>6296</v>
+        <v>6246</v>
       </c>
       <c r="W940" t="s">
-        <v>6297</v>
+        <v>6247</v>
       </c>
     </row>
     <row r="941" spans="1:23">
       <c r="A941" t="s">
-        <v>6298</v>
+        <v>6248</v>
       </c>
       <c r="B941" t="s">
-        <v>6287</v>
+        <v>6237</v>
       </c>
       <c r="C941" t="s">
-        <v>6466</v>
+        <v>6416</v>
       </c>
       <c r="D941" t="s">
-        <v>6299</v>
+        <v>6249</v>
       </c>
       <c r="E941" t="s">
-        <v>6300</v>
+        <v>6250</v>
       </c>
       <c r="F941" t="s">
-        <v>6490</v>
+        <v>6440</v>
       </c>
       <c r="G941" t="s">
         <v>1622</v>
@@ -58827,75 +58788,75 @@
         <v>1623</v>
       </c>
       <c r="L941" t="s">
-        <v>6522</v>
+        <v>6472</v>
       </c>
       <c r="M941" t="s">
-        <v>6301</v>
+        <v>6251</v>
       </c>
       <c r="N941" t="s">
-        <v>6302</v>
+        <v>6252</v>
       </c>
       <c r="O941" t="s">
-        <v>6778</v>
+        <v>6728</v>
       </c>
       <c r="P941" t="s">
-        <v>6303</v>
+        <v>6253</v>
       </c>
       <c r="Q941" t="s">
-        <v>6304</v>
+        <v>6254</v>
       </c>
       <c r="R941" t="s">
-        <v>6640</v>
+        <v>6590</v>
       </c>
       <c r="S941" t="s">
-        <v>6305</v>
+        <v>6255</v>
       </c>
       <c r="T941" t="s">
-        <v>6306</v>
+        <v>6256</v>
       </c>
       <c r="U941" t="s">
-        <v>6642</v>
+        <v>6592</v>
       </c>
       <c r="V941" t="s">
-        <v>6307</v>
+        <v>6257</v>
       </c>
       <c r="W941" t="s">
-        <v>6308</v>
+        <v>6258</v>
       </c>
     </row>
     <row r="942" spans="1:23">
       <c r="A942" t="s">
-        <v>6309</v>
+        <v>6259</v>
       </c>
       <c r="B942" t="s">
-        <v>6287</v>
+        <v>6237</v>
       </c>
       <c r="C942" t="s">
-        <v>6467</v>
+        <v>6417</v>
       </c>
       <c r="D942" t="s">
-        <v>6310</v>
+        <v>6260</v>
       </c>
       <c r="E942" t="s">
-        <v>6311</v>
+        <v>6261</v>
       </c>
       <c r="F942" t="s">
-        <v>6491</v>
+        <v>6441</v>
       </c>
       <c r="G942" t="s">
-        <v>6312</v>
+        <v>6262</v>
       </c>
       <c r="H942" t="s">
-        <v>6313</v>
+        <v>6263</v>
       </c>
       <c r="O942" t="s">
-        <v>6773</v>
+        <v>6723</v>
       </c>
       <c r="P942" t="s">
-        <v>6314</v>
+        <v>6264</v>
       </c>
       <c r="Q942" t="s">
-        <v>6315</v>
+        <v>6265</v>
       </c>
     </row>
     <row r="943" spans="1:23">
@@ -58903,10 +58864,10 @@
         <v>1646</v>
       </c>
       <c r="B943" t="s">
-        <v>6316</v>
+        <v>6266</v>
       </c>
       <c r="C943" t="s">
-        <v>6468</v>
+        <v>6418</v>
       </c>
       <c r="D943" t="s">
         <v>1647</v>
@@ -58915,7 +58876,7 @@
         <v>1648</v>
       </c>
       <c r="F943" t="s">
-        <v>6485</v>
+        <v>6435</v>
       </c>
       <c r="G943" t="s">
         <v>1641</v>
@@ -58933,39 +58894,39 @@
         <v>1650</v>
       </c>
       <c r="O943" t="s">
-        <v>6784</v>
+        <v>6734</v>
       </c>
       <c r="P943" t="s">
-        <v>6317</v>
+        <v>6267</v>
       </c>
       <c r="Q943" t="s">
-        <v>6318</v>
+        <v>6268</v>
       </c>
     </row>
     <row r="944" spans="1:23">
       <c r="A944" t="s">
-        <v>6319</v>
+        <v>6269</v>
       </c>
       <c r="B944" t="s">
-        <v>6320</v>
+        <v>6270</v>
       </c>
       <c r="C944" t="s">
-        <v>6469</v>
+        <v>6419</v>
       </c>
       <c r="D944" t="s">
-        <v>6321</v>
+        <v>6271</v>
       </c>
       <c r="E944" t="s">
-        <v>6322</v>
+        <v>6272</v>
       </c>
       <c r="L944" t="s">
-        <v>6523</v>
+        <v>6473</v>
       </c>
       <c r="M944" t="s">
-        <v>6323</v>
+        <v>6273</v>
       </c>
       <c r="N944" t="s">
-        <v>6324</v>
+        <v>6274</v>
       </c>
     </row>
     <row r="945" spans="1:17">
@@ -58973,7 +58934,7 @@
         <v>3758</v>
       </c>
       <c r="B945" t="s">
-        <v>6326</v>
+        <v>6276</v>
       </c>
       <c r="C945" t="s">
         <v>4904</v>
@@ -58985,42 +58946,42 @@
         <v>3760</v>
       </c>
       <c r="F945" t="s">
-        <v>6493</v>
+        <v>6443</v>
       </c>
       <c r="G945" t="s">
-        <v>6329</v>
+        <v>6279</v>
       </c>
       <c r="H945" t="s">
-        <v>6330</v>
+        <v>6280</v>
       </c>
       <c r="O945" t="s">
-        <v>6770</v>
+        <v>6720</v>
       </c>
       <c r="P945" t="s">
-        <v>6331</v>
+        <v>6281</v>
       </c>
       <c r="Q945" t="s">
-        <v>6332</v>
+        <v>6282</v>
       </c>
     </row>
     <row r="946" spans="1:17">
       <c r="A946" t="s">
-        <v>6325</v>
+        <v>6275</v>
       </c>
       <c r="B946" t="s">
-        <v>6326</v>
+        <v>6276</v>
       </c>
       <c r="C946" t="s">
-        <v>6470</v>
+        <v>6420</v>
       </c>
       <c r="D946" t="s">
-        <v>6327</v>
+        <v>6277</v>
       </c>
       <c r="E946" t="s">
-        <v>6328</v>
+        <v>6278</v>
       </c>
       <c r="F946" t="s">
-        <v>6492</v>
+        <v>6442</v>
       </c>
       <c r="G946" t="s">
         <v>3716</v>
@@ -59031,490 +58992,490 @@
     </row>
     <row r="947" spans="1:17">
       <c r="A947" t="s">
-        <v>6333</v>
+        <v>6283</v>
       </c>
       <c r="B947" t="s">
-        <v>6334</v>
+        <v>6284</v>
       </c>
       <c r="C947" t="s">
-        <v>6471</v>
+        <v>6421</v>
       </c>
       <c r="D947" t="s">
         <v>3416</v>
       </c>
       <c r="E947" t="s">
-        <v>6335</v>
+        <v>6285</v>
       </c>
       <c r="F947" t="s">
-        <v>6494</v>
+        <v>6444</v>
       </c>
       <c r="G947" t="s">
-        <v>6336</v>
+        <v>6286</v>
       </c>
       <c r="H947" t="s">
-        <v>6337</v>
+        <v>6287</v>
       </c>
     </row>
     <row r="948" spans="1:17">
       <c r="A948" t="s">
-        <v>6338</v>
+        <v>6288</v>
       </c>
       <c r="B948" t="s">
-        <v>6334</v>
+        <v>6284</v>
       </c>
       <c r="C948" t="s">
-        <v>6471</v>
+        <v>6421</v>
       </c>
       <c r="D948" t="s">
         <v>3416</v>
       </c>
       <c r="E948" t="s">
-        <v>6335</v>
+        <v>6285</v>
       </c>
       <c r="F948" t="s">
-        <v>6494</v>
+        <v>6444</v>
       </c>
       <c r="G948" t="s">
-        <v>6336</v>
+        <v>6286</v>
       </c>
       <c r="H948" t="s">
-        <v>6337</v>
+        <v>6287</v>
       </c>
     </row>
     <row r="949" spans="1:17">
       <c r="A949" t="s">
-        <v>6339</v>
+        <v>6289</v>
       </c>
       <c r="B949" t="s">
-        <v>6334</v>
+        <v>6284</v>
       </c>
       <c r="C949" t="s">
-        <v>6471</v>
+        <v>6421</v>
       </c>
       <c r="D949" t="s">
         <v>3416</v>
       </c>
       <c r="E949" t="s">
-        <v>6335</v>
+        <v>6285</v>
       </c>
       <c r="F949" t="s">
-        <v>6494</v>
+        <v>6444</v>
       </c>
       <c r="G949" t="s">
-        <v>6336</v>
+        <v>6286</v>
       </c>
       <c r="H949" t="s">
-        <v>6337</v>
+        <v>6287</v>
       </c>
     </row>
     <row r="950" spans="1:17">
       <c r="A950" t="s">
-        <v>6340</v>
+        <v>6290</v>
       </c>
       <c r="B950" t="s">
-        <v>6334</v>
+        <v>6284</v>
       </c>
       <c r="C950" t="s">
-        <v>6471</v>
+        <v>6421</v>
       </c>
       <c r="D950" t="s">
         <v>3416</v>
       </c>
       <c r="E950" t="s">
-        <v>6335</v>
+        <v>6285</v>
       </c>
       <c r="F950" t="s">
-        <v>6494</v>
+        <v>6444</v>
       </c>
       <c r="G950" t="s">
-        <v>6336</v>
+        <v>6286</v>
       </c>
       <c r="H950" t="s">
-        <v>6337</v>
+        <v>6287</v>
       </c>
     </row>
     <row r="951" spans="1:17">
       <c r="A951" t="s">
-        <v>6341</v>
+        <v>6291</v>
       </c>
       <c r="B951" t="s">
-        <v>6334</v>
+        <v>6284</v>
       </c>
       <c r="C951" t="s">
-        <v>6471</v>
+        <v>6421</v>
       </c>
       <c r="D951" t="s">
         <v>3416</v>
       </c>
       <c r="E951" t="s">
-        <v>6335</v>
+        <v>6285</v>
       </c>
       <c r="F951" t="s">
-        <v>6494</v>
+        <v>6444</v>
       </c>
       <c r="G951" t="s">
-        <v>6336</v>
+        <v>6286</v>
       </c>
       <c r="H951" t="s">
-        <v>6337</v>
+        <v>6287</v>
       </c>
     </row>
     <row r="952" spans="1:17">
       <c r="A952" t="s">
-        <v>6342</v>
+        <v>6292</v>
       </c>
       <c r="B952" t="s">
-        <v>6334</v>
+        <v>6284</v>
       </c>
       <c r="C952" t="s">
-        <v>6471</v>
+        <v>6421</v>
       </c>
       <c r="D952" t="s">
         <v>3416</v>
       </c>
       <c r="E952" t="s">
-        <v>6335</v>
+        <v>6285</v>
       </c>
       <c r="F952" t="s">
-        <v>6494</v>
+        <v>6444</v>
       </c>
       <c r="G952" t="s">
-        <v>6336</v>
+        <v>6286</v>
       </c>
       <c r="H952" t="s">
-        <v>6337</v>
+        <v>6287</v>
       </c>
     </row>
     <row r="953" spans="1:17">
       <c r="A953" t="s">
-        <v>6343</v>
+        <v>6293</v>
       </c>
       <c r="B953" t="s">
-        <v>6334</v>
+        <v>6284</v>
       </c>
       <c r="C953" t="s">
-        <v>6471</v>
+        <v>6421</v>
       </c>
       <c r="D953" t="s">
         <v>3416</v>
       </c>
       <c r="E953" t="s">
-        <v>6335</v>
+        <v>6285</v>
       </c>
       <c r="F953" t="s">
-        <v>6494</v>
+        <v>6444</v>
       </c>
       <c r="G953" t="s">
-        <v>6336</v>
+        <v>6286</v>
       </c>
       <c r="H953" t="s">
-        <v>6337</v>
+        <v>6287</v>
       </c>
     </row>
     <row r="954" spans="1:17">
       <c r="A954" t="s">
-        <v>6344</v>
+        <v>6294</v>
       </c>
       <c r="B954" t="s">
-        <v>6334</v>
+        <v>6284</v>
       </c>
       <c r="C954" t="s">
-        <v>6471</v>
+        <v>6421</v>
       </c>
       <c r="D954" t="s">
         <v>3416</v>
       </c>
       <c r="E954" t="s">
-        <v>6335</v>
+        <v>6285</v>
       </c>
       <c r="F954" t="s">
-        <v>6494</v>
+        <v>6444</v>
       </c>
       <c r="G954" t="s">
-        <v>6336</v>
+        <v>6286</v>
       </c>
       <c r="H954" t="s">
-        <v>6337</v>
+        <v>6287</v>
       </c>
     </row>
     <row r="955" spans="1:17">
       <c r="A955" t="s">
-        <v>6345</v>
+        <v>6295</v>
       </c>
       <c r="B955" t="s">
-        <v>6334</v>
+        <v>6284</v>
       </c>
       <c r="C955" t="s">
-        <v>6471</v>
+        <v>6421</v>
       </c>
       <c r="D955" t="s">
         <v>3416</v>
       </c>
       <c r="E955" t="s">
-        <v>6335</v>
+        <v>6285</v>
       </c>
       <c r="F955" t="s">
-        <v>6494</v>
+        <v>6444</v>
       </c>
       <c r="G955" t="s">
-        <v>6336</v>
+        <v>6286</v>
       </c>
       <c r="H955" t="s">
-        <v>6337</v>
+        <v>6287</v>
       </c>
     </row>
     <row r="956" spans="1:17">
       <c r="A956" t="s">
-        <v>6346</v>
+        <v>6296</v>
       </c>
       <c r="B956" t="s">
-        <v>6334</v>
+        <v>6284</v>
       </c>
       <c r="C956" t="s">
-        <v>6471</v>
+        <v>6421</v>
       </c>
       <c r="D956" t="s">
         <v>3416</v>
       </c>
       <c r="E956" t="s">
-        <v>6335</v>
+        <v>6285</v>
       </c>
       <c r="F956" t="s">
-        <v>6494</v>
+        <v>6444</v>
       </c>
       <c r="G956" t="s">
-        <v>6336</v>
+        <v>6286</v>
       </c>
       <c r="H956" t="s">
-        <v>6337</v>
+        <v>6287</v>
       </c>
     </row>
     <row r="957" spans="1:17">
       <c r="A957" t="s">
-        <v>6347</v>
+        <v>6297</v>
       </c>
       <c r="B957" t="s">
-        <v>6334</v>
+        <v>6284</v>
       </c>
       <c r="C957" t="s">
-        <v>6471</v>
+        <v>6421</v>
       </c>
       <c r="D957" t="s">
         <v>3416</v>
       </c>
       <c r="E957" t="s">
-        <v>6335</v>
+        <v>6285</v>
       </c>
       <c r="F957" t="s">
-        <v>6494</v>
+        <v>6444</v>
       </c>
       <c r="G957" t="s">
-        <v>6336</v>
+        <v>6286</v>
       </c>
       <c r="H957" t="s">
-        <v>6337</v>
+        <v>6287</v>
       </c>
     </row>
     <row r="958" spans="1:17">
       <c r="A958" t="s">
-        <v>6348</v>
+        <v>6298</v>
       </c>
       <c r="B958" t="s">
-        <v>6334</v>
+        <v>6284</v>
       </c>
       <c r="C958" t="s">
-        <v>6471</v>
+        <v>6421</v>
       </c>
       <c r="D958" t="s">
         <v>3416</v>
       </c>
       <c r="E958" t="s">
-        <v>6335</v>
+        <v>6285</v>
       </c>
       <c r="F958" t="s">
-        <v>6494</v>
+        <v>6444</v>
       </c>
       <c r="G958" t="s">
-        <v>6336</v>
+        <v>6286</v>
       </c>
       <c r="H958" t="s">
-        <v>6337</v>
+        <v>6287</v>
       </c>
     </row>
     <row r="959" spans="1:17">
       <c r="A959" t="s">
-        <v>6349</v>
+        <v>6299</v>
       </c>
       <c r="B959" t="s">
-        <v>6334</v>
+        <v>6284</v>
       </c>
       <c r="C959" t="s">
-        <v>6471</v>
+        <v>6421</v>
       </c>
       <c r="D959" t="s">
         <v>3416</v>
       </c>
       <c r="E959" t="s">
-        <v>6335</v>
+        <v>6285</v>
       </c>
       <c r="F959" t="s">
-        <v>6494</v>
+        <v>6444</v>
       </c>
       <c r="G959" t="s">
-        <v>6336</v>
+        <v>6286</v>
       </c>
       <c r="H959" t="s">
-        <v>6337</v>
+        <v>6287</v>
       </c>
     </row>
     <row r="960" spans="1:17">
       <c r="A960" t="s">
-        <v>6350</v>
+        <v>6300</v>
       </c>
       <c r="B960" t="s">
-        <v>6334</v>
+        <v>6284</v>
       </c>
       <c r="C960" t="s">
-        <v>6471</v>
+        <v>6421</v>
       </c>
       <c r="D960" t="s">
         <v>3416</v>
       </c>
       <c r="E960" t="s">
-        <v>6335</v>
+        <v>6285</v>
       </c>
       <c r="F960" t="s">
-        <v>6494</v>
+        <v>6444</v>
       </c>
       <c r="G960" t="s">
-        <v>6336</v>
+        <v>6286</v>
       </c>
       <c r="H960" t="s">
-        <v>6337</v>
+        <v>6287</v>
       </c>
     </row>
     <row r="961" spans="1:17">
       <c r="A961" t="s">
-        <v>6351</v>
+        <v>6301</v>
       </c>
       <c r="B961" t="s">
-        <v>6334</v>
+        <v>6284</v>
       </c>
       <c r="C961" t="s">
-        <v>6471</v>
+        <v>6421</v>
       </c>
       <c r="D961" t="s">
         <v>3416</v>
       </c>
       <c r="E961" t="s">
-        <v>6335</v>
+        <v>6285</v>
       </c>
       <c r="F961" t="s">
-        <v>6494</v>
+        <v>6444</v>
       </c>
       <c r="G961" t="s">
-        <v>6336</v>
+        <v>6286</v>
       </c>
       <c r="H961" t="s">
-        <v>6337</v>
+        <v>6287</v>
       </c>
     </row>
     <row r="962" spans="1:17">
       <c r="A962" t="s">
-        <v>6352</v>
+        <v>6302</v>
       </c>
       <c r="B962" t="s">
-        <v>6334</v>
+        <v>6284</v>
       </c>
       <c r="C962" t="s">
-        <v>6471</v>
+        <v>6421</v>
       </c>
       <c r="D962" t="s">
         <v>3416</v>
       </c>
       <c r="E962" t="s">
-        <v>6335</v>
+        <v>6285</v>
       </c>
       <c r="F962" t="s">
-        <v>6494</v>
+        <v>6444</v>
       </c>
       <c r="G962" t="s">
-        <v>6336</v>
+        <v>6286</v>
       </c>
       <c r="H962" t="s">
-        <v>6337</v>
+        <v>6287</v>
       </c>
     </row>
     <row r="963" spans="1:17">
       <c r="A963" t="s">
-        <v>6353</v>
+        <v>6303</v>
       </c>
       <c r="B963" t="s">
-        <v>6334</v>
+        <v>6284</v>
       </c>
       <c r="C963" t="s">
-        <v>6471</v>
+        <v>6421</v>
       </c>
       <c r="D963" t="s">
         <v>3416</v>
       </c>
       <c r="E963" t="s">
-        <v>6335</v>
+        <v>6285</v>
       </c>
       <c r="F963" t="s">
-        <v>6494</v>
+        <v>6444</v>
       </c>
       <c r="G963" t="s">
-        <v>6336</v>
+        <v>6286</v>
       </c>
       <c r="H963" t="s">
-        <v>6337</v>
+        <v>6287</v>
       </c>
     </row>
     <row r="964" spans="1:17">
       <c r="A964" t="s">
-        <v>6354</v>
+        <v>6304</v>
       </c>
       <c r="B964" t="s">
-        <v>6334</v>
+        <v>6284</v>
       </c>
       <c r="C964" t="s">
-        <v>6471</v>
+        <v>6421</v>
       </c>
       <c r="D964" t="s">
         <v>3416</v>
       </c>
       <c r="E964" t="s">
-        <v>6335</v>
+        <v>6285</v>
       </c>
       <c r="F964" t="s">
-        <v>6494</v>
+        <v>6444</v>
       </c>
       <c r="G964" t="s">
-        <v>6336</v>
+        <v>6286</v>
       </c>
       <c r="H964" t="s">
-        <v>6337</v>
+        <v>6287</v>
       </c>
     </row>
     <row r="965" spans="1:17">
       <c r="A965" t="s">
-        <v>6355</v>
+        <v>6305</v>
       </c>
       <c r="B965" t="s">
-        <v>6356</v>
+        <v>6306</v>
       </c>
       <c r="C965" t="s">
-        <v>6472</v>
+        <v>6422</v>
       </c>
       <c r="D965" t="s">
-        <v>6357</v>
+        <v>6307</v>
       </c>
       <c r="E965" t="s">
-        <v>6358</v>
+        <v>6308</v>
       </c>
       <c r="F965" t="s">
-        <v>6485</v>
+        <v>6435</v>
       </c>
       <c r="G965" t="s">
         <v>1641</v>
@@ -59523,42 +59484,42 @@
         <v>1642</v>
       </c>
       <c r="L965" t="s">
-        <v>6524</v>
+        <v>6474</v>
       </c>
       <c r="M965" t="s">
-        <v>6359</v>
+        <v>6309</v>
       </c>
       <c r="N965" t="s">
-        <v>6360</v>
+        <v>6310</v>
       </c>
       <c r="O965" t="s">
-        <v>6361</v>
+        <v>6311</v>
       </c>
       <c r="P965" t="s">
-        <v>6361</v>
+        <v>6311</v>
       </c>
       <c r="Q965" t="s">
-        <v>6361</v>
+        <v>6311</v>
       </c>
     </row>
     <row r="966" spans="1:17">
       <c r="A966" t="s">
-        <v>6362</v>
+        <v>6312</v>
       </c>
       <c r="B966" t="s">
-        <v>6356</v>
+        <v>6306</v>
       </c>
       <c r="C966" t="s">
-        <v>6473</v>
+        <v>6423</v>
       </c>
       <c r="D966" t="s">
-        <v>6363</v>
+        <v>6313</v>
       </c>
       <c r="E966" t="s">
-        <v>6364</v>
+        <v>6314</v>
       </c>
       <c r="F966" t="s">
-        <v>6495</v>
+        <v>6445</v>
       </c>
       <c r="G966" t="s">
         <v>3940</v>
@@ -59567,7 +59528,7 @@
         <v>3941</v>
       </c>
       <c r="O966" t="s">
-        <v>6779</v>
+        <v>6729</v>
       </c>
       <c r="P966" t="s">
         <v>3945</v>
@@ -59578,22 +59539,22 @@
     </row>
     <row r="967" spans="1:17">
       <c r="A967" t="s">
-        <v>6365</v>
+        <v>6315</v>
       </c>
       <c r="B967" t="s">
-        <v>6366</v>
+        <v>6316</v>
       </c>
       <c r="C967" t="s">
-        <v>6474</v>
+        <v>6424</v>
       </c>
       <c r="D967" t="s">
-        <v>6367</v>
+        <v>6317</v>
       </c>
       <c r="E967" t="s">
-        <v>6368</v>
+        <v>6318</v>
       </c>
       <c r="O967" t="s">
-        <v>6780</v>
+        <v>6730</v>
       </c>
       <c r="P967" t="s">
         <v>3945</v>
@@ -59604,22 +59565,22 @@
     </row>
     <row r="968" spans="1:17">
       <c r="A968" t="s">
-        <v>6391</v>
+        <v>6341</v>
       </c>
       <c r="B968" t="s">
-        <v>6369</v>
+        <v>6319</v>
       </c>
       <c r="C968" t="s">
-        <v>6476</v>
+        <v>6426</v>
       </c>
       <c r="D968" t="s">
-        <v>6392</v>
+        <v>6342</v>
       </c>
       <c r="E968" t="s">
-        <v>6393</v>
+        <v>6343</v>
       </c>
       <c r="O968" t="s">
-        <v>6625</v>
+        <v>6575</v>
       </c>
       <c r="P968" t="s">
         <v>3945</v>
@@ -59630,37 +59591,37 @@
     </row>
     <row r="969" spans="1:17">
       <c r="A969" t="s">
-        <v>6408</v>
+        <v>6358</v>
       </c>
       <c r="B969" t="s">
-        <v>6369</v>
+        <v>6319</v>
       </c>
       <c r="C969" t="s">
-        <v>6480</v>
+        <v>6430</v>
       </c>
       <c r="D969" t="s">
-        <v>6409</v>
+        <v>6359</v>
       </c>
       <c r="E969" t="s">
-        <v>6410</v>
+        <v>6360</v>
       </c>
       <c r="F969" t="s">
-        <v>6499</v>
+        <v>6449</v>
       </c>
       <c r="G969" t="s">
-        <v>6411</v>
+        <v>6361</v>
       </c>
       <c r="H969" t="s">
-        <v>6412</v>
+        <v>6362</v>
       </c>
       <c r="O969" t="s">
-        <v>6626</v>
+        <v>6576</v>
       </c>
       <c r="P969" t="s">
-        <v>6413</v>
+        <v>6363</v>
       </c>
       <c r="Q969" t="s">
-        <v>6414</v>
+        <v>6364</v>
       </c>
     </row>
     <row r="970" spans="1:17">
@@ -59668,7 +59629,7 @@
         <v>2027</v>
       </c>
       <c r="B970" t="s">
-        <v>6369</v>
+        <v>6319</v>
       </c>
       <c r="C970" t="s">
         <v>4442</v>
@@ -59680,7 +59641,7 @@
         <v>2030</v>
       </c>
       <c r="F970" t="s">
-        <v>6496</v>
+        <v>6446</v>
       </c>
       <c r="G970" t="s">
         <v>1908</v>
@@ -59689,42 +59650,42 @@
         <v>1909</v>
       </c>
       <c r="L970" t="s">
-        <v>6525</v>
+        <v>6475</v>
       </c>
       <c r="M970" t="s">
         <v>2031</v>
       </c>
       <c r="N970" t="s">
-        <v>6370</v>
+        <v>6320</v>
       </c>
       <c r="O970" t="s">
-        <v>6776</v>
+        <v>6726</v>
       </c>
       <c r="P970" t="s">
         <v>2033</v>
       </c>
       <c r="Q970" t="s">
-        <v>6371</v>
+        <v>6321</v>
       </c>
     </row>
     <row r="971" spans="1:17">
       <c r="A971" t="s">
-        <v>6405</v>
+        <v>6355</v>
       </c>
       <c r="B971" t="s">
-        <v>6369</v>
+        <v>6319</v>
       </c>
       <c r="C971" t="s">
-        <v>6479</v>
+        <v>6429</v>
       </c>
       <c r="D971" t="s">
-        <v>6406</v>
+        <v>6356</v>
       </c>
       <c r="E971" t="s">
-        <v>6407</v>
+        <v>6357</v>
       </c>
       <c r="F971" t="s">
-        <v>6492</v>
+        <v>6442</v>
       </c>
       <c r="G971" t="s">
         <v>3716</v>
@@ -59735,380 +59696,380 @@
     </row>
     <row r="972" spans="1:17">
       <c r="A972" t="s">
-        <v>6399</v>
+        <v>6349</v>
       </c>
       <c r="B972" t="s">
-        <v>6369</v>
+        <v>6319</v>
       </c>
       <c r="C972" t="s">
-        <v>6478</v>
+        <v>6428</v>
       </c>
       <c r="D972" t="s">
-        <v>6400</v>
+        <v>6350</v>
       </c>
       <c r="E972" t="s">
-        <v>6401</v>
+        <v>6351</v>
       </c>
       <c r="F972" t="s">
-        <v>6498</v>
+        <v>6448</v>
       </c>
       <c r="G972" t="s">
-        <v>6402</v>
+        <v>6352</v>
       </c>
       <c r="H972" t="s">
-        <v>6403</v>
+        <v>6353</v>
       </c>
     </row>
     <row r="973" spans="1:17">
       <c r="A973" t="s">
-        <v>6394</v>
+        <v>6344</v>
       </c>
       <c r="B973" t="s">
-        <v>6369</v>
+        <v>6319</v>
       </c>
       <c r="C973" t="s">
-        <v>6477</v>
+        <v>6427</v>
       </c>
       <c r="D973" t="s">
-        <v>6395</v>
+        <v>6345</v>
       </c>
       <c r="E973" t="s">
-        <v>6396</v>
+        <v>6346</v>
       </c>
       <c r="F973" t="s">
-        <v>6497</v>
+        <v>6447</v>
       </c>
       <c r="G973" t="s">
-        <v>6397</v>
+        <v>6347</v>
       </c>
       <c r="H973" t="s">
-        <v>6398</v>
+        <v>6348</v>
       </c>
     </row>
     <row r="974" spans="1:17">
       <c r="A974" t="s">
-        <v>6372</v>
+        <v>6322</v>
       </c>
       <c r="B974" t="s">
-        <v>6369</v>
+        <v>6319</v>
       </c>
       <c r="C974" t="s">
-        <v>6475</v>
+        <v>6425</v>
       </c>
       <c r="D974" t="s">
-        <v>6373</v>
+        <v>6323</v>
       </c>
       <c r="E974" t="s">
-        <v>6374</v>
+        <v>6324</v>
       </c>
     </row>
     <row r="975" spans="1:17">
       <c r="A975" t="s">
-        <v>6375</v>
+        <v>6325</v>
       </c>
       <c r="B975" t="s">
-        <v>6369</v>
+        <v>6319</v>
       </c>
       <c r="C975" t="s">
-        <v>6475</v>
+        <v>6425</v>
       </c>
       <c r="D975" t="s">
-        <v>6373</v>
+        <v>6323</v>
       </c>
       <c r="E975" t="s">
-        <v>6374</v>
+        <v>6324</v>
       </c>
     </row>
     <row r="976" spans="1:17">
       <c r="A976" t="s">
-        <v>6376</v>
+        <v>6326</v>
       </c>
       <c r="B976" t="s">
-        <v>6369</v>
+        <v>6319</v>
       </c>
       <c r="C976" t="s">
-        <v>6475</v>
+        <v>6425</v>
       </c>
       <c r="D976" t="s">
-        <v>6373</v>
+        <v>6323</v>
       </c>
       <c r="E976" t="s">
-        <v>6374</v>
+        <v>6324</v>
       </c>
     </row>
     <row r="977" spans="1:17">
       <c r="A977" t="s">
-        <v>6377</v>
+        <v>6327</v>
       </c>
       <c r="B977" t="s">
-        <v>6369</v>
+        <v>6319</v>
       </c>
       <c r="C977" t="s">
-        <v>6475</v>
+        <v>6425</v>
       </c>
       <c r="D977" t="s">
-        <v>6373</v>
+        <v>6323</v>
       </c>
       <c r="E977" t="s">
-        <v>6374</v>
+        <v>6324</v>
       </c>
     </row>
     <row r="978" spans="1:17">
       <c r="A978" t="s">
-        <v>6378</v>
+        <v>6328</v>
       </c>
       <c r="B978" t="s">
-        <v>6369</v>
+        <v>6319</v>
       </c>
       <c r="C978" t="s">
-        <v>6475</v>
+        <v>6425</v>
       </c>
       <c r="D978" t="s">
-        <v>6373</v>
+        <v>6323</v>
       </c>
       <c r="E978" t="s">
-        <v>6374</v>
+        <v>6324</v>
       </c>
     </row>
     <row r="979" spans="1:17">
       <c r="A979" t="s">
-        <v>6379</v>
+        <v>6329</v>
       </c>
       <c r="B979" t="s">
-        <v>6369</v>
+        <v>6319</v>
       </c>
       <c r="C979" t="s">
-        <v>6475</v>
+        <v>6425</v>
       </c>
       <c r="D979" t="s">
-        <v>6373</v>
+        <v>6323</v>
       </c>
       <c r="E979" t="s">
-        <v>6374</v>
+        <v>6324</v>
       </c>
     </row>
     <row r="980" spans="1:17">
       <c r="A980" t="s">
-        <v>6380</v>
+        <v>6330</v>
       </c>
       <c r="B980" t="s">
-        <v>6369</v>
+        <v>6319</v>
       </c>
       <c r="C980" t="s">
-        <v>6475</v>
+        <v>6425</v>
       </c>
       <c r="D980" t="s">
-        <v>6373</v>
+        <v>6323</v>
       </c>
       <c r="E980" t="s">
-        <v>6374</v>
+        <v>6324</v>
       </c>
     </row>
     <row r="981" spans="1:17">
       <c r="A981" t="s">
-        <v>6381</v>
+        <v>6331</v>
       </c>
       <c r="B981" t="s">
-        <v>6369</v>
+        <v>6319</v>
       </c>
       <c r="C981" t="s">
-        <v>6475</v>
+        <v>6425</v>
       </c>
       <c r="D981" t="s">
-        <v>6373</v>
+        <v>6323</v>
       </c>
       <c r="E981" t="s">
-        <v>6374</v>
+        <v>6324</v>
       </c>
     </row>
     <row r="982" spans="1:17">
       <c r="A982" t="s">
-        <v>6382</v>
+        <v>6332</v>
       </c>
       <c r="B982" t="s">
-        <v>6369</v>
+        <v>6319</v>
       </c>
       <c r="C982" t="s">
-        <v>6475</v>
+        <v>6425</v>
       </c>
       <c r="D982" t="s">
-        <v>6373</v>
+        <v>6323</v>
       </c>
       <c r="E982" t="s">
-        <v>6374</v>
+        <v>6324</v>
       </c>
     </row>
     <row r="983" spans="1:17">
       <c r="A983" t="s">
-        <v>6383</v>
+        <v>6333</v>
       </c>
       <c r="B983" t="s">
-        <v>6369</v>
+        <v>6319</v>
       </c>
       <c r="C983" t="s">
-        <v>6475</v>
+        <v>6425</v>
       </c>
       <c r="D983" t="s">
-        <v>6373</v>
+        <v>6323</v>
       </c>
       <c r="E983" t="s">
-        <v>6374</v>
+        <v>6324</v>
       </c>
     </row>
     <row r="984" spans="1:17">
       <c r="A984" t="s">
-        <v>6384</v>
+        <v>6334</v>
       </c>
       <c r="B984" t="s">
-        <v>6369</v>
+        <v>6319</v>
       </c>
       <c r="C984" t="s">
-        <v>6475</v>
+        <v>6425</v>
       </c>
       <c r="D984" t="s">
-        <v>6373</v>
+        <v>6323</v>
       </c>
       <c r="E984" t="s">
-        <v>6374</v>
+        <v>6324</v>
       </c>
     </row>
     <row r="985" spans="1:17">
       <c r="A985" t="s">
-        <v>6385</v>
+        <v>6335</v>
       </c>
       <c r="B985" t="s">
-        <v>6369</v>
+        <v>6319</v>
       </c>
       <c r="C985" t="s">
-        <v>6475</v>
+        <v>6425</v>
       </c>
       <c r="D985" t="s">
-        <v>6373</v>
+        <v>6323</v>
       </c>
       <c r="E985" t="s">
-        <v>6374</v>
+        <v>6324</v>
       </c>
     </row>
     <row r="986" spans="1:17">
       <c r="A986" t="s">
-        <v>6386</v>
+        <v>6336</v>
       </c>
       <c r="B986" t="s">
-        <v>6369</v>
+        <v>6319</v>
       </c>
       <c r="C986" t="s">
-        <v>6475</v>
+        <v>6425</v>
       </c>
       <c r="D986" t="s">
-        <v>6373</v>
+        <v>6323</v>
       </c>
       <c r="E986" t="s">
-        <v>6374</v>
+        <v>6324</v>
       </c>
     </row>
     <row r="987" spans="1:17">
       <c r="A987" t="s">
-        <v>6387</v>
+        <v>6337</v>
       </c>
       <c r="B987" t="s">
-        <v>6369</v>
+        <v>6319</v>
       </c>
       <c r="C987" t="s">
-        <v>6475</v>
+        <v>6425</v>
       </c>
       <c r="D987" t="s">
-        <v>6373</v>
+        <v>6323</v>
       </c>
       <c r="E987" t="s">
-        <v>6374</v>
+        <v>6324</v>
       </c>
     </row>
     <row r="988" spans="1:17">
       <c r="A988" t="s">
-        <v>6388</v>
+        <v>6338</v>
       </c>
       <c r="B988" t="s">
-        <v>6369</v>
+        <v>6319</v>
       </c>
       <c r="C988" t="s">
-        <v>6475</v>
+        <v>6425</v>
       </c>
       <c r="D988" t="s">
-        <v>6373</v>
+        <v>6323</v>
       </c>
       <c r="E988" t="s">
-        <v>6374</v>
+        <v>6324</v>
       </c>
     </row>
     <row r="989" spans="1:17">
       <c r="A989" t="s">
-        <v>6389</v>
+        <v>6339</v>
       </c>
       <c r="B989" t="s">
-        <v>6369</v>
+        <v>6319</v>
       </c>
       <c r="C989" t="s">
-        <v>6475</v>
+        <v>6425</v>
       </c>
       <c r="D989" t="s">
-        <v>6373</v>
+        <v>6323</v>
       </c>
       <c r="E989" t="s">
-        <v>6374</v>
+        <v>6324</v>
       </c>
     </row>
     <row r="990" spans="1:17">
       <c r="A990" t="s">
-        <v>6390</v>
+        <v>6340</v>
       </c>
       <c r="B990" t="s">
-        <v>6369</v>
+        <v>6319</v>
       </c>
       <c r="C990" t="s">
-        <v>6475</v>
+        <v>6425</v>
       </c>
       <c r="D990" t="s">
-        <v>6373</v>
+        <v>6323</v>
       </c>
       <c r="E990" t="s">
-        <v>6374</v>
+        <v>6324</v>
       </c>
     </row>
     <row r="991" spans="1:17">
       <c r="A991" t="s">
-        <v>6404</v>
+        <v>6354</v>
       </c>
       <c r="B991" t="s">
-        <v>6369</v>
+        <v>6319</v>
       </c>
       <c r="C991" t="s">
-        <v>6475</v>
+        <v>6425</v>
       </c>
       <c r="D991" t="s">
-        <v>6373</v>
+        <v>6323</v>
       </c>
       <c r="E991" t="s">
-        <v>6374</v>
+        <v>6324</v>
       </c>
     </row>
     <row r="992" spans="1:17">
       <c r="A992" t="s">
-        <v>6415</v>
+        <v>6365</v>
       </c>
       <c r="B992" t="s">
-        <v>6416</v>
+        <v>6366</v>
       </c>
       <c r="C992" t="s">
-        <v>6481</v>
+        <v>6431</v>
       </c>
       <c r="D992" t="s">
-        <v>6417</v>
+        <v>6367</v>
       </c>
       <c r="E992" t="s">
-        <v>6418</v>
+        <v>6368</v>
       </c>
       <c r="F992" t="s">
-        <v>6485</v>
+        <v>6435</v>
       </c>
       <c r="G992" t="s">
         <v>1641</v>
@@ -60117,68 +60078,68 @@
         <v>1642</v>
       </c>
       <c r="L992" t="s">
-        <v>6526</v>
+        <v>6476</v>
       </c>
       <c r="M992" t="s">
-        <v>6419</v>
+        <v>6369</v>
       </c>
       <c r="N992" t="s">
-        <v>6420</v>
+        <v>6370</v>
       </c>
       <c r="O992" t="s">
-        <v>6627</v>
+        <v>6577</v>
       </c>
       <c r="P992" t="s">
-        <v>6421</v>
+        <v>6371</v>
       </c>
       <c r="Q992" t="s">
-        <v>6422</v>
+        <v>6372</v>
       </c>
     </row>
     <row r="993" spans="1:26">
       <c r="A993" t="s">
-        <v>6423</v>
+        <v>6373</v>
       </c>
       <c r="B993" t="s">
-        <v>6416</v>
+        <v>6366</v>
       </c>
       <c r="C993" t="s">
-        <v>6482</v>
+        <v>6432</v>
       </c>
       <c r="D993" t="s">
-        <v>6424</v>
+        <v>6374</v>
       </c>
       <c r="E993" t="s">
-        <v>6425</v>
+        <v>6375</v>
       </c>
       <c r="L993" t="s">
-        <v>6527</v>
+        <v>6477</v>
       </c>
       <c r="M993" t="s">
-        <v>6426</v>
+        <v>6376</v>
       </c>
       <c r="N993" t="s">
-        <v>6427</v>
+        <v>6377</v>
       </c>
     </row>
     <row r="994" spans="1:26">
       <c r="A994" t="s">
-        <v>6428</v>
+        <v>6378</v>
       </c>
       <c r="B994" t="s">
-        <v>6416</v>
+        <v>6366</v>
       </c>
       <c r="C994" t="s">
-        <v>6483</v>
+        <v>6433</v>
       </c>
       <c r="D994" t="s">
-        <v>6429</v>
+        <v>6379</v>
       </c>
       <c r="E994" t="s">
-        <v>6430</v>
+        <v>6380</v>
       </c>
       <c r="F994" t="s">
-        <v>6492</v>
+        <v>6442</v>
       </c>
       <c r="G994" t="s">
         <v>3716</v>
@@ -60189,22 +60150,22 @@
     </row>
     <row r="995" spans="1:26">
       <c r="A995" t="s">
-        <v>6431</v>
+        <v>6381</v>
       </c>
       <c r="B995" t="s">
-        <v>6432</v>
+        <v>6382</v>
       </c>
       <c r="C995" t="s">
-        <v>6484</v>
+        <v>6434</v>
       </c>
       <c r="D995" t="s">
-        <v>6434</v>
+        <v>6384</v>
       </c>
       <c r="E995" t="s">
-        <v>6433</v>
+        <v>6383</v>
       </c>
       <c r="F995" t="s">
-        <v>6485</v>
+        <v>6435</v>
       </c>
       <c r="G995" t="s">
         <v>1641</v>
@@ -60213,22 +60174,22 @@
         <v>1642</v>
       </c>
       <c r="L995" t="s">
-        <v>6528</v>
+        <v>6478</v>
       </c>
       <c r="M995" t="s">
-        <v>6435</v>
+        <v>6385</v>
       </c>
       <c r="N995" t="s">
-        <v>6436</v>
+        <v>6386</v>
       </c>
       <c r="O995" t="s">
-        <v>6628</v>
+        <v>6578</v>
       </c>
       <c r="P995" t="s">
-        <v>6437</v>
+        <v>6387</v>
       </c>
       <c r="Q995" t="s">
-        <v>6438</v>
+        <v>6388</v>
       </c>
     </row>
     <row r="996" spans="1:26">
@@ -60266,7 +60227,7 @@
         <v>1581</v>
       </c>
       <c r="O996" s="2" t="s">
-        <v>6629</v>
+        <v>6579</v>
       </c>
       <c r="P996" s="2" t="s">
         <v>1582</v>
@@ -60277,46 +60238,46 @@
     </row>
     <row r="997" spans="1:26">
       <c r="A997" t="s">
-        <v>6529</v>
+        <v>6479</v>
       </c>
       <c r="B997" t="s">
-        <v>6530</v>
+        <v>6480</v>
       </c>
       <c r="C997" t="s">
-        <v>6604</v>
+        <v>6554</v>
       </c>
       <c r="D997" t="s">
-        <v>6531</v>
+        <v>6481</v>
       </c>
       <c r="E997" t="s">
-        <v>6532</v>
+        <v>6482</v>
       </c>
       <c r="F997" t="s">
-        <v>6614</v>
+        <v>6564</v>
       </c>
       <c r="G997" t="s">
-        <v>6533</v>
+        <v>6483</v>
       </c>
       <c r="H997" t="s">
-        <v>6534</v>
+        <v>6484</v>
       </c>
       <c r="L997" t="s">
-        <v>6619</v>
+        <v>6569</v>
       </c>
       <c r="M997" t="s">
-        <v>6535</v>
+        <v>6485</v>
       </c>
       <c r="N997" t="s">
-        <v>6536</v>
+        <v>6486</v>
       </c>
       <c r="O997" t="s">
-        <v>6630</v>
+        <v>6580</v>
       </c>
       <c r="P997" t="s">
-        <v>6537</v>
+        <v>6487</v>
       </c>
       <c r="Q997" t="s">
-        <v>6538</v>
+        <v>6488</v>
       </c>
     </row>
     <row r="998" spans="1:26">
@@ -60324,7 +60285,7 @@
         <v>1772</v>
       </c>
       <c r="B998" t="s">
-        <v>6539</v>
+        <v>6489</v>
       </c>
       <c r="C998" t="s">
         <v>4383</v>
@@ -60336,7 +60297,7 @@
         <v>1774</v>
       </c>
       <c r="F998" t="s">
-        <v>6036</v>
+        <v>5986</v>
       </c>
       <c r="G998" t="s">
         <v>1641</v>
@@ -60354,33 +60315,33 @@
         <v>1776</v>
       </c>
       <c r="O998" t="s">
-        <v>6631</v>
+        <v>6581</v>
       </c>
       <c r="P998" t="s">
-        <v>6540</v>
+        <v>6490</v>
       </c>
       <c r="Q998" t="s">
-        <v>6541</v>
+        <v>6491</v>
       </c>
     </row>
     <row r="999" spans="1:26">
       <c r="A999" t="s">
-        <v>6542</v>
+        <v>6492</v>
       </c>
       <c r="B999" t="s">
-        <v>6539</v>
+        <v>6489</v>
       </c>
       <c r="C999" t="s">
-        <v>6605</v>
+        <v>6555</v>
       </c>
       <c r="D999" t="s">
-        <v>6544</v>
+        <v>6494</v>
       </c>
       <c r="E999" t="s">
-        <v>6543</v>
+        <v>6493</v>
       </c>
       <c r="F999" t="s">
-        <v>6615</v>
+        <v>6565</v>
       </c>
       <c r="G999" t="s">
         <v>1622</v>
@@ -60389,42 +60350,42 @@
         <v>1623</v>
       </c>
       <c r="L999" t="s">
-        <v>6620</v>
+        <v>6570</v>
       </c>
       <c r="M999" t="s">
-        <v>6545</v>
+        <v>6495</v>
       </c>
       <c r="N999" t="s">
-        <v>6546</v>
+        <v>6496</v>
       </c>
       <c r="O999" t="s">
-        <v>6632</v>
+        <v>6582</v>
       </c>
       <c r="P999" t="s">
-        <v>6547</v>
+        <v>6497</v>
       </c>
       <c r="Q999" t="s">
-        <v>6548</v>
+        <v>6498</v>
       </c>
     </row>
     <row r="1000" spans="1:26">
       <c r="A1000" t="s">
-        <v>6549</v>
+        <v>6499</v>
       </c>
       <c r="B1000" t="s">
-        <v>6550</v>
+        <v>6500</v>
       </c>
       <c r="C1000" t="s">
-        <v>6606</v>
+        <v>6556</v>
       </c>
       <c r="D1000" t="s">
-        <v>6551</v>
+        <v>6501</v>
       </c>
       <c r="E1000" t="s">
-        <v>6552</v>
+        <v>6502</v>
       </c>
       <c r="F1000" t="s">
-        <v>6032</v>
+        <v>5982</v>
       </c>
       <c r="G1000" t="s">
         <v>3696</v>
@@ -60433,13 +60394,13 @@
         <v>3697</v>
       </c>
       <c r="O1000" t="s">
-        <v>6633</v>
+        <v>6583</v>
       </c>
       <c r="P1000" t="s">
-        <v>6553</v>
+        <v>6503</v>
       </c>
       <c r="Q1000" t="s">
-        <v>6554</v>
+        <v>6504</v>
       </c>
     </row>
     <row r="1001" spans="1:26">
@@ -60447,7 +60408,7 @@
         <v>3291</v>
       </c>
       <c r="B1001" t="s">
-        <v>6556</v>
+        <v>6506</v>
       </c>
       <c r="C1001" t="s">
         <v>4784</v>
@@ -60459,103 +60420,103 @@
         <v>3294</v>
       </c>
       <c r="F1001" t="s">
-        <v>6616</v>
+        <v>6566</v>
       </c>
       <c r="G1001" t="s">
-        <v>6561</v>
+        <v>6511</v>
       </c>
       <c r="H1001" t="s">
-        <v>6562</v>
+        <v>6512</v>
       </c>
       <c r="O1001" t="s">
-        <v>6634</v>
+        <v>6584</v>
       </c>
       <c r="P1001" t="s">
-        <v>6563</v>
+        <v>6513</v>
       </c>
       <c r="Q1001" t="s">
-        <v>6564</v>
+        <v>6514</v>
       </c>
     </row>
     <row r="1002" spans="1:26">
       <c r="A1002" t="s">
-        <v>6555</v>
+        <v>6505</v>
       </c>
       <c r="B1002" t="s">
-        <v>6556</v>
+        <v>6506</v>
       </c>
       <c r="C1002" t="s">
-        <v>6607</v>
+        <v>6557</v>
       </c>
       <c r="D1002" t="s">
-        <v>6557</v>
+        <v>6507</v>
       </c>
       <c r="E1002" t="s">
-        <v>6558</v>
+        <v>6508</v>
       </c>
       <c r="L1002" t="s">
-        <v>6621</v>
+        <v>6571</v>
       </c>
       <c r="M1002" t="s">
-        <v>6559</v>
+        <v>6509</v>
       </c>
       <c r="N1002" t="s">
-        <v>6560</v>
+        <v>6510</v>
       </c>
     </row>
     <row r="1003" spans="1:26">
       <c r="A1003" t="s">
-        <v>6574</v>
+        <v>6524</v>
       </c>
       <c r="B1003" t="s">
-        <v>6566</v>
+        <v>6516</v>
       </c>
       <c r="C1003" t="s">
-        <v>6609</v>
+        <v>6559</v>
       </c>
       <c r="D1003" t="s">
-        <v>6575</v>
+        <v>6525</v>
       </c>
       <c r="E1003" t="s">
-        <v>6576</v>
+        <v>6526</v>
       </c>
       <c r="O1003" t="s">
-        <v>6636</v>
+        <v>6586</v>
       </c>
       <c r="P1003" t="s">
-        <v>6577</v>
+        <v>6527</v>
       </c>
       <c r="Q1003" t="s">
-        <v>6578</v>
+        <v>6528</v>
       </c>
       <c r="X1003" t="s">
-        <v>6645</v>
+        <v>6595</v>
       </c>
       <c r="Y1003" t="s">
-        <v>6579</v>
+        <v>6529</v>
       </c>
       <c r="Z1003" t="s">
-        <v>6580</v>
+        <v>6530</v>
       </c>
     </row>
     <row r="1004" spans="1:26">
       <c r="A1004" t="s">
-        <v>6565</v>
+        <v>6515</v>
       </c>
       <c r="B1004" t="s">
-        <v>6566</v>
+        <v>6516</v>
       </c>
       <c r="C1004" t="s">
-        <v>6608</v>
+        <v>6558</v>
       </c>
       <c r="D1004" t="s">
-        <v>6567</v>
+        <v>6517</v>
       </c>
       <c r="E1004" t="s">
-        <v>6568</v>
+        <v>6518</v>
       </c>
       <c r="F1004" t="s">
-        <v>6036</v>
+        <v>5986</v>
       </c>
       <c r="G1004" t="s">
         <v>1641</v>
@@ -60564,42 +60525,42 @@
         <v>1642</v>
       </c>
       <c r="L1004" t="s">
-        <v>6622</v>
+        <v>6572</v>
       </c>
       <c r="M1004" t="s">
-        <v>6569</v>
+        <v>6519</v>
       </c>
       <c r="N1004" t="s">
-        <v>6570</v>
+        <v>6520</v>
       </c>
       <c r="O1004" t="s">
-        <v>6635</v>
+        <v>6585</v>
       </c>
       <c r="P1004" t="s">
-        <v>6571</v>
+        <v>6521</v>
       </c>
       <c r="Q1004" t="s">
-        <v>6572</v>
+        <v>6522</v>
       </c>
     </row>
     <row r="1005" spans="1:26">
       <c r="A1005" t="s">
-        <v>6581</v>
+        <v>6531</v>
       </c>
       <c r="B1005" t="s">
-        <v>6566</v>
+        <v>6516</v>
       </c>
       <c r="C1005" t="s">
-        <v>6610</v>
+        <v>6560</v>
       </c>
       <c r="D1005" t="s">
-        <v>6582</v>
+        <v>6532</v>
       </c>
       <c r="E1005" t="s">
-        <v>6583</v>
+        <v>6533</v>
       </c>
       <c r="F1005" t="s">
-        <v>6617</v>
+        <v>6567</v>
       </c>
       <c r="G1005" t="s">
         <v>3716</v>
@@ -60613,7 +60574,7 @@
         <v>3322</v>
       </c>
       <c r="B1006" t="s">
-        <v>6566</v>
+        <v>6516</v>
       </c>
       <c r="C1006" t="s">
         <v>4793</v>
@@ -60622,62 +60583,62 @@
         <v>3324</v>
       </c>
       <c r="E1006" t="s">
-        <v>6573</v>
+        <v>6523</v>
       </c>
     </row>
     <row r="1007" spans="1:26">
       <c r="A1007" t="s">
-        <v>6584</v>
+        <v>6534</v>
       </c>
       <c r="B1007" t="s">
-        <v>6585</v>
+        <v>6535</v>
       </c>
       <c r="C1007" t="s">
-        <v>6611</v>
+        <v>6561</v>
       </c>
       <c r="D1007" t="s">
-        <v>6586</v>
+        <v>6536</v>
       </c>
       <c r="E1007" t="s">
         <v>3323</v>
       </c>
       <c r="F1007" t="s">
-        <v>6618</v>
+        <v>6568</v>
       </c>
       <c r="G1007" t="s">
+        <v>6537</v>
+      </c>
+      <c r="H1007" t="s">
+        <v>6538</v>
+      </c>
+      <c r="O1007" t="s">
         <v>6587</v>
       </c>
-      <c r="H1007" t="s">
-        <v>6588</v>
-      </c>
-      <c r="O1007" t="s">
-        <v>6637</v>
-      </c>
       <c r="P1007" t="s">
-        <v>6589</v>
+        <v>6539</v>
       </c>
       <c r="Q1007" t="s">
-        <v>6590</v>
+        <v>6540</v>
       </c>
     </row>
     <row r="1008" spans="1:26">
       <c r="A1008" t="s">
-        <v>6591</v>
+        <v>6541</v>
       </c>
       <c r="B1008" t="s">
-        <v>6592</v>
+        <v>6542</v>
       </c>
       <c r="C1008" t="s">
-        <v>6612</v>
+        <v>6562</v>
       </c>
       <c r="D1008" t="s">
-        <v>6593</v>
+        <v>6543</v>
       </c>
       <c r="E1008" t="s">
-        <v>6594</v>
+        <v>6544</v>
       </c>
       <c r="F1008" t="s">
-        <v>6036</v>
+        <v>5986</v>
       </c>
       <c r="G1008" t="s">
         <v>1641</v>
@@ -60686,48 +60647,48 @@
         <v>1642</v>
       </c>
       <c r="L1008" t="s">
-        <v>6623</v>
+        <v>6573</v>
       </c>
       <c r="M1008" t="s">
-        <v>6595</v>
+        <v>6545</v>
       </c>
       <c r="N1008" t="s">
-        <v>6596</v>
+        <v>6546</v>
       </c>
       <c r="O1008" t="s">
-        <v>6638</v>
+        <v>6588</v>
       </c>
       <c r="P1008" t="s">
-        <v>6597</v>
+        <v>6547</v>
       </c>
       <c r="Q1008" t="s">
-        <v>6598</v>
+        <v>6548</v>
       </c>
     </row>
     <row r="1009" spans="1:17">
       <c r="A1009" t="s">
-        <v>6599</v>
+        <v>6549</v>
       </c>
       <c r="B1009" t="s">
-        <v>6592</v>
+        <v>6542</v>
       </c>
       <c r="C1009" t="s">
-        <v>6613</v>
+        <v>6563</v>
       </c>
       <c r="D1009" t="s">
-        <v>6600</v>
+        <v>6550</v>
       </c>
       <c r="E1009" t="s">
-        <v>6601</v>
+        <v>6551</v>
       </c>
       <c r="L1009" t="s">
-        <v>6624</v>
+        <v>6574</v>
       </c>
       <c r="M1009" t="s">
-        <v>6602</v>
+        <v>6552</v>
       </c>
       <c r="N1009" t="s">
-        <v>6603</v>
+        <v>6553</v>
       </c>
     </row>
     <row r="1010" spans="1:17">
@@ -60940,66 +60901,66 @@
     </row>
     <row r="1018" spans="1:17">
       <c r="A1018" t="s">
-        <v>6646</v>
+        <v>6596</v>
       </c>
       <c r="B1018" t="s">
-        <v>6647</v>
+        <v>6597</v>
       </c>
       <c r="C1018" t="s">
-        <v>6693</v>
+        <v>6643</v>
       </c>
       <c r="D1018" t="s">
-        <v>6648</v>
+        <v>6598</v>
       </c>
       <c r="E1018" t="s">
-        <v>6649</v>
+        <v>6599</v>
       </c>
       <c r="F1018" t="s">
-        <v>6701</v>
+        <v>6651</v>
       </c>
       <c r="G1018" t="s">
-        <v>6650</v>
+        <v>6600</v>
       </c>
       <c r="H1018" t="s">
-        <v>6651</v>
+        <v>6601</v>
       </c>
       <c r="L1018" t="s">
-        <v>6702</v>
+        <v>6652</v>
       </c>
       <c r="M1018" t="s">
-        <v>6652</v>
+        <v>6602</v>
       </c>
       <c r="N1018" t="s">
-        <v>6653</v>
+        <v>6603</v>
       </c>
       <c r="O1018" t="s">
-        <v>6707</v>
+        <v>6657</v>
       </c>
       <c r="P1018" t="s">
-        <v>6654</v>
+        <v>6604</v>
       </c>
       <c r="Q1018" t="s">
-        <v>6655</v>
+        <v>6605</v>
       </c>
     </row>
     <row r="1019" spans="1:17">
       <c r="A1019" t="s">
-        <v>6656</v>
+        <v>6606</v>
       </c>
       <c r="B1019" t="s">
-        <v>6657</v>
+        <v>6607</v>
       </c>
       <c r="C1019" t="s">
-        <v>6694</v>
+        <v>6644</v>
       </c>
       <c r="D1019" t="s">
-        <v>6658</v>
+        <v>6608</v>
       </c>
       <c r="E1019" t="s">
-        <v>6659</v>
+        <v>6609</v>
       </c>
       <c r="F1019" t="s">
-        <v>6615</v>
+        <v>6565</v>
       </c>
       <c r="G1019" t="s">
         <v>1622</v>
@@ -61008,224 +60969,224 @@
         <v>1623</v>
       </c>
       <c r="L1019" t="s">
-        <v>6703</v>
+        <v>6653</v>
       </c>
       <c r="M1019" t="s">
-        <v>6660</v>
+        <v>6610</v>
       </c>
       <c r="N1019" t="s">
-        <v>6661</v>
+        <v>6611</v>
       </c>
       <c r="O1019" t="s">
-        <v>6708</v>
+        <v>6658</v>
       </c>
       <c r="P1019" t="s">
-        <v>6662</v>
+        <v>6612</v>
       </c>
       <c r="Q1019" t="s">
-        <v>6663</v>
+        <v>6613</v>
       </c>
     </row>
     <row r="1020" spans="1:17">
       <c r="A1020" t="s">
-        <v>6664</v>
+        <v>6614</v>
       </c>
       <c r="B1020" t="s">
-        <v>6665</v>
+        <v>6615</v>
       </c>
       <c r="C1020" t="s">
-        <v>6695</v>
+        <v>6645</v>
       </c>
       <c r="D1020" t="s">
-        <v>6666</v>
+        <v>6616</v>
       </c>
       <c r="E1020" t="s">
-        <v>6667</v>
+        <v>6617</v>
       </c>
       <c r="L1020" t="s">
-        <v>6704</v>
+        <v>6654</v>
       </c>
       <c r="M1020" t="s">
-        <v>6668</v>
+        <v>6618</v>
       </c>
       <c r="N1020" t="s">
-        <v>6669</v>
+        <v>6619</v>
       </c>
     </row>
     <row r="1021" spans="1:17">
       <c r="A1021" t="s">
-        <v>6670</v>
+        <v>6620</v>
       </c>
       <c r="B1021" t="s">
-        <v>6671</v>
+        <v>6621</v>
       </c>
       <c r="C1021" t="s">
-        <v>6696</v>
+        <v>6646</v>
       </c>
       <c r="D1021" t="s">
-        <v>6672</v>
+        <v>6622</v>
       </c>
       <c r="E1021" t="s">
-        <v>6673</v>
+        <v>6623</v>
       </c>
       <c r="O1021" t="s">
-        <v>6709</v>
+        <v>6659</v>
       </c>
       <c r="P1021" t="s">
-        <v>6674</v>
+        <v>6624</v>
       </c>
       <c r="Q1021" t="s">
-        <v>6675</v>
+        <v>6625</v>
       </c>
     </row>
     <row r="1022" spans="1:17">
       <c r="A1022" t="s">
-        <v>6676</v>
+        <v>6626</v>
       </c>
       <c r="B1022" t="s">
-        <v>6671</v>
+        <v>6621</v>
       </c>
       <c r="C1022" t="s">
-        <v>6697</v>
+        <v>6647</v>
       </c>
       <c r="D1022" t="s">
-        <v>6678</v>
+        <v>6628</v>
       </c>
       <c r="E1022" t="s">
-        <v>6677</v>
+        <v>6627</v>
       </c>
       <c r="L1022" t="s">
-        <v>6705</v>
+        <v>6655</v>
       </c>
       <c r="M1022" t="s">
-        <v>6679</v>
+        <v>6629</v>
       </c>
       <c r="N1022" t="s">
-        <v>6680</v>
+        <v>6630</v>
       </c>
     </row>
     <row r="1023" spans="1:17">
       <c r="A1023" t="s">
-        <v>6681</v>
+        <v>6631</v>
       </c>
       <c r="B1023" t="s">
-        <v>6671</v>
+        <v>6621</v>
       </c>
       <c r="C1023" t="s">
-        <v>6698</v>
+        <v>6648</v>
       </c>
       <c r="D1023" t="s">
-        <v>6683</v>
+        <v>6633</v>
       </c>
       <c r="E1023" t="s">
-        <v>6682</v>
+        <v>6632</v>
       </c>
     </row>
     <row r="1024" spans="1:17">
       <c r="A1024" t="s">
-        <v>6684</v>
+        <v>6634</v>
       </c>
       <c r="B1024" t="s">
-        <v>6671</v>
+        <v>6621</v>
       </c>
       <c r="C1024" t="s">
-        <v>6699</v>
+        <v>6649</v>
       </c>
       <c r="D1024" t="s">
-        <v>6685</v>
+        <v>6635</v>
       </c>
       <c r="E1024" t="s">
-        <v>6686</v>
+        <v>6636</v>
       </c>
     </row>
     <row r="1025" spans="1:26">
       <c r="A1025" t="s">
-        <v>6687</v>
+        <v>6637</v>
       </c>
       <c r="B1025" t="s">
-        <v>6688</v>
+        <v>6638</v>
       </c>
       <c r="C1025" t="s">
-        <v>6700</v>
+        <v>6650</v>
       </c>
       <c r="D1025" t="s">
-        <v>6689</v>
+        <v>6639</v>
       </c>
       <c r="E1025" t="s">
-        <v>6690</v>
+        <v>6640</v>
       </c>
       <c r="L1025" t="s">
-        <v>6706</v>
+        <v>6656</v>
       </c>
       <c r="M1025" t="s">
-        <v>6691</v>
+        <v>6641</v>
       </c>
       <c r="N1025" t="s">
-        <v>6692</v>
+        <v>6642</v>
       </c>
     </row>
     <row r="1026" spans="1:26">
       <c r="A1026" t="s">
-        <v>6646</v>
+        <v>6596</v>
       </c>
       <c r="B1026" t="s">
-        <v>6710</v>
+        <v>6660</v>
       </c>
       <c r="C1026" t="s">
-        <v>6693</v>
+        <v>6643</v>
       </c>
       <c r="D1026" t="s">
-        <v>6648</v>
+        <v>6598</v>
       </c>
       <c r="E1026" t="s">
-        <v>6649</v>
+        <v>6599</v>
       </c>
       <c r="F1026" t="s">
-        <v>6765</v>
+        <v>6715</v>
       </c>
       <c r="G1026" t="s">
-        <v>6650</v>
+        <v>6600</v>
       </c>
       <c r="H1026" t="s">
-        <v>6651</v>
+        <v>6601</v>
       </c>
       <c r="L1026" t="s">
-        <v>6756</v>
+        <v>6706</v>
       </c>
       <c r="M1026" t="s">
-        <v>6652</v>
+        <v>6602</v>
       </c>
       <c r="N1026" t="s">
-        <v>6653</v>
+        <v>6603</v>
       </c>
       <c r="O1026" t="s">
-        <v>6761</v>
+        <v>6711</v>
       </c>
       <c r="P1026" t="s">
-        <v>6654</v>
+        <v>6604</v>
       </c>
       <c r="Q1026" t="s">
-        <v>6711</v>
+        <v>6661</v>
       </c>
     </row>
     <row r="1027" spans="1:26">
       <c r="A1027" t="s">
-        <v>6715</v>
+        <v>6665</v>
       </c>
       <c r="B1027" t="s">
-        <v>6712</v>
+        <v>6662</v>
       </c>
       <c r="C1027" t="s">
-        <v>6751</v>
+        <v>6701</v>
       </c>
       <c r="D1027" t="s">
-        <v>6716</v>
+        <v>6666</v>
       </c>
       <c r="E1027" t="s">
-        <v>6717</v>
+        <v>6667</v>
       </c>
       <c r="F1027" t="s">
-        <v>6036</v>
+        <v>5986</v>
       </c>
       <c r="G1027" t="s">
         <v>1641</v>
@@ -61234,22 +61195,22 @@
         <v>1642</v>
       </c>
       <c r="L1027" t="s">
-        <v>6758</v>
+        <v>6708</v>
       </c>
       <c r="M1027" t="s">
-        <v>6718</v>
+        <v>6668</v>
       </c>
       <c r="N1027" t="s">
-        <v>6719</v>
+        <v>6669</v>
       </c>
       <c r="O1027" t="s">
-        <v>6762</v>
+        <v>6712</v>
       </c>
       <c r="P1027" t="s">
-        <v>6720</v>
+        <v>6670</v>
       </c>
       <c r="Q1027" t="s">
-        <v>6721</v>
+        <v>6671</v>
       </c>
     </row>
     <row r="1028" spans="1:26">
@@ -61257,10 +61218,10 @@
         <v>1213</v>
       </c>
       <c r="B1028" t="s">
-        <v>6712</v>
+        <v>6662</v>
       </c>
       <c r="C1028" t="s">
-        <v>6750</v>
+        <v>6700</v>
       </c>
       <c r="D1028" t="s">
         <v>1214</v>
@@ -61269,33 +61230,33 @@
         <v>1215</v>
       </c>
       <c r="L1028" t="s">
-        <v>6757</v>
+        <v>6707</v>
       </c>
       <c r="M1028" t="s">
-        <v>6713</v>
+        <v>6663</v>
       </c>
       <c r="N1028" t="s">
-        <v>6714</v>
+        <v>6664</v>
       </c>
     </row>
     <row r="1029" spans="1:26">
       <c r="A1029" t="s">
-        <v>6549</v>
+        <v>6499</v>
       </c>
       <c r="B1029" t="s">
-        <v>6722</v>
+        <v>6672</v>
       </c>
       <c r="C1029" t="s">
-        <v>6606</v>
+        <v>6556</v>
       </c>
       <c r="D1029" t="s">
-        <v>6551</v>
+        <v>6501</v>
       </c>
       <c r="E1029" t="s">
-        <v>6552</v>
+        <v>6502</v>
       </c>
       <c r="F1029" t="s">
-        <v>6032</v>
+        <v>5982</v>
       </c>
       <c r="G1029" t="s">
         <v>3696</v>
@@ -61304,13 +61265,13 @@
         <v>3697</v>
       </c>
       <c r="O1029" t="s">
-        <v>6726</v>
+        <v>6676</v>
       </c>
       <c r="P1029" t="s">
-        <v>6726</v>
+        <v>6676</v>
       </c>
       <c r="Q1029" t="s">
-        <v>6726</v>
+        <v>6676</v>
       </c>
     </row>
     <row r="1030" spans="1:26">
@@ -61318,7 +61279,7 @@
         <v>3693</v>
       </c>
       <c r="B1030" t="s">
-        <v>6722</v>
+        <v>6672</v>
       </c>
       <c r="C1030" t="s">
         <v>4885</v>
@@ -61330,7 +61291,7 @@
         <v>3695</v>
       </c>
       <c r="F1030" t="s">
-        <v>6032</v>
+        <v>5982</v>
       </c>
       <c r="G1030" t="s">
         <v>3696</v>
@@ -61339,33 +61300,33 @@
         <v>3697</v>
       </c>
       <c r="O1030" t="s">
-        <v>6723</v>
+        <v>6673</v>
       </c>
       <c r="P1030" t="s">
-        <v>6723</v>
+        <v>6673</v>
       </c>
       <c r="Q1030" t="s">
-        <v>6723</v>
+        <v>6673</v>
       </c>
     </row>
     <row r="1031" spans="1:26">
       <c r="A1031" t="s">
+        <v>5883</v>
+      </c>
+      <c r="B1031" t="s">
+        <v>6672</v>
+      </c>
+      <c r="C1031" t="s">
+        <v>6702</v>
+      </c>
+      <c r="D1031" t="s">
         <v>5885</v>
       </c>
-      <c r="B1031" t="s">
-        <v>6722</v>
-      </c>
-      <c r="C1031" t="s">
-        <v>6752</v>
-      </c>
-      <c r="D1031" t="s">
-        <v>5887</v>
-      </c>
       <c r="E1031" t="s">
-        <v>5888</v>
+        <v>5886</v>
       </c>
       <c r="F1031" t="s">
-        <v>6032</v>
+        <v>5982</v>
       </c>
       <c r="G1031" t="s">
         <v>3696</v>
@@ -61374,13 +61335,13 @@
         <v>3697</v>
       </c>
       <c r="O1031" t="s">
-        <v>6725</v>
+        <v>6675</v>
       </c>
       <c r="P1031" t="s">
-        <v>6725</v>
+        <v>6675</v>
       </c>
       <c r="Q1031" t="s">
-        <v>6725</v>
+        <v>6675</v>
       </c>
     </row>
     <row r="1032" spans="1:26">
@@ -61388,7 +61349,7 @@
         <v>3699</v>
       </c>
       <c r="B1032" t="s">
-        <v>6722</v>
+        <v>6672</v>
       </c>
       <c r="C1032" t="s">
         <v>4887</v>
@@ -61400,7 +61361,7 @@
         <v>3701</v>
       </c>
       <c r="F1032" t="s">
-        <v>6032</v>
+        <v>5982</v>
       </c>
       <c r="G1032" t="s">
         <v>3696</v>
@@ -61409,33 +61370,33 @@
         <v>3697</v>
       </c>
       <c r="O1032" t="s">
-        <v>6724</v>
+        <v>6674</v>
       </c>
       <c r="P1032" t="s">
-        <v>6724</v>
+        <v>6674</v>
       </c>
       <c r="Q1032" t="s">
-        <v>6724</v>
+        <v>6674</v>
       </c>
     </row>
     <row r="1033" spans="1:26">
       <c r="A1033" t="s">
-        <v>6727</v>
+        <v>6677</v>
       </c>
       <c r="B1033" t="s">
-        <v>6722</v>
+        <v>6672</v>
       </c>
       <c r="C1033" t="s">
-        <v>6753</v>
+        <v>6703</v>
       </c>
       <c r="D1033" t="s">
-        <v>6728</v>
+        <v>6678</v>
       </c>
       <c r="E1033" t="s">
-        <v>6729</v>
+        <v>6679</v>
       </c>
       <c r="F1033" t="s">
-        <v>6617</v>
+        <v>6567</v>
       </c>
       <c r="G1033" t="s">
         <v>3716</v>
@@ -61446,22 +61407,22 @@
     </row>
     <row r="1034" spans="1:26">
       <c r="A1034" t="s">
-        <v>6745</v>
+        <v>6695</v>
       </c>
       <c r="B1034" t="s">
-        <v>6731</v>
+        <v>6681</v>
       </c>
       <c r="C1034" t="s">
-        <v>6755</v>
+        <v>6705</v>
       </c>
       <c r="D1034" t="s">
-        <v>6746</v>
+        <v>6696</v>
       </c>
       <c r="E1034" t="s">
-        <v>6747</v>
+        <v>6697</v>
       </c>
       <c r="F1034" t="s">
-        <v>6032</v>
+        <v>5982</v>
       </c>
       <c r="G1034" t="s">
         <v>3696</v>
@@ -61470,33 +61431,33 @@
         <v>3697</v>
       </c>
       <c r="O1034" t="s">
-        <v>6764</v>
+        <v>6714</v>
       </c>
       <c r="P1034" t="s">
-        <v>6748</v>
+        <v>6698</v>
       </c>
       <c r="Q1034" t="s">
-        <v>6749</v>
+        <v>6699</v>
       </c>
     </row>
     <row r="1035" spans="1:26">
       <c r="A1035" t="s">
-        <v>6730</v>
+        <v>6680</v>
       </c>
       <c r="B1035" t="s">
-        <v>6731</v>
+        <v>6681</v>
       </c>
       <c r="C1035" t="s">
-        <v>6754</v>
+        <v>6704</v>
       </c>
       <c r="D1035" t="s">
-        <v>6732</v>
+        <v>6682</v>
       </c>
       <c r="E1035" t="s">
-        <v>6733</v>
+        <v>6683</v>
       </c>
       <c r="F1035" t="s">
-        <v>6036</v>
+        <v>5986</v>
       </c>
       <c r="G1035" t="s">
         <v>1641</v>
@@ -61505,42 +61466,42 @@
         <v>1642</v>
       </c>
       <c r="L1035" t="s">
-        <v>6759</v>
+        <v>6709</v>
       </c>
       <c r="M1035" t="s">
-        <v>6734</v>
+        <v>6684</v>
       </c>
       <c r="N1035" t="s">
-        <v>6735</v>
+        <v>6685</v>
       </c>
       <c r="O1035" t="s">
-        <v>6763</v>
+        <v>6713</v>
       </c>
       <c r="P1035" t="s">
-        <v>6736</v>
+        <v>6686</v>
       </c>
       <c r="Q1035" t="s">
-        <v>6737</v>
+        <v>6687</v>
       </c>
     </row>
     <row r="1036" spans="1:26">
       <c r="A1036" t="s">
-        <v>6738</v>
+        <v>6688</v>
       </c>
       <c r="B1036" t="s">
-        <v>6731</v>
+        <v>6681</v>
       </c>
       <c r="C1036" t="s">
-        <v>6739</v>
+        <v>6689</v>
       </c>
       <c r="D1036" t="s">
-        <v>6739</v>
+        <v>6689</v>
       </c>
       <c r="E1036" t="s">
-        <v>6740</v>
+        <v>6690</v>
       </c>
       <c r="F1036" t="s">
-        <v>6030</v>
+        <v>5980</v>
       </c>
       <c r="G1036" t="s">
         <v>1908</v>
@@ -61549,19 +61510,19 @@
         <v>1909</v>
       </c>
       <c r="L1036" t="s">
-        <v>6760</v>
+        <v>6710</v>
       </c>
       <c r="M1036" t="s">
-        <v>6741</v>
+        <v>6691</v>
       </c>
       <c r="N1036" t="s">
-        <v>6742</v>
+        <v>6692</v>
       </c>
       <c r="P1036" t="s">
-        <v>6743</v>
+        <v>6693</v>
       </c>
       <c r="Q1036" t="s">
-        <v>6744</v>
+        <v>6694</v>
       </c>
     </row>
     <row r="1037" spans="1:26">
@@ -61738,7 +61699,7 @@
         <v>2544</v>
       </c>
       <c r="O1042" s="4" t="s">
-        <v>5987</v>
+        <v>5952</v>
       </c>
       <c r="P1042" s="4" t="s">
         <v>2545</v>
@@ -62052,7 +62013,7 @@
         <v>2611</v>
       </c>
       <c r="O1052" s="4" t="s">
-        <v>5984</v>
+        <v>5949</v>
       </c>
       <c r="P1052" s="4" t="s">
         <v>4642</v>
@@ -63854,22 +63815,22 @@
     </row>
     <row r="1113" spans="1:17">
       <c r="A1113" t="s">
-        <v>6785</v>
+        <v>6735</v>
       </c>
       <c r="B1113" t="s">
-        <v>6786</v>
+        <v>6736</v>
       </c>
       <c r="C1113" t="s">
-        <v>6819</v>
+        <v>6769</v>
       </c>
       <c r="D1113" t="s">
-        <v>6787</v>
+        <v>6737</v>
       </c>
       <c r="E1113" t="s">
-        <v>6788</v>
+        <v>6738</v>
       </c>
       <c r="F1113" t="s">
-        <v>6825</v>
+        <v>6775</v>
       </c>
       <c r="G1113" t="s">
         <v>1622</v>
@@ -63878,42 +63839,42 @@
         <v>1623</v>
       </c>
       <c r="L1113" t="s">
-        <v>6828</v>
+        <v>6778</v>
       </c>
       <c r="M1113" t="s">
-        <v>6789</v>
+        <v>6739</v>
       </c>
       <c r="N1113" t="s">
-        <v>6790</v>
+        <v>6740</v>
       </c>
       <c r="O1113" t="s">
-        <v>6832</v>
+        <v>6782</v>
       </c>
       <c r="P1113" t="s">
-        <v>6791</v>
+        <v>6741</v>
       </c>
       <c r="Q1113" t="s">
-        <v>6792</v>
+        <v>6742</v>
       </c>
     </row>
     <row r="1114" spans="1:17">
       <c r="A1114" t="s">
-        <v>6793</v>
+        <v>6743</v>
       </c>
       <c r="B1114" t="s">
-        <v>6786</v>
+        <v>6736</v>
       </c>
       <c r="C1114" t="s">
-        <v>6820</v>
+        <v>6770</v>
       </c>
       <c r="D1114" t="s">
-        <v>6794</v>
+        <v>6744</v>
       </c>
       <c r="E1114" t="s">
-        <v>6795</v>
+        <v>6745</v>
       </c>
       <c r="F1114" t="s">
-        <v>6826</v>
+        <v>6776</v>
       </c>
       <c r="G1114" t="s">
         <v>1641</v>
@@ -63922,48 +63883,48 @@
         <v>1642</v>
       </c>
       <c r="L1114" t="s">
-        <v>6829</v>
+        <v>6779</v>
       </c>
       <c r="M1114" t="s">
-        <v>6796</v>
+        <v>6746</v>
       </c>
       <c r="N1114" t="s">
-        <v>6797</v>
+        <v>6747</v>
       </c>
       <c r="O1114" t="s">
-        <v>6833</v>
+        <v>6783</v>
       </c>
       <c r="P1114" t="s">
-        <v>6798</v>
+        <v>6748</v>
       </c>
       <c r="Q1114" t="s">
-        <v>6799</v>
+        <v>6749</v>
       </c>
     </row>
     <row r="1115" spans="1:17">
       <c r="A1115" t="s">
-        <v>6800</v>
+        <v>6750</v>
       </c>
       <c r="B1115" t="s">
-        <v>6786</v>
+        <v>6736</v>
       </c>
       <c r="C1115" t="s">
-        <v>6821</v>
+        <v>6771</v>
       </c>
       <c r="D1115" t="s">
-        <v>6801</v>
+        <v>6751</v>
       </c>
       <c r="E1115" t="s">
-        <v>6802</v>
+        <v>6752</v>
       </c>
       <c r="O1115" t="s">
-        <v>6803</v>
+        <v>6753</v>
       </c>
       <c r="P1115" t="s">
-        <v>6803</v>
+        <v>6753</v>
       </c>
       <c r="Q1115" t="s">
-        <v>6803</v>
+        <v>6753</v>
       </c>
     </row>
     <row r="1116" spans="1:17">
@@ -63971,7 +63932,7 @@
         <v>1638</v>
       </c>
       <c r="B1116" t="s">
-        <v>6804</v>
+        <v>6754</v>
       </c>
       <c r="C1116" t="s">
         <v>4358</v>
@@ -63983,7 +63944,7 @@
         <v>1639</v>
       </c>
       <c r="F1116" t="s">
-        <v>6826</v>
+        <v>6776</v>
       </c>
       <c r="G1116" t="s">
         <v>1641</v>
@@ -63992,7 +63953,7 @@
         <v>1642</v>
       </c>
       <c r="L1116" t="s">
-        <v>6830</v>
+        <v>6780</v>
       </c>
       <c r="M1116" t="s">
         <v>1643</v>
@@ -64001,13 +63962,13 @@
         <v>1644</v>
       </c>
       <c r="O1116" t="s">
-        <v>6834</v>
+        <v>6784</v>
       </c>
       <c r="P1116" t="s">
         <v>1645</v>
       </c>
       <c r="Q1116" t="s">
-        <v>6805</v>
+        <v>6755</v>
       </c>
     </row>
     <row r="1117" spans="1:17">
@@ -64015,13 +63976,13 @@
         <v>3375</v>
       </c>
       <c r="B1117" t="s">
-        <v>6804</v>
+        <v>6754</v>
       </c>
       <c r="C1117" t="s">
         <v>4810</v>
       </c>
       <c r="D1117" t="s">
-        <v>6806</v>
+        <v>6756</v>
       </c>
       <c r="E1117" t="s">
         <v>3377</v>
@@ -64030,54 +63991,54 @@
         <v>5455</v>
       </c>
       <c r="G1117" t="s">
-        <v>6807</v>
+        <v>6757</v>
       </c>
       <c r="H1117" t="s">
-        <v>6808</v>
+        <v>6758</v>
       </c>
       <c r="O1117" t="s">
-        <v>6835</v>
+        <v>6785</v>
       </c>
       <c r="P1117" t="s">
         <v>3380</v>
       </c>
       <c r="Q1117" t="s">
-        <v>6809</v>
+        <v>6759</v>
       </c>
     </row>
     <row r="1118" spans="1:17">
       <c r="A1118" t="s">
-        <v>6408</v>
+        <v>6358</v>
       </c>
       <c r="B1118" t="s">
-        <v>6804</v>
+        <v>6754</v>
       </c>
       <c r="C1118" t="s">
-        <v>6822</v>
+        <v>6772</v>
       </c>
       <c r="D1118" t="s">
-        <v>6409</v>
+        <v>6359</v>
       </c>
       <c r="E1118" t="s">
-        <v>6410</v>
+        <v>6360</v>
       </c>
       <c r="F1118" t="s">
-        <v>6827</v>
+        <v>6777</v>
       </c>
       <c r="G1118" t="s">
-        <v>6411</v>
+        <v>6361</v>
       </c>
       <c r="H1118" t="s">
-        <v>6810</v>
+        <v>6760</v>
       </c>
       <c r="O1118" t="s">
-        <v>6836</v>
+        <v>6786</v>
       </c>
       <c r="P1118" t="s">
-        <v>6413</v>
+        <v>6363</v>
       </c>
       <c r="Q1118" t="s">
-        <v>6811</v>
+        <v>6761</v>
       </c>
     </row>
     <row r="1119" spans="1:17">
@@ -64085,19 +64046,19 @@
         <v>926</v>
       </c>
       <c r="B1119" t="s">
-        <v>6812</v>
+        <v>6762</v>
       </c>
       <c r="C1119" t="s">
-        <v>6823</v>
+        <v>6773</v>
       </c>
       <c r="D1119" t="s">
         <v>927</v>
       </c>
       <c r="E1119" t="s">
-        <v>6813</v>
+        <v>6763</v>
       </c>
       <c r="L1119" t="s">
-        <v>6831</v>
+        <v>6781</v>
       </c>
       <c r="M1119" t="s">
         <v>929</v>
@@ -64108,28 +64069,28 @@
     </row>
     <row r="1120" spans="1:17">
       <c r="A1120" t="s">
-        <v>6814</v>
+        <v>6764</v>
       </c>
       <c r="B1120" t="s">
-        <v>6812</v>
+        <v>6762</v>
       </c>
       <c r="C1120" t="s">
-        <v>6824</v>
+        <v>6774</v>
       </c>
       <c r="D1120" t="s">
-        <v>6815</v>
+        <v>6765</v>
       </c>
       <c r="E1120" t="s">
-        <v>6816</v>
+        <v>6766</v>
       </c>
       <c r="O1120" t="s">
-        <v>6837</v>
+        <v>6787</v>
       </c>
       <c r="P1120" t="s">
-        <v>6817</v>
+        <v>6767</v>
       </c>
       <c r="Q1120" t="s">
-        <v>6818</v>
+        <v>6768</v>
       </c>
     </row>
   </sheetData>
